--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1604200</v>
+        <v>1591600</v>
       </c>
       <c r="E8" s="3">
-        <v>1688700</v>
+        <v>1519600</v>
       </c>
       <c r="F8" s="3">
-        <v>1686500</v>
+        <v>1618200</v>
       </c>
       <c r="G8" s="3">
-        <v>1535000</v>
+        <v>1703500</v>
       </c>
       <c r="H8" s="3">
-        <v>1567900</v>
+        <v>1701300</v>
       </c>
       <c r="I8" s="3">
+        <v>1548400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1581700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1618500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1521800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1400200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1435000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1550600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1558800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1362800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1445000</v>
+        <v>1422200</v>
       </c>
       <c r="E9" s="3">
-        <v>1488900</v>
+        <v>1374500</v>
       </c>
       <c r="F9" s="3">
-        <v>1528400</v>
+        <v>1457600</v>
       </c>
       <c r="G9" s="3">
-        <v>1402100</v>
+        <v>1501900</v>
       </c>
       <c r="H9" s="3">
-        <v>1439500</v>
+        <v>1541800</v>
       </c>
       <c r="I9" s="3">
+        <v>1414400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1452100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1427400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1371400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1276800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1279100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1382300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1394500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1219600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>159200</v>
+        <v>169500</v>
       </c>
       <c r="E10" s="3">
-        <v>199800</v>
+        <v>145100</v>
       </c>
       <c r="F10" s="3">
-        <v>158100</v>
+        <v>160600</v>
       </c>
       <c r="G10" s="3">
-        <v>132900</v>
+        <v>201600</v>
       </c>
       <c r="H10" s="3">
-        <v>128500</v>
+        <v>159500</v>
       </c>
       <c r="I10" s="3">
+        <v>134000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>129600</v>
+      </c>
+      <c r="K10" s="3">
         <v>191100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>150400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>123400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>156000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>168300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>164300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>143200</v>
       </c>
       <c r="P10" s="3">
         <v>164300</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>143200</v>
+      </c>
+      <c r="R10" s="3">
+        <v>164300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13200</v>
+        <v>14400</v>
       </c>
       <c r="E12" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="F12" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="G12" s="3">
-        <v>9900</v>
+        <v>13300</v>
       </c>
       <c r="H12" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K12" s="3">
         <v>11000</v>
       </c>
-      <c r="I12" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>12100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>9000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>10100</v>
       </c>
       <c r="M12" s="3">
         <v>9000</v>
       </c>
       <c r="N12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P12" s="3">
         <v>12900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>11700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1548200</v>
+        <v>1585000</v>
       </c>
       <c r="E17" s="3">
-        <v>1613000</v>
+        <v>1458700</v>
       </c>
       <c r="F17" s="3">
-        <v>1598700</v>
+        <v>1561700</v>
       </c>
       <c r="G17" s="3">
-        <v>1536100</v>
+        <v>1627100</v>
       </c>
       <c r="H17" s="3">
-        <v>1274800</v>
+        <v>1612700</v>
       </c>
       <c r="I17" s="3">
+        <v>1549500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1285900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1476800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1498800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1323900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1345300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1468700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1441400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1328800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>56000</v>
+        <v>6600</v>
       </c>
       <c r="E18" s="3">
-        <v>75800</v>
+        <v>60900</v>
       </c>
       <c r="F18" s="3">
-        <v>87800</v>
+        <v>56500</v>
       </c>
       <c r="G18" s="3">
+        <v>76400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>88600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
-        <v>293200</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>295700</v>
+      </c>
+      <c r="K18" s="3">
         <v>141600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>23100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>76300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>89800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>81900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>117400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>34000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-139100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-50500</v>
       </c>
-      <c r="E20" s="3">
-        <v>-47200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-60400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-53800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-53800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-139100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-51600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-70400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-50500</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>78000</v>
+        <v>29900</v>
       </c>
       <c r="E21" s="3">
-        <v>94400</v>
+        <v>94100</v>
       </c>
       <c r="F21" s="3">
-        <v>105400</v>
+        <v>78600</v>
       </c>
       <c r="G21" s="3">
+        <v>95300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>106300</v>
+      </c>
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="H21" s="3">
-        <v>294300</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>296800</v>
+      </c>
+      <c r="K21" s="3">
         <v>138300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>26400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-11200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>88600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>76300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>97400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>37600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F23" s="3">
         <v>5500</v>
       </c>
-      <c r="E23" s="3">
-        <v>28500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>42800</v>
-      </c>
       <c r="G23" s="3">
-        <v>-61500</v>
+        <v>28800</v>
       </c>
       <c r="H23" s="3">
-        <v>239400</v>
+        <v>43200</v>
       </c>
       <c r="I23" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>241500</v>
+      </c>
+      <c r="K23" s="3">
         <v>87800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-22000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-62800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>42600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>30300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>47000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-16400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
-        <v>9900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>16500</v>
-      </c>
       <c r="G24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>27500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>44900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>19100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>13500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>31700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
-        <v>18700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>26400</v>
-      </c>
       <c r="G26" s="3">
-        <v>-63700</v>
+        <v>18800</v>
       </c>
       <c r="H26" s="3">
-        <v>238300</v>
+        <v>26600</v>
       </c>
       <c r="I26" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>240300</v>
+      </c>
+      <c r="K26" s="3">
         <v>60400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-26400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-107700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>23600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>16800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>15300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-23500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-34300</v>
       </c>
       <c r="E27" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>240300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>60400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-107700</v>
+      </c>
+      <c r="N27" s="3">
+        <v>23600</v>
+      </c>
+      <c r="O27" s="3">
+        <v>16800</v>
+      </c>
+      <c r="P27" s="3">
+        <v>15300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="R27" s="3">
         <v>17600</v>
       </c>
-      <c r="F27" s="3">
-        <v>25300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-65900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>238300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>60400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-26400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-107700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>23600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>16800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>15300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-23500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>17600</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1600,14 +1721,14 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>18000</v>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>18000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>47600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>50900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>47600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>60900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>53800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>45000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>139100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>47100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>51600</v>
+      </c>
+      <c r="P32" s="3">
+        <v>70400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>50500</v>
       </c>
-      <c r="E32" s="3">
-        <v>47200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>45000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>60400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>53800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>53800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>45000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>139100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>47100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>51600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>70400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>50500</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-34300</v>
       </c>
       <c r="E33" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>240300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>60400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="N33" s="3">
+        <v>23600</v>
+      </c>
+      <c r="O33" s="3">
+        <v>16800</v>
+      </c>
+      <c r="P33" s="3">
+        <v>15300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="R33" s="3">
         <v>17600</v>
       </c>
-      <c r="F33" s="3">
-        <v>25300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-65900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>238300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>60400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-26400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>23600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>16800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>15300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-23500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>17600</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-34300</v>
       </c>
       <c r="E35" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>240300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>60400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="N35" s="3">
+        <v>23600</v>
+      </c>
+      <c r="O35" s="3">
+        <v>16800</v>
+      </c>
+      <c r="P35" s="3">
+        <v>15300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="R35" s="3">
         <v>17600</v>
       </c>
-      <c r="F35" s="3">
-        <v>25300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-65900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>238300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>60400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-26400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>23600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>16800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>15300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-23500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>17600</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,184 +2138,210 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>166900</v>
+        <v>299100</v>
       </c>
       <c r="E41" s="3">
-        <v>233900</v>
+        <v>203800</v>
       </c>
       <c r="F41" s="3">
-        <v>243800</v>
+        <v>168400</v>
       </c>
       <c r="G41" s="3">
-        <v>180100</v>
+        <v>235900</v>
       </c>
       <c r="H41" s="3">
-        <v>306300</v>
+        <v>245900</v>
       </c>
       <c r="I41" s="3">
+        <v>181600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>309000</v>
+      </c>
+      <c r="K41" s="3">
         <v>182300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>231700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>301800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>336600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>320900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>362700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>407300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>42100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>33200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>33200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K42" s="3">
+        <v>38400</v>
+      </c>
+      <c r="L42" s="3">
         <v>41700</v>
       </c>
-      <c r="E42" s="3">
-        <v>20900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>32900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>32900</v>
-      </c>
-      <c r="H42" s="3">
-        <v>26400</v>
-      </c>
-      <c r="I42" s="3">
-        <v>38400</v>
-      </c>
-      <c r="J42" s="3">
-        <v>41700</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>77400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>50500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>125700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>151400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>137300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>686300</v>
+        <v>603600</v>
       </c>
       <c r="E43" s="3">
-        <v>691700</v>
+        <v>525000</v>
       </c>
       <c r="F43" s="3">
-        <v>748800</v>
+        <v>692300</v>
       </c>
       <c r="G43" s="3">
-        <v>644500</v>
+        <v>697800</v>
       </c>
       <c r="H43" s="3">
-        <v>653300</v>
+        <v>755400</v>
       </c>
       <c r="I43" s="3">
+        <v>650200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>659000</v>
+      </c>
+      <c r="K43" s="3">
         <v>720300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>633500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>470100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>488100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>583400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>550500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>416700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>760900</v>
+        <v>768700</v>
       </c>
       <c r="E44" s="3">
-        <v>782900</v>
+        <v>742100</v>
       </c>
       <c r="F44" s="3">
-        <v>777400</v>
+        <v>767600</v>
       </c>
       <c r="G44" s="3">
-        <v>724700</v>
+        <v>789700</v>
       </c>
       <c r="H44" s="3">
-        <v>765300</v>
+        <v>784200</v>
       </c>
       <c r="I44" s="3">
+        <v>731000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>772000</v>
+      </c>
+      <c r="K44" s="3">
         <v>818000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>732400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>721400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>686700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>681000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>721900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>693700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,184 +2384,214 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1655800</v>
+        <v>1711200</v>
       </c>
       <c r="E46" s="3">
-        <v>1729400</v>
+        <v>1495300</v>
       </c>
       <c r="F46" s="3">
-        <v>1802900</v>
+        <v>1670300</v>
       </c>
       <c r="G46" s="3">
-        <v>1582200</v>
+        <v>1744500</v>
       </c>
       <c r="H46" s="3">
-        <v>1751300</v>
+        <v>1818700</v>
       </c>
       <c r="I46" s="3">
+        <v>1596100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1766600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1759000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1639300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1570800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1561800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1711000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1786500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1655100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>74700</v>
+        <v>84200</v>
       </c>
       <c r="E47" s="3">
-        <v>82400</v>
+        <v>75300</v>
       </c>
       <c r="F47" s="3">
-        <v>80200</v>
+        <v>75300</v>
       </c>
       <c r="G47" s="3">
-        <v>152600</v>
+        <v>83100</v>
       </c>
       <c r="H47" s="3">
-        <v>134000</v>
+        <v>80900</v>
       </c>
       <c r="I47" s="3">
+        <v>154000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>135100</v>
+      </c>
+      <c r="K47" s="3">
         <v>147100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>160300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>178400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>160400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>70700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>108000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>131500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2239900</v>
+        <v>2301600</v>
       </c>
       <c r="E48" s="3">
-        <v>2175100</v>
+        <v>2277200</v>
       </c>
       <c r="F48" s="3">
-        <v>2153200</v>
+        <v>2259500</v>
       </c>
       <c r="G48" s="3">
-        <v>1829300</v>
+        <v>2194200</v>
       </c>
       <c r="H48" s="3">
-        <v>1723900</v>
+        <v>2172000</v>
       </c>
       <c r="I48" s="3">
+        <v>1845300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1738900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1696400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1643700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1702100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1638100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1641500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1747800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1733700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>590700</v>
+        <v>593700</v>
       </c>
       <c r="E49" s="3">
-        <v>565500</v>
+        <v>581500</v>
       </c>
       <c r="F49" s="3">
-        <v>574300</v>
+        <v>595900</v>
       </c>
       <c r="G49" s="3">
-        <v>540200</v>
+        <v>570400</v>
       </c>
       <c r="H49" s="3">
-        <v>532500</v>
+        <v>579300</v>
       </c>
       <c r="I49" s="3">
+        <v>544900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>537200</v>
+      </c>
+      <c r="K49" s="3">
         <v>529200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>504000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>528500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>541900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>561000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>619800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>629200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>591600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>204200</v>
+        <v>216000</v>
       </c>
       <c r="E52" s="3">
-        <v>170200</v>
+        <v>204900</v>
       </c>
       <c r="F52" s="3">
-        <v>168000</v>
+        <v>206000</v>
       </c>
       <c r="G52" s="3">
-        <v>179000</v>
+        <v>171700</v>
       </c>
       <c r="H52" s="3">
+        <v>169500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>180500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>176100</v>
+      </c>
+      <c r="K52" s="3">
         <v>174600</v>
       </c>
-      <c r="I52" s="3">
-        <v>174600</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>173500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>184000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>228900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>239000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>271200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>295800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4765300</v>
+        <v>4906700</v>
       </c>
       <c r="E54" s="3">
-        <v>4722500</v>
+        <v>4634200</v>
       </c>
       <c r="F54" s="3">
-        <v>4778500</v>
+        <v>4807000</v>
       </c>
       <c r="G54" s="3">
-        <v>4283300</v>
+        <v>4763800</v>
       </c>
       <c r="H54" s="3">
-        <v>4316200</v>
+        <v>4820300</v>
       </c>
       <c r="I54" s="3">
+        <v>4320700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4354000</v>
+      </c>
+      <c r="K54" s="3">
         <v>4306400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4120800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4163700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4131200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4223200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4533300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4445200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1218800</v>
+        <v>1291500</v>
       </c>
       <c r="E57" s="3">
-        <v>1229800</v>
+        <v>1106500</v>
       </c>
       <c r="F57" s="3">
-        <v>1266000</v>
+        <v>1229400</v>
       </c>
       <c r="G57" s="3">
-        <v>1062900</v>
+        <v>1240500</v>
       </c>
       <c r="H57" s="3">
-        <v>1105700</v>
+        <v>1277100</v>
       </c>
       <c r="I57" s="3">
+        <v>1072200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1115400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1203400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1104600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1043500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1058000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1109600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1136200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>984800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>183400</v>
+        <v>217100</v>
       </c>
       <c r="E58" s="3">
-        <v>177900</v>
+        <v>222600</v>
       </c>
       <c r="F58" s="3">
-        <v>231700</v>
+        <v>185000</v>
       </c>
       <c r="G58" s="3">
-        <v>62600</v>
+        <v>179400</v>
       </c>
       <c r="H58" s="3">
-        <v>47200</v>
+        <v>233700</v>
       </c>
       <c r="I58" s="3">
+        <v>63100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K58" s="3">
         <v>142700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>121900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>118900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>113300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>135800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>133800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>125600</v>
       </c>
       <c r="P58" s="3">
         <v>133800</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>125600</v>
+      </c>
+      <c r="R58" s="3">
+        <v>133800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>110900</v>
+        <v>141800</v>
       </c>
       <c r="E59" s="3">
-        <v>82400</v>
+        <v>79700</v>
       </c>
       <c r="F59" s="3">
-        <v>88900</v>
+        <v>111900</v>
       </c>
       <c r="G59" s="3">
-        <v>125200</v>
+        <v>83100</v>
       </c>
       <c r="H59" s="3">
-        <v>99900</v>
+        <v>89700</v>
       </c>
       <c r="I59" s="3">
+        <v>126300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100800</v>
+      </c>
+      <c r="K59" s="3">
         <v>85600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>104300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>83000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>86400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>85300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>99800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>104500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1513000</v>
+        <v>1650300</v>
       </c>
       <c r="E60" s="3">
-        <v>1490000</v>
+        <v>1408900</v>
       </c>
       <c r="F60" s="3">
-        <v>1586600</v>
+        <v>1526300</v>
       </c>
       <c r="G60" s="3">
-        <v>1250600</v>
+        <v>1503000</v>
       </c>
       <c r="H60" s="3">
-        <v>1252800</v>
+        <v>1600500</v>
       </c>
       <c r="I60" s="3">
+        <v>1261600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1263800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1431800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1330800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1245400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1257800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1330700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1369800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1214900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2418900</v>
+        <v>2440000</v>
       </c>
       <c r="E61" s="3">
-        <v>2433200</v>
+        <v>2392400</v>
       </c>
       <c r="F61" s="3">
-        <v>2426600</v>
+        <v>2440000</v>
       </c>
       <c r="G61" s="3">
-        <v>2299200</v>
+        <v>2454400</v>
       </c>
       <c r="H61" s="3">
-        <v>2261900</v>
+        <v>2447800</v>
       </c>
       <c r="I61" s="3">
+        <v>2319300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2281700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2255300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2176200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2267500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2419000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2474000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2722100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2771400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>997000</v>
+        <v>952500</v>
       </c>
       <c r="E62" s="3">
-        <v>923400</v>
+        <v>927100</v>
       </c>
       <c r="F62" s="3">
-        <v>885000</v>
+        <v>1005700</v>
       </c>
       <c r="G62" s="3">
-        <v>858600</v>
+        <v>931500</v>
       </c>
       <c r="H62" s="3">
-        <v>846600</v>
+        <v>892700</v>
       </c>
       <c r="I62" s="3">
+        <v>866100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>854000</v>
+      </c>
+      <c r="K62" s="3">
         <v>917900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>962900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1008700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1000800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>998600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1083400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1128000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4941000</v>
+        <v>5055100</v>
       </c>
       <c r="E66" s="3">
-        <v>4857600</v>
+        <v>4740500</v>
       </c>
       <c r="F66" s="3">
-        <v>4908100</v>
+        <v>4984200</v>
       </c>
       <c r="G66" s="3">
-        <v>4417300</v>
+        <v>4900000</v>
       </c>
       <c r="H66" s="3">
-        <v>4371100</v>
+        <v>4951000</v>
       </c>
       <c r="I66" s="3">
+        <v>4455900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4409400</v>
+      </c>
+      <c r="K66" s="3">
         <v>4613800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4478700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4530600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4685400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4812200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5185900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5124900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-640100</v>
+        <v>-616900</v>
       </c>
       <c r="E72" s="3">
-        <v>-599500</v>
+        <v>-574800</v>
       </c>
       <c r="F72" s="3">
-        <v>-594000</v>
+        <v>-645700</v>
       </c>
       <c r="G72" s="3">
-        <v>-598400</v>
+        <v>-604700</v>
       </c>
       <c r="H72" s="3">
-        <v>-519400</v>
+        <v>-599200</v>
       </c>
       <c r="I72" s="3">
+        <v>-603600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-523900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-771900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-822400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-841500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-738300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-773100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-845100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-872100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-175700</v>
+        <v>-148400</v>
       </c>
       <c r="E76" s="3">
+        <v>-106300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-177200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-130700</v>
+      </c>
+      <c r="I76" s="3">
         <v>-135100</v>
       </c>
-      <c r="F76" s="3">
-        <v>-129600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-134000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-54900</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-307400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-357900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-366900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-554300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-589000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-652600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-679600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-34300</v>
       </c>
       <c r="E81" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>240300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>60400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="N81" s="3">
+        <v>23600</v>
+      </c>
+      <c r="O81" s="3">
+        <v>16800</v>
+      </c>
+      <c r="P81" s="3">
+        <v>15300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="R81" s="3">
         <v>17600</v>
       </c>
-      <c r="F81" s="3">
-        <v>25300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-65900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>238300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>60400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-26400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>23600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>16800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>15300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-23500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>17600</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>72500</v>
+        <v>73100</v>
       </c>
       <c r="E83" s="3">
-        <v>65900</v>
+        <v>80900</v>
       </c>
       <c r="F83" s="3">
-        <v>62600</v>
+        <v>73100</v>
       </c>
       <c r="G83" s="3">
-        <v>62600</v>
+        <v>66500</v>
       </c>
       <c r="H83" s="3">
-        <v>54900</v>
+        <v>63100</v>
       </c>
       <c r="I83" s="3">
+        <v>63100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K83" s="3">
         <v>50500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>48300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>51600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>46000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>46000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>50500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>54000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>87800</v>
+        <v>159500</v>
       </c>
       <c r="E89" s="3">
-        <v>140500</v>
+        <v>118500</v>
       </c>
       <c r="F89" s="3">
-        <v>144900</v>
+        <v>88600</v>
       </c>
       <c r="G89" s="3">
-        <v>28500</v>
+        <v>141800</v>
       </c>
       <c r="H89" s="3">
+        <v>146200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>28800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K89" s="3">
+        <v>19800</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="M89" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N89" s="3">
+        <v>85300</v>
+      </c>
+      <c r="O89" s="3">
         <v>50500</v>
       </c>
-      <c r="I89" s="3">
-        <v>19800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-26400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>85300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>50500</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>42300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-119700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-129600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-54900</v>
       </c>
-      <c r="E91" s="3">
-        <v>-78000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-64800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-128500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-69200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-54900</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-51600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-113300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-61700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-67300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-70400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-146700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-53800</v>
+        <v>-63100</v>
       </c>
       <c r="E94" s="3">
-        <v>-81300</v>
+        <v>-97500</v>
       </c>
       <c r="F94" s="3">
-        <v>-155900</v>
+        <v>-54300</v>
       </c>
       <c r="G94" s="3">
-        <v>-135100</v>
+        <v>-82000</v>
       </c>
       <c r="H94" s="3">
-        <v>149300</v>
+        <v>-157300</v>
       </c>
       <c r="I94" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>150600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-65900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-48300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-130200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-46000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-74100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-81000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-154900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,57 +4809,69 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-103200</v>
+        <v>-1100</v>
       </c>
       <c r="E100" s="3">
-        <v>-68100</v>
+        <v>15500</v>
       </c>
       <c r="F100" s="3">
-        <v>72500</v>
+        <v>-104100</v>
       </c>
       <c r="G100" s="3">
-        <v>-22000</v>
+        <v>-68700</v>
       </c>
       <c r="H100" s="3">
-        <v>-75800</v>
+        <v>73100</v>
       </c>
       <c r="I100" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>11000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>93100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-22400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-44600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-1100</v>
@@ -4383,77 +4880,89 @@
         <v>2200</v>
       </c>
       <c r="G101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-4500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-67000</v>
+        <v>95300</v>
       </c>
       <c r="E102" s="3">
-        <v>-9900</v>
+        <v>35400</v>
       </c>
       <c r="F102" s="3">
-        <v>63700</v>
+        <v>-67600</v>
       </c>
       <c r="G102" s="3">
-        <v>-126300</v>
+        <v>-10000</v>
       </c>
       <c r="H102" s="3">
-        <v>124100</v>
+        <v>64200</v>
       </c>
       <c r="I102" s="3">
+        <v>-127400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>125200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-49400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-63700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-34800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>15700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-25800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-44600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-318100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1591600</v>
+        <v>1219600</v>
       </c>
       <c r="E8" s="3">
-        <v>1519600</v>
+        <v>1699800</v>
       </c>
       <c r="F8" s="3">
-        <v>1618200</v>
+        <v>1622900</v>
       </c>
       <c r="G8" s="3">
-        <v>1703500</v>
+        <v>1728200</v>
       </c>
       <c r="H8" s="3">
-        <v>1701300</v>
+        <v>1819300</v>
       </c>
       <c r="I8" s="3">
-        <v>1548400</v>
+        <v>1816900</v>
       </c>
       <c r="J8" s="3">
+        <v>1653700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1581700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1618500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1521800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1400200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1435000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1550600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1558800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1362800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1422200</v>
+        <v>1137900</v>
       </c>
       <c r="E9" s="3">
-        <v>1374500</v>
+        <v>1518800</v>
       </c>
       <c r="F9" s="3">
-        <v>1457600</v>
+        <v>1468000</v>
       </c>
       <c r="G9" s="3">
-        <v>1501900</v>
+        <v>1556700</v>
       </c>
       <c r="H9" s="3">
-        <v>1541800</v>
+        <v>1604000</v>
       </c>
       <c r="I9" s="3">
-        <v>1414400</v>
+        <v>1646600</v>
       </c>
       <c r="J9" s="3">
+        <v>1510600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1452100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1427400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1371400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1276800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1279100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1382300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1394500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1219600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>169500</v>
+        <v>81600</v>
       </c>
       <c r="E10" s="3">
-        <v>145100</v>
+        <v>181000</v>
       </c>
       <c r="F10" s="3">
-        <v>160600</v>
+        <v>155000</v>
       </c>
       <c r="G10" s="3">
-        <v>201600</v>
+        <v>171500</v>
       </c>
       <c r="H10" s="3">
-        <v>159500</v>
+        <v>215300</v>
       </c>
       <c r="I10" s="3">
-        <v>134000</v>
+        <v>170300</v>
       </c>
       <c r="J10" s="3">
+        <v>143100</v>
+      </c>
+      <c r="K10" s="3">
         <v>129600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>191100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>150400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>123400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>156000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>168300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>164300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>143200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>164300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14400</v>
+        <v>8300</v>
       </c>
       <c r="E12" s="3">
-        <v>13300</v>
+        <v>15400</v>
       </c>
       <c r="F12" s="3">
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="G12" s="3">
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="H12" s="3">
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="I12" s="3">
-        <v>10000</v>
+        <v>14200</v>
       </c>
       <c r="J12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K12" s="3">
         <v>11100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
-        <v>2200</v>
-      </c>
       <c r="F14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>1100</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1585000</v>
+        <v>1220800</v>
       </c>
       <c r="E17" s="3">
-        <v>1458700</v>
+        <v>1692700</v>
       </c>
       <c r="F17" s="3">
-        <v>1561700</v>
+        <v>1557900</v>
       </c>
       <c r="G17" s="3">
-        <v>1627100</v>
+        <v>1667900</v>
       </c>
       <c r="H17" s="3">
-        <v>1612700</v>
+        <v>1737700</v>
       </c>
       <c r="I17" s="3">
-        <v>1549500</v>
+        <v>1722300</v>
       </c>
       <c r="J17" s="3">
+        <v>1654900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1285900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1476800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1498800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1323900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1345300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1468700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1441400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1328800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6600</v>
+        <v>-1200</v>
       </c>
       <c r="E18" s="3">
-        <v>60900</v>
+        <v>7100</v>
       </c>
       <c r="F18" s="3">
-        <v>56500</v>
+        <v>65100</v>
       </c>
       <c r="G18" s="3">
-        <v>76400</v>
+        <v>60300</v>
       </c>
       <c r="H18" s="3">
-        <v>88600</v>
+        <v>81600</v>
       </c>
       <c r="I18" s="3">
-        <v>-1100</v>
+        <v>94600</v>
       </c>
       <c r="J18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K18" s="3">
         <v>295700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>141600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>76300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>89800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>81900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>117400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>34000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-49800</v>
+        <v>-49700</v>
       </c>
       <c r="E20" s="3">
-        <v>-47600</v>
+        <v>-53200</v>
       </c>
       <c r="F20" s="3">
         <v>-50900</v>
       </c>
       <c r="G20" s="3">
-        <v>-47600</v>
+        <v>-54400</v>
       </c>
       <c r="H20" s="3">
-        <v>-45400</v>
+        <v>-50900</v>
       </c>
       <c r="I20" s="3">
-        <v>-60900</v>
+        <v>-48500</v>
       </c>
       <c r="J20" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-54300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-53800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-45000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-139100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-47100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-51600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-50500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>29900</v>
+        <v>33100</v>
       </c>
       <c r="E21" s="3">
-        <v>94100</v>
+        <v>31900</v>
       </c>
       <c r="F21" s="3">
-        <v>78600</v>
+        <v>100500</v>
       </c>
       <c r="G21" s="3">
-        <v>95300</v>
+        <v>84000</v>
       </c>
       <c r="H21" s="3">
-        <v>106300</v>
+        <v>101700</v>
       </c>
       <c r="I21" s="3">
-        <v>1100</v>
+        <v>113600</v>
       </c>
       <c r="J21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K21" s="3">
         <v>296800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>138300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>88600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>76300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>97400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>37600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-43200</v>
+        <v>-50900</v>
       </c>
       <c r="E23" s="3">
-        <v>13300</v>
+        <v>-46100</v>
       </c>
       <c r="F23" s="3">
-        <v>5500</v>
+        <v>14200</v>
       </c>
       <c r="G23" s="3">
-        <v>28800</v>
+        <v>5900</v>
       </c>
       <c r="H23" s="3">
-        <v>43200</v>
+        <v>30800</v>
       </c>
       <c r="I23" s="3">
-        <v>-62000</v>
+        <v>46100</v>
       </c>
       <c r="J23" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="K23" s="3">
         <v>241500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>87800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-62800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>42600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-16400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-8900</v>
+        <v>-13000</v>
       </c>
       <c r="E24" s="3">
-        <v>-11100</v>
+        <v>-9500</v>
       </c>
       <c r="F24" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>16600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>27500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>4400</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>44900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-34300</v>
+        <v>-37900</v>
       </c>
       <c r="E26" s="3">
-        <v>24400</v>
+        <v>-36700</v>
       </c>
       <c r="F26" s="3">
-        <v>1100</v>
+        <v>26000</v>
       </c>
       <c r="G26" s="3">
-        <v>18800</v>
+        <v>1200</v>
       </c>
       <c r="H26" s="3">
-        <v>26600</v>
+        <v>20100</v>
       </c>
       <c r="I26" s="3">
-        <v>-64200</v>
+        <v>28400</v>
       </c>
       <c r="J26" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="K26" s="3">
         <v>240300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-107700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-23500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-34300</v>
+        <v>-39000</v>
       </c>
       <c r="E27" s="3">
-        <v>22200</v>
+        <v>-36700</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>23700</v>
       </c>
       <c r="G27" s="3">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>25500</v>
+        <v>18900</v>
       </c>
       <c r="I27" s="3">
-        <v>-66500</v>
+        <v>27200</v>
       </c>
       <c r="J27" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="K27" s="3">
         <v>240300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-107700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-23500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>18000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>49800</v>
+        <v>49700</v>
       </c>
       <c r="E32" s="3">
-        <v>47600</v>
+        <v>53200</v>
       </c>
       <c r="F32" s="3">
         <v>50900</v>
       </c>
       <c r="G32" s="3">
-        <v>47600</v>
+        <v>54400</v>
       </c>
       <c r="H32" s="3">
-        <v>45400</v>
+        <v>50900</v>
       </c>
       <c r="I32" s="3">
-        <v>60900</v>
+        <v>48500</v>
       </c>
       <c r="J32" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K32" s="3">
         <v>54300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>53800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>45000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>139100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>47100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>51600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>70400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>50500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34300</v>
+        <v>-39000</v>
       </c>
       <c r="E33" s="3">
-        <v>22200</v>
+        <v>-36700</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>23700</v>
       </c>
       <c r="G33" s="3">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>25500</v>
+        <v>18900</v>
       </c>
       <c r="I33" s="3">
-        <v>-66500</v>
+        <v>27200</v>
       </c>
       <c r="J33" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="K33" s="3">
         <v>240300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-89800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-23500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34300</v>
+        <v>-39000</v>
       </c>
       <c r="E35" s="3">
-        <v>22200</v>
+        <v>-36700</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>23700</v>
       </c>
       <c r="G35" s="3">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>25500</v>
+        <v>18900</v>
       </c>
       <c r="I35" s="3">
-        <v>-66500</v>
+        <v>27200</v>
       </c>
       <c r="J35" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="K35" s="3">
         <v>240300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-89800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-23500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,208 +2226,221 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>299100</v>
+        <v>447100</v>
       </c>
       <c r="E41" s="3">
-        <v>203800</v>
+        <v>319400</v>
       </c>
       <c r="F41" s="3">
-        <v>168400</v>
+        <v>217700</v>
       </c>
       <c r="G41" s="3">
-        <v>235900</v>
+        <v>179800</v>
       </c>
       <c r="H41" s="3">
-        <v>245900</v>
+        <v>252000</v>
       </c>
       <c r="I41" s="3">
-        <v>181600</v>
+        <v>262600</v>
       </c>
       <c r="J41" s="3">
+        <v>194000</v>
+      </c>
+      <c r="K41" s="3">
         <v>309000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>182300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>231700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>301800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>336600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>320900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>362700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>407300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39900</v>
+        <v>26000</v>
       </c>
       <c r="E42" s="3">
-        <v>24400</v>
+        <v>42600</v>
       </c>
       <c r="F42" s="3">
-        <v>42100</v>
+        <v>26000</v>
       </c>
       <c r="G42" s="3">
-        <v>21000</v>
+        <v>45000</v>
       </c>
       <c r="H42" s="3">
-        <v>33200</v>
+        <v>22500</v>
       </c>
       <c r="I42" s="3">
-        <v>33200</v>
+        <v>35500</v>
       </c>
       <c r="J42" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K42" s="3">
         <v>26600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>41700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>77400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>50500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>125700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>151400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>137300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>603600</v>
+        <v>533500</v>
       </c>
       <c r="E43" s="3">
-        <v>525000</v>
+        <v>644700</v>
       </c>
       <c r="F43" s="3">
-        <v>692300</v>
+        <v>560700</v>
       </c>
       <c r="G43" s="3">
-        <v>697800</v>
+        <v>739300</v>
       </c>
       <c r="H43" s="3">
-        <v>755400</v>
+        <v>745200</v>
       </c>
       <c r="I43" s="3">
-        <v>650200</v>
+        <v>806700</v>
       </c>
       <c r="J43" s="3">
+        <v>694400</v>
+      </c>
+      <c r="K43" s="3">
         <v>659000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>720300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>633500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>470100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>488100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>583400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>550500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>416700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>768700</v>
+        <v>751100</v>
       </c>
       <c r="E44" s="3">
-        <v>742100</v>
+        <v>820900</v>
       </c>
       <c r="F44" s="3">
-        <v>767600</v>
+        <v>792500</v>
       </c>
       <c r="G44" s="3">
-        <v>789700</v>
+        <v>819700</v>
       </c>
       <c r="H44" s="3">
-        <v>784200</v>
+        <v>843400</v>
       </c>
       <c r="I44" s="3">
-        <v>731000</v>
+        <v>837500</v>
       </c>
       <c r="J44" s="3">
+        <v>780700</v>
+      </c>
+      <c r="K44" s="3">
         <v>772000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>818000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>732400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>721400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>686700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>681000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>721900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>693700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,208 +2489,223 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1711200</v>
+        <v>1757800</v>
       </c>
       <c r="E46" s="3">
-        <v>1495300</v>
+        <v>1827600</v>
       </c>
       <c r="F46" s="3">
-        <v>1670300</v>
+        <v>1596900</v>
       </c>
       <c r="G46" s="3">
-        <v>1744500</v>
+        <v>1783800</v>
       </c>
       <c r="H46" s="3">
-        <v>1818700</v>
+        <v>1863100</v>
       </c>
       <c r="I46" s="3">
-        <v>1596100</v>
+        <v>1942300</v>
       </c>
       <c r="J46" s="3">
+        <v>1704600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1766600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1759000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1639300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1570800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1561800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1711000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1786500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1655100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>84200</v>
+        <v>99400</v>
       </c>
       <c r="E47" s="3">
-        <v>75300</v>
+        <v>89900</v>
       </c>
       <c r="F47" s="3">
-        <v>75300</v>
+        <v>80400</v>
       </c>
       <c r="G47" s="3">
-        <v>83100</v>
+        <v>80400</v>
       </c>
       <c r="H47" s="3">
-        <v>80900</v>
+        <v>88700</v>
       </c>
       <c r="I47" s="3">
-        <v>154000</v>
+        <v>86400</v>
       </c>
       <c r="J47" s="3">
+        <v>164400</v>
+      </c>
+      <c r="K47" s="3">
         <v>135100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>147100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>160300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>178400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>160400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>70700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>108000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>131500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2301600</v>
+        <v>2402500</v>
       </c>
       <c r="E48" s="3">
-        <v>2277200</v>
+        <v>2458100</v>
       </c>
       <c r="F48" s="3">
-        <v>2259500</v>
+        <v>2432000</v>
       </c>
       <c r="G48" s="3">
-        <v>2194200</v>
+        <v>2413100</v>
       </c>
       <c r="H48" s="3">
-        <v>2172000</v>
+        <v>2343300</v>
       </c>
       <c r="I48" s="3">
-        <v>1845300</v>
+        <v>2319700</v>
       </c>
       <c r="J48" s="3">
+        <v>1970700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1738900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1696400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1643700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1702100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1638100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1641500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1747800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1733700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>593700</v>
+        <v>619800</v>
       </c>
       <c r="E49" s="3">
-        <v>581500</v>
+        <v>634000</v>
       </c>
       <c r="F49" s="3">
-        <v>595900</v>
+        <v>621000</v>
       </c>
       <c r="G49" s="3">
-        <v>570400</v>
+        <v>636400</v>
       </c>
       <c r="H49" s="3">
-        <v>579300</v>
+        <v>609200</v>
       </c>
       <c r="I49" s="3">
-        <v>544900</v>
+        <v>618700</v>
       </c>
       <c r="J49" s="3">
+        <v>582000</v>
+      </c>
+      <c r="K49" s="3">
         <v>537200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>529200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>504000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>528500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>541900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>561000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>619800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>629200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>591600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>216000</v>
+        <v>262600</v>
       </c>
       <c r="E52" s="3">
-        <v>204900</v>
+        <v>230700</v>
       </c>
       <c r="F52" s="3">
-        <v>206000</v>
+        <v>218800</v>
       </c>
       <c r="G52" s="3">
-        <v>171700</v>
+        <v>220000</v>
       </c>
       <c r="H52" s="3">
-        <v>169500</v>
+        <v>183300</v>
       </c>
       <c r="I52" s="3">
-        <v>180500</v>
+        <v>181000</v>
       </c>
       <c r="J52" s="3">
+        <v>192800</v>
+      </c>
+      <c r="K52" s="3">
         <v>176100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>174600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>173500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>184000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>228900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>239000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>271200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>295800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4906700</v>
+        <v>5142100</v>
       </c>
       <c r="E54" s="3">
-        <v>4634200</v>
+        <v>5240200</v>
       </c>
       <c r="F54" s="3">
-        <v>4807000</v>
+        <v>4949300</v>
       </c>
       <c r="G54" s="3">
-        <v>4763800</v>
+        <v>5133800</v>
       </c>
       <c r="H54" s="3">
-        <v>4820300</v>
+        <v>5087700</v>
       </c>
       <c r="I54" s="3">
-        <v>4320700</v>
+        <v>5148000</v>
       </c>
       <c r="J54" s="3">
+        <v>4614500</v>
+      </c>
+      <c r="K54" s="3">
         <v>4354000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4306400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4120800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4163700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4131200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4223200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4533300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4445200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1291500</v>
+        <v>1186400</v>
       </c>
       <c r="E57" s="3">
-        <v>1106500</v>
+        <v>1379300</v>
       </c>
       <c r="F57" s="3">
-        <v>1229400</v>
+        <v>1181700</v>
       </c>
       <c r="G57" s="3">
-        <v>1240500</v>
+        <v>1313000</v>
       </c>
       <c r="H57" s="3">
-        <v>1277100</v>
+        <v>1324800</v>
       </c>
       <c r="I57" s="3">
-        <v>1072200</v>
+        <v>1363900</v>
       </c>
       <c r="J57" s="3">
+        <v>1145000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1115400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1203400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1104600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1043500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1058000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1109600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1136200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>984800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>217100</v>
+        <v>120700</v>
       </c>
       <c r="E58" s="3">
-        <v>222600</v>
+        <v>231800</v>
       </c>
       <c r="F58" s="3">
-        <v>185000</v>
+        <v>237800</v>
       </c>
       <c r="G58" s="3">
-        <v>179400</v>
+        <v>197500</v>
       </c>
       <c r="H58" s="3">
-        <v>233700</v>
+        <v>191600</v>
       </c>
       <c r="I58" s="3">
-        <v>63100</v>
+        <v>249600</v>
       </c>
       <c r="J58" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K58" s="3">
         <v>47600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>142700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>121900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>118900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>113300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>135800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>133800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>125600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>141800</v>
+        <v>111200</v>
       </c>
       <c r="E59" s="3">
-        <v>79700</v>
+        <v>151400</v>
       </c>
       <c r="F59" s="3">
-        <v>111900</v>
+        <v>85200</v>
       </c>
       <c r="G59" s="3">
-        <v>83100</v>
+        <v>119500</v>
       </c>
       <c r="H59" s="3">
-        <v>89700</v>
+        <v>88700</v>
       </c>
       <c r="I59" s="3">
-        <v>126300</v>
+        <v>95800</v>
       </c>
       <c r="J59" s="3">
+        <v>134900</v>
+      </c>
+      <c r="K59" s="3">
         <v>100800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>85600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>104300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>83000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>86400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>85300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>99800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>104500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1650300</v>
+        <v>1418300</v>
       </c>
       <c r="E60" s="3">
-        <v>1408900</v>
+        <v>1762500</v>
       </c>
       <c r="F60" s="3">
-        <v>1526300</v>
+        <v>1504600</v>
       </c>
       <c r="G60" s="3">
-        <v>1503000</v>
+        <v>1630000</v>
       </c>
       <c r="H60" s="3">
-        <v>1600500</v>
+        <v>1605200</v>
       </c>
       <c r="I60" s="3">
-        <v>1261600</v>
+        <v>1709300</v>
       </c>
       <c r="J60" s="3">
+        <v>1347300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1263800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1431800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1330800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1245400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1257800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1330700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1369800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1214900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2440000</v>
+        <v>2879200</v>
       </c>
       <c r="E61" s="3">
-        <v>2392400</v>
+        <v>2605900</v>
       </c>
       <c r="F61" s="3">
-        <v>2440000</v>
+        <v>2555100</v>
       </c>
       <c r="G61" s="3">
-        <v>2454400</v>
+        <v>2605900</v>
       </c>
       <c r="H61" s="3">
-        <v>2447800</v>
+        <v>2621300</v>
       </c>
       <c r="I61" s="3">
-        <v>2319300</v>
+        <v>2614200</v>
       </c>
       <c r="J61" s="3">
+        <v>2477000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2281700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2255300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2176200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2267500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2419000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2474000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2722100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2771400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>952500</v>
+        <v>1050400</v>
       </c>
       <c r="E62" s="3">
-        <v>927100</v>
+        <v>1017300</v>
       </c>
       <c r="F62" s="3">
-        <v>1005700</v>
+        <v>990100</v>
       </c>
       <c r="G62" s="3">
-        <v>931500</v>
+        <v>1074100</v>
       </c>
       <c r="H62" s="3">
-        <v>892700</v>
+        <v>994800</v>
       </c>
       <c r="I62" s="3">
-        <v>866100</v>
+        <v>953400</v>
       </c>
       <c r="J62" s="3">
+        <v>925000</v>
+      </c>
+      <c r="K62" s="3">
         <v>854000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>917900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>962900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1008700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1000800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>998600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1083400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1128000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5055100</v>
+        <v>5362100</v>
       </c>
       <c r="E66" s="3">
-        <v>4740500</v>
+        <v>5398800</v>
       </c>
       <c r="F66" s="3">
-        <v>4984200</v>
+        <v>5062800</v>
       </c>
       <c r="G66" s="3">
-        <v>4900000</v>
+        <v>5323100</v>
       </c>
       <c r="H66" s="3">
-        <v>4951000</v>
+        <v>5233100</v>
       </c>
       <c r="I66" s="3">
-        <v>4455900</v>
+        <v>5287600</v>
       </c>
       <c r="J66" s="3">
+        <v>4758800</v>
+      </c>
+      <c r="K66" s="3">
         <v>4409400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4613800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4478700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4530600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4685400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4812200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5185900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5124900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-616900</v>
+        <v>-720400</v>
       </c>
       <c r="E72" s="3">
-        <v>-574800</v>
+        <v>-658900</v>
       </c>
       <c r="F72" s="3">
-        <v>-645700</v>
+        <v>-613900</v>
       </c>
       <c r="G72" s="3">
-        <v>-604700</v>
+        <v>-689600</v>
       </c>
       <c r="H72" s="3">
-        <v>-599200</v>
+        <v>-645900</v>
       </c>
       <c r="I72" s="3">
-        <v>-603600</v>
+        <v>-639900</v>
       </c>
       <c r="J72" s="3">
+        <v>-644700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-523900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-771900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-822400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-841500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-738300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-773100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-845100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-872100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-148400</v>
+        <v>-220000</v>
       </c>
       <c r="E76" s="3">
-        <v>-106300</v>
+        <v>-158500</v>
       </c>
       <c r="F76" s="3">
-        <v>-177200</v>
+        <v>-113600</v>
       </c>
       <c r="G76" s="3">
-        <v>-136200</v>
+        <v>-189300</v>
       </c>
       <c r="H76" s="3">
-        <v>-130700</v>
+        <v>-145500</v>
       </c>
       <c r="I76" s="3">
-        <v>-135100</v>
+        <v>-139600</v>
       </c>
       <c r="J76" s="3">
+        <v>-144300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-55400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-307400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-357900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-366900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-554300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-589000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-652600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-679600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34300</v>
+        <v>-39000</v>
       </c>
       <c r="E81" s="3">
-        <v>22200</v>
+        <v>-36700</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>23700</v>
       </c>
       <c r="G81" s="3">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>25500</v>
+        <v>18900</v>
       </c>
       <c r="I81" s="3">
-        <v>-66500</v>
+        <v>27200</v>
       </c>
       <c r="J81" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="K81" s="3">
         <v>240300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-89800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-23500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>73100</v>
+        <v>84000</v>
       </c>
       <c r="E83" s="3">
-        <v>80900</v>
+        <v>78100</v>
       </c>
       <c r="F83" s="3">
-        <v>73100</v>
+        <v>86400</v>
       </c>
       <c r="G83" s="3">
-        <v>66500</v>
+        <v>78100</v>
       </c>
       <c r="H83" s="3">
-        <v>63100</v>
+        <v>71000</v>
       </c>
       <c r="I83" s="3">
-        <v>63100</v>
+        <v>67400</v>
       </c>
       <c r="J83" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K83" s="3">
         <v>55400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>50500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>48300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>51600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>46000</v>
       </c>
       <c r="O83" s="3">
         <v>46000</v>
       </c>
       <c r="P83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>50500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>54000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>159500</v>
+        <v>9500</v>
       </c>
       <c r="E89" s="3">
-        <v>118500</v>
+        <v>170300</v>
       </c>
       <c r="F89" s="3">
-        <v>88600</v>
+        <v>126600</v>
       </c>
       <c r="G89" s="3">
-        <v>141800</v>
+        <v>94600</v>
       </c>
       <c r="H89" s="3">
-        <v>146200</v>
+        <v>151400</v>
       </c>
       <c r="I89" s="3">
-        <v>28800</v>
+        <v>156100</v>
       </c>
       <c r="J89" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K89" s="3">
         <v>50900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>85300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>50500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>42300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-119700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-63100</v>
+        <v>-48500</v>
       </c>
       <c r="E91" s="3">
-        <v>-100800</v>
+        <v>-67400</v>
       </c>
       <c r="F91" s="3">
-        <v>-55400</v>
+        <v>-107600</v>
       </c>
       <c r="G91" s="3">
-        <v>-78600</v>
+        <v>-59100</v>
       </c>
       <c r="H91" s="3">
-        <v>-65300</v>
+        <v>-84000</v>
       </c>
       <c r="I91" s="3">
-        <v>-129600</v>
+        <v>-69800</v>
       </c>
       <c r="J91" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-69800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-51600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-113300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-67300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-146700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-63100</v>
+        <v>-47300</v>
       </c>
       <c r="E94" s="3">
-        <v>-97500</v>
+        <v>-67400</v>
       </c>
       <c r="F94" s="3">
-        <v>-54300</v>
+        <v>-104100</v>
       </c>
       <c r="G94" s="3">
-        <v>-82000</v>
+        <v>-58000</v>
       </c>
       <c r="H94" s="3">
-        <v>-157300</v>
+        <v>-87500</v>
       </c>
       <c r="I94" s="3">
-        <v>-136200</v>
+        <v>-168000</v>
       </c>
       <c r="J94" s="3">
+        <v>-145500</v>
+      </c>
+      <c r="K94" s="3">
         <v>150600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-65900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-130200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-46000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-74100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-81000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-154900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,81 +5058,87 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1100</v>
+        <v>166800</v>
       </c>
       <c r="E100" s="3">
-        <v>15500</v>
+        <v>-1200</v>
       </c>
       <c r="F100" s="3">
-        <v>-104100</v>
+        <v>16600</v>
       </c>
       <c r="G100" s="3">
-        <v>-68700</v>
+        <v>-111200</v>
       </c>
       <c r="H100" s="3">
-        <v>73100</v>
+        <v>-73300</v>
       </c>
       <c r="I100" s="3">
-        <v>-22200</v>
+        <v>78100</v>
       </c>
       <c r="J100" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-76400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>93100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-44600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>-1200</v>
       </c>
       <c r="G101" s="3">
-        <v>-1100</v>
+        <v>2400</v>
       </c>
       <c r="H101" s="3">
-        <v>2200</v>
+        <v>-1200</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4898,71 +5147,77 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>-1100</v>
       </c>
       <c r="O101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P101" s="3">
         <v>-4500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>1200</v>
       </c>
       <c r="R101" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>95300</v>
+        <v>127800</v>
       </c>
       <c r="E102" s="3">
-        <v>35400</v>
+        <v>101700</v>
       </c>
       <c r="F102" s="3">
-        <v>-67600</v>
+        <v>37900</v>
       </c>
       <c r="G102" s="3">
-        <v>-10000</v>
+        <v>-72200</v>
       </c>
       <c r="H102" s="3">
-        <v>64200</v>
+        <v>-10600</v>
       </c>
       <c r="I102" s="3">
-        <v>-127400</v>
+        <v>68600</v>
       </c>
       <c r="J102" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="K102" s="3">
         <v>125200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-49400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-63700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-25800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-318100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1219600</v>
+        <v>1401900</v>
       </c>
       <c r="E8" s="3">
-        <v>1699800</v>
+        <v>1233300</v>
       </c>
       <c r="F8" s="3">
-        <v>1622900</v>
+        <v>1718900</v>
       </c>
       <c r="G8" s="3">
-        <v>1728200</v>
+        <v>1641200</v>
       </c>
       <c r="H8" s="3">
-        <v>1819300</v>
+        <v>1747600</v>
       </c>
       <c r="I8" s="3">
-        <v>1816900</v>
+        <v>1839800</v>
       </c>
       <c r="J8" s="3">
+        <v>1837400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1653700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1581700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1618500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1521800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1435000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1550600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1558800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1362800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1137900</v>
+        <v>1258400</v>
       </c>
       <c r="E9" s="3">
-        <v>1518800</v>
+        <v>1150700</v>
       </c>
       <c r="F9" s="3">
-        <v>1468000</v>
+        <v>1535900</v>
       </c>
       <c r="G9" s="3">
-        <v>1556700</v>
+        <v>1484500</v>
       </c>
       <c r="H9" s="3">
-        <v>1604000</v>
+        <v>1574200</v>
       </c>
       <c r="I9" s="3">
-        <v>1646600</v>
+        <v>1622000</v>
       </c>
       <c r="J9" s="3">
+        <v>1665100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1510600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1452100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1427400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1371400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1276800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1279100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1382300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1394500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1219600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>81600</v>
+        <v>143500</v>
       </c>
       <c r="E10" s="3">
-        <v>181000</v>
+        <v>82500</v>
       </c>
       <c r="F10" s="3">
-        <v>155000</v>
+        <v>183000</v>
       </c>
       <c r="G10" s="3">
-        <v>171500</v>
+        <v>156700</v>
       </c>
       <c r="H10" s="3">
-        <v>215300</v>
+        <v>173400</v>
       </c>
       <c r="I10" s="3">
-        <v>170300</v>
+        <v>217700</v>
       </c>
       <c r="J10" s="3">
+        <v>172300</v>
+      </c>
+      <c r="K10" s="3">
         <v>143100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>129600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>191100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>150400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>123400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>156000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>168300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>164300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>143200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>164300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8300</v>
+        <v>10800</v>
       </c>
       <c r="E12" s="3">
-        <v>15400</v>
+        <v>8400</v>
       </c>
       <c r="F12" s="3">
-        <v>14200</v>
+        <v>15600</v>
       </c>
       <c r="G12" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="H12" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="I12" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="J12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K12" s="3">
         <v>10600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>13000</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1200</v>
       </c>
       <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>1100</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1220800</v>
+        <v>1325400</v>
       </c>
       <c r="E17" s="3">
-        <v>1692700</v>
+        <v>1234500</v>
       </c>
       <c r="F17" s="3">
-        <v>1557900</v>
+        <v>1711800</v>
       </c>
       <c r="G17" s="3">
-        <v>1667900</v>
+        <v>1575400</v>
       </c>
       <c r="H17" s="3">
-        <v>1737700</v>
+        <v>1686600</v>
       </c>
       <c r="I17" s="3">
-        <v>1722300</v>
+        <v>1757200</v>
       </c>
       <c r="J17" s="3">
+        <v>1741700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1654900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1285900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1476800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1498800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1323900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1345300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1468700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1441400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1328800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
-        <v>7100</v>
-      </c>
       <c r="F18" s="3">
-        <v>65100</v>
+        <v>7200</v>
       </c>
       <c r="G18" s="3">
-        <v>60300</v>
+        <v>65800</v>
       </c>
       <c r="H18" s="3">
-        <v>81600</v>
+        <v>61000</v>
       </c>
       <c r="I18" s="3">
-        <v>94600</v>
+        <v>82500</v>
       </c>
       <c r="J18" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>295700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>141600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>76300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>89800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>117400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>34000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-49700</v>
+        <v>-44300</v>
       </c>
       <c r="E20" s="3">
-        <v>-53200</v>
+        <v>-50200</v>
       </c>
       <c r="F20" s="3">
-        <v>-50900</v>
+        <v>-53800</v>
       </c>
       <c r="G20" s="3">
-        <v>-54400</v>
+        <v>-51400</v>
       </c>
       <c r="H20" s="3">
-        <v>-50900</v>
+        <v>-55000</v>
       </c>
       <c r="I20" s="3">
-        <v>-48500</v>
+        <v>-51400</v>
       </c>
       <c r="J20" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-65100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-54300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-53800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-45000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-139100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-47100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-51600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-70400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-50500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>33100</v>
+        <v>119600</v>
       </c>
       <c r="E21" s="3">
-        <v>31900</v>
+        <v>33500</v>
       </c>
       <c r="F21" s="3">
-        <v>100500</v>
+        <v>32300</v>
       </c>
       <c r="G21" s="3">
-        <v>84000</v>
+        <v>101700</v>
       </c>
       <c r="H21" s="3">
-        <v>101700</v>
+        <v>84900</v>
       </c>
       <c r="I21" s="3">
-        <v>113600</v>
+        <v>102900</v>
       </c>
       <c r="J21" s="3">
+        <v>114800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>296800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>138300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>88600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>76300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>97400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>37600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-50900</v>
+        <v>32300</v>
       </c>
       <c r="E23" s="3">
-        <v>-46100</v>
+        <v>-51400</v>
       </c>
       <c r="F23" s="3">
-        <v>14200</v>
+        <v>-46700</v>
       </c>
       <c r="G23" s="3">
-        <v>5900</v>
+        <v>14400</v>
       </c>
       <c r="H23" s="3">
-        <v>30800</v>
+        <v>6000</v>
       </c>
       <c r="I23" s="3">
-        <v>46100</v>
+        <v>31100</v>
       </c>
       <c r="J23" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-66200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>241500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>87800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-22000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-62800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>42600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>47000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-16400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-13000</v>
+        <v>8400</v>
       </c>
       <c r="E24" s="3">
-        <v>-9500</v>
+        <v>-13200</v>
       </c>
       <c r="F24" s="3">
-        <v>-11800</v>
+        <v>-9600</v>
       </c>
       <c r="G24" s="3">
-        <v>4700</v>
+        <v>-12000</v>
       </c>
       <c r="H24" s="3">
-        <v>10600</v>
+        <v>4800</v>
       </c>
       <c r="I24" s="3">
-        <v>17700</v>
+        <v>10800</v>
       </c>
       <c r="J24" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-37900</v>
+        <v>23900</v>
       </c>
       <c r="E26" s="3">
-        <v>-36700</v>
+        <v>-38300</v>
       </c>
       <c r="F26" s="3">
-        <v>26000</v>
+        <v>-37100</v>
       </c>
       <c r="G26" s="3">
+        <v>26300</v>
+      </c>
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
-        <v>20100</v>
-      </c>
       <c r="I26" s="3">
-        <v>28400</v>
+        <v>20300</v>
       </c>
       <c r="J26" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-68600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>240300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-107700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-23500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-39000</v>
+        <v>22700</v>
       </c>
       <c r="E27" s="3">
-        <v>-36700</v>
+        <v>-39500</v>
       </c>
       <c r="F27" s="3">
-        <v>23700</v>
+        <v>-37100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="H27" s="3">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>27200</v>
+        <v>19100</v>
       </c>
       <c r="J27" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-71000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>240300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-107700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-23500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>18000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>49700</v>
+        <v>44300</v>
       </c>
       <c r="E32" s="3">
-        <v>53200</v>
+        <v>50200</v>
       </c>
       <c r="F32" s="3">
-        <v>50900</v>
+        <v>53800</v>
       </c>
       <c r="G32" s="3">
-        <v>54400</v>
+        <v>51400</v>
       </c>
       <c r="H32" s="3">
-        <v>50900</v>
+        <v>55000</v>
       </c>
       <c r="I32" s="3">
-        <v>48500</v>
+        <v>51400</v>
       </c>
       <c r="J32" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K32" s="3">
         <v>65100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>54300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>53800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>45000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>139100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>47100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>51600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>70400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>50500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-39000</v>
+        <v>22700</v>
       </c>
       <c r="E33" s="3">
-        <v>-36700</v>
+        <v>-39500</v>
       </c>
       <c r="F33" s="3">
-        <v>23700</v>
+        <v>-37100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="H33" s="3">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>27200</v>
+        <v>19100</v>
       </c>
       <c r="J33" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-71000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>240300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-89800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-23500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-39000</v>
+        <v>22700</v>
       </c>
       <c r="E35" s="3">
-        <v>-36700</v>
+        <v>-39500</v>
       </c>
       <c r="F35" s="3">
-        <v>23700</v>
+        <v>-37100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="H35" s="3">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>27200</v>
+        <v>19100</v>
       </c>
       <c r="J35" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-71000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>240300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-89800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-23500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,220 +2313,233 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>447100</v>
+        <v>516800</v>
       </c>
       <c r="E41" s="3">
-        <v>319400</v>
+        <v>452200</v>
       </c>
       <c r="F41" s="3">
-        <v>217700</v>
+        <v>323000</v>
       </c>
       <c r="G41" s="3">
-        <v>179800</v>
+        <v>220100</v>
       </c>
       <c r="H41" s="3">
-        <v>252000</v>
+        <v>181800</v>
       </c>
       <c r="I41" s="3">
-        <v>262600</v>
+        <v>254800</v>
       </c>
       <c r="J41" s="3">
+        <v>265600</v>
+      </c>
+      <c r="K41" s="3">
         <v>194000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>309000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>182300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>231700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>301800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>336600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>320900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>362700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>407300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="E42" s="3">
-        <v>42600</v>
+        <v>26300</v>
       </c>
       <c r="F42" s="3">
-        <v>26000</v>
+        <v>43100</v>
       </c>
       <c r="G42" s="3">
-        <v>45000</v>
+        <v>26300</v>
       </c>
       <c r="H42" s="3">
-        <v>22500</v>
+        <v>45500</v>
       </c>
       <c r="I42" s="3">
+        <v>22700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K42" s="3">
         <v>35500</v>
       </c>
-      <c r="J42" s="3">
-        <v>35500</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>38400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>41700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>77400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>50500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>125700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>151400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>137300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>533500</v>
+        <v>558600</v>
       </c>
       <c r="E43" s="3">
-        <v>644700</v>
+        <v>539500</v>
       </c>
       <c r="F43" s="3">
-        <v>560700</v>
+        <v>651900</v>
       </c>
       <c r="G43" s="3">
-        <v>739300</v>
+        <v>567000</v>
       </c>
       <c r="H43" s="3">
-        <v>745200</v>
+        <v>747600</v>
       </c>
       <c r="I43" s="3">
-        <v>806700</v>
+        <v>753600</v>
       </c>
       <c r="J43" s="3">
+        <v>815800</v>
+      </c>
+      <c r="K43" s="3">
         <v>694400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>659000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>720300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>633500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>470100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>488100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>583400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>550500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>416700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>751100</v>
+        <v>726100</v>
       </c>
       <c r="E44" s="3">
-        <v>820900</v>
+        <v>759600</v>
       </c>
       <c r="F44" s="3">
-        <v>792500</v>
+        <v>830200</v>
       </c>
       <c r="G44" s="3">
-        <v>819700</v>
+        <v>801500</v>
       </c>
       <c r="H44" s="3">
-        <v>843400</v>
+        <v>829000</v>
       </c>
       <c r="I44" s="3">
-        <v>837500</v>
+        <v>852900</v>
       </c>
       <c r="J44" s="3">
+        <v>846900</v>
+      </c>
+      <c r="K44" s="3">
         <v>780700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>772000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>818000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>732400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>721400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>686700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>681000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>721900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>693700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,220 +2591,235 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1757800</v>
+        <v>1829000</v>
       </c>
       <c r="E46" s="3">
-        <v>1827600</v>
+        <v>1777600</v>
       </c>
       <c r="F46" s="3">
-        <v>1596900</v>
+        <v>1848100</v>
       </c>
       <c r="G46" s="3">
-        <v>1783800</v>
+        <v>1614900</v>
       </c>
       <c r="H46" s="3">
-        <v>1863100</v>
+        <v>1803900</v>
       </c>
       <c r="I46" s="3">
-        <v>1942300</v>
+        <v>1884000</v>
       </c>
       <c r="J46" s="3">
+        <v>1964200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1704600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1766600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1759000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1639300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1570800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1561800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1711000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1786500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1655100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>99400</v>
+        <v>90900</v>
       </c>
       <c r="E47" s="3">
-        <v>89900</v>
+        <v>100500</v>
       </c>
       <c r="F47" s="3">
-        <v>80400</v>
+        <v>90900</v>
       </c>
       <c r="G47" s="3">
-        <v>80400</v>
+        <v>81300</v>
       </c>
       <c r="H47" s="3">
-        <v>88700</v>
+        <v>81300</v>
       </c>
       <c r="I47" s="3">
-        <v>86400</v>
+        <v>89700</v>
       </c>
       <c r="J47" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K47" s="3">
         <v>164400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>135100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>147100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>160300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>178400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>160400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>70700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>108000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>131500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2402500</v>
+        <v>2357700</v>
       </c>
       <c r="E48" s="3">
-        <v>2458100</v>
+        <v>2429500</v>
       </c>
       <c r="F48" s="3">
-        <v>2432000</v>
+        <v>2485700</v>
       </c>
       <c r="G48" s="3">
-        <v>2413100</v>
+        <v>2459400</v>
       </c>
       <c r="H48" s="3">
-        <v>2343300</v>
+        <v>2440200</v>
       </c>
       <c r="I48" s="3">
-        <v>2319700</v>
+        <v>2369700</v>
       </c>
       <c r="J48" s="3">
+        <v>2345700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1970700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1738900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1696400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1643700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1702100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1638100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1641500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1747800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1733700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>599300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>626800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>641200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>628000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>643600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>616000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>625600</v>
+      </c>
+      <c r="K49" s="3">
+        <v>582000</v>
+      </c>
+      <c r="L49" s="3">
+        <v>537200</v>
+      </c>
+      <c r="M49" s="3">
+        <v>529200</v>
+      </c>
+      <c r="N49" s="3">
+        <v>504000</v>
+      </c>
+      <c r="O49" s="3">
+        <v>528500</v>
+      </c>
+      <c r="P49" s="3">
+        <v>541900</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>561000</v>
+      </c>
+      <c r="R49" s="3">
         <v>619800</v>
       </c>
-      <c r="E49" s="3">
-        <v>634000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>621000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>636400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>609200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>618700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>582000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>537200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>529200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>504000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>528500</v>
-      </c>
-      <c r="O49" s="3">
-        <v>541900</v>
-      </c>
-      <c r="P49" s="3">
-        <v>561000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>619800</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>629200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>591600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>262600</v>
+        <v>260800</v>
       </c>
       <c r="E52" s="3">
-        <v>230700</v>
+        <v>265600</v>
       </c>
       <c r="F52" s="3">
-        <v>218800</v>
+        <v>233300</v>
       </c>
       <c r="G52" s="3">
-        <v>220000</v>
+        <v>221300</v>
       </c>
       <c r="H52" s="3">
-        <v>183300</v>
+        <v>222500</v>
       </c>
       <c r="I52" s="3">
-        <v>181000</v>
+        <v>185400</v>
       </c>
       <c r="J52" s="3">
+        <v>183000</v>
+      </c>
+      <c r="K52" s="3">
         <v>192800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>176100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>174600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>173500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>184000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>228900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>239000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>271200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>295800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5142100</v>
+        <v>5137700</v>
       </c>
       <c r="E54" s="3">
-        <v>5240200</v>
+        <v>5199900</v>
       </c>
       <c r="F54" s="3">
-        <v>4949300</v>
+        <v>5299200</v>
       </c>
       <c r="G54" s="3">
-        <v>5133800</v>
+        <v>5004900</v>
       </c>
       <c r="H54" s="3">
-        <v>5087700</v>
+        <v>5191500</v>
       </c>
       <c r="I54" s="3">
-        <v>5148000</v>
+        <v>5144900</v>
       </c>
       <c r="J54" s="3">
+        <v>5205900</v>
+      </c>
+      <c r="K54" s="3">
         <v>4614500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4354000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4306400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4120800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4163700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4131200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4223200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4533300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4445200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1186400</v>
+        <v>1208200</v>
       </c>
       <c r="E57" s="3">
-        <v>1379300</v>
+        <v>1199800</v>
       </c>
       <c r="F57" s="3">
-        <v>1181700</v>
+        <v>1394800</v>
       </c>
       <c r="G57" s="3">
-        <v>1313000</v>
+        <v>1195000</v>
       </c>
       <c r="H57" s="3">
-        <v>1324800</v>
+        <v>1327800</v>
       </c>
       <c r="I57" s="3">
-        <v>1363900</v>
+        <v>1339700</v>
       </c>
       <c r="J57" s="3">
+        <v>1379200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1145000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1115400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1203400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1104600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1043500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1058000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1109600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1136200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>984800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>120700</v>
+        <v>101700</v>
       </c>
       <c r="E58" s="3">
-        <v>231800</v>
+        <v>122000</v>
       </c>
       <c r="F58" s="3">
-        <v>237800</v>
+        <v>234500</v>
       </c>
       <c r="G58" s="3">
-        <v>197500</v>
+        <v>240400</v>
       </c>
       <c r="H58" s="3">
-        <v>191600</v>
+        <v>199800</v>
       </c>
       <c r="I58" s="3">
-        <v>249600</v>
+        <v>193800</v>
       </c>
       <c r="J58" s="3">
+        <v>252400</v>
+      </c>
+      <c r="K58" s="3">
         <v>67400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>142700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>121900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>118900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>113300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>135800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>133800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>125600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>111200</v>
+        <v>107700</v>
       </c>
       <c r="E59" s="3">
-        <v>151400</v>
+        <v>112400</v>
       </c>
       <c r="F59" s="3">
-        <v>85200</v>
+        <v>153100</v>
       </c>
       <c r="G59" s="3">
-        <v>119500</v>
+        <v>86100</v>
       </c>
       <c r="H59" s="3">
-        <v>88700</v>
+        <v>120800</v>
       </c>
       <c r="I59" s="3">
-        <v>95800</v>
+        <v>89700</v>
       </c>
       <c r="J59" s="3">
+        <v>96900</v>
+      </c>
+      <c r="K59" s="3">
         <v>134900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>85600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>104300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>83000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>86400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>85300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>99800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>104500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1418300</v>
+        <v>1417500</v>
       </c>
       <c r="E60" s="3">
-        <v>1762500</v>
+        <v>1434200</v>
       </c>
       <c r="F60" s="3">
-        <v>1504600</v>
+        <v>1782300</v>
       </c>
       <c r="G60" s="3">
-        <v>1630000</v>
+        <v>1521600</v>
       </c>
       <c r="H60" s="3">
-        <v>1605200</v>
+        <v>1648400</v>
       </c>
       <c r="I60" s="3">
-        <v>1709300</v>
+        <v>1623200</v>
       </c>
       <c r="J60" s="3">
+        <v>1728500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1347300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1263800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1431800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1330800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1245400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1257800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1330700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1369800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1214900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2879200</v>
+        <v>2836200</v>
       </c>
       <c r="E61" s="3">
-        <v>2605900</v>
+        <v>2911600</v>
       </c>
       <c r="F61" s="3">
-        <v>2555100</v>
+        <v>2635200</v>
       </c>
       <c r="G61" s="3">
-        <v>2605900</v>
+        <v>2583800</v>
       </c>
       <c r="H61" s="3">
-        <v>2621300</v>
+        <v>2635200</v>
       </c>
       <c r="I61" s="3">
-        <v>2614200</v>
+        <v>2650800</v>
       </c>
       <c r="J61" s="3">
+        <v>2643600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2477000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2281700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2255300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2176200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2267500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2419000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2474000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2722100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2771400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1050400</v>
+        <v>1075400</v>
       </c>
       <c r="E62" s="3">
-        <v>1017300</v>
+        <v>1062200</v>
       </c>
       <c r="F62" s="3">
-        <v>990100</v>
+        <v>1028700</v>
       </c>
       <c r="G62" s="3">
-        <v>1074100</v>
+        <v>1001200</v>
       </c>
       <c r="H62" s="3">
-        <v>994800</v>
+        <v>1086100</v>
       </c>
       <c r="I62" s="3">
-        <v>953400</v>
+        <v>1006000</v>
       </c>
       <c r="J62" s="3">
+        <v>964100</v>
+      </c>
+      <c r="K62" s="3">
         <v>925000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>854000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>917900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>962900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1008700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1000800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>998600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1083400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1128000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5362100</v>
+        <v>5344600</v>
       </c>
       <c r="E66" s="3">
-        <v>5398800</v>
+        <v>5422400</v>
       </c>
       <c r="F66" s="3">
-        <v>5062800</v>
+        <v>5459500</v>
       </c>
       <c r="G66" s="3">
-        <v>5323100</v>
+        <v>5119700</v>
       </c>
       <c r="H66" s="3">
-        <v>5233100</v>
+        <v>5382900</v>
       </c>
       <c r="I66" s="3">
-        <v>5287600</v>
+        <v>5292000</v>
       </c>
       <c r="J66" s="3">
+        <v>5347000</v>
+      </c>
+      <c r="K66" s="3">
         <v>4758800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4409400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4613800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4478700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4530600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4685400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4812200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5185900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5124900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-720400</v>
+        <v>-712900</v>
       </c>
       <c r="E72" s="3">
-        <v>-658900</v>
+        <v>-728500</v>
       </c>
       <c r="F72" s="3">
-        <v>-613900</v>
+        <v>-666300</v>
       </c>
       <c r="G72" s="3">
-        <v>-689600</v>
+        <v>-620800</v>
       </c>
       <c r="H72" s="3">
-        <v>-645900</v>
+        <v>-697400</v>
       </c>
       <c r="I72" s="3">
-        <v>-639900</v>
+        <v>-653100</v>
       </c>
       <c r="J72" s="3">
+        <v>-647100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-644700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-523900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-771900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-822400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-841500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-738300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-773100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-845100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-872100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-220000</v>
+        <v>-206900</v>
       </c>
       <c r="E76" s="3">
-        <v>-158500</v>
+        <v>-222500</v>
       </c>
       <c r="F76" s="3">
-        <v>-113600</v>
+        <v>-160300</v>
       </c>
       <c r="G76" s="3">
-        <v>-189300</v>
+        <v>-114800</v>
       </c>
       <c r="H76" s="3">
-        <v>-145500</v>
+        <v>-191400</v>
       </c>
       <c r="I76" s="3">
-        <v>-139600</v>
+        <v>-147100</v>
       </c>
       <c r="J76" s="3">
+        <v>-141200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-144300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-55400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-307400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-357900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-366900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-554300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-589000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-652600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-679600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-39000</v>
+        <v>22700</v>
       </c>
       <c r="E81" s="3">
-        <v>-36700</v>
+        <v>-39500</v>
       </c>
       <c r="F81" s="3">
-        <v>23700</v>
+        <v>-37100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="H81" s="3">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>27200</v>
+        <v>19100</v>
       </c>
       <c r="J81" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-71000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>240300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-89800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-23500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>84000</v>
+        <v>87300</v>
       </c>
       <c r="E83" s="3">
-        <v>78100</v>
+        <v>84900</v>
       </c>
       <c r="F83" s="3">
-        <v>86400</v>
+        <v>78900</v>
       </c>
       <c r="G83" s="3">
-        <v>78100</v>
+        <v>87300</v>
       </c>
       <c r="H83" s="3">
-        <v>71000</v>
+        <v>78900</v>
       </c>
       <c r="I83" s="3">
+        <v>71800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K83" s="3">
         <v>67400</v>
       </c>
-      <c r="J83" s="3">
-        <v>67400</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>55400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>48300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>51600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>46000</v>
       </c>
       <c r="P83" s="3">
         <v>46000</v>
       </c>
       <c r="Q83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="R83" s="3">
         <v>50500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>54000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9500</v>
+        <v>132800</v>
       </c>
       <c r="E89" s="3">
-        <v>170300</v>
+        <v>9600</v>
       </c>
       <c r="F89" s="3">
-        <v>126600</v>
+        <v>172300</v>
       </c>
       <c r="G89" s="3">
-        <v>94600</v>
+        <v>128000</v>
       </c>
       <c r="H89" s="3">
-        <v>151400</v>
+        <v>95700</v>
       </c>
       <c r="I89" s="3">
-        <v>156100</v>
+        <v>153100</v>
       </c>
       <c r="J89" s="3">
+        <v>157900</v>
+      </c>
+      <c r="K89" s="3">
         <v>30800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>50900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-26400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>85300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>50500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>42300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-119700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-48500</v>
+        <v>-43100</v>
       </c>
       <c r="E91" s="3">
-        <v>-67400</v>
+        <v>-49000</v>
       </c>
       <c r="F91" s="3">
-        <v>-107600</v>
+        <v>-68200</v>
       </c>
       <c r="G91" s="3">
-        <v>-59100</v>
+        <v>-108900</v>
       </c>
       <c r="H91" s="3">
-        <v>-84000</v>
+        <v>-59800</v>
       </c>
       <c r="I91" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-69800</v>
       </c>
-      <c r="J91" s="3">
-        <v>-138400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-69800</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-54900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-51600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-113300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-61700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-67300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-70400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-146700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-47300</v>
+        <v>-43100</v>
       </c>
       <c r="E94" s="3">
-        <v>-67400</v>
+        <v>-47800</v>
       </c>
       <c r="F94" s="3">
-        <v>-104100</v>
+        <v>-68200</v>
       </c>
       <c r="G94" s="3">
-        <v>-58000</v>
+        <v>-105300</v>
       </c>
       <c r="H94" s="3">
-        <v>-87500</v>
+        <v>-58600</v>
       </c>
       <c r="I94" s="3">
-        <v>-168000</v>
+        <v>-88500</v>
       </c>
       <c r="J94" s="3">
+        <v>-169900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-145500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>150600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-65900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-130200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-46000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-74100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-81000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-154900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,87 +5304,93 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>166800</v>
+        <v>-21500</v>
       </c>
       <c r="E100" s="3">
+        <v>168700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
-        <v>16600</v>
-      </c>
       <c r="G100" s="3">
-        <v>-111200</v>
+        <v>16700</v>
       </c>
       <c r="H100" s="3">
-        <v>-73300</v>
+        <v>-112400</v>
       </c>
       <c r="I100" s="3">
-        <v>78100</v>
+        <v>-74200</v>
       </c>
       <c r="J100" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-23700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-76400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>93100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-44600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2400</v>
       </c>
       <c r="J101" s="3">
         <v>2400</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5150,74 +5399,80 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>-1100</v>
       </c>
       <c r="P101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R101" s="3">
-        <v>1200</v>
       </c>
       <c r="S101" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>127800</v>
+        <v>64600</v>
       </c>
       <c r="E102" s="3">
-        <v>101700</v>
+        <v>129200</v>
       </c>
       <c r="F102" s="3">
-        <v>37900</v>
+        <v>102900</v>
       </c>
       <c r="G102" s="3">
-        <v>-72200</v>
+        <v>38300</v>
       </c>
       <c r="H102" s="3">
-        <v>-10600</v>
+        <v>-73000</v>
       </c>
       <c r="I102" s="3">
-        <v>68600</v>
+        <v>-10800</v>
       </c>
       <c r="J102" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-136000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>125200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-49400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-63700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-44600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-318100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1401900</v>
+        <v>1462300</v>
       </c>
       <c r="E8" s="3">
-        <v>1233300</v>
+        <v>1378700</v>
       </c>
       <c r="F8" s="3">
-        <v>1718900</v>
+        <v>1212900</v>
       </c>
       <c r="G8" s="3">
-        <v>1641200</v>
+        <v>1690500</v>
       </c>
       <c r="H8" s="3">
-        <v>1747600</v>
+        <v>1614000</v>
       </c>
       <c r="I8" s="3">
-        <v>1839800</v>
+        <v>1718700</v>
       </c>
       <c r="J8" s="3">
+        <v>1809300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1837400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1653700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1581700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1618500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1521800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1400200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1435000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1550600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1558800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1362800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1258400</v>
+        <v>1304600</v>
       </c>
       <c r="E9" s="3">
-        <v>1150700</v>
+        <v>1237600</v>
       </c>
       <c r="F9" s="3">
-        <v>1535900</v>
+        <v>1131700</v>
       </c>
       <c r="G9" s="3">
-        <v>1484500</v>
+        <v>1510500</v>
       </c>
       <c r="H9" s="3">
-        <v>1574200</v>
+        <v>1459900</v>
       </c>
       <c r="I9" s="3">
-        <v>1622000</v>
+        <v>1548100</v>
       </c>
       <c r="J9" s="3">
+        <v>1595200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1665100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1510600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1452100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1427400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1371400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1276800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1279100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1382300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1394500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1219600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>143500</v>
+        <v>157600</v>
       </c>
       <c r="E10" s="3">
-        <v>82500</v>
+        <v>141200</v>
       </c>
       <c r="F10" s="3">
-        <v>183000</v>
+        <v>81200</v>
       </c>
       <c r="G10" s="3">
-        <v>156700</v>
+        <v>180000</v>
       </c>
       <c r="H10" s="3">
-        <v>173400</v>
+        <v>154100</v>
       </c>
       <c r="I10" s="3">
-        <v>217700</v>
+        <v>170600</v>
       </c>
       <c r="J10" s="3">
+        <v>214100</v>
+      </c>
+      <c r="K10" s="3">
         <v>172300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>143100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>129600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>191100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>150400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>123400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>156000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>168300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>164300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>143200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>164300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="E12" s="3">
-        <v>8400</v>
+        <v>10600</v>
       </c>
       <c r="F12" s="3">
-        <v>15600</v>
+        <v>8200</v>
       </c>
       <c r="G12" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K12" s="3">
         <v>14400</v>
       </c>
-      <c r="H12" s="3">
-        <v>14400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>14400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>14400</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3">
-        <v>13200</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1200</v>
       </c>
       <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>1100</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1325400</v>
+        <v>1396400</v>
       </c>
       <c r="E17" s="3">
-        <v>1234500</v>
+        <v>1303500</v>
       </c>
       <c r="F17" s="3">
-        <v>1711800</v>
+        <v>1214000</v>
       </c>
       <c r="G17" s="3">
-        <v>1575400</v>
+        <v>1683400</v>
       </c>
       <c r="H17" s="3">
-        <v>1686600</v>
+        <v>1549300</v>
       </c>
       <c r="I17" s="3">
-        <v>1757200</v>
+        <v>1658700</v>
       </c>
       <c r="J17" s="3">
+        <v>1728100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1741700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1654900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1285900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1476800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1498800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1323900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1345300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1468700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1441400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1328800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>76600</v>
+        <v>65900</v>
       </c>
       <c r="E18" s="3">
+        <v>75300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
-        <v>7200</v>
-      </c>
       <c r="G18" s="3">
-        <v>65800</v>
+        <v>7100</v>
       </c>
       <c r="H18" s="3">
-        <v>61000</v>
+        <v>64700</v>
       </c>
       <c r="I18" s="3">
-        <v>82500</v>
+        <v>60000</v>
       </c>
       <c r="J18" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K18" s="3">
         <v>95700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>295700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>141600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>76300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>89800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>81900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>117400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>34000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-44300</v>
+        <v>-41200</v>
       </c>
       <c r="E20" s="3">
-        <v>-50200</v>
+        <v>-43500</v>
       </c>
       <c r="F20" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="N20" s="3">
         <v>-53800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-51400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-55000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-51400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-49000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-65100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-54300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-53800</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-45000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-139100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-47100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-51600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-70400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-50500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>119600</v>
+        <v>82300</v>
       </c>
       <c r="E21" s="3">
-        <v>33500</v>
+        <v>117600</v>
       </c>
       <c r="F21" s="3">
-        <v>32300</v>
+        <v>32900</v>
       </c>
       <c r="G21" s="3">
-        <v>101700</v>
+        <v>31800</v>
       </c>
       <c r="H21" s="3">
-        <v>84900</v>
+        <v>100000</v>
       </c>
       <c r="I21" s="3">
-        <v>102900</v>
+        <v>83500</v>
       </c>
       <c r="J21" s="3">
+        <v>101200</v>
+      </c>
+      <c r="K21" s="3">
         <v>114800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>296800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>138300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>88600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>76300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>97400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>37600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>32300</v>
+        <v>24700</v>
       </c>
       <c r="E23" s="3">
-        <v>-51400</v>
+        <v>31800</v>
       </c>
       <c r="F23" s="3">
-        <v>-46700</v>
+        <v>-50600</v>
       </c>
       <c r="G23" s="3">
-        <v>14400</v>
+        <v>-45900</v>
       </c>
       <c r="H23" s="3">
-        <v>6000</v>
+        <v>14100</v>
       </c>
       <c r="I23" s="3">
-        <v>31100</v>
+        <v>5900</v>
       </c>
       <c r="J23" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K23" s="3">
         <v>46700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-66200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>241500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>87800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-22000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-62800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>42600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>47000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-16400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>8400</v>
+        <v>-5900</v>
       </c>
       <c r="E24" s="3">
-        <v>-13200</v>
+        <v>8200</v>
       </c>
       <c r="F24" s="3">
-        <v>-9600</v>
+        <v>-12900</v>
       </c>
       <c r="G24" s="3">
-        <v>-12000</v>
+        <v>-9400</v>
       </c>
       <c r="H24" s="3">
-        <v>4800</v>
+        <v>-11800</v>
       </c>
       <c r="I24" s="3">
-        <v>10800</v>
+        <v>4700</v>
       </c>
       <c r="J24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K24" s="3">
         <v>17900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>44900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>23900</v>
+        <v>30600</v>
       </c>
       <c r="E26" s="3">
-        <v>-38300</v>
+        <v>23500</v>
       </c>
       <c r="F26" s="3">
-        <v>-37100</v>
+        <v>-37600</v>
       </c>
       <c r="G26" s="3">
-        <v>26300</v>
+        <v>-36500</v>
       </c>
       <c r="H26" s="3">
+        <v>25900</v>
+      </c>
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
-        <v>20300</v>
-      </c>
       <c r="J26" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K26" s="3">
         <v>28700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-68600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>240300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-107700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-23500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>22700</v>
+        <v>28200</v>
       </c>
       <c r="E27" s="3">
-        <v>-39500</v>
+        <v>22400</v>
       </c>
       <c r="F27" s="3">
-        <v>-37100</v>
+        <v>-38800</v>
       </c>
       <c r="G27" s="3">
-        <v>23900</v>
+        <v>-36500</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="I27" s="3">
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K27" s="3">
         <v>27500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-71000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>240300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-107700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-23500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1855,11 +1915,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>18000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>44300</v>
+        <v>41200</v>
       </c>
       <c r="E32" s="3">
-        <v>50200</v>
+        <v>43500</v>
       </c>
       <c r="F32" s="3">
+        <v>49400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>52900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>50600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>54100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>65100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>54300</v>
+      </c>
+      <c r="N32" s="3">
         <v>53800</v>
       </c>
-      <c r="G32" s="3">
-        <v>51400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>55000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>51400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>49000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>65100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>54300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>53800</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>45000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>139100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>47100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>51600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>70400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>50500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22700</v>
+        <v>28200</v>
       </c>
       <c r="E33" s="3">
-        <v>-39500</v>
+        <v>22400</v>
       </c>
       <c r="F33" s="3">
-        <v>-37100</v>
+        <v>-38800</v>
       </c>
       <c r="G33" s="3">
-        <v>23900</v>
+        <v>-36500</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="I33" s="3">
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K33" s="3">
         <v>27500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-71000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>240300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-89800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-23500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22700</v>
+        <v>28200</v>
       </c>
       <c r="E35" s="3">
-        <v>-39500</v>
+        <v>22400</v>
       </c>
       <c r="F35" s="3">
-        <v>-37100</v>
+        <v>-38800</v>
       </c>
       <c r="G35" s="3">
-        <v>23900</v>
+        <v>-36500</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="I35" s="3">
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K35" s="3">
         <v>27500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-71000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>240300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-89800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-23500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,232 +2399,245 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>516800</v>
+        <v>516400</v>
       </c>
       <c r="E41" s="3">
-        <v>452200</v>
+        <v>508200</v>
       </c>
       <c r="F41" s="3">
-        <v>323000</v>
+        <v>444700</v>
       </c>
       <c r="G41" s="3">
-        <v>220100</v>
+        <v>317600</v>
       </c>
       <c r="H41" s="3">
-        <v>181800</v>
+        <v>216500</v>
       </c>
       <c r="I41" s="3">
-        <v>254800</v>
+        <v>178800</v>
       </c>
       <c r="J41" s="3">
+        <v>250600</v>
+      </c>
+      <c r="K41" s="3">
         <v>265600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>194000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>309000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>182300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>231700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>301800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>336600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>320900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>362700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>407300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27500</v>
+        <v>45900</v>
       </c>
       <c r="E42" s="3">
-        <v>26300</v>
+        <v>27100</v>
       </c>
       <c r="F42" s="3">
-        <v>43100</v>
+        <v>25900</v>
       </c>
       <c r="G42" s="3">
-        <v>26300</v>
+        <v>42400</v>
       </c>
       <c r="H42" s="3">
-        <v>45500</v>
+        <v>25900</v>
       </c>
       <c r="I42" s="3">
-        <v>22700</v>
+        <v>44700</v>
       </c>
       <c r="J42" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K42" s="3">
         <v>35900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>26600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>38400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>41700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>77400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>50500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>125700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>151400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>137300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>558600</v>
+        <v>477600</v>
       </c>
       <c r="E43" s="3">
-        <v>539500</v>
+        <v>549400</v>
       </c>
       <c r="F43" s="3">
-        <v>651900</v>
+        <v>530600</v>
       </c>
       <c r="G43" s="3">
-        <v>567000</v>
+        <v>641100</v>
       </c>
       <c r="H43" s="3">
-        <v>747600</v>
+        <v>557600</v>
       </c>
       <c r="I43" s="3">
-        <v>753600</v>
+        <v>735300</v>
       </c>
       <c r="J43" s="3">
+        <v>741100</v>
+      </c>
+      <c r="K43" s="3">
         <v>815800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>694400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>659000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>720300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>633500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>470100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>488100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>583400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>550500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>416700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>726100</v>
+        <v>684700</v>
       </c>
       <c r="E44" s="3">
-        <v>759600</v>
+        <v>714100</v>
       </c>
       <c r="F44" s="3">
-        <v>830200</v>
+        <v>747000</v>
       </c>
       <c r="G44" s="3">
-        <v>801500</v>
+        <v>816400</v>
       </c>
       <c r="H44" s="3">
-        <v>829000</v>
+        <v>788200</v>
       </c>
       <c r="I44" s="3">
-        <v>852900</v>
+        <v>815200</v>
       </c>
       <c r="J44" s="3">
+        <v>838800</v>
+      </c>
+      <c r="K44" s="3">
         <v>846900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>780700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>772000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>818000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>732400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>721400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>686700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>681000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>721900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>693700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,232 +2692,247 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1829000</v>
+        <v>1724600</v>
       </c>
       <c r="E46" s="3">
-        <v>1777600</v>
+        <v>1798700</v>
       </c>
       <c r="F46" s="3">
-        <v>1848100</v>
+        <v>1748100</v>
       </c>
       <c r="G46" s="3">
-        <v>1614900</v>
+        <v>1817500</v>
       </c>
       <c r="H46" s="3">
-        <v>1803900</v>
+        <v>1588100</v>
       </c>
       <c r="I46" s="3">
-        <v>1884000</v>
+        <v>1774000</v>
       </c>
       <c r="J46" s="3">
+        <v>1852800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1964200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1704600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1766600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1759000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1639300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1570800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1561800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1711000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1786500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1655100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>90900</v>
+        <v>101200</v>
       </c>
       <c r="E47" s="3">
-        <v>100500</v>
+        <v>89400</v>
       </c>
       <c r="F47" s="3">
-        <v>90900</v>
+        <v>98800</v>
       </c>
       <c r="G47" s="3">
-        <v>81300</v>
+        <v>89400</v>
       </c>
       <c r="H47" s="3">
-        <v>81300</v>
+        <v>80000</v>
       </c>
       <c r="I47" s="3">
-        <v>89700</v>
+        <v>80000</v>
       </c>
       <c r="J47" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K47" s="3">
         <v>87300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>164400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>135100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>147100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>160300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>178400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>160400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>70700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>108000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>131500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2357700</v>
+        <v>2242200</v>
       </c>
       <c r="E48" s="3">
-        <v>2429500</v>
+        <v>2318700</v>
       </c>
       <c r="F48" s="3">
-        <v>2485700</v>
+        <v>2389300</v>
       </c>
       <c r="G48" s="3">
-        <v>2459400</v>
+        <v>2444600</v>
       </c>
       <c r="H48" s="3">
-        <v>2440200</v>
+        <v>2418700</v>
       </c>
       <c r="I48" s="3">
-        <v>2369700</v>
+        <v>2399900</v>
       </c>
       <c r="J48" s="3">
+        <v>2330400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2345700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1970700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1738900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1696400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1643700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1702100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1638100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1641500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1747800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1733700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>599300</v>
+        <v>562300</v>
       </c>
       <c r="E49" s="3">
-        <v>626800</v>
+        <v>589400</v>
       </c>
       <c r="F49" s="3">
-        <v>641200</v>
+        <v>616400</v>
       </c>
       <c r="G49" s="3">
-        <v>628000</v>
+        <v>630600</v>
       </c>
       <c r="H49" s="3">
-        <v>643600</v>
+        <v>617600</v>
       </c>
       <c r="I49" s="3">
-        <v>616000</v>
+        <v>632900</v>
       </c>
       <c r="J49" s="3">
+        <v>605800</v>
+      </c>
+      <c r="K49" s="3">
         <v>625600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>582000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>537200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>529200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>504000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>528500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>541900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>561000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>619800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>629200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>591600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>260800</v>
+        <v>227000</v>
       </c>
       <c r="E52" s="3">
-        <v>265600</v>
+        <v>256500</v>
       </c>
       <c r="F52" s="3">
-        <v>233300</v>
+        <v>261200</v>
       </c>
       <c r="G52" s="3">
-        <v>221300</v>
+        <v>229400</v>
       </c>
       <c r="H52" s="3">
-        <v>222500</v>
+        <v>217600</v>
       </c>
       <c r="I52" s="3">
-        <v>185400</v>
+        <v>218800</v>
       </c>
       <c r="J52" s="3">
+        <v>182300</v>
+      </c>
+      <c r="K52" s="3">
         <v>183000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>192800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>176100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>174600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>173500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>184000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>228900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>239000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>271200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>295800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5137700</v>
+        <v>4857400</v>
       </c>
       <c r="E54" s="3">
-        <v>5199900</v>
+        <v>5052600</v>
       </c>
       <c r="F54" s="3">
-        <v>5299200</v>
+        <v>5113800</v>
       </c>
       <c r="G54" s="3">
-        <v>5004900</v>
+        <v>5211500</v>
       </c>
       <c r="H54" s="3">
-        <v>5191500</v>
+        <v>4922100</v>
       </c>
       <c r="I54" s="3">
-        <v>5144900</v>
+        <v>5105600</v>
       </c>
       <c r="J54" s="3">
+        <v>5059700</v>
+      </c>
+      <c r="K54" s="3">
         <v>5205900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4614500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4354000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4306400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4120800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4163700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4131200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4223200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4533300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4445200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1208200</v>
+        <v>1064600</v>
       </c>
       <c r="E57" s="3">
-        <v>1199800</v>
+        <v>1188200</v>
       </c>
       <c r="F57" s="3">
-        <v>1394800</v>
+        <v>1179900</v>
       </c>
       <c r="G57" s="3">
-        <v>1195000</v>
+        <v>1371700</v>
       </c>
       <c r="H57" s="3">
-        <v>1327800</v>
+        <v>1175200</v>
       </c>
       <c r="I57" s="3">
-        <v>1339700</v>
+        <v>1305800</v>
       </c>
       <c r="J57" s="3">
+        <v>1317600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1379200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1145000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1115400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1203400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1104600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1043500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1058000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1109600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1136200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>984800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>101700</v>
+        <v>108200</v>
       </c>
       <c r="E58" s="3">
-        <v>122000</v>
+        <v>100000</v>
       </c>
       <c r="F58" s="3">
-        <v>234500</v>
+        <v>120000</v>
       </c>
       <c r="G58" s="3">
-        <v>240400</v>
+        <v>230600</v>
       </c>
       <c r="H58" s="3">
-        <v>199800</v>
+        <v>236500</v>
       </c>
       <c r="I58" s="3">
-        <v>193800</v>
+        <v>196500</v>
       </c>
       <c r="J58" s="3">
+        <v>190600</v>
+      </c>
+      <c r="K58" s="3">
         <v>252400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>67400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>142700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>121900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>118900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>113300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>135800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>133800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>125600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>107700</v>
+        <v>104700</v>
       </c>
       <c r="E59" s="3">
-        <v>112400</v>
+        <v>105900</v>
       </c>
       <c r="F59" s="3">
-        <v>153100</v>
+        <v>110600</v>
       </c>
       <c r="G59" s="3">
-        <v>86100</v>
+        <v>150600</v>
       </c>
       <c r="H59" s="3">
-        <v>120800</v>
+        <v>84700</v>
       </c>
       <c r="I59" s="3">
-        <v>89700</v>
+        <v>118800</v>
       </c>
       <c r="J59" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K59" s="3">
         <v>96900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>134900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>85600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>104300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>83000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>86400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>85300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>99800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>104500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1417500</v>
+        <v>1277600</v>
       </c>
       <c r="E60" s="3">
-        <v>1434200</v>
+        <v>1394000</v>
       </c>
       <c r="F60" s="3">
-        <v>1782300</v>
+        <v>1410500</v>
       </c>
       <c r="G60" s="3">
-        <v>1521600</v>
+        <v>1752800</v>
       </c>
       <c r="H60" s="3">
-        <v>1648400</v>
+        <v>1496400</v>
       </c>
       <c r="I60" s="3">
-        <v>1623200</v>
+        <v>1621100</v>
       </c>
       <c r="J60" s="3">
+        <v>1596400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1728500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1347300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1263800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1431800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1330800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1245400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1257800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1330700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1369800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1214900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2836200</v>
+        <v>2704500</v>
       </c>
       <c r="E61" s="3">
-        <v>2911600</v>
+        <v>2789200</v>
       </c>
       <c r="F61" s="3">
-        <v>2635200</v>
+        <v>2863400</v>
       </c>
       <c r="G61" s="3">
-        <v>2583800</v>
+        <v>2591600</v>
       </c>
       <c r="H61" s="3">
-        <v>2635200</v>
+        <v>2541000</v>
       </c>
       <c r="I61" s="3">
-        <v>2650800</v>
+        <v>2591600</v>
       </c>
       <c r="J61" s="3">
+        <v>2606900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2643600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2477000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2281700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2255300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2176200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2267500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2419000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2474000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2722100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2771400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1075400</v>
+        <v>994100</v>
       </c>
       <c r="E62" s="3">
-        <v>1062200</v>
+        <v>1057600</v>
       </c>
       <c r="F62" s="3">
-        <v>1028700</v>
+        <v>1044600</v>
       </c>
       <c r="G62" s="3">
-        <v>1001200</v>
+        <v>1011700</v>
       </c>
       <c r="H62" s="3">
-        <v>1086100</v>
+        <v>984600</v>
       </c>
       <c r="I62" s="3">
-        <v>1006000</v>
+        <v>1068200</v>
       </c>
       <c r="J62" s="3">
+        <v>989400</v>
+      </c>
+      <c r="K62" s="3">
         <v>964100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>925000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>854000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>917900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>962900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1008700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1000800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>998600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1083400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1128000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5344600</v>
+        <v>4992600</v>
       </c>
       <c r="E66" s="3">
-        <v>5422400</v>
+        <v>5256200</v>
       </c>
       <c r="F66" s="3">
-        <v>5459500</v>
+        <v>5332600</v>
       </c>
       <c r="G66" s="3">
-        <v>5119700</v>
+        <v>5369100</v>
       </c>
       <c r="H66" s="3">
-        <v>5382900</v>
+        <v>5035000</v>
       </c>
       <c r="I66" s="3">
-        <v>5292000</v>
+        <v>5293800</v>
       </c>
       <c r="J66" s="3">
+        <v>5204400</v>
+      </c>
+      <c r="K66" s="3">
         <v>5347000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4758800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4409400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4613800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4478700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4530600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4685400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4812200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5185900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5124900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-712900</v>
+        <v>-632900</v>
       </c>
       <c r="E72" s="3">
-        <v>-728500</v>
+        <v>-701100</v>
       </c>
       <c r="F72" s="3">
-        <v>-666300</v>
+        <v>-716400</v>
       </c>
       <c r="G72" s="3">
-        <v>-620800</v>
+        <v>-655300</v>
       </c>
       <c r="H72" s="3">
-        <v>-697400</v>
+        <v>-610600</v>
       </c>
       <c r="I72" s="3">
-        <v>-653100</v>
+        <v>-685800</v>
       </c>
       <c r="J72" s="3">
+        <v>-642300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-647100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-644700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-523900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-771900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-822400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-841500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-738300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-773100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-845100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-872100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-206900</v>
+        <v>-135300</v>
       </c>
       <c r="E76" s="3">
-        <v>-222500</v>
+        <v>-203500</v>
       </c>
       <c r="F76" s="3">
-        <v>-160300</v>
+        <v>-218800</v>
       </c>
       <c r="G76" s="3">
-        <v>-114800</v>
+        <v>-157600</v>
       </c>
       <c r="H76" s="3">
-        <v>-191400</v>
+        <v>-112900</v>
       </c>
       <c r="I76" s="3">
-        <v>-147100</v>
+        <v>-188200</v>
       </c>
       <c r="J76" s="3">
+        <v>-144700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-141200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-144300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-55400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-307400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-357900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-366900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-554300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-589000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-652600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-679600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22700</v>
+        <v>28200</v>
       </c>
       <c r="E81" s="3">
-        <v>-39500</v>
+        <v>22400</v>
       </c>
       <c r="F81" s="3">
-        <v>-37100</v>
+        <v>-38800</v>
       </c>
       <c r="G81" s="3">
-        <v>23900</v>
+        <v>-36500</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="I81" s="3">
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K81" s="3">
         <v>27500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-71000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>240300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-89800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-23500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>87300</v>
+        <v>57600</v>
       </c>
       <c r="E83" s="3">
-        <v>84900</v>
+        <v>85900</v>
       </c>
       <c r="F83" s="3">
-        <v>78900</v>
+        <v>83500</v>
       </c>
       <c r="G83" s="3">
-        <v>87300</v>
+        <v>77600</v>
       </c>
       <c r="H83" s="3">
-        <v>78900</v>
+        <v>85900</v>
       </c>
       <c r="I83" s="3">
-        <v>71800</v>
+        <v>77600</v>
       </c>
       <c r="J83" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K83" s="3">
         <v>68200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>55400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>50500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>48300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>51600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>46000</v>
       </c>
       <c r="Q83" s="3">
         <v>46000</v>
       </c>
       <c r="R83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="S83" s="3">
         <v>50500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>54000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>132800</v>
+        <v>83500</v>
       </c>
       <c r="E89" s="3">
-        <v>9600</v>
+        <v>130600</v>
       </c>
       <c r="F89" s="3">
-        <v>172300</v>
+        <v>9400</v>
       </c>
       <c r="G89" s="3">
-        <v>128000</v>
+        <v>169400</v>
       </c>
       <c r="H89" s="3">
-        <v>95700</v>
+        <v>125900</v>
       </c>
       <c r="I89" s="3">
-        <v>153100</v>
+        <v>94100</v>
       </c>
       <c r="J89" s="3">
+        <v>150600</v>
+      </c>
+      <c r="K89" s="3">
         <v>157900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>50900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-26400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>85300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>50500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>42300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-119700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43100</v>
+        <v>-56500</v>
       </c>
       <c r="E91" s="3">
-        <v>-49000</v>
+        <v>-42400</v>
       </c>
       <c r="F91" s="3">
-        <v>-68200</v>
+        <v>-48200</v>
       </c>
       <c r="G91" s="3">
-        <v>-108900</v>
+        <v>-67100</v>
       </c>
       <c r="H91" s="3">
-        <v>-59800</v>
+        <v>-107100</v>
       </c>
       <c r="I91" s="3">
-        <v>-84900</v>
+        <v>-58800</v>
       </c>
       <c r="J91" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-70600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-138400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-54900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-51600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-113300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-61700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-67300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-70400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-146700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43100</v>
+        <v>-50600</v>
       </c>
       <c r="E94" s="3">
-        <v>-47800</v>
+        <v>-42400</v>
       </c>
       <c r="F94" s="3">
-        <v>-68200</v>
+        <v>-47100</v>
       </c>
       <c r="G94" s="3">
-        <v>-105300</v>
+        <v>-67100</v>
       </c>
       <c r="H94" s="3">
-        <v>-58600</v>
+        <v>-103500</v>
       </c>
       <c r="I94" s="3">
-        <v>-88500</v>
+        <v>-57600</v>
       </c>
       <c r="J94" s="3">
+        <v>-87100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-169900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-145500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>150600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-65900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-130200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-74100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-81000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-154900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,93 +5549,99 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21500</v>
+        <v>-24700</v>
       </c>
       <c r="E100" s="3">
-        <v>168700</v>
+        <v>-21200</v>
       </c>
       <c r="F100" s="3">
+        <v>165900</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
-        <v>16700</v>
-      </c>
       <c r="H100" s="3">
-        <v>-112400</v>
+        <v>16500</v>
       </c>
       <c r="I100" s="3">
-        <v>-74200</v>
+        <v>-110600</v>
       </c>
       <c r="J100" s="3">
+        <v>-72900</v>
+      </c>
+      <c r="K100" s="3">
         <v>78900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-76400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>93100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-44600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3600</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2400</v>
       </c>
       <c r="K101" s="3">
         <v>2400</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5402,77 +5650,83 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>-1100</v>
       </c>
       <c r="Q101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R101" s="3">
         <v>-4500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S101" s="3">
-        <v>1200</v>
       </c>
       <c r="T101" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64600</v>
+        <v>8200</v>
       </c>
       <c r="E102" s="3">
-        <v>129200</v>
+        <v>63500</v>
       </c>
       <c r="F102" s="3">
-        <v>102900</v>
+        <v>127100</v>
       </c>
       <c r="G102" s="3">
-        <v>38300</v>
+        <v>101200</v>
       </c>
       <c r="H102" s="3">
-        <v>-73000</v>
+        <v>37600</v>
       </c>
       <c r="I102" s="3">
-        <v>-10800</v>
+        <v>-71800</v>
       </c>
       <c r="J102" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K102" s="3">
         <v>69400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-136000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>125200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-49400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-63700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-34800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-25800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-44600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-318100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1462300</v>
+        <v>1522700</v>
       </c>
       <c r="E8" s="3">
-        <v>1378700</v>
+        <v>1435700</v>
       </c>
       <c r="F8" s="3">
-        <v>1212900</v>
+        <v>1263000</v>
       </c>
       <c r="G8" s="3">
-        <v>1690500</v>
+        <v>1760300</v>
       </c>
       <c r="H8" s="3">
-        <v>1614000</v>
+        <v>1680700</v>
       </c>
       <c r="I8" s="3">
-        <v>1718700</v>
+        <v>1789700</v>
       </c>
       <c r="J8" s="3">
-        <v>1809300</v>
+        <v>1884000</v>
       </c>
       <c r="K8" s="3">
         <v>1837400</v>
@@ -814,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1304600</v>
+        <v>1341400</v>
       </c>
       <c r="E9" s="3">
-        <v>1237600</v>
+        <v>1288700</v>
       </c>
       <c r="F9" s="3">
-        <v>1131700</v>
+        <v>1178400</v>
       </c>
       <c r="G9" s="3">
-        <v>1510500</v>
+        <v>1572900</v>
       </c>
       <c r="H9" s="3">
-        <v>1459900</v>
+        <v>1520200</v>
       </c>
       <c r="I9" s="3">
-        <v>1548100</v>
+        <v>1612100</v>
       </c>
       <c r="J9" s="3">
-        <v>1595200</v>
+        <v>1661100</v>
       </c>
       <c r="K9" s="3">
         <v>1665100</v>
@@ -873,25 +873,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>157600</v>
+        <v>181300</v>
       </c>
       <c r="E10" s="3">
-        <v>141200</v>
+        <v>147000</v>
       </c>
       <c r="F10" s="3">
-        <v>81200</v>
+        <v>84500</v>
       </c>
       <c r="G10" s="3">
-        <v>180000</v>
+        <v>187400</v>
       </c>
       <c r="H10" s="3">
-        <v>154100</v>
+        <v>160500</v>
       </c>
       <c r="I10" s="3">
-        <v>170600</v>
+        <v>177600</v>
       </c>
       <c r="J10" s="3">
-        <v>214100</v>
+        <v>222900</v>
       </c>
       <c r="K10" s="3">
         <v>172300</v>
@@ -955,25 +955,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="E12" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="F12" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="G12" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="H12" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="I12" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="J12" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="K12" s="3">
         <v>14400</v>
@@ -1072,14 +1072,14 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>2400</v>
       </c>
       <c r="F14" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1211,25 +1211,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1396400</v>
+        <v>1454100</v>
       </c>
       <c r="E17" s="3">
-        <v>1303500</v>
+        <v>1357300</v>
       </c>
       <c r="F17" s="3">
-        <v>1214000</v>
+        <v>1264200</v>
       </c>
       <c r="G17" s="3">
-        <v>1683400</v>
+        <v>1753000</v>
       </c>
       <c r="H17" s="3">
-        <v>1549300</v>
+        <v>1613300</v>
       </c>
       <c r="I17" s="3">
-        <v>1658700</v>
+        <v>1727200</v>
       </c>
       <c r="J17" s="3">
-        <v>1728100</v>
+        <v>1799500</v>
       </c>
       <c r="K17" s="3">
         <v>1741700</v>
@@ -1270,25 +1270,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>65900</v>
+        <v>68600</v>
       </c>
       <c r="E18" s="3">
-        <v>75300</v>
+        <v>78400</v>
       </c>
       <c r="F18" s="3">
         <v>-1200</v>
       </c>
       <c r="G18" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="H18" s="3">
-        <v>64700</v>
+        <v>67400</v>
       </c>
       <c r="I18" s="3">
-        <v>60000</v>
+        <v>62500</v>
       </c>
       <c r="J18" s="3">
-        <v>81200</v>
+        <v>84500</v>
       </c>
       <c r="K18" s="3">
         <v>95700</v>
@@ -1352,25 +1352,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-41200</v>
+        <v>-42900</v>
       </c>
       <c r="E20" s="3">
-        <v>-43500</v>
+        <v>-45300</v>
       </c>
       <c r="F20" s="3">
-        <v>-49400</v>
+        <v>-51400</v>
       </c>
       <c r="G20" s="3">
-        <v>-52900</v>
+        <v>-55100</v>
       </c>
       <c r="H20" s="3">
-        <v>-50600</v>
+        <v>-52700</v>
       </c>
       <c r="I20" s="3">
-        <v>-54100</v>
+        <v>-56300</v>
       </c>
       <c r="J20" s="3">
-        <v>-50600</v>
+        <v>-52700</v>
       </c>
       <c r="K20" s="3">
         <v>-49000</v>
@@ -1411,25 +1411,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>82300</v>
+        <v>85700</v>
       </c>
       <c r="E21" s="3">
-        <v>117600</v>
+        <v>122500</v>
       </c>
       <c r="F21" s="3">
-        <v>32900</v>
+        <v>34300</v>
       </c>
       <c r="G21" s="3">
-        <v>31800</v>
+        <v>33100</v>
       </c>
       <c r="H21" s="3">
-        <v>100000</v>
+        <v>104100</v>
       </c>
       <c r="I21" s="3">
-        <v>83500</v>
+        <v>87000</v>
       </c>
       <c r="J21" s="3">
-        <v>101200</v>
+        <v>105300</v>
       </c>
       <c r="K21" s="3">
         <v>114800</v>
@@ -1529,25 +1529,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>24700</v>
+        <v>25700</v>
       </c>
       <c r="E23" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J23" s="3">
         <v>31800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-50600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-45900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>14100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>5900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>30600</v>
       </c>
       <c r="K23" s="3">
         <v>46700</v>
@@ -1588,25 +1588,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="E24" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="F24" s="3">
-        <v>-12900</v>
+        <v>-13500</v>
       </c>
       <c r="G24" s="3">
-        <v>-9400</v>
+        <v>-9800</v>
       </c>
       <c r="H24" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="I24" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="J24" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="K24" s="3">
         <v>17900</v>
@@ -1706,25 +1706,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>30600</v>
+        <v>31800</v>
       </c>
       <c r="E26" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="F26" s="3">
-        <v>-37600</v>
+        <v>-39200</v>
       </c>
       <c r="G26" s="3">
-        <v>-36500</v>
+        <v>-38000</v>
       </c>
       <c r="H26" s="3">
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="I26" s="3">
         <v>1200</v>
       </c>
       <c r="J26" s="3">
-        <v>20000</v>
+        <v>20800</v>
       </c>
       <c r="K26" s="3">
         <v>28700</v>
@@ -1765,25 +1765,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>28200</v>
+        <v>29400</v>
       </c>
       <c r="E27" s="3">
-        <v>22400</v>
+        <v>23300</v>
       </c>
       <c r="F27" s="3">
-        <v>-38800</v>
+        <v>-40400</v>
       </c>
       <c r="G27" s="3">
-        <v>-36500</v>
+        <v>-38000</v>
       </c>
       <c r="H27" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>18800</v>
+        <v>19600</v>
       </c>
       <c r="K27" s="3">
         <v>27500</v>
@@ -2060,25 +2060,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>41200</v>
+        <v>42900</v>
       </c>
       <c r="E32" s="3">
-        <v>43500</v>
+        <v>45300</v>
       </c>
       <c r="F32" s="3">
-        <v>49400</v>
+        <v>51400</v>
       </c>
       <c r="G32" s="3">
-        <v>52900</v>
+        <v>55100</v>
       </c>
       <c r="H32" s="3">
-        <v>50600</v>
+        <v>52700</v>
       </c>
       <c r="I32" s="3">
-        <v>54100</v>
+        <v>56300</v>
       </c>
       <c r="J32" s="3">
-        <v>50600</v>
+        <v>52700</v>
       </c>
       <c r="K32" s="3">
         <v>49000</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28200</v>
+        <v>29400</v>
       </c>
       <c r="E33" s="3">
-        <v>22400</v>
+        <v>23300</v>
       </c>
       <c r="F33" s="3">
-        <v>-38800</v>
+        <v>-40400</v>
       </c>
       <c r="G33" s="3">
-        <v>-36500</v>
+        <v>-38000</v>
       </c>
       <c r="H33" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>18800</v>
+        <v>19600</v>
       </c>
       <c r="K33" s="3">
         <v>27500</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28200</v>
+        <v>29400</v>
       </c>
       <c r="E35" s="3">
-        <v>22400</v>
+        <v>23300</v>
       </c>
       <c r="F35" s="3">
-        <v>-38800</v>
+        <v>-40400</v>
       </c>
       <c r="G35" s="3">
-        <v>-36500</v>
+        <v>-38000</v>
       </c>
       <c r="H35" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>18800</v>
+        <v>19600</v>
       </c>
       <c r="K35" s="3">
         <v>27500</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>516400</v>
+        <v>537800</v>
       </c>
       <c r="E41" s="3">
-        <v>508200</v>
+        <v>529200</v>
       </c>
       <c r="F41" s="3">
-        <v>444700</v>
+        <v>463000</v>
       </c>
       <c r="G41" s="3">
-        <v>317600</v>
+        <v>330700</v>
       </c>
       <c r="H41" s="3">
-        <v>216500</v>
+        <v>225400</v>
       </c>
       <c r="I41" s="3">
-        <v>178800</v>
+        <v>186200</v>
       </c>
       <c r="J41" s="3">
-        <v>250600</v>
+        <v>260900</v>
       </c>
       <c r="K41" s="3">
         <v>265600</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>45900</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>27100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>25900</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>42400</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>25900</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>44700</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>22400</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>35900</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>477600</v>
+        <v>497300</v>
       </c>
       <c r="E43" s="3">
-        <v>549400</v>
+        <v>572100</v>
       </c>
       <c r="F43" s="3">
-        <v>530600</v>
+        <v>552500</v>
       </c>
       <c r="G43" s="3">
-        <v>641100</v>
+        <v>667600</v>
       </c>
       <c r="H43" s="3">
-        <v>557600</v>
+        <v>580600</v>
       </c>
       <c r="I43" s="3">
-        <v>735300</v>
+        <v>765600</v>
       </c>
       <c r="J43" s="3">
-        <v>741100</v>
+        <v>771700</v>
       </c>
       <c r="K43" s="3">
         <v>815800</v>
@@ -2583,25 +2583,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>684700</v>
+        <v>712900</v>
       </c>
       <c r="E44" s="3">
-        <v>714100</v>
+        <v>743600</v>
       </c>
       <c r="F44" s="3">
-        <v>747000</v>
+        <v>777900</v>
       </c>
       <c r="G44" s="3">
-        <v>816400</v>
+        <v>850100</v>
       </c>
       <c r="H44" s="3">
-        <v>788200</v>
+        <v>820700</v>
       </c>
       <c r="I44" s="3">
-        <v>815200</v>
+        <v>848900</v>
       </c>
       <c r="J44" s="3">
-        <v>838800</v>
+        <v>873400</v>
       </c>
       <c r="K44" s="3">
         <v>846900</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>47800</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>28200</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>26900</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>44100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>26900</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>46500</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>23300</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1724600</v>
+        <v>1795800</v>
       </c>
       <c r="E46" s="3">
-        <v>1798700</v>
+        <v>1873000</v>
       </c>
       <c r="F46" s="3">
-        <v>1748100</v>
+        <v>1820300</v>
       </c>
       <c r="G46" s="3">
-        <v>1817500</v>
+        <v>1892600</v>
       </c>
       <c r="H46" s="3">
-        <v>1588100</v>
+        <v>1653700</v>
       </c>
       <c r="I46" s="3">
-        <v>1774000</v>
+        <v>1847300</v>
       </c>
       <c r="J46" s="3">
-        <v>1852800</v>
+        <v>1929400</v>
       </c>
       <c r="K46" s="3">
         <v>1964200</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>101200</v>
+        <v>83300</v>
       </c>
       <c r="E47" s="3">
-        <v>89400</v>
+        <v>83300</v>
       </c>
       <c r="F47" s="3">
-        <v>98800</v>
+        <v>91900</v>
       </c>
       <c r="G47" s="3">
-        <v>89400</v>
+        <v>75900</v>
       </c>
       <c r="H47" s="3">
-        <v>80000</v>
+        <v>74700</v>
       </c>
       <c r="I47" s="3">
-        <v>80000</v>
+        <v>64900</v>
       </c>
       <c r="J47" s="3">
-        <v>88200</v>
+        <v>83300</v>
       </c>
       <c r="K47" s="3">
         <v>87300</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2242200</v>
+        <v>2334800</v>
       </c>
       <c r="E48" s="3">
-        <v>2318700</v>
+        <v>2414500</v>
       </c>
       <c r="F48" s="3">
-        <v>2389300</v>
+        <v>2488000</v>
       </c>
       <c r="G48" s="3">
-        <v>2444600</v>
+        <v>2545500</v>
       </c>
       <c r="H48" s="3">
-        <v>2418700</v>
+        <v>2518600</v>
       </c>
       <c r="I48" s="3">
-        <v>2399900</v>
+        <v>2499000</v>
       </c>
       <c r="J48" s="3">
-        <v>2330400</v>
+        <v>2426700</v>
       </c>
       <c r="K48" s="3">
         <v>2345700</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>562300</v>
+        <v>585500</v>
       </c>
       <c r="E49" s="3">
-        <v>589400</v>
+        <v>613700</v>
       </c>
       <c r="F49" s="3">
-        <v>616400</v>
+        <v>641900</v>
       </c>
       <c r="G49" s="3">
-        <v>630600</v>
+        <v>656600</v>
       </c>
       <c r="H49" s="3">
-        <v>617600</v>
+        <v>643100</v>
       </c>
       <c r="I49" s="3">
-        <v>632900</v>
+        <v>659000</v>
       </c>
       <c r="J49" s="3">
-        <v>605800</v>
+        <v>630900</v>
       </c>
       <c r="K49" s="3">
         <v>625600</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>227000</v>
+        <v>258500</v>
       </c>
       <c r="E52" s="3">
-        <v>256500</v>
+        <v>276800</v>
       </c>
       <c r="F52" s="3">
-        <v>261200</v>
+        <v>283000</v>
       </c>
       <c r="G52" s="3">
-        <v>229400</v>
+        <v>256000</v>
       </c>
       <c r="H52" s="3">
-        <v>217600</v>
+        <v>235200</v>
       </c>
       <c r="I52" s="3">
-        <v>218800</v>
+        <v>246200</v>
       </c>
       <c r="J52" s="3">
-        <v>182300</v>
+        <v>198400</v>
       </c>
       <c r="K52" s="3">
         <v>183000</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4857400</v>
+        <v>5058000</v>
       </c>
       <c r="E54" s="3">
-        <v>5052600</v>
+        <v>5261300</v>
       </c>
       <c r="F54" s="3">
-        <v>5113800</v>
+        <v>5325000</v>
       </c>
       <c r="G54" s="3">
-        <v>5211500</v>
+        <v>5426700</v>
       </c>
       <c r="H54" s="3">
-        <v>4922100</v>
+        <v>5125400</v>
       </c>
       <c r="I54" s="3">
-        <v>5105600</v>
+        <v>5316500</v>
       </c>
       <c r="J54" s="3">
-        <v>5059700</v>
+        <v>5268700</v>
       </c>
       <c r="K54" s="3">
         <v>5205900</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1064600</v>
+        <v>1108600</v>
       </c>
       <c r="E57" s="3">
-        <v>1188200</v>
+        <v>1237200</v>
       </c>
       <c r="F57" s="3">
-        <v>1179900</v>
+        <v>1228700</v>
       </c>
       <c r="G57" s="3">
-        <v>1371700</v>
+        <v>1428300</v>
       </c>
       <c r="H57" s="3">
-        <v>1175200</v>
+        <v>1223800</v>
       </c>
       <c r="I57" s="3">
-        <v>1305800</v>
+        <v>1359700</v>
       </c>
       <c r="J57" s="3">
-        <v>1317600</v>
+        <v>1372000</v>
       </c>
       <c r="K57" s="3">
         <v>1379200</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>108200</v>
+        <v>112700</v>
       </c>
       <c r="E58" s="3">
-        <v>100000</v>
+        <v>104100</v>
       </c>
       <c r="F58" s="3">
-        <v>120000</v>
+        <v>124900</v>
       </c>
       <c r="G58" s="3">
-        <v>230600</v>
+        <v>240100</v>
       </c>
       <c r="H58" s="3">
-        <v>236500</v>
+        <v>246200</v>
       </c>
       <c r="I58" s="3">
-        <v>196500</v>
+        <v>204600</v>
       </c>
       <c r="J58" s="3">
-        <v>190600</v>
+        <v>198400</v>
       </c>
       <c r="K58" s="3">
         <v>252400</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>104700</v>
+        <v>109000</v>
       </c>
       <c r="E59" s="3">
-        <v>105900</v>
+        <v>110200</v>
       </c>
       <c r="F59" s="3">
-        <v>110600</v>
+        <v>115100</v>
       </c>
       <c r="G59" s="3">
-        <v>150600</v>
+        <v>156800</v>
       </c>
       <c r="H59" s="3">
-        <v>84700</v>
+        <v>88200</v>
       </c>
       <c r="I59" s="3">
-        <v>118800</v>
+        <v>123700</v>
       </c>
       <c r="J59" s="3">
-        <v>88200</v>
+        <v>91900</v>
       </c>
       <c r="K59" s="3">
         <v>96900</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1277600</v>
+        <v>1330300</v>
       </c>
       <c r="E60" s="3">
-        <v>1394000</v>
+        <v>1451600</v>
       </c>
       <c r="F60" s="3">
-        <v>1410500</v>
+        <v>1468800</v>
       </c>
       <c r="G60" s="3">
-        <v>1752800</v>
+        <v>1825200</v>
       </c>
       <c r="H60" s="3">
-        <v>1496400</v>
+        <v>1558200</v>
       </c>
       <c r="I60" s="3">
-        <v>1621100</v>
+        <v>1688000</v>
       </c>
       <c r="J60" s="3">
-        <v>1596400</v>
+        <v>1662300</v>
       </c>
       <c r="K60" s="3">
         <v>1728500</v>
@@ -3514,25 +3514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2704500</v>
+        <v>2816300</v>
       </c>
       <c r="E61" s="3">
-        <v>2789200</v>
+        <v>2904500</v>
       </c>
       <c r="F61" s="3">
-        <v>2863400</v>
+        <v>2981600</v>
       </c>
       <c r="G61" s="3">
-        <v>2591600</v>
+        <v>2698700</v>
       </c>
       <c r="H61" s="3">
-        <v>2541000</v>
+        <v>2646000</v>
       </c>
       <c r="I61" s="3">
-        <v>2591600</v>
+        <v>2698700</v>
       </c>
       <c r="J61" s="3">
-        <v>2606900</v>
+        <v>2714600</v>
       </c>
       <c r="K61" s="3">
         <v>2643600</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>994100</v>
+        <v>1035100</v>
       </c>
       <c r="E62" s="3">
-        <v>1057600</v>
+        <v>1101300</v>
       </c>
       <c r="F62" s="3">
-        <v>1044600</v>
+        <v>1087800</v>
       </c>
       <c r="G62" s="3">
-        <v>1011700</v>
+        <v>1053500</v>
       </c>
       <c r="H62" s="3">
-        <v>984600</v>
+        <v>1025300</v>
       </c>
       <c r="I62" s="3">
-        <v>1068200</v>
+        <v>1112300</v>
       </c>
       <c r="J62" s="3">
-        <v>989400</v>
+        <v>1030200</v>
       </c>
       <c r="K62" s="3">
         <v>964100</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4992600</v>
+        <v>5198900</v>
       </c>
       <c r="E66" s="3">
-        <v>5256200</v>
+        <v>5473300</v>
       </c>
       <c r="F66" s="3">
-        <v>5332600</v>
+        <v>5552900</v>
       </c>
       <c r="G66" s="3">
-        <v>5369100</v>
+        <v>5590900</v>
       </c>
       <c r="H66" s="3">
-        <v>5035000</v>
+        <v>5243000</v>
       </c>
       <c r="I66" s="3">
-        <v>5293800</v>
+        <v>5512500</v>
       </c>
       <c r="J66" s="3">
-        <v>5204400</v>
+        <v>5419400</v>
       </c>
       <c r="K66" s="3">
         <v>5347000</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-632900</v>
+        <v>-659000</v>
       </c>
       <c r="E72" s="3">
-        <v>-701100</v>
+        <v>-730100</v>
       </c>
       <c r="F72" s="3">
-        <v>-716400</v>
+        <v>-746000</v>
       </c>
       <c r="G72" s="3">
-        <v>-655300</v>
+        <v>-682300</v>
       </c>
       <c r="H72" s="3">
-        <v>-610600</v>
+        <v>-635800</v>
       </c>
       <c r="I72" s="3">
-        <v>-685800</v>
+        <v>-714200</v>
       </c>
       <c r="J72" s="3">
-        <v>-642300</v>
+        <v>-668800</v>
       </c>
       <c r="K72" s="3">
         <v>-647100</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-135300</v>
+        <v>-140900</v>
       </c>
       <c r="E76" s="3">
-        <v>-203500</v>
+        <v>-211900</v>
       </c>
       <c r="F76" s="3">
-        <v>-218800</v>
+        <v>-227800</v>
       </c>
       <c r="G76" s="3">
-        <v>-157600</v>
+        <v>-164100</v>
       </c>
       <c r="H76" s="3">
-        <v>-112900</v>
+        <v>-117600</v>
       </c>
       <c r="I76" s="3">
-        <v>-188200</v>
+        <v>-196000</v>
       </c>
       <c r="J76" s="3">
-        <v>-144700</v>
+        <v>-150700</v>
       </c>
       <c r="K76" s="3">
         <v>-141200</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28200</v>
+        <v>29400</v>
       </c>
       <c r="E81" s="3">
-        <v>22400</v>
+        <v>23300</v>
       </c>
       <c r="F81" s="3">
-        <v>-38800</v>
+        <v>-40400</v>
       </c>
       <c r="G81" s="3">
-        <v>-36500</v>
+        <v>-38000</v>
       </c>
       <c r="H81" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>18800</v>
+        <v>19600</v>
       </c>
       <c r="K81" s="3">
         <v>27500</v>
@@ -4627,25 +4627,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>57600</v>
+        <v>60000</v>
       </c>
       <c r="E83" s="3">
-        <v>85900</v>
+        <v>89400</v>
       </c>
       <c r="F83" s="3">
-        <v>83500</v>
+        <v>87000</v>
       </c>
       <c r="G83" s="3">
-        <v>77600</v>
+        <v>80800</v>
       </c>
       <c r="H83" s="3">
-        <v>85900</v>
+        <v>89400</v>
       </c>
       <c r="I83" s="3">
-        <v>77600</v>
+        <v>80800</v>
       </c>
       <c r="J83" s="3">
-        <v>70600</v>
+        <v>73500</v>
       </c>
       <c r="K83" s="3">
         <v>68200</v>
@@ -4981,25 +4981,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>83500</v>
+        <v>87000</v>
       </c>
       <c r="E89" s="3">
-        <v>130600</v>
+        <v>136000</v>
       </c>
       <c r="F89" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="G89" s="3">
-        <v>169400</v>
+        <v>176400</v>
       </c>
       <c r="H89" s="3">
-        <v>125900</v>
+        <v>131100</v>
       </c>
       <c r="I89" s="3">
-        <v>94100</v>
+        <v>98000</v>
       </c>
       <c r="J89" s="3">
-        <v>150600</v>
+        <v>156800</v>
       </c>
       <c r="K89" s="3">
         <v>157900</v>
@@ -5063,25 +5063,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-56500</v>
+        <v>-58800</v>
       </c>
       <c r="E91" s="3">
-        <v>-42400</v>
+        <v>-44100</v>
       </c>
       <c r="F91" s="3">
-        <v>-48200</v>
+        <v>-50200</v>
       </c>
       <c r="G91" s="3">
-        <v>-67100</v>
+        <v>-69800</v>
       </c>
       <c r="H91" s="3">
-        <v>-107100</v>
+        <v>-111500</v>
       </c>
       <c r="I91" s="3">
-        <v>-58800</v>
+        <v>-61200</v>
       </c>
       <c r="J91" s="3">
-        <v>-83500</v>
+        <v>-87000</v>
       </c>
       <c r="K91" s="3">
         <v>-70600</v>
@@ -5240,25 +5240,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-50600</v>
+        <v>-52700</v>
       </c>
       <c r="E94" s="3">
-        <v>-42400</v>
+        <v>-44100</v>
       </c>
       <c r="F94" s="3">
-        <v>-47100</v>
+        <v>-49000</v>
       </c>
       <c r="G94" s="3">
-        <v>-67100</v>
+        <v>-69800</v>
       </c>
       <c r="H94" s="3">
-        <v>-103500</v>
+        <v>-107800</v>
       </c>
       <c r="I94" s="3">
-        <v>-57600</v>
+        <v>-60000</v>
       </c>
       <c r="J94" s="3">
-        <v>-87100</v>
+        <v>-90600</v>
       </c>
       <c r="K94" s="3">
         <v>-169900</v>
@@ -5558,25 +5558,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-24700</v>
+        <v>-25700</v>
       </c>
       <c r="E100" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="F100" s="3">
-        <v>165900</v>
+        <v>172700</v>
       </c>
       <c r="G100" s="3">
         <v>-1200</v>
       </c>
       <c r="H100" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="I100" s="3">
-        <v>-110600</v>
+        <v>-115100</v>
       </c>
       <c r="J100" s="3">
-        <v>-72900</v>
+        <v>-75900</v>
       </c>
       <c r="K100" s="3">
         <v>78900</v>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="F101" s="3">
         <v>-1200</v>
@@ -5676,25 +5676,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="E102" s="3">
-        <v>63500</v>
+        <v>66100</v>
       </c>
       <c r="F102" s="3">
-        <v>127100</v>
+        <v>132300</v>
       </c>
       <c r="G102" s="3">
-        <v>101200</v>
+        <v>105300</v>
       </c>
       <c r="H102" s="3">
-        <v>37600</v>
+        <v>39200</v>
       </c>
       <c r="I102" s="3">
-        <v>-71800</v>
+        <v>-74700</v>
       </c>
       <c r="J102" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="K102" s="3">
         <v>69400</v>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1522700</v>
+        <v>1565500</v>
       </c>
       <c r="E8" s="3">
-        <v>1435700</v>
+        <v>1451100</v>
       </c>
       <c r="F8" s="3">
-        <v>1263000</v>
+        <v>1368200</v>
       </c>
       <c r="G8" s="3">
-        <v>1760300</v>
+        <v>1203600</v>
       </c>
       <c r="H8" s="3">
-        <v>1680700</v>
+        <v>1677600</v>
       </c>
       <c r="I8" s="3">
-        <v>1789700</v>
+        <v>1601700</v>
       </c>
       <c r="J8" s="3">
+        <v>1705600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1884000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1837400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1653700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1581700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1618500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1521800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1400200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1435000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1550600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1558800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1362800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1341400</v>
+        <v>1399700</v>
       </c>
       <c r="E9" s="3">
-        <v>1288700</v>
+        <v>1278300</v>
       </c>
       <c r="F9" s="3">
-        <v>1178400</v>
+        <v>1228100</v>
       </c>
       <c r="G9" s="3">
-        <v>1572900</v>
+        <v>1123000</v>
       </c>
       <c r="H9" s="3">
-        <v>1520200</v>
+        <v>1499000</v>
       </c>
       <c r="I9" s="3">
-        <v>1612100</v>
+        <v>1448800</v>
       </c>
       <c r="J9" s="3">
+        <v>1536300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1661100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1665100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1510600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1452100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1427400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1371400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1276800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1279100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1382300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1394500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1219600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>181300</v>
+        <v>165800</v>
       </c>
       <c r="E10" s="3">
-        <v>147000</v>
+        <v>172800</v>
       </c>
       <c r="F10" s="3">
-        <v>84500</v>
+        <v>140100</v>
       </c>
       <c r="G10" s="3">
-        <v>187400</v>
+        <v>80600</v>
       </c>
       <c r="H10" s="3">
-        <v>160500</v>
+        <v>178600</v>
       </c>
       <c r="I10" s="3">
-        <v>177600</v>
+        <v>152900</v>
       </c>
       <c r="J10" s="3">
+        <v>169300</v>
+      </c>
+      <c r="K10" s="3">
         <v>222900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>172300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>143100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>129600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>191100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>150400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>123400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>156000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>168300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>164300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>143200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>164300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="E12" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>14700</v>
+      </c>
+      <c r="L12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="M12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="O12" s="3">
         <v>11000</v>
       </c>
-      <c r="F12" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>15900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>14700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>14700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>14400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>10600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>11100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>11000</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,67 +1084,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>13500</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>2300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
-        <v>2400</v>
-      </c>
       <c r="I14" s="3">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>1100</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>2300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1454100</v>
+        <v>1432400</v>
       </c>
       <c r="E17" s="3">
-        <v>1357300</v>
+        <v>1385700</v>
       </c>
       <c r="F17" s="3">
-        <v>1264200</v>
+        <v>1293500</v>
       </c>
       <c r="G17" s="3">
-        <v>1753000</v>
+        <v>1204800</v>
       </c>
       <c r="H17" s="3">
-        <v>1613300</v>
+        <v>1670600</v>
       </c>
       <c r="I17" s="3">
-        <v>1727200</v>
+        <v>1537500</v>
       </c>
       <c r="J17" s="3">
+        <v>1646000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1799500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1741700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1654900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1285900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1476800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1498800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1323900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1345300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1468700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1441400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1328800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>68600</v>
+        <v>133100</v>
       </c>
       <c r="E18" s="3">
-        <v>78400</v>
+        <v>65400</v>
       </c>
       <c r="F18" s="3">
+        <v>74700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
-        <v>7300</v>
-      </c>
       <c r="H18" s="3">
-        <v>67400</v>
+        <v>7000</v>
       </c>
       <c r="I18" s="3">
-        <v>62500</v>
+        <v>64200</v>
       </c>
       <c r="J18" s="3">
+        <v>59500</v>
+      </c>
+      <c r="K18" s="3">
         <v>84500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>295700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>141600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>23100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>76300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>89800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>81900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>117400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>34000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-42900</v>
+        <v>-64200</v>
       </c>
       <c r="E20" s="3">
-        <v>-45300</v>
+        <v>-40900</v>
       </c>
       <c r="F20" s="3">
-        <v>-51400</v>
+        <v>-43200</v>
       </c>
       <c r="G20" s="3">
-        <v>-55100</v>
+        <v>-49000</v>
       </c>
       <c r="H20" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-52700</v>
       </c>
-      <c r="I20" s="3">
-        <v>-56300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-52700</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-49000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-65100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-54300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-53800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-45000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-139100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-47100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-51600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-70400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-50500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>85700</v>
+        <v>142400</v>
       </c>
       <c r="E21" s="3">
-        <v>122500</v>
+        <v>81700</v>
       </c>
       <c r="F21" s="3">
-        <v>34300</v>
+        <v>116700</v>
       </c>
       <c r="G21" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="H21" s="3">
-        <v>104100</v>
+        <v>31500</v>
       </c>
       <c r="I21" s="3">
-        <v>87000</v>
+        <v>99200</v>
       </c>
       <c r="J21" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K21" s="3">
         <v>105300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>114800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>296800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>138300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>88600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>76300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>97400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>37600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>25700</v>
+        <v>68900</v>
       </c>
       <c r="E23" s="3">
-        <v>33100</v>
+        <v>24500</v>
       </c>
       <c r="F23" s="3">
-        <v>-52700</v>
+        <v>31500</v>
       </c>
       <c r="G23" s="3">
-        <v>-47800</v>
+        <v>-50200</v>
       </c>
       <c r="H23" s="3">
-        <v>14700</v>
+        <v>-45500</v>
       </c>
       <c r="I23" s="3">
-        <v>6100</v>
+        <v>14000</v>
       </c>
       <c r="J23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K23" s="3">
         <v>31800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-66200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>241500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>87800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>42600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>30300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>47000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-16400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-6100</v>
+        <v>12800</v>
       </c>
       <c r="E24" s="3">
-        <v>8600</v>
+        <v>-5800</v>
       </c>
       <c r="F24" s="3">
-        <v>-13500</v>
+        <v>8200</v>
       </c>
       <c r="G24" s="3">
-        <v>-9800</v>
+        <v>-12800</v>
       </c>
       <c r="H24" s="3">
-        <v>-12200</v>
+        <v>-9300</v>
       </c>
       <c r="I24" s="3">
-        <v>4900</v>
+        <v>-11700</v>
       </c>
       <c r="J24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>44900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>31800</v>
+        <v>56000</v>
       </c>
       <c r="E26" s="3">
-        <v>24500</v>
+        <v>30400</v>
       </c>
       <c r="F26" s="3">
-        <v>-39200</v>
+        <v>23300</v>
       </c>
       <c r="G26" s="3">
-        <v>-38000</v>
+        <v>-37400</v>
       </c>
       <c r="H26" s="3">
-        <v>26900</v>
+        <v>-36200</v>
       </c>
       <c r="I26" s="3">
+        <v>25700</v>
+      </c>
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>28700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-68600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>240300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-107700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-23500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>29400</v>
+        <v>53700</v>
       </c>
       <c r="E27" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>22200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="I27" s="3">
         <v>23300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-40400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>24500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>19600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-71000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>240300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-107700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-23500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1918,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>18000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>42900</v>
+        <v>64200</v>
       </c>
       <c r="E32" s="3">
-        <v>45300</v>
+        <v>40900</v>
       </c>
       <c r="F32" s="3">
-        <v>51400</v>
+        <v>43200</v>
       </c>
       <c r="G32" s="3">
-        <v>55100</v>
+        <v>49000</v>
       </c>
       <c r="H32" s="3">
+        <v>52500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>50200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K32" s="3">
         <v>52700</v>
       </c>
-      <c r="I32" s="3">
-        <v>56300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>52700</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>49000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>65100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>54300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>53800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>45000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>139100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>47100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>51600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>70400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>50500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>29400</v>
+        <v>53700</v>
       </c>
       <c r="E33" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>22200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="I33" s="3">
         <v>23300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-40400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>24500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>19600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-71000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>240300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-89800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-23500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>29400</v>
+        <v>53700</v>
       </c>
       <c r="E35" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>22200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="I35" s="3">
         <v>23300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-40400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>24500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>19600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-71000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>240300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-89800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-23500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>537800</v>
+        <v>399300</v>
       </c>
       <c r="E41" s="3">
-        <v>529200</v>
+        <v>512500</v>
       </c>
       <c r="F41" s="3">
-        <v>463000</v>
+        <v>504300</v>
       </c>
       <c r="G41" s="3">
-        <v>330700</v>
+        <v>441300</v>
       </c>
       <c r="H41" s="3">
-        <v>225400</v>
+        <v>315200</v>
       </c>
       <c r="I41" s="3">
-        <v>186200</v>
+        <v>214800</v>
       </c>
       <c r="J41" s="3">
+        <v>177400</v>
+      </c>
+      <c r="K41" s="3">
         <v>260900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>265600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>194000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>309000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>182300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>231700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>301800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>336600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>320900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>362700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>407300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2486,185 +2576,194 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>35900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>26600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>41700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>77400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>50500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>125700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>151400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>137300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>497300</v>
+        <v>622200</v>
       </c>
       <c r="E43" s="3">
-        <v>572100</v>
+        <v>474000</v>
       </c>
       <c r="F43" s="3">
-        <v>552500</v>
+        <v>545200</v>
       </c>
       <c r="G43" s="3">
-        <v>667600</v>
+        <v>526500</v>
       </c>
       <c r="H43" s="3">
-        <v>580600</v>
+        <v>636200</v>
       </c>
       <c r="I43" s="3">
-        <v>765600</v>
+        <v>553400</v>
       </c>
       <c r="J43" s="3">
+        <v>729600</v>
+      </c>
+      <c r="K43" s="3">
         <v>771700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>815800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>694400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>659000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>720300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>633500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>470100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>488100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>583400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>550500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>416700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>712900</v>
+        <v>820700</v>
       </c>
       <c r="E44" s="3">
-        <v>743600</v>
+        <v>679400</v>
       </c>
       <c r="F44" s="3">
-        <v>777900</v>
+        <v>708600</v>
       </c>
       <c r="G44" s="3">
-        <v>850100</v>
+        <v>741300</v>
       </c>
       <c r="H44" s="3">
-        <v>820700</v>
+        <v>810200</v>
       </c>
       <c r="I44" s="3">
-        <v>848900</v>
+        <v>782200</v>
       </c>
       <c r="J44" s="3">
+        <v>809000</v>
+      </c>
+      <c r="K44" s="3">
         <v>873400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>846900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>780700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>772000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>818000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>732400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>721400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>686700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>681000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>721900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>693700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>47800</v>
+        <v>70000</v>
       </c>
       <c r="E45" s="3">
-        <v>28200</v>
+        <v>45500</v>
       </c>
       <c r="F45" s="3">
         <v>26900</v>
       </c>
       <c r="G45" s="3">
-        <v>44100</v>
+        <v>25700</v>
       </c>
       <c r="H45" s="3">
-        <v>26900</v>
+        <v>42000</v>
       </c>
       <c r="I45" s="3">
-        <v>46500</v>
+        <v>25700</v>
       </c>
       <c r="J45" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K45" s="3">
         <v>23300</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2695,244 +2794,259 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1795800</v>
+        <v>1912200</v>
       </c>
       <c r="E46" s="3">
-        <v>1873000</v>
+        <v>1711400</v>
       </c>
       <c r="F46" s="3">
-        <v>1820300</v>
+        <v>1785000</v>
       </c>
       <c r="G46" s="3">
-        <v>1892600</v>
+        <v>1734800</v>
       </c>
       <c r="H46" s="3">
-        <v>1653700</v>
+        <v>1803600</v>
       </c>
       <c r="I46" s="3">
-        <v>1847300</v>
+        <v>1576000</v>
       </c>
       <c r="J46" s="3">
+        <v>1760500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1929400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1964200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1704600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1766600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1759000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1639300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1570800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1561800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1711000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1786500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1655100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>79400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>79400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>87600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>72400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>71200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K47" s="3">
         <v>83300</v>
       </c>
-      <c r="E47" s="3">
-        <v>83300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>91900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>75900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>74700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>64900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>83300</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>87300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>164400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>135100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>147100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>160300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>178400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>160400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>70700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>108000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>131500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2334800</v>
+        <v>2237900</v>
       </c>
       <c r="E48" s="3">
-        <v>2414500</v>
+        <v>2225100</v>
       </c>
       <c r="F48" s="3">
-        <v>2488000</v>
+        <v>2301000</v>
       </c>
       <c r="G48" s="3">
-        <v>2545500</v>
+        <v>2371000</v>
       </c>
       <c r="H48" s="3">
-        <v>2518600</v>
+        <v>2425900</v>
       </c>
       <c r="I48" s="3">
-        <v>2499000</v>
+        <v>2400200</v>
       </c>
       <c r="J48" s="3">
+        <v>2381500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2426700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2345700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1970700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1738900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1696400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1643700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1702100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1638100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1641500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1747800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1733700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>585500</v>
+        <v>580200</v>
       </c>
       <c r="E49" s="3">
-        <v>613700</v>
+        <v>558000</v>
       </c>
       <c r="F49" s="3">
-        <v>641900</v>
+        <v>584900</v>
       </c>
       <c r="G49" s="3">
-        <v>656600</v>
+        <v>611700</v>
       </c>
       <c r="H49" s="3">
-        <v>643100</v>
+        <v>625700</v>
       </c>
       <c r="I49" s="3">
-        <v>659000</v>
+        <v>612900</v>
       </c>
       <c r="J49" s="3">
+        <v>628100</v>
+      </c>
+      <c r="K49" s="3">
         <v>630900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>625600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>582000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>537200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>529200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>504000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>528500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>541900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>561000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>619800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>629200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>591600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>258500</v>
+        <v>223000</v>
       </c>
       <c r="E52" s="3">
-        <v>276800</v>
+        <v>246300</v>
       </c>
       <c r="F52" s="3">
-        <v>283000</v>
+        <v>263800</v>
       </c>
       <c r="G52" s="3">
-        <v>256000</v>
+        <v>269700</v>
       </c>
       <c r="H52" s="3">
-        <v>235200</v>
+        <v>244000</v>
       </c>
       <c r="I52" s="3">
-        <v>246200</v>
+        <v>224100</v>
       </c>
       <c r="J52" s="3">
+        <v>234600</v>
+      </c>
+      <c r="K52" s="3">
         <v>198400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>183000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>192800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>176100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>174600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>173500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>184000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>228900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>239000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>271200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>295800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5058000</v>
+        <v>5030400</v>
       </c>
       <c r="E54" s="3">
-        <v>5261300</v>
+        <v>4820200</v>
       </c>
       <c r="F54" s="3">
-        <v>5325000</v>
+        <v>5014000</v>
       </c>
       <c r="G54" s="3">
-        <v>5426700</v>
+        <v>5074700</v>
       </c>
       <c r="H54" s="3">
-        <v>5125400</v>
+        <v>5171600</v>
       </c>
       <c r="I54" s="3">
-        <v>5316500</v>
+        <v>4884400</v>
       </c>
       <c r="J54" s="3">
+        <v>5066600</v>
+      </c>
+      <c r="K54" s="3">
         <v>5268700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5205900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4614500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4354000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4306400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4120800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4163700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4131200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4223200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4533300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4445200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1108600</v>
+        <v>1315700</v>
       </c>
       <c r="E57" s="3">
-        <v>1237200</v>
+        <v>1056500</v>
       </c>
       <c r="F57" s="3">
-        <v>1228700</v>
+        <v>1179100</v>
       </c>
       <c r="G57" s="3">
-        <v>1428300</v>
+        <v>1170900</v>
       </c>
       <c r="H57" s="3">
-        <v>1223800</v>
+        <v>1361200</v>
       </c>
       <c r="I57" s="3">
-        <v>1359700</v>
+        <v>1166200</v>
       </c>
       <c r="J57" s="3">
+        <v>1295800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1372000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1379200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1145000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1115400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1203400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1104600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1043500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1058000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1109600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1136200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>984800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>112700</v>
+        <v>95700</v>
       </c>
       <c r="E58" s="3">
-        <v>104100</v>
+        <v>107400</v>
       </c>
       <c r="F58" s="3">
-        <v>124900</v>
+        <v>99200</v>
       </c>
       <c r="G58" s="3">
-        <v>240100</v>
+        <v>119100</v>
       </c>
       <c r="H58" s="3">
-        <v>246200</v>
+        <v>228800</v>
       </c>
       <c r="I58" s="3">
-        <v>204600</v>
+        <v>234600</v>
       </c>
       <c r="J58" s="3">
+        <v>195000</v>
+      </c>
+      <c r="K58" s="3">
         <v>198400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>252400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>67400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>47600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>142700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>121900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>118900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>113300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>135800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>133800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>125600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>109000</v>
+        <v>101600</v>
       </c>
       <c r="E59" s="3">
-        <v>110200</v>
+        <v>103900</v>
       </c>
       <c r="F59" s="3">
-        <v>115100</v>
+        <v>105100</v>
       </c>
       <c r="G59" s="3">
-        <v>156800</v>
+        <v>109700</v>
       </c>
       <c r="H59" s="3">
-        <v>88200</v>
+        <v>149400</v>
       </c>
       <c r="I59" s="3">
-        <v>123700</v>
+        <v>84100</v>
       </c>
       <c r="J59" s="3">
+        <v>117900</v>
+      </c>
+      <c r="K59" s="3">
         <v>91900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>96900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>134900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>85600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>104300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>83000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>86400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>85300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>99800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>104500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1330300</v>
+        <v>1513000</v>
       </c>
       <c r="E60" s="3">
-        <v>1451600</v>
+        <v>1267800</v>
       </c>
       <c r="F60" s="3">
-        <v>1468800</v>
+        <v>1383400</v>
       </c>
       <c r="G60" s="3">
-        <v>1825200</v>
+        <v>1399700</v>
       </c>
       <c r="H60" s="3">
-        <v>1558200</v>
+        <v>1739400</v>
       </c>
       <c r="I60" s="3">
-        <v>1688000</v>
+        <v>1484900</v>
       </c>
       <c r="J60" s="3">
+        <v>1608700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1662300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1728500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1347300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1263800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1431800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1330800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1245400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1257800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1330700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1369800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1214900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2816300</v>
+        <v>2618500</v>
       </c>
       <c r="E61" s="3">
-        <v>2904500</v>
+        <v>2683900</v>
       </c>
       <c r="F61" s="3">
-        <v>2981600</v>
+        <v>2767900</v>
       </c>
       <c r="G61" s="3">
-        <v>2698700</v>
+        <v>2841500</v>
       </c>
       <c r="H61" s="3">
-        <v>2646000</v>
+        <v>2571800</v>
       </c>
       <c r="I61" s="3">
-        <v>2698700</v>
+        <v>2521600</v>
       </c>
       <c r="J61" s="3">
+        <v>2571800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2714600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2643600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2477000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2281700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2255300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2176200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2267500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2419000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2474000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2722100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2771400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1035100</v>
+        <v>891900</v>
       </c>
       <c r="E62" s="3">
-        <v>1101300</v>
+        <v>986500</v>
       </c>
       <c r="F62" s="3">
-        <v>1087800</v>
+        <v>1049500</v>
       </c>
       <c r="G62" s="3">
-        <v>1053500</v>
+        <v>1036700</v>
       </c>
       <c r="H62" s="3">
-        <v>1025300</v>
+        <v>1004000</v>
       </c>
       <c r="I62" s="3">
-        <v>1112300</v>
+        <v>977100</v>
       </c>
       <c r="J62" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1030200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>964100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>925000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>854000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>917900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>962900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1008700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1000800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>998600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1083400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1128000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5198900</v>
+        <v>5040900</v>
       </c>
       <c r="E66" s="3">
-        <v>5473300</v>
+        <v>4954500</v>
       </c>
       <c r="F66" s="3">
-        <v>5552900</v>
+        <v>5216000</v>
       </c>
       <c r="G66" s="3">
-        <v>5590900</v>
+        <v>5291900</v>
       </c>
       <c r="H66" s="3">
-        <v>5243000</v>
+        <v>5328100</v>
       </c>
       <c r="I66" s="3">
-        <v>5512500</v>
+        <v>4996500</v>
       </c>
       <c r="J66" s="3">
+        <v>5253300</v>
+      </c>
+      <c r="K66" s="3">
         <v>5419400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5347000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4758800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4409400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4613800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4478700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4530600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4685400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4812200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5185900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5124900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-659000</v>
+        <v>-504300</v>
       </c>
       <c r="E72" s="3">
-        <v>-730100</v>
+        <v>-628100</v>
       </c>
       <c r="F72" s="3">
-        <v>-746000</v>
+        <v>-695800</v>
       </c>
       <c r="G72" s="3">
-        <v>-682300</v>
+        <v>-711000</v>
       </c>
       <c r="H72" s="3">
-        <v>-635800</v>
+        <v>-650200</v>
       </c>
       <c r="I72" s="3">
-        <v>-714200</v>
+        <v>-605900</v>
       </c>
       <c r="J72" s="3">
+        <v>-680600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-668800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-647100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-644700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-523900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-771900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-822400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-841500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-738300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-773100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-845100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-872100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-140900</v>
+        <v>-10500</v>
       </c>
       <c r="E76" s="3">
-        <v>-211900</v>
+        <v>-134300</v>
       </c>
       <c r="F76" s="3">
-        <v>-227800</v>
+        <v>-202000</v>
       </c>
       <c r="G76" s="3">
-        <v>-164100</v>
+        <v>-217100</v>
       </c>
       <c r="H76" s="3">
-        <v>-117600</v>
+        <v>-156400</v>
       </c>
       <c r="I76" s="3">
-        <v>-196000</v>
+        <v>-112100</v>
       </c>
       <c r="J76" s="3">
+        <v>-186800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-150700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-141200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-144300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-55400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-307400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-357900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-366900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-554300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-589000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-652600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-679600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>29400</v>
+        <v>53700</v>
       </c>
       <c r="E81" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>22200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="I81" s="3">
         <v>23300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-40400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>24500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>19600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-71000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>240300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-89800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-23500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>60000</v>
+        <v>73500</v>
       </c>
       <c r="E83" s="3">
-        <v>89400</v>
+        <v>57200</v>
       </c>
       <c r="F83" s="3">
-        <v>87000</v>
+        <v>85200</v>
       </c>
       <c r="G83" s="3">
-        <v>80800</v>
+        <v>82900</v>
       </c>
       <c r="H83" s="3">
-        <v>89400</v>
+        <v>77000</v>
       </c>
       <c r="I83" s="3">
-        <v>80800</v>
+        <v>85200</v>
       </c>
       <c r="J83" s="3">
+        <v>77000</v>
+      </c>
+      <c r="K83" s="3">
         <v>73500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>68200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>67400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>55400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>50500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>48300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>51600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>46000</v>
       </c>
       <c r="R83" s="3">
         <v>46000</v>
       </c>
       <c r="S83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="T83" s="3">
         <v>50500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>54000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>87000</v>
+        <v>87600</v>
       </c>
       <c r="E89" s="3">
-        <v>136000</v>
+        <v>82900</v>
       </c>
       <c r="F89" s="3">
-        <v>9800</v>
+        <v>129600</v>
       </c>
       <c r="G89" s="3">
-        <v>176400</v>
+        <v>9300</v>
       </c>
       <c r="H89" s="3">
-        <v>131100</v>
+        <v>168100</v>
       </c>
       <c r="I89" s="3">
-        <v>98000</v>
+        <v>124900</v>
       </c>
       <c r="J89" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K89" s="3">
         <v>156800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>157900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-26400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>85300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>42300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-119700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-58800</v>
+        <v>-37400</v>
       </c>
       <c r="E91" s="3">
-        <v>-44100</v>
+        <v>-56000</v>
       </c>
       <c r="F91" s="3">
-        <v>-50200</v>
+        <v>-42000</v>
       </c>
       <c r="G91" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="N91" s="3">
         <v>-69800</v>
       </c>
-      <c r="H91" s="3">
-        <v>-111500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-61200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-87000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-70600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-138400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-69800</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-51600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-113300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-61700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-67300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-70400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-146700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-52700</v>
+        <v>-33900</v>
       </c>
       <c r="E94" s="3">
-        <v>-44100</v>
+        <v>-50200</v>
       </c>
       <c r="F94" s="3">
-        <v>-49000</v>
+        <v>-42000</v>
       </c>
       <c r="G94" s="3">
-        <v>-69800</v>
+        <v>-46700</v>
       </c>
       <c r="H94" s="3">
-        <v>-107800</v>
+        <v>-66500</v>
       </c>
       <c r="I94" s="3">
-        <v>-60000</v>
+        <v>-102700</v>
       </c>
       <c r="J94" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-90600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-169900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-145500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>150600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-65900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-48300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-130200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-74100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-81000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-154900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,99 +5795,105 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-25700</v>
+        <v>-169300</v>
       </c>
       <c r="E100" s="3">
-        <v>-22000</v>
+        <v>-24500</v>
       </c>
       <c r="F100" s="3">
-        <v>172700</v>
+        <v>-21000</v>
       </c>
       <c r="G100" s="3">
+        <v>164600</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
-        <v>17100</v>
-      </c>
       <c r="I100" s="3">
-        <v>-115100</v>
+        <v>16300</v>
       </c>
       <c r="J100" s="3">
+        <v>-109700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-75900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>78900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-76400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>93100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-44600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E101" s="3">
-        <v>-3700</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
-        <v>2400</v>
-      </c>
       <c r="J101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>2400</v>
       </c>
       <c r="L101" s="3">
         <v>2400</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5653,80 +5902,86 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>-1100</v>
       </c>
       <c r="R101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S101" s="3">
         <v>-4500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T101" s="3">
-        <v>1200</v>
       </c>
       <c r="U101" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8600</v>
+        <v>-113200</v>
       </c>
       <c r="E102" s="3">
-        <v>66100</v>
+        <v>8200</v>
       </c>
       <c r="F102" s="3">
-        <v>132300</v>
+        <v>63000</v>
       </c>
       <c r="G102" s="3">
-        <v>105300</v>
+        <v>126100</v>
       </c>
       <c r="H102" s="3">
-        <v>39200</v>
+        <v>100400</v>
       </c>
       <c r="I102" s="3">
-        <v>-74700</v>
+        <v>37400</v>
       </c>
       <c r="J102" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>69400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-136000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>125200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-49400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-63700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-25800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-44600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-318100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1565500</v>
+        <v>1791900</v>
       </c>
       <c r="E8" s="3">
-        <v>1451100</v>
+        <v>1714000</v>
       </c>
       <c r="F8" s="3">
-        <v>1368200</v>
+        <v>1514100</v>
       </c>
       <c r="G8" s="3">
-        <v>1203600</v>
+        <v>1403500</v>
       </c>
       <c r="H8" s="3">
-        <v>1677600</v>
+        <v>1323300</v>
       </c>
       <c r="I8" s="3">
+        <v>1164100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1622500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1601700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1705600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1884000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1837400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1653700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1581700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1618500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1521800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1400200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1435000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1550600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1558800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1362800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1399700</v>
+        <v>1602200</v>
       </c>
       <c r="E9" s="3">
-        <v>1278300</v>
+        <v>1489300</v>
       </c>
       <c r="F9" s="3">
-        <v>1228100</v>
+        <v>1353800</v>
       </c>
       <c r="G9" s="3">
-        <v>1123000</v>
+        <v>1236400</v>
       </c>
       <c r="H9" s="3">
-        <v>1499000</v>
+        <v>1187800</v>
       </c>
       <c r="I9" s="3">
+        <v>1086200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1449800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1448800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1536300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1661100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1665100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1510600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1452100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1427400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1371400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1276800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1279100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1382300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1394500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1219600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>165800</v>
+        <v>189700</v>
       </c>
       <c r="E10" s="3">
+        <v>224700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>160300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>167100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>135500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>77900</v>
+      </c>
+      <c r="J10" s="3">
         <v>172800</v>
       </c>
-      <c r="F10" s="3">
-        <v>140100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>80600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>178600</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>152900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>169300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>222900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>172300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>143100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>129600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>191100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>150400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>123400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>156000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>168300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>164300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>143200</v>
       </c>
       <c r="V10" s="3">
         <v>164300</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>143200</v>
+      </c>
+      <c r="X10" s="3">
+        <v>164300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>12800</v>
+        <v>11300</v>
       </c>
       <c r="E12" s="3">
-        <v>11700</v>
+        <v>10200</v>
       </c>
       <c r="F12" s="3">
-        <v>10500</v>
+        <v>12400</v>
       </c>
       <c r="G12" s="3">
-        <v>8200</v>
+        <v>11300</v>
       </c>
       <c r="H12" s="3">
-        <v>15200</v>
+        <v>10200</v>
       </c>
       <c r="I12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K12" s="3">
         <v>14000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>14000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>14700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>14400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>10600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>11100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>11000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>12100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>9000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>10100</v>
       </c>
       <c r="S12" s="3">
         <v>9000</v>
       </c>
       <c r="T12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="V12" s="3">
         <v>12900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>11700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,70 +1121,82 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
-        <v>12800</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>2300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1432400</v>
+        <v>1619100</v>
       </c>
       <c r="E17" s="3">
-        <v>1385700</v>
+        <v>1525400</v>
       </c>
       <c r="F17" s="3">
-        <v>1293500</v>
+        <v>1385400</v>
       </c>
       <c r="G17" s="3">
-        <v>1204800</v>
+        <v>1340200</v>
       </c>
       <c r="H17" s="3">
-        <v>1670600</v>
+        <v>1251000</v>
       </c>
       <c r="I17" s="3">
+        <v>1165200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1615700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1537500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1646000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1799500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1741700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1654900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1285900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1476800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1498800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1323900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1345300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1468700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1441400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1328800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>133100</v>
+        <v>172800</v>
       </c>
       <c r="E18" s="3">
-        <v>65400</v>
+        <v>188600</v>
       </c>
       <c r="F18" s="3">
-        <v>74700</v>
+        <v>128700</v>
       </c>
       <c r="G18" s="3">
+        <v>63200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>72300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K18" s="3">
+        <v>64200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>59500</v>
+      </c>
+      <c r="M18" s="3">
+        <v>84500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>95700</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>64200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>59500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>84500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>95700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>295700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>141600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>23100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>76300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>89800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>81900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>117400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>34000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-64200</v>
+        <v>-38400</v>
       </c>
       <c r="E20" s="3">
-        <v>-40900</v>
+        <v>-41800</v>
       </c>
       <c r="F20" s="3">
-        <v>-43200</v>
+        <v>-62100</v>
       </c>
       <c r="G20" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="N20" s="3">
         <v>-49000</v>
       </c>
-      <c r="H20" s="3">
-        <v>-52500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-53700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-52700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-49000</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-65100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-54300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-53800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-139100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-47100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-51600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-70400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-50500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>142400</v>
+        <v>210000</v>
       </c>
       <c r="E21" s="3">
-        <v>81700</v>
+        <v>220200</v>
       </c>
       <c r="F21" s="3">
-        <v>116700</v>
+        <v>137800</v>
       </c>
       <c r="G21" s="3">
-        <v>32700</v>
+        <v>79000</v>
       </c>
       <c r="H21" s="3">
-        <v>31500</v>
+        <v>112900</v>
       </c>
       <c r="I21" s="3">
+        <v>31600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K21" s="3">
         <v>99200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>82900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>105300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>114800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>296800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>138300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>26400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-11200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>88600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>76300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>97400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>37600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>68900</v>
+        <v>134400</v>
       </c>
       <c r="E23" s="3">
-        <v>24500</v>
+        <v>146800</v>
       </c>
       <c r="F23" s="3">
-        <v>31500</v>
+        <v>66600</v>
       </c>
       <c r="G23" s="3">
-        <v>-50200</v>
+        <v>23700</v>
       </c>
       <c r="H23" s="3">
-        <v>-45500</v>
+        <v>30500</v>
       </c>
       <c r="I23" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="K23" s="3">
         <v>14000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>31800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>46700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-66200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>241500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>87800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-62800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>42600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>30300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>47000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-16400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>12800</v>
+        <v>22600</v>
       </c>
       <c r="E24" s="3">
-        <v>-5800</v>
+        <v>24800</v>
       </c>
       <c r="F24" s="3">
-        <v>8200</v>
+        <v>12400</v>
       </c>
       <c r="G24" s="3">
-        <v>-12800</v>
+        <v>-5600</v>
       </c>
       <c r="H24" s="3">
-        <v>-9300</v>
+        <v>7900</v>
       </c>
       <c r="I24" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-11700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>17900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>27500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>44900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>19100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>13500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>31700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>7000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>56000</v>
+        <v>111800</v>
       </c>
       <c r="E26" s="3">
-        <v>30400</v>
+        <v>121900</v>
       </c>
       <c r="F26" s="3">
-        <v>23300</v>
+        <v>54200</v>
       </c>
       <c r="G26" s="3">
-        <v>-37400</v>
+        <v>29400</v>
       </c>
       <c r="H26" s="3">
-        <v>-36200</v>
+        <v>22600</v>
       </c>
       <c r="I26" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="K26" s="3">
         <v>25700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>20800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>28700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-68600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>240300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>60400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-107700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>23600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>16800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>15300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-23500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>53700</v>
+        <v>109500</v>
       </c>
       <c r="E27" s="3">
-        <v>28000</v>
+        <v>120800</v>
       </c>
       <c r="F27" s="3">
-        <v>22200</v>
+        <v>51900</v>
       </c>
       <c r="G27" s="3">
-        <v>-38500</v>
+        <v>27100</v>
       </c>
       <c r="H27" s="3">
-        <v>-36200</v>
+        <v>21500</v>
       </c>
       <c r="I27" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="K27" s="3">
         <v>23300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>19600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>27500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-71000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>240300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>60400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-107700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>23600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>16800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>15300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-23500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1964,11 +2086,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1982,14 +2104,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
-        <v>18000</v>
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>18000</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>64200</v>
+        <v>38400</v>
       </c>
       <c r="E32" s="3">
-        <v>40900</v>
+        <v>41800</v>
       </c>
       <c r="F32" s="3">
-        <v>43200</v>
+        <v>62100</v>
       </c>
       <c r="G32" s="3">
+        <v>39500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>41800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>47400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>50800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>50200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>53700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>52700</v>
+      </c>
+      <c r="N32" s="3">
         <v>49000</v>
       </c>
-      <c r="H32" s="3">
-        <v>52500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>50200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>53700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>52700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>49000</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>65100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>54300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>53800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>45000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>139100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>47100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>51600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>70400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>50500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>53700</v>
+        <v>109500</v>
       </c>
       <c r="E33" s="3">
-        <v>28000</v>
+        <v>120800</v>
       </c>
       <c r="F33" s="3">
-        <v>22200</v>
+        <v>51900</v>
       </c>
       <c r="G33" s="3">
-        <v>-38500</v>
+        <v>27100</v>
       </c>
       <c r="H33" s="3">
-        <v>-36200</v>
+        <v>21500</v>
       </c>
       <c r="I33" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="K33" s="3">
         <v>23300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>19600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>27500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-71000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>240300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>60400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-89800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>23600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>16800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>15300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-23500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>53700</v>
+        <v>109500</v>
       </c>
       <c r="E35" s="3">
-        <v>28000</v>
+        <v>120800</v>
       </c>
       <c r="F35" s="3">
-        <v>22200</v>
+        <v>51900</v>
       </c>
       <c r="G35" s="3">
-        <v>-38500</v>
+        <v>27100</v>
       </c>
       <c r="H35" s="3">
-        <v>-36200</v>
+        <v>21500</v>
       </c>
       <c r="I35" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="K35" s="3">
         <v>23300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>19600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>27500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-71000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>240300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>60400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-89800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>23600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>16800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>15300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-23500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>399300</v>
+        <v>364700</v>
       </c>
       <c r="E41" s="3">
-        <v>512500</v>
+        <v>327400</v>
       </c>
       <c r="F41" s="3">
-        <v>504300</v>
+        <v>386200</v>
       </c>
       <c r="G41" s="3">
-        <v>441300</v>
+        <v>495700</v>
       </c>
       <c r="H41" s="3">
-        <v>315200</v>
+        <v>487800</v>
       </c>
       <c r="I41" s="3">
+        <v>426800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>304900</v>
+      </c>
+      <c r="K41" s="3">
         <v>214800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>177400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>260900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>265600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>194000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>309000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>182300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>231700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>301800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>336600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>320900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>362700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>407300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2579,197 +2759,215 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>35900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>35500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>26600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>38400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>41700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>77400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>50500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>125700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>151400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>137300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>622200</v>
+        <v>777900</v>
       </c>
       <c r="E43" s="3">
-        <v>474000</v>
+        <v>755400</v>
       </c>
       <c r="F43" s="3">
-        <v>545200</v>
+        <v>601800</v>
       </c>
       <c r="G43" s="3">
-        <v>526500</v>
+        <v>458400</v>
       </c>
       <c r="H43" s="3">
-        <v>636200</v>
+        <v>527300</v>
       </c>
       <c r="I43" s="3">
+        <v>509200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>615400</v>
+      </c>
+      <c r="K43" s="3">
         <v>553400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>729600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>771700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>815800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>694400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>659000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>720300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>633500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>470100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>488100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>583400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>550500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>416700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>820700</v>
+        <v>1055700</v>
       </c>
       <c r="E44" s="3">
-        <v>679400</v>
+        <v>905500</v>
       </c>
       <c r="F44" s="3">
-        <v>708600</v>
+        <v>793800</v>
       </c>
       <c r="G44" s="3">
-        <v>741300</v>
+        <v>657100</v>
       </c>
       <c r="H44" s="3">
-        <v>810200</v>
+        <v>685400</v>
       </c>
       <c r="I44" s="3">
+        <v>717000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>783600</v>
+      </c>
+      <c r="K44" s="3">
         <v>782200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>809000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>873400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>846900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>780700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>772000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>818000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>732400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>721400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>686700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>681000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>721900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>693700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>70000</v>
+        <v>99400</v>
       </c>
       <c r="E45" s="3">
-        <v>45500</v>
+        <v>71100</v>
       </c>
       <c r="F45" s="3">
-        <v>26900</v>
+        <v>67700</v>
       </c>
       <c r="G45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K45" s="3">
         <v>25700</v>
       </c>
-      <c r="H45" s="3">
-        <v>42000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>25700</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>44400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>23300</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2797,256 +2995,286 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1912200</v>
+        <v>2297700</v>
       </c>
       <c r="E46" s="3">
-        <v>1711400</v>
+        <v>2059500</v>
       </c>
       <c r="F46" s="3">
-        <v>1785000</v>
+        <v>1849500</v>
       </c>
       <c r="G46" s="3">
-        <v>1734800</v>
+        <v>1655300</v>
       </c>
       <c r="H46" s="3">
-        <v>1803600</v>
+        <v>1726400</v>
       </c>
       <c r="I46" s="3">
+        <v>1677800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1744500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1576000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1760500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1929400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1964200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1704600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1766600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1759000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1639300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1570800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1561800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1711000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1786500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1655100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>77000</v>
+        <v>80200</v>
       </c>
       <c r="E47" s="3">
-        <v>79400</v>
+        <v>77900</v>
       </c>
       <c r="F47" s="3">
-        <v>79400</v>
+        <v>74500</v>
       </c>
       <c r="G47" s="3">
-        <v>87600</v>
+        <v>76800</v>
       </c>
       <c r="H47" s="3">
-        <v>72400</v>
+        <v>76800</v>
       </c>
       <c r="I47" s="3">
+        <v>84700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K47" s="3">
         <v>71200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>61900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>83300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>87300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>164400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>135100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>147100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>160300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>178400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>160400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>70700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>108000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>131500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2237900</v>
+        <v>2141900</v>
       </c>
       <c r="E48" s="3">
-        <v>2225100</v>
+        <v>2139600</v>
       </c>
       <c r="F48" s="3">
-        <v>2301000</v>
+        <v>2164500</v>
       </c>
       <c r="G48" s="3">
-        <v>2371000</v>
+        <v>2152100</v>
       </c>
       <c r="H48" s="3">
-        <v>2425900</v>
+        <v>2225500</v>
       </c>
       <c r="I48" s="3">
+        <v>2293200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2346300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2400200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2381500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2426700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2345700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1970700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1738900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1696400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1643700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1702100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1638100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1641500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1747800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1733700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>580200</v>
+        <v>567900</v>
       </c>
       <c r="E49" s="3">
-        <v>558000</v>
+        <v>552100</v>
       </c>
       <c r="F49" s="3">
-        <v>584900</v>
+        <v>561200</v>
       </c>
       <c r="G49" s="3">
-        <v>611700</v>
+        <v>539700</v>
       </c>
       <c r="H49" s="3">
-        <v>625700</v>
+        <v>565700</v>
       </c>
       <c r="I49" s="3">
+        <v>591600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>605200</v>
+      </c>
+      <c r="K49" s="3">
         <v>612900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>628100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>630900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>625600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>582000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>537200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>529200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>504000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>528500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>541900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>561000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>619800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>629200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>591600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>223000</v>
+        <v>186300</v>
       </c>
       <c r="E52" s="3">
-        <v>246300</v>
+        <v>201000</v>
       </c>
       <c r="F52" s="3">
-        <v>263800</v>
+        <v>215700</v>
       </c>
       <c r="G52" s="3">
-        <v>269700</v>
+        <v>238200</v>
       </c>
       <c r="H52" s="3">
-        <v>244000</v>
+        <v>255200</v>
       </c>
       <c r="I52" s="3">
+        <v>260800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>236000</v>
+      </c>
+      <c r="K52" s="3">
         <v>224100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>234600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>198400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>183000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>192800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>176100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>174600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>173500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>184000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>228900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>239000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>271200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>295800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5030400</v>
+        <v>5274000</v>
       </c>
       <c r="E54" s="3">
-        <v>4820200</v>
+        <v>5030100</v>
       </c>
       <c r="F54" s="3">
-        <v>5014000</v>
+        <v>4865300</v>
       </c>
       <c r="G54" s="3">
-        <v>5074700</v>
+        <v>4662100</v>
       </c>
       <c r="H54" s="3">
-        <v>5171600</v>
+        <v>4849500</v>
       </c>
       <c r="I54" s="3">
+        <v>4908200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5001900</v>
+      </c>
+      <c r="K54" s="3">
         <v>4884400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5066600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5268700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5205900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4614500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4354000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4306400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4120800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4163700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4131200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4223200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4533300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4445200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3663,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1315700</v>
+        <v>1504000</v>
       </c>
       <c r="E57" s="3">
-        <v>1056500</v>
+        <v>1417000</v>
       </c>
       <c r="F57" s="3">
-        <v>1179100</v>
+        <v>1272500</v>
       </c>
       <c r="G57" s="3">
-        <v>1170900</v>
+        <v>1021800</v>
       </c>
       <c r="H57" s="3">
-        <v>1361200</v>
+        <v>1140400</v>
       </c>
       <c r="I57" s="3">
+        <v>1132500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1316500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1166200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1295800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1372000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1379200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1145000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1115400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1203400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1104600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1043500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1058000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1109600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1136200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>984800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>95700</v>
+        <v>295800</v>
       </c>
       <c r="E58" s="3">
-        <v>107400</v>
+        <v>295800</v>
       </c>
       <c r="F58" s="3">
-        <v>99200</v>
+        <v>92600</v>
       </c>
       <c r="G58" s="3">
-        <v>119100</v>
+        <v>103900</v>
       </c>
       <c r="H58" s="3">
-        <v>228800</v>
+        <v>96000</v>
       </c>
       <c r="I58" s="3">
+        <v>115200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>221300</v>
+      </c>
+      <c r="K58" s="3">
         <v>234600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>195000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>198400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>252400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>67400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>47600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>142700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>121900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>118900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>113300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>135800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>133800</v>
-      </c>
-      <c r="U58" s="3">
-        <v>125600</v>
       </c>
       <c r="V58" s="3">
         <v>133800</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>125600</v>
+      </c>
+      <c r="X58" s="3">
+        <v>133800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>77900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>98200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>100500</v>
+      </c>
+      <c r="H59" s="3">
         <v>101600</v>
       </c>
-      <c r="E59" s="3">
-        <v>103900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>105100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>109700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>149400</v>
-      </c>
       <c r="I59" s="3">
+        <v>106100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>144500</v>
+      </c>
+      <c r="K59" s="3">
         <v>84100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>117900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>91900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>96900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>134900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>100800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>85600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>104300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>83000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>86400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>85300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>99800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>104500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1513000</v>
+        <v>1881100</v>
       </c>
       <c r="E60" s="3">
-        <v>1267800</v>
+        <v>1790800</v>
       </c>
       <c r="F60" s="3">
-        <v>1383400</v>
+        <v>1463300</v>
       </c>
       <c r="G60" s="3">
-        <v>1399700</v>
+        <v>1226200</v>
       </c>
       <c r="H60" s="3">
-        <v>1739400</v>
+        <v>1338000</v>
       </c>
       <c r="I60" s="3">
+        <v>1353800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1682400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1484900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1608700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1662300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1728500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1347300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1263800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1431800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1330800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1245400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1257800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1330700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1369800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1214900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2618500</v>
+        <v>2280800</v>
       </c>
       <c r="E61" s="3">
-        <v>2683900</v>
+        <v>2252600</v>
       </c>
       <c r="F61" s="3">
-        <v>2767900</v>
+        <v>2532600</v>
       </c>
       <c r="G61" s="3">
-        <v>2841500</v>
+        <v>2595800</v>
       </c>
       <c r="H61" s="3">
+        <v>2677100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2748200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2487400</v>
+      </c>
+      <c r="K61" s="3">
+        <v>2521600</v>
+      </c>
+      <c r="L61" s="3">
         <v>2571800</v>
       </c>
-      <c r="I61" s="3">
-        <v>2521600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2571800</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2714600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2643600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2477000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2281700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2255300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2176200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2267500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2419000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2474000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2722100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2771400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>891900</v>
+        <v>825400</v>
       </c>
       <c r="E62" s="3">
-        <v>986500</v>
+        <v>824200</v>
       </c>
       <c r="F62" s="3">
-        <v>1049500</v>
+        <v>862600</v>
       </c>
       <c r="G62" s="3">
-        <v>1036700</v>
+        <v>954100</v>
       </c>
       <c r="H62" s="3">
-        <v>1004000</v>
+        <v>1015100</v>
       </c>
       <c r="I62" s="3">
+        <v>1002600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>971000</v>
+      </c>
+      <c r="K62" s="3">
         <v>977100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1060000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1030200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>964100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>925000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>854000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>917900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>962900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1008700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1000800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>998600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1083400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1128000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5040900</v>
+        <v>5007600</v>
       </c>
       <c r="E66" s="3">
-        <v>4954500</v>
+        <v>4885600</v>
       </c>
       <c r="F66" s="3">
-        <v>5216000</v>
+        <v>4875500</v>
       </c>
       <c r="G66" s="3">
-        <v>5291900</v>
+        <v>4791900</v>
       </c>
       <c r="H66" s="3">
-        <v>5328100</v>
+        <v>5044800</v>
       </c>
       <c r="I66" s="3">
+        <v>5118200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5153200</v>
+      </c>
+      <c r="K66" s="3">
         <v>4996500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5253300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5419400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5347000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4758800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4409400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4613800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4478700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4530600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4685400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4812200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5185900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5124900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-504300</v>
+        <v>-211100</v>
       </c>
       <c r="E72" s="3">
-        <v>-628100</v>
+        <v>-333100</v>
       </c>
       <c r="F72" s="3">
-        <v>-695800</v>
+        <v>-487800</v>
       </c>
       <c r="G72" s="3">
-        <v>-711000</v>
+        <v>-607500</v>
       </c>
       <c r="H72" s="3">
-        <v>-650200</v>
+        <v>-672900</v>
       </c>
       <c r="I72" s="3">
+        <v>-687600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-628900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-605900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-680600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-668800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-647100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-644700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-523900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-771900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-822400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-841500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-738300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-773100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-845100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-872100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-10500</v>
+        <v>266500</v>
       </c>
       <c r="E76" s="3">
-        <v>-134300</v>
+        <v>144500</v>
       </c>
       <c r="F76" s="3">
-        <v>-202000</v>
+        <v>-10200</v>
       </c>
       <c r="G76" s="3">
-        <v>-217100</v>
+        <v>-129800</v>
       </c>
       <c r="H76" s="3">
-        <v>-156400</v>
+        <v>-195300</v>
       </c>
       <c r="I76" s="3">
+        <v>-210000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-151300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-112100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-186800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-150700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-141200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-144300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-55400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-307400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-357900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-366900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-554300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-589000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-652600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-679600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>53700</v>
+        <v>109500</v>
       </c>
       <c r="E81" s="3">
-        <v>28000</v>
+        <v>120800</v>
       </c>
       <c r="F81" s="3">
-        <v>22200</v>
+        <v>51900</v>
       </c>
       <c r="G81" s="3">
-        <v>-38500</v>
+        <v>27100</v>
       </c>
       <c r="H81" s="3">
-        <v>-36200</v>
+        <v>21500</v>
       </c>
       <c r="I81" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="K81" s="3">
         <v>23300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>19600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>27500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-71000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>240300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>60400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-89800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>23600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>16800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>15300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-23500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>73400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>71100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>55300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>82400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>80200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>85200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>77000</v>
+      </c>
+      <c r="M83" s="3">
         <v>73500</v>
       </c>
-      <c r="E83" s="3">
-        <v>57200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>85200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>82900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>77000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>85200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>77000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>73500</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>68200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>67400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>55400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>50500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>48300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>51600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>46000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>46000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>50500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>54000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>87600</v>
+        <v>102700</v>
       </c>
       <c r="E89" s="3">
-        <v>82900</v>
+        <v>82400</v>
       </c>
       <c r="F89" s="3">
-        <v>129600</v>
+        <v>84700</v>
       </c>
       <c r="G89" s="3">
-        <v>9300</v>
+        <v>80200</v>
       </c>
       <c r="H89" s="3">
-        <v>168100</v>
+        <v>125300</v>
       </c>
       <c r="I89" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>162600</v>
+      </c>
+      <c r="K89" s="3">
         <v>124900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>93400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>156800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>157900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>30800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>50900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>19800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>85300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>50500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>42300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-119700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-37400</v>
+        <v>-61000</v>
       </c>
       <c r="E91" s="3">
-        <v>-56000</v>
+        <v>-47400</v>
       </c>
       <c r="F91" s="3">
-        <v>-42000</v>
+        <v>-36100</v>
       </c>
       <c r="G91" s="3">
-        <v>-47900</v>
+        <v>-54200</v>
       </c>
       <c r="H91" s="3">
-        <v>-66500</v>
+        <v>-40600</v>
       </c>
       <c r="I91" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-106200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-58400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-87000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-70600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-138400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-69800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-54900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-51600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-113300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-61700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-67300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-70400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-146700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33900</v>
+        <v>-57600</v>
       </c>
       <c r="E94" s="3">
-        <v>-50200</v>
+        <v>-42900</v>
       </c>
       <c r="F94" s="3">
-        <v>-42000</v>
+        <v>-32700</v>
       </c>
       <c r="G94" s="3">
-        <v>-46700</v>
+        <v>-48600</v>
       </c>
       <c r="H94" s="3">
-        <v>-66500</v>
+        <v>-40600</v>
       </c>
       <c r="I94" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-102700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-57200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-90600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-169900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-145500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>150600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-65900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-48300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-130200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-46000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-74100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-81000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-154900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-169300</v>
+        <v>-10200</v>
       </c>
       <c r="E100" s="3">
-        <v>-24500</v>
+        <v>-98200</v>
       </c>
       <c r="F100" s="3">
-        <v>-21000</v>
+        <v>-163700</v>
       </c>
       <c r="G100" s="3">
-        <v>164600</v>
+        <v>-23700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1200</v>
+        <v>-20300</v>
       </c>
       <c r="I100" s="3">
+        <v>159200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K100" s="3">
         <v>16300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-109700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-75900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>78900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-23700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-76400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-3300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>11000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>93100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-22400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-4700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-44600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5872,116 +6370,128 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-3500</v>
+        <v>2300</v>
       </c>
       <c r="G101" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="I101" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="J101" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-1200</v>
       </c>
       <c r="L101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N101" s="3">
         <v>2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2400</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-4500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-113200</v>
+        <v>37300</v>
       </c>
       <c r="E102" s="3">
-        <v>8200</v>
+        <v>-58700</v>
       </c>
       <c r="F102" s="3">
-        <v>63000</v>
+        <v>-109500</v>
       </c>
       <c r="G102" s="3">
-        <v>126100</v>
+        <v>7900</v>
       </c>
       <c r="H102" s="3">
-        <v>100400</v>
+        <v>61000</v>
       </c>
       <c r="I102" s="3">
+        <v>121900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>97100</v>
+      </c>
+      <c r="K102" s="3">
         <v>37400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-71200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>69400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-136000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>125200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-49400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-34800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>15700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-25800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-44600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-318100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1791900</v>
+        <v>1861100</v>
       </c>
       <c r="E8" s="3">
-        <v>1714000</v>
+        <v>1731300</v>
       </c>
       <c r="F8" s="3">
-        <v>1514100</v>
+        <v>1656000</v>
       </c>
       <c r="G8" s="3">
-        <v>1403500</v>
+        <v>1462900</v>
       </c>
       <c r="H8" s="3">
-        <v>1323300</v>
+        <v>1356000</v>
       </c>
       <c r="I8" s="3">
-        <v>1164100</v>
+        <v>1278500</v>
       </c>
       <c r="J8" s="3">
+        <v>1124700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1622500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1601700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1705600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1884000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1837400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1653700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1581700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1618500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1521800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1435000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1550600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1558800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1362800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1602200</v>
+        <v>1692000</v>
       </c>
       <c r="E9" s="3">
-        <v>1489300</v>
+        <v>1548000</v>
       </c>
       <c r="F9" s="3">
-        <v>1353800</v>
+        <v>1438900</v>
       </c>
       <c r="G9" s="3">
-        <v>1236400</v>
+        <v>1308000</v>
       </c>
       <c r="H9" s="3">
-        <v>1187800</v>
+        <v>1194500</v>
       </c>
       <c r="I9" s="3">
-        <v>1086200</v>
+        <v>1147600</v>
       </c>
       <c r="J9" s="3">
+        <v>1049500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1449800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1448800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1536300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1661100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1665100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1510600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1452100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1427400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1371400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1276800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1279100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1382300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1394500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1219600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>189700</v>
+        <v>169100</v>
       </c>
       <c r="E10" s="3">
-        <v>224700</v>
+        <v>183300</v>
       </c>
       <c r="F10" s="3">
-        <v>160300</v>
+        <v>217100</v>
       </c>
       <c r="G10" s="3">
-        <v>167100</v>
+        <v>154900</v>
       </c>
       <c r="H10" s="3">
-        <v>135500</v>
+        <v>161500</v>
       </c>
       <c r="I10" s="3">
-        <v>77900</v>
+        <v>130900</v>
       </c>
       <c r="J10" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K10" s="3">
         <v>172800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>152900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>169300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>222900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>172300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>143100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>129600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>191100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>150400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>123400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>156000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>168300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>164300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>143200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>164300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11300</v>
+        <v>9800</v>
       </c>
       <c r="E12" s="3">
-        <v>10200</v>
+        <v>10900</v>
       </c>
       <c r="F12" s="3">
-        <v>12400</v>
+        <v>9800</v>
       </c>
       <c r="G12" s="3">
-        <v>11300</v>
+        <v>12000</v>
       </c>
       <c r="H12" s="3">
-        <v>10200</v>
+        <v>10900</v>
       </c>
       <c r="I12" s="3">
-        <v>7900</v>
+        <v>9800</v>
       </c>
       <c r="J12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K12" s="3">
         <v>14700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>14000</v>
       </c>
       <c r="L12" s="3">
         <v>14000</v>
       </c>
       <c r="M12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N12" s="3">
         <v>14700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1141,62 +1160,65 @@
       <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3">
         <v>2300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>12400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1200</v>
       </c>
       <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>1100</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>2300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>1619100</v>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E17" s="3">
-        <v>1525400</v>
+        <v>1564400</v>
       </c>
       <c r="F17" s="3">
-        <v>1385400</v>
+        <v>1473800</v>
       </c>
       <c r="G17" s="3">
-        <v>1340200</v>
+        <v>1338500</v>
       </c>
       <c r="H17" s="3">
-        <v>1251000</v>
+        <v>1294900</v>
       </c>
       <c r="I17" s="3">
-        <v>1165200</v>
+        <v>1208700</v>
       </c>
       <c r="J17" s="3">
+        <v>1125800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1615700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1537500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1646000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1799500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1741700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1654900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1285900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1476800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1498800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1323900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1345300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1468700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1441400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1328800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>172800</v>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E18" s="3">
-        <v>188600</v>
+        <v>166900</v>
       </c>
       <c r="F18" s="3">
-        <v>128700</v>
+        <v>182200</v>
       </c>
       <c r="G18" s="3">
-        <v>63200</v>
+        <v>124400</v>
       </c>
       <c r="H18" s="3">
-        <v>72300</v>
+        <v>61100</v>
       </c>
       <c r="I18" s="3">
+        <v>69800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>64200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>59500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>84500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>95700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>295700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>141600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>23100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>76300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>89800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>81900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>117400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>34000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>-38400</v>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="3">
-        <v>-41800</v>
+        <v>-37100</v>
       </c>
       <c r="F20" s="3">
-        <v>-62100</v>
+        <v>-40400</v>
       </c>
       <c r="G20" s="3">
-        <v>-39500</v>
+        <v>-60000</v>
       </c>
       <c r="H20" s="3">
-        <v>-41800</v>
+        <v>-38200</v>
       </c>
       <c r="I20" s="3">
-        <v>-47400</v>
+        <v>-40400</v>
       </c>
       <c r="J20" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-50800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-50200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-53700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-52700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-49000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-65100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-54300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-53800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-45000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-139100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-47100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-51600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-70400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-50500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>210000</v>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="3">
-        <v>220200</v>
+        <v>202900</v>
       </c>
       <c r="F21" s="3">
-        <v>137800</v>
+        <v>212700</v>
       </c>
       <c r="G21" s="3">
-        <v>79000</v>
+        <v>133100</v>
       </c>
       <c r="H21" s="3">
-        <v>112900</v>
+        <v>76400</v>
       </c>
       <c r="I21" s="3">
-        <v>31600</v>
+        <v>109100</v>
       </c>
       <c r="J21" s="3">
         <v>30500</v>
       </c>
       <c r="K21" s="3">
+        <v>30500</v>
+      </c>
+      <c r="L21" s="3">
         <v>99200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>82900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>105300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>114800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>296800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>138300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>88600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>76300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>97400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>37600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>134400</v>
+        <v>9800</v>
       </c>
       <c r="E23" s="3">
-        <v>146800</v>
+        <v>129800</v>
       </c>
       <c r="F23" s="3">
-        <v>66600</v>
+        <v>141800</v>
       </c>
       <c r="G23" s="3">
-        <v>23700</v>
+        <v>64400</v>
       </c>
       <c r="H23" s="3">
-        <v>30500</v>
+        <v>22900</v>
       </c>
       <c r="I23" s="3">
-        <v>-48600</v>
+        <v>29500</v>
       </c>
       <c r="J23" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-44000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>31800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-66200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>241500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>87800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-22000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-62800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>42600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>30300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>47000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-16400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>22600</v>
+        <v>2200</v>
       </c>
       <c r="E24" s="3">
-        <v>24800</v>
+        <v>21800</v>
       </c>
       <c r="F24" s="3">
-        <v>12400</v>
+        <v>24000</v>
       </c>
       <c r="G24" s="3">
-        <v>-5600</v>
+        <v>12000</v>
       </c>
       <c r="H24" s="3">
-        <v>7900</v>
+        <v>-5500</v>
       </c>
       <c r="I24" s="3">
-        <v>-12400</v>
+        <v>7600</v>
       </c>
       <c r="J24" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>44900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>31700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
-        <v>111800</v>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E26" s="3">
-        <v>121900</v>
+        <v>108000</v>
       </c>
       <c r="F26" s="3">
-        <v>54200</v>
+        <v>117800</v>
       </c>
       <c r="G26" s="3">
-        <v>29400</v>
+        <v>52400</v>
       </c>
       <c r="H26" s="3">
-        <v>22600</v>
+        <v>28400</v>
       </c>
       <c r="I26" s="3">
-        <v>-36100</v>
+        <v>21800</v>
       </c>
       <c r="J26" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-35000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>28700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-68600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>240300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-26400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-107700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-23500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
-        <v>109500</v>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E27" s="3">
-        <v>120800</v>
+        <v>105800</v>
       </c>
       <c r="F27" s="3">
-        <v>51900</v>
+        <v>116700</v>
       </c>
       <c r="G27" s="3">
-        <v>27100</v>
+        <v>50200</v>
       </c>
       <c r="H27" s="3">
-        <v>21500</v>
+        <v>26200</v>
       </c>
       <c r="I27" s="3">
-        <v>-37300</v>
+        <v>20700</v>
       </c>
       <c r="J27" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-35000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>19600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-71000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>240300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-26400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-107700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>15300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-23500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2092,8 +2152,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2110,11 +2170,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>18000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>38400</v>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E32" s="3">
-        <v>41800</v>
+        <v>37100</v>
       </c>
       <c r="F32" s="3">
-        <v>62100</v>
+        <v>40400</v>
       </c>
       <c r="G32" s="3">
-        <v>39500</v>
+        <v>60000</v>
       </c>
       <c r="H32" s="3">
-        <v>41800</v>
+        <v>38200</v>
       </c>
       <c r="I32" s="3">
-        <v>47400</v>
+        <v>40400</v>
       </c>
       <c r="J32" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K32" s="3">
         <v>50800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>50200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>53700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>52700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>49000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>65100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>54300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>53800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>45000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>139100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>47100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>51600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>70400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>50500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>109500</v>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E33" s="3">
-        <v>120800</v>
+        <v>105800</v>
       </c>
       <c r="F33" s="3">
-        <v>51900</v>
+        <v>116700</v>
       </c>
       <c r="G33" s="3">
-        <v>27100</v>
+        <v>50200</v>
       </c>
       <c r="H33" s="3">
-        <v>21500</v>
+        <v>26200</v>
       </c>
       <c r="I33" s="3">
-        <v>-37300</v>
+        <v>20700</v>
       </c>
       <c r="J33" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-35000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>19600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-71000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>240300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-26400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-89800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>15300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-23500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>109500</v>
+      <c r="D35" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E35" s="3">
-        <v>120800</v>
+        <v>105800</v>
       </c>
       <c r="F35" s="3">
-        <v>51900</v>
+        <v>116700</v>
       </c>
       <c r="G35" s="3">
-        <v>27100</v>
+        <v>50200</v>
       </c>
       <c r="H35" s="3">
-        <v>21500</v>
+        <v>26200</v>
       </c>
       <c r="I35" s="3">
-        <v>-37300</v>
+        <v>20700</v>
       </c>
       <c r="J35" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-35000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>19600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-71000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>240300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-26400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-89800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>15300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-23500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>364700</v>
+        <v>160400</v>
       </c>
       <c r="E41" s="3">
-        <v>327400</v>
+        <v>352400</v>
       </c>
       <c r="F41" s="3">
-        <v>386200</v>
+        <v>316400</v>
       </c>
       <c r="G41" s="3">
-        <v>495700</v>
+        <v>373100</v>
       </c>
       <c r="H41" s="3">
-        <v>487800</v>
+        <v>478900</v>
       </c>
       <c r="I41" s="3">
-        <v>426800</v>
+        <v>471300</v>
       </c>
       <c r="J41" s="3">
+        <v>412400</v>
+      </c>
+      <c r="K41" s="3">
         <v>304900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>214800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>177400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>260900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>265600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>194000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>309000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>182300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>231700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>301800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>336600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>320900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>362700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>407300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2765,212 +2854,221 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>35900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>35500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>26600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>38400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>41700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>77400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>50500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>125700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>151400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>137300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>777900</v>
+        <v>745100</v>
       </c>
       <c r="E43" s="3">
-        <v>755400</v>
+        <v>751600</v>
       </c>
       <c r="F43" s="3">
-        <v>601800</v>
+        <v>729800</v>
       </c>
       <c r="G43" s="3">
-        <v>458400</v>
+        <v>581500</v>
       </c>
       <c r="H43" s="3">
-        <v>527300</v>
+        <v>442900</v>
       </c>
       <c r="I43" s="3">
-        <v>509200</v>
+        <v>509500</v>
       </c>
       <c r="J43" s="3">
+        <v>492000</v>
+      </c>
+      <c r="K43" s="3">
         <v>615400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>553400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>729600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>771700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>815800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>694400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>659000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>720300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>633500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>470100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>488100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>583400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>550500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>416700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1055700</v>
+        <v>1145500</v>
       </c>
       <c r="E44" s="3">
-        <v>905500</v>
+        <v>1020000</v>
       </c>
       <c r="F44" s="3">
-        <v>793800</v>
+        <v>874900</v>
       </c>
       <c r="G44" s="3">
-        <v>657100</v>
+        <v>766900</v>
       </c>
       <c r="H44" s="3">
-        <v>685400</v>
+        <v>634900</v>
       </c>
       <c r="I44" s="3">
-        <v>717000</v>
+        <v>662200</v>
       </c>
       <c r="J44" s="3">
+        <v>692700</v>
+      </c>
+      <c r="K44" s="3">
         <v>783600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>782200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>809000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>873400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>846900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>780700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>772000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>818000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>732400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>721400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>686700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>681000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>721900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>693700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>99400</v>
+        <v>63300</v>
       </c>
       <c r="E45" s="3">
-        <v>71100</v>
+        <v>96000</v>
       </c>
       <c r="F45" s="3">
-        <v>67700</v>
+        <v>68700</v>
       </c>
       <c r="G45" s="3">
-        <v>44000</v>
+        <v>65500</v>
       </c>
       <c r="H45" s="3">
-        <v>26000</v>
+        <v>42500</v>
       </c>
       <c r="I45" s="3">
-        <v>24800</v>
+        <v>25100</v>
       </c>
       <c r="J45" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K45" s="3">
         <v>40600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23300</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -3001,280 +3099,295 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>2297700</v>
+      <c r="D46" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E46" s="3">
-        <v>2059500</v>
+        <v>2220000</v>
       </c>
       <c r="F46" s="3">
-        <v>1849500</v>
+        <v>1989800</v>
       </c>
       <c r="G46" s="3">
-        <v>1655300</v>
+        <v>1786900</v>
       </c>
       <c r="H46" s="3">
-        <v>1726400</v>
+        <v>1599300</v>
       </c>
       <c r="I46" s="3">
-        <v>1677800</v>
+        <v>1668000</v>
       </c>
       <c r="J46" s="3">
+        <v>1621100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1744500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1576000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1760500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1929400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1964200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1704600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1766600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1759000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1639300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1570800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1561800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1711000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1786500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1655100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80200</v>
+        <v>60000</v>
       </c>
       <c r="E47" s="3">
-        <v>77900</v>
+        <v>77500</v>
       </c>
       <c r="F47" s="3">
-        <v>74500</v>
+        <v>75300</v>
       </c>
       <c r="G47" s="3">
-        <v>76800</v>
+        <v>72000</v>
       </c>
       <c r="H47" s="3">
-        <v>76800</v>
+        <v>74200</v>
       </c>
       <c r="I47" s="3">
-        <v>84700</v>
+        <v>74200</v>
       </c>
       <c r="J47" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K47" s="3">
         <v>70000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>71200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>61900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>83300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>87300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>164400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>135100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>147100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>160300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>178400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>160400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>70700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>108000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>131500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2141900</v>
+        <v>2125100</v>
       </c>
       <c r="E48" s="3">
-        <v>2139600</v>
+        <v>2069500</v>
       </c>
       <c r="F48" s="3">
-        <v>2164500</v>
+        <v>2067300</v>
       </c>
       <c r="G48" s="3">
-        <v>2152100</v>
+        <v>2091300</v>
       </c>
       <c r="H48" s="3">
-        <v>2225500</v>
+        <v>2079300</v>
       </c>
       <c r="I48" s="3">
-        <v>2293200</v>
+        <v>2150200</v>
       </c>
       <c r="J48" s="3">
+        <v>2215600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2346300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2381500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2426700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2345700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1970700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1738900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1696400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1643700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1702100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1638100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1641500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1747800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1733700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>567900</v>
+        <v>555300</v>
       </c>
       <c r="E49" s="3">
-        <v>552100</v>
+        <v>548700</v>
       </c>
       <c r="F49" s="3">
-        <v>561200</v>
+        <v>533500</v>
       </c>
       <c r="G49" s="3">
-        <v>539700</v>
+        <v>542200</v>
       </c>
       <c r="H49" s="3">
-        <v>565700</v>
+        <v>521500</v>
       </c>
       <c r="I49" s="3">
+        <v>546500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>571600</v>
+      </c>
+      <c r="K49" s="3">
+        <v>605200</v>
+      </c>
+      <c r="L49" s="3">
+        <v>612900</v>
+      </c>
+      <c r="M49" s="3">
+        <v>628100</v>
+      </c>
+      <c r="N49" s="3">
+        <v>630900</v>
+      </c>
+      <c r="O49" s="3">
+        <v>625600</v>
+      </c>
+      <c r="P49" s="3">
+        <v>582000</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>537200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>529200</v>
+      </c>
+      <c r="S49" s="3">
+        <v>504000</v>
+      </c>
+      <c r="T49" s="3">
+        <v>528500</v>
+      </c>
+      <c r="U49" s="3">
+        <v>541900</v>
+      </c>
+      <c r="V49" s="3">
+        <v>561000</v>
+      </c>
+      <c r="W49" s="3">
+        <v>619800</v>
+      </c>
+      <c r="X49" s="3">
+        <v>629200</v>
+      </c>
+      <c r="Y49" s="3">
         <v>591600</v>
       </c>
-      <c r="J49" s="3">
-        <v>605200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>612900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>628100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>630900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>625600</v>
-      </c>
-      <c r="O49" s="3">
-        <v>582000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>537200</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>529200</v>
-      </c>
-      <c r="R49" s="3">
-        <v>504000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>528500</v>
-      </c>
-      <c r="T49" s="3">
-        <v>541900</v>
-      </c>
-      <c r="U49" s="3">
-        <v>561000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>619800</v>
-      </c>
-      <c r="W49" s="3">
-        <v>629200</v>
-      </c>
-      <c r="X49" s="3">
-        <v>591600</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>186300</v>
+        <v>189800</v>
       </c>
       <c r="E52" s="3">
-        <v>201000</v>
+        <v>180000</v>
       </c>
       <c r="F52" s="3">
-        <v>215700</v>
+        <v>194200</v>
       </c>
       <c r="G52" s="3">
-        <v>238200</v>
+        <v>208400</v>
       </c>
       <c r="H52" s="3">
-        <v>255200</v>
+        <v>230200</v>
       </c>
       <c r="I52" s="3">
-        <v>260800</v>
+        <v>246500</v>
       </c>
       <c r="J52" s="3">
+        <v>252000</v>
+      </c>
+      <c r="K52" s="3">
         <v>236000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>224100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>234600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>198400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>183000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>192800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>176100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>174600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>173500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>184000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>228900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>239000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>271200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>295800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5274000</v>
+        <v>5044400</v>
       </c>
       <c r="E54" s="3">
-        <v>5030100</v>
+        <v>5095600</v>
       </c>
       <c r="F54" s="3">
-        <v>4865300</v>
+        <v>4860000</v>
       </c>
       <c r="G54" s="3">
-        <v>4662100</v>
+        <v>4700700</v>
       </c>
       <c r="H54" s="3">
-        <v>4849500</v>
+        <v>4504400</v>
       </c>
       <c r="I54" s="3">
-        <v>4908200</v>
+        <v>4685500</v>
       </c>
       <c r="J54" s="3">
+        <v>4742200</v>
+      </c>
+      <c r="K54" s="3">
         <v>5001900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4884400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5066600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5268700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5205900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4614500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4354000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4306400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4120800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4163700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4131200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4223200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4533300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4445200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1504000</v>
+        <v>1502200</v>
       </c>
       <c r="E57" s="3">
-        <v>1417000</v>
+        <v>1453100</v>
       </c>
       <c r="F57" s="3">
-        <v>1272500</v>
+        <v>1369100</v>
       </c>
       <c r="G57" s="3">
-        <v>1021800</v>
+        <v>1229500</v>
       </c>
       <c r="H57" s="3">
-        <v>1140400</v>
+        <v>987300</v>
       </c>
       <c r="I57" s="3">
-        <v>1132500</v>
+        <v>1101800</v>
       </c>
       <c r="J57" s="3">
+        <v>1094200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1316500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1166200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1295800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1372000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1379200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1145000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1115400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1203400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1104600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1043500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1058000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1109600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1136200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>984800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>295800</v>
+        <v>281500</v>
       </c>
       <c r="E58" s="3">
-        <v>295800</v>
+        <v>285800</v>
       </c>
       <c r="F58" s="3">
-        <v>92600</v>
+        <v>285800</v>
       </c>
       <c r="G58" s="3">
-        <v>103900</v>
+        <v>89500</v>
       </c>
       <c r="H58" s="3">
-        <v>96000</v>
+        <v>100400</v>
       </c>
       <c r="I58" s="3">
-        <v>115200</v>
+        <v>92700</v>
       </c>
       <c r="J58" s="3">
+        <v>111300</v>
+      </c>
+      <c r="K58" s="3">
         <v>221300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>234600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>195000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>198400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>252400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>67400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>47600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>142700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>121900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>118900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>113300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>135800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>133800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>125600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>81300</v>
+        <v>86200</v>
       </c>
       <c r="E59" s="3">
-        <v>77900</v>
+        <v>78500</v>
       </c>
       <c r="F59" s="3">
+        <v>75300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>94900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>97100</v>
+      </c>
+      <c r="I59" s="3">
         <v>98200</v>
       </c>
-      <c r="G59" s="3">
-        <v>100500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>101600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>106100</v>
-      </c>
       <c r="J59" s="3">
+        <v>102500</v>
+      </c>
+      <c r="K59" s="3">
         <v>144500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>84100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>117900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>91900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>96900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>134900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>85600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>104300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>83000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>86400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>85300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>99800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>104500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>1881100</v>
+      <c r="D60" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E60" s="3">
-        <v>1790800</v>
+        <v>1817500</v>
       </c>
       <c r="F60" s="3">
-        <v>1463300</v>
+        <v>1730200</v>
       </c>
       <c r="G60" s="3">
-        <v>1226200</v>
+        <v>1413800</v>
       </c>
       <c r="H60" s="3">
-        <v>1338000</v>
+        <v>1184700</v>
       </c>
       <c r="I60" s="3">
-        <v>1353800</v>
+        <v>1292700</v>
       </c>
       <c r="J60" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1682400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1484900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1608700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1662300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1728500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1347300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1263800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1431800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1330800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1245400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1257800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1330700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1369800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1214900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2280800</v>
+        <v>2041100</v>
       </c>
       <c r="E61" s="3">
-        <v>2252600</v>
+        <v>2203600</v>
       </c>
       <c r="F61" s="3">
-        <v>2532600</v>
+        <v>2176400</v>
       </c>
       <c r="G61" s="3">
-        <v>2595800</v>
+        <v>2446900</v>
       </c>
       <c r="H61" s="3">
-        <v>2677100</v>
+        <v>2508000</v>
       </c>
       <c r="I61" s="3">
-        <v>2748200</v>
+        <v>2586500</v>
       </c>
       <c r="J61" s="3">
+        <v>2655300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2487400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2521600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2571800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2714600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2643600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2477000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2281700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2255300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2176200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2267500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2419000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2474000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2722100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2771400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>825400</v>
+        <v>816000</v>
       </c>
       <c r="E62" s="3">
-        <v>824200</v>
+        <v>797500</v>
       </c>
       <c r="F62" s="3">
-        <v>862600</v>
+        <v>796400</v>
       </c>
       <c r="G62" s="3">
-        <v>954100</v>
+        <v>833500</v>
       </c>
       <c r="H62" s="3">
-        <v>1015100</v>
+        <v>921800</v>
       </c>
       <c r="I62" s="3">
-        <v>1002600</v>
+        <v>980700</v>
       </c>
       <c r="J62" s="3">
+        <v>968700</v>
+      </c>
+      <c r="K62" s="3">
         <v>971000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>977100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1060000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1030200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>964100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>925000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>854000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>917900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>962900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1008700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1000800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>998600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1083400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1128000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5007600</v>
+        <v>4745500</v>
       </c>
       <c r="E66" s="3">
-        <v>4885600</v>
+        <v>4838200</v>
       </c>
       <c r="F66" s="3">
-        <v>4875500</v>
+        <v>4720400</v>
       </c>
       <c r="G66" s="3">
-        <v>4791900</v>
+        <v>4710500</v>
       </c>
       <c r="H66" s="3">
-        <v>5044800</v>
+        <v>4629800</v>
       </c>
       <c r="I66" s="3">
-        <v>5118200</v>
+        <v>4874200</v>
       </c>
       <c r="J66" s="3">
+        <v>4945100</v>
+      </c>
+      <c r="K66" s="3">
         <v>5153200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4996500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5253300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5419400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5347000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4758800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4409400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4613800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4478700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4530600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4685400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4812200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5185900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5124900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-211100</v>
+        <v>-162500</v>
       </c>
       <c r="E72" s="3">
-        <v>-333100</v>
+        <v>-204000</v>
       </c>
       <c r="F72" s="3">
-        <v>-487800</v>
+        <v>-321800</v>
       </c>
       <c r="G72" s="3">
-        <v>-607500</v>
+        <v>-471300</v>
       </c>
       <c r="H72" s="3">
-        <v>-672900</v>
+        <v>-586900</v>
       </c>
       <c r="I72" s="3">
-        <v>-687600</v>
+        <v>-650200</v>
       </c>
       <c r="J72" s="3">
+        <v>-664400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-628900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-605900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-680600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-668800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-647100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-644700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-523900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-771900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-822400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-841500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-738300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-773100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-845100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-872100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>266500</v>
+        <v>298900</v>
       </c>
       <c r="E76" s="3">
-        <v>144500</v>
+        <v>257500</v>
       </c>
       <c r="F76" s="3">
-        <v>-10200</v>
+        <v>139600</v>
       </c>
       <c r="G76" s="3">
-        <v>-129800</v>
+        <v>-9800</v>
       </c>
       <c r="H76" s="3">
-        <v>-195300</v>
+        <v>-125500</v>
       </c>
       <c r="I76" s="3">
-        <v>-210000</v>
+        <v>-188700</v>
       </c>
       <c r="J76" s="3">
+        <v>-202900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-151300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-112100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-186800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-150700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-141200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-144300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-55400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-307400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-357900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-366900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-554300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-589000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-652600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-679600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>109500</v>
+      <c r="D81" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E81" s="3">
-        <v>120800</v>
+        <v>105800</v>
       </c>
       <c r="F81" s="3">
-        <v>51900</v>
+        <v>116700</v>
       </c>
       <c r="G81" s="3">
-        <v>27100</v>
+        <v>50200</v>
       </c>
       <c r="H81" s="3">
-        <v>21500</v>
+        <v>26200</v>
       </c>
       <c r="I81" s="3">
-        <v>-37300</v>
+        <v>20700</v>
       </c>
       <c r="J81" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-35000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>19600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-71000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>240300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-26400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-89800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>15300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-23500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>75600</v>
+        <v>78500</v>
       </c>
       <c r="E83" s="3">
-        <v>73400</v>
+        <v>73100</v>
       </c>
       <c r="F83" s="3">
-        <v>71100</v>
+        <v>70900</v>
       </c>
       <c r="G83" s="3">
-        <v>55300</v>
+        <v>68700</v>
       </c>
       <c r="H83" s="3">
-        <v>82400</v>
+        <v>53500</v>
       </c>
       <c r="I83" s="3">
-        <v>80200</v>
+        <v>79600</v>
       </c>
       <c r="J83" s="3">
+        <v>77500</v>
+      </c>
+      <c r="K83" s="3">
         <v>74500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>85200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>77000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>73500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>68200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>67400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>55400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>50500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>48300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>51600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>46000</v>
       </c>
       <c r="U83" s="3">
         <v>46000</v>
       </c>
       <c r="V83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="W83" s="3">
         <v>50500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>54000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>102700</v>
+        <v>128700</v>
       </c>
       <c r="E89" s="3">
-        <v>82400</v>
+        <v>99300</v>
       </c>
       <c r="F89" s="3">
-        <v>84700</v>
+        <v>79600</v>
       </c>
       <c r="G89" s="3">
-        <v>80200</v>
+        <v>81800</v>
       </c>
       <c r="H89" s="3">
-        <v>125300</v>
+        <v>77500</v>
       </c>
       <c r="I89" s="3">
-        <v>9000</v>
+        <v>121100</v>
       </c>
       <c r="J89" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K89" s="3">
         <v>162600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>124900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>93400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>156800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>157900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>50900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-26400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>85300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>50500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>42300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-119700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-61000</v>
+        <v>-113500</v>
       </c>
       <c r="E91" s="3">
-        <v>-47400</v>
+        <v>-58900</v>
       </c>
       <c r="F91" s="3">
-        <v>-36100</v>
+        <v>-45800</v>
       </c>
       <c r="G91" s="3">
-        <v>-54200</v>
+        <v>-34900</v>
       </c>
       <c r="H91" s="3">
-        <v>-40600</v>
+        <v>-52400</v>
       </c>
       <c r="I91" s="3">
-        <v>-46300</v>
+        <v>-39300</v>
       </c>
       <c r="J91" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-64400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-106200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-58400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-87000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-70600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-138400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-69800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-54900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-51600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-113300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-61700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-67300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-70400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-146700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-57600</v>
+        <v>-112400</v>
       </c>
       <c r="E94" s="3">
-        <v>-42900</v>
+        <v>-55600</v>
       </c>
       <c r="F94" s="3">
-        <v>-32700</v>
+        <v>-41500</v>
       </c>
       <c r="G94" s="3">
-        <v>-48600</v>
+        <v>-31600</v>
       </c>
       <c r="H94" s="3">
-        <v>-40600</v>
+        <v>-46900</v>
       </c>
       <c r="I94" s="3">
-        <v>-45200</v>
+        <v>-39300</v>
       </c>
       <c r="J94" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-64400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-102700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-90600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-169900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-145500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>150600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-65900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-48300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-130200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-46000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-74100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-81000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-154900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,117 +6532,123 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10200</v>
+        <v>-211600</v>
       </c>
       <c r="E100" s="3">
-        <v>-98200</v>
+        <v>-9800</v>
       </c>
       <c r="F100" s="3">
-        <v>-163700</v>
+        <v>-94900</v>
       </c>
       <c r="G100" s="3">
+        <v>-158200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>153800</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>16300</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-109700</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="O100" s="3">
+        <v>78900</v>
+      </c>
+      <c r="P100" s="3">
         <v>-23700</v>
       </c>
-      <c r="H100" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>159200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>16300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-109700</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-75900</v>
-      </c>
-      <c r="N100" s="3">
-        <v>78900</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-23700</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-76400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>11000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>93100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-44600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>2400</v>
       </c>
       <c r="O101" s="3">
         <v>2400</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6409,89 +6657,95 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="T101" s="3">
         <v>-1100</v>
       </c>
       <c r="U101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V101" s="3">
         <v>-4500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W101" s="3">
-        <v>1200</v>
       </c>
       <c r="X101" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37300</v>
+        <v>-199600</v>
       </c>
       <c r="E102" s="3">
-        <v>-58700</v>
+        <v>36000</v>
       </c>
       <c r="F102" s="3">
-        <v>-109500</v>
+        <v>-56700</v>
       </c>
       <c r="G102" s="3">
-        <v>7900</v>
+        <v>-105800</v>
       </c>
       <c r="H102" s="3">
-        <v>61000</v>
+        <v>7600</v>
       </c>
       <c r="I102" s="3">
-        <v>121900</v>
+        <v>58900</v>
       </c>
       <c r="J102" s="3">
+        <v>117800</v>
+      </c>
+      <c r="K102" s="3">
         <v>97100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>37400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-71200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>69400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-136000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>125200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-49400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-63700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-34800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-25800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-44600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-318100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1861100</v>
+        <v>2054000</v>
       </c>
       <c r="E8" s="3">
-        <v>1731300</v>
+        <v>1770700</v>
       </c>
       <c r="F8" s="3">
-        <v>1656000</v>
+        <v>1647100</v>
       </c>
       <c r="G8" s="3">
-        <v>1462900</v>
+        <v>1575500</v>
       </c>
       <c r="H8" s="3">
-        <v>1356000</v>
+        <v>1391800</v>
       </c>
       <c r="I8" s="3">
-        <v>1278500</v>
+        <v>1290100</v>
       </c>
       <c r="J8" s="3">
+        <v>1216400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1124700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1622500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1601700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1705600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1884000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1837400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1653700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1581700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1618500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1521800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1400200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1435000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1550600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1558800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1362800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1692000</v>
+        <v>1828800</v>
       </c>
       <c r="E9" s="3">
-        <v>1548000</v>
+        <v>1609800</v>
       </c>
       <c r="F9" s="3">
-        <v>1438900</v>
+        <v>1472800</v>
       </c>
       <c r="G9" s="3">
-        <v>1308000</v>
+        <v>1369000</v>
       </c>
       <c r="H9" s="3">
-        <v>1194500</v>
+        <v>1244400</v>
       </c>
       <c r="I9" s="3">
-        <v>1147600</v>
+        <v>1136500</v>
       </c>
       <c r="J9" s="3">
+        <v>1091900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1049500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1449800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1448800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1536300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1661100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1665100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1510600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1452100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1427400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1371400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1276800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1279100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1382300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1394500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1219600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>169100</v>
+        <v>225200</v>
       </c>
       <c r="E10" s="3">
-        <v>183300</v>
+        <v>160900</v>
       </c>
       <c r="F10" s="3">
-        <v>217100</v>
+        <v>174400</v>
       </c>
       <c r="G10" s="3">
-        <v>154900</v>
+        <v>206500</v>
       </c>
       <c r="H10" s="3">
-        <v>161500</v>
+        <v>147400</v>
       </c>
       <c r="I10" s="3">
-        <v>130900</v>
+        <v>153600</v>
       </c>
       <c r="J10" s="3">
+        <v>124500</v>
+      </c>
+      <c r="K10" s="3">
         <v>75300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>172800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>152900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>169300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>222900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>172300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>143100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>129600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>191100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>150400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>123400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>156000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>168300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>164300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>143200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>164300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9800</v>
+        <v>11400</v>
       </c>
       <c r="E12" s="3">
-        <v>10900</v>
+        <v>9300</v>
       </c>
       <c r="F12" s="3">
-        <v>9800</v>
+        <v>10400</v>
       </c>
       <c r="G12" s="3">
-        <v>12000</v>
+        <v>9300</v>
       </c>
       <c r="H12" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="I12" s="3">
-        <v>9800</v>
+        <v>10400</v>
       </c>
       <c r="J12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K12" s="3">
         <v>7600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14700</v>
-      </c>
-      <c r="L12" s="3">
-        <v>14000</v>
       </c>
       <c r="M12" s="3">
         <v>14000</v>
       </c>
       <c r="N12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="O12" s="3">
         <v>14700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1163,62 +1183,65 @@
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I14" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1200</v>
       </c>
       <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>1100</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>2300</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
+      <c r="D17" s="3">
+        <v>1796600</v>
       </c>
       <c r="E17" s="3">
-        <v>1564400</v>
+        <v>1718800</v>
       </c>
       <c r="F17" s="3">
-        <v>1473800</v>
+        <v>1488300</v>
       </c>
       <c r="G17" s="3">
-        <v>1338500</v>
+        <v>1402200</v>
       </c>
       <c r="H17" s="3">
-        <v>1294900</v>
+        <v>1273500</v>
       </c>
       <c r="I17" s="3">
-        <v>1208700</v>
+        <v>1232000</v>
       </c>
       <c r="J17" s="3">
+        <v>1150000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1125800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1615700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1537500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1646000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1799500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1741700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1654900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1285900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1476800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1498800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1323900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1345300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1468700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1441400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1328800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
+      <c r="D18" s="3">
+        <v>257400</v>
       </c>
       <c r="E18" s="3">
-        <v>166900</v>
+        <v>51900</v>
       </c>
       <c r="F18" s="3">
-        <v>182200</v>
+        <v>158800</v>
       </c>
       <c r="G18" s="3">
-        <v>124400</v>
+        <v>173300</v>
       </c>
       <c r="H18" s="3">
-        <v>61100</v>
+        <v>118300</v>
       </c>
       <c r="I18" s="3">
-        <v>69800</v>
+        <v>58100</v>
       </c>
       <c r="J18" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>59500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>84500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>95700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>295700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>141600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>23100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>89800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>81900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>117400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>34000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
+      <c r="D20" s="3">
+        <v>-31100</v>
       </c>
       <c r="E20" s="3">
-        <v>-37100</v>
+        <v>-42600</v>
       </c>
       <c r="F20" s="3">
-        <v>-40400</v>
+        <v>-35300</v>
       </c>
       <c r="G20" s="3">
-        <v>-60000</v>
+        <v>-38400</v>
       </c>
       <c r="H20" s="3">
-        <v>-38200</v>
+        <v>-57100</v>
       </c>
       <c r="I20" s="3">
-        <v>-40400</v>
+        <v>-36300</v>
       </c>
       <c r="J20" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-45800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-50800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-50200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-53700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-52700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-49000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-65100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-54300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-53800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-45000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-139100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-47100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-51600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-70400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-50500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
+      <c r="D21" s="3">
+        <v>294800</v>
       </c>
       <c r="E21" s="3">
-        <v>202900</v>
+        <v>84100</v>
       </c>
       <c r="F21" s="3">
-        <v>212700</v>
+        <v>193000</v>
       </c>
       <c r="G21" s="3">
-        <v>133100</v>
+        <v>202400</v>
       </c>
       <c r="H21" s="3">
-        <v>76400</v>
+        <v>126600</v>
       </c>
       <c r="I21" s="3">
-        <v>109100</v>
+        <v>72700</v>
       </c>
       <c r="J21" s="3">
-        <v>30500</v>
+        <v>103800</v>
       </c>
       <c r="K21" s="3">
         <v>30500</v>
       </c>
       <c r="L21" s="3">
+        <v>30500</v>
+      </c>
+      <c r="M21" s="3">
         <v>99200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>82900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>105300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>114800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>296800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>138300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>88600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>76300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>97400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>37600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>9800</v>
+        <v>226300</v>
       </c>
       <c r="E23" s="3">
-        <v>129800</v>
+        <v>9300</v>
       </c>
       <c r="F23" s="3">
-        <v>141800</v>
+        <v>123500</v>
       </c>
       <c r="G23" s="3">
-        <v>64400</v>
+        <v>134900</v>
       </c>
       <c r="H23" s="3">
-        <v>22900</v>
+        <v>61200</v>
       </c>
       <c r="I23" s="3">
-        <v>29500</v>
+        <v>21800</v>
       </c>
       <c r="J23" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-46900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-44000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>31800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>46700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-66200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>241500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>87800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-22000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-62800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>42600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>30300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>47000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-16400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2200</v>
+        <v>40500</v>
       </c>
       <c r="E24" s="3">
-        <v>21800</v>
+        <v>2100</v>
       </c>
       <c r="F24" s="3">
-        <v>24000</v>
+        <v>20800</v>
       </c>
       <c r="G24" s="3">
-        <v>12000</v>
+        <v>22800</v>
       </c>
       <c r="H24" s="3">
-        <v>-5500</v>
+        <v>11400</v>
       </c>
       <c r="I24" s="3">
-        <v>7600</v>
+        <v>-5200</v>
       </c>
       <c r="J24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-12000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-11700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>44900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>31700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
+      <c r="D26" s="3">
+        <v>185800</v>
       </c>
       <c r="E26" s="3">
-        <v>108000</v>
+        <v>7300</v>
       </c>
       <c r="F26" s="3">
-        <v>117800</v>
+        <v>102800</v>
       </c>
       <c r="G26" s="3">
-        <v>52400</v>
+        <v>112100</v>
       </c>
       <c r="H26" s="3">
-        <v>28400</v>
+        <v>49800</v>
       </c>
       <c r="I26" s="3">
-        <v>21800</v>
+        <v>27000</v>
       </c>
       <c r="J26" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-34900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-35000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>28700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-68600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>240300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>60400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-26400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-107700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>23600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>15300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-23500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>24</v>
+      <c r="D27" s="3">
+        <v>183700</v>
       </c>
       <c r="E27" s="3">
-        <v>105800</v>
+        <v>7300</v>
       </c>
       <c r="F27" s="3">
-        <v>116700</v>
+        <v>100700</v>
       </c>
       <c r="G27" s="3">
-        <v>50200</v>
+        <v>111100</v>
       </c>
       <c r="H27" s="3">
-        <v>26200</v>
+        <v>47700</v>
       </c>
       <c r="I27" s="3">
-        <v>20700</v>
+        <v>24900</v>
       </c>
       <c r="J27" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-36000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-35000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>19600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>27500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>240300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-26400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-107700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>15300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-23500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2155,8 +2216,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2173,11 +2234,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>18000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
+      <c r="D32" s="3">
+        <v>31100</v>
       </c>
       <c r="E32" s="3">
-        <v>37100</v>
+        <v>42600</v>
       </c>
       <c r="F32" s="3">
-        <v>40400</v>
+        <v>35300</v>
       </c>
       <c r="G32" s="3">
-        <v>60000</v>
+        <v>38400</v>
       </c>
       <c r="H32" s="3">
-        <v>38200</v>
+        <v>57100</v>
       </c>
       <c r="I32" s="3">
-        <v>40400</v>
+        <v>36300</v>
       </c>
       <c r="J32" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K32" s="3">
         <v>45800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>50800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>50200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>53700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>52700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>49000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>65100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>54300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>53800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>45000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>139100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>47100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>51600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>70400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>50500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>24</v>
+      <c r="D33" s="3">
+        <v>183700</v>
       </c>
       <c r="E33" s="3">
-        <v>105800</v>
+        <v>7300</v>
       </c>
       <c r="F33" s="3">
-        <v>116700</v>
+        <v>100700</v>
       </c>
       <c r="G33" s="3">
-        <v>50200</v>
+        <v>111100</v>
       </c>
       <c r="H33" s="3">
-        <v>26200</v>
+        <v>47700</v>
       </c>
       <c r="I33" s="3">
-        <v>20700</v>
+        <v>24900</v>
       </c>
       <c r="J33" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-36000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-35000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>19600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>27500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>240300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>60400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-26400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-89800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>15300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-23500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>24</v>
+      <c r="D35" s="3">
+        <v>183700</v>
       </c>
       <c r="E35" s="3">
-        <v>105800</v>
+        <v>7300</v>
       </c>
       <c r="F35" s="3">
-        <v>116700</v>
+        <v>100700</v>
       </c>
       <c r="G35" s="3">
-        <v>50200</v>
+        <v>111100</v>
       </c>
       <c r="H35" s="3">
-        <v>26200</v>
+        <v>47700</v>
       </c>
       <c r="I35" s="3">
-        <v>20700</v>
+        <v>24900</v>
       </c>
       <c r="J35" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-36000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-35000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>19600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>27500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>240300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>60400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-26400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-89800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>15300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-23500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>160400</v>
+        <v>166100</v>
       </c>
       <c r="E41" s="3">
-        <v>352400</v>
+        <v>152600</v>
       </c>
       <c r="F41" s="3">
-        <v>316400</v>
+        <v>335200</v>
       </c>
       <c r="G41" s="3">
-        <v>373100</v>
+        <v>301000</v>
       </c>
       <c r="H41" s="3">
-        <v>478900</v>
+        <v>152600</v>
       </c>
       <c r="I41" s="3">
-        <v>471300</v>
+        <v>455600</v>
       </c>
       <c r="J41" s="3">
+        <v>448400</v>
+      </c>
+      <c r="K41" s="3">
         <v>412400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>304900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>214800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>177400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>260900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>265600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>194000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>309000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>182300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>231700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>301800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>336600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>320900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>362700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>407300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2857,221 +2947,230 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>35900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>35500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>26600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>38400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>41700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>77400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>50500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>125700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>151400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>137300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>745100</v>
+        <v>962100</v>
       </c>
       <c r="E43" s="3">
-        <v>751600</v>
+        <v>708900</v>
       </c>
       <c r="F43" s="3">
-        <v>729800</v>
+        <v>715100</v>
       </c>
       <c r="G43" s="3">
-        <v>581500</v>
+        <v>694400</v>
       </c>
       <c r="H43" s="3">
-        <v>442900</v>
+        <v>708900</v>
       </c>
       <c r="I43" s="3">
-        <v>509500</v>
+        <v>421400</v>
       </c>
       <c r="J43" s="3">
+        <v>484700</v>
+      </c>
+      <c r="K43" s="3">
         <v>492000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>615400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>553400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>729600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>771700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>815800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>694400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>659000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>720300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>633500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>470100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>488100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>583400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>550500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>416700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1145500</v>
+        <v>1368000</v>
       </c>
       <c r="E44" s="3">
-        <v>1020000</v>
+        <v>1089800</v>
       </c>
       <c r="F44" s="3">
-        <v>874900</v>
+        <v>970400</v>
       </c>
       <c r="G44" s="3">
-        <v>766900</v>
+        <v>832400</v>
       </c>
       <c r="H44" s="3">
-        <v>634900</v>
+        <v>1089800</v>
       </c>
       <c r="I44" s="3">
-        <v>662200</v>
+        <v>604100</v>
       </c>
       <c r="J44" s="3">
+        <v>630000</v>
+      </c>
+      <c r="K44" s="3">
         <v>692700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>783600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>782200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>809000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>873400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>846900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>780700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>772000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>818000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>732400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>721400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>686700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>681000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>721900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>693700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>63300</v>
+        <v>114200</v>
       </c>
       <c r="E45" s="3">
-        <v>96000</v>
+        <v>60200</v>
       </c>
       <c r="F45" s="3">
-        <v>68700</v>
+        <v>91300</v>
       </c>
       <c r="G45" s="3">
-        <v>65500</v>
+        <v>65400</v>
       </c>
       <c r="H45" s="3">
-        <v>42500</v>
+        <v>60200</v>
       </c>
       <c r="I45" s="3">
-        <v>25100</v>
+        <v>40500</v>
       </c>
       <c r="J45" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K45" s="3">
         <v>24000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>44400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23300</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -3102,292 +3201,307 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>24</v>
+      <c r="D46" s="3">
+        <v>2610300</v>
       </c>
       <c r="E46" s="3">
-        <v>2220000</v>
+        <v>2011500</v>
       </c>
       <c r="F46" s="3">
-        <v>1989800</v>
+        <v>2112100</v>
       </c>
       <c r="G46" s="3">
-        <v>1786900</v>
+        <v>1893100</v>
       </c>
       <c r="H46" s="3">
-        <v>1599300</v>
+        <v>2011500</v>
       </c>
       <c r="I46" s="3">
-        <v>1668000</v>
+        <v>1521600</v>
       </c>
       <c r="J46" s="3">
+        <v>1586900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1621100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1744500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1576000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1760500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1929400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1964200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1704600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1766600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1759000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1639300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1570800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1561800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1711000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1786500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1655100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>60000</v>
+        <v>60200</v>
       </c>
       <c r="E47" s="3">
-        <v>77500</v>
+        <v>57100</v>
       </c>
       <c r="F47" s="3">
-        <v>75300</v>
+        <v>73700</v>
       </c>
       <c r="G47" s="3">
-        <v>72000</v>
+        <v>71600</v>
       </c>
       <c r="H47" s="3">
-        <v>74200</v>
+        <v>57100</v>
       </c>
       <c r="I47" s="3">
-        <v>74200</v>
+        <v>70600</v>
       </c>
       <c r="J47" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K47" s="3">
         <v>81800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>70000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>71200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>61900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>83300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>87300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>164400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>135100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>147100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>160300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>178400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>160400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>70700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>108000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>131500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2125100</v>
+        <v>2016600</v>
       </c>
       <c r="E48" s="3">
-        <v>2069500</v>
+        <v>2021800</v>
       </c>
       <c r="F48" s="3">
-        <v>2067300</v>
+        <v>1968900</v>
       </c>
       <c r="G48" s="3">
-        <v>2091300</v>
+        <v>1966800</v>
       </c>
       <c r="H48" s="3">
-        <v>2079300</v>
+        <v>2021800</v>
       </c>
       <c r="I48" s="3">
-        <v>2150200</v>
+        <v>1978200</v>
       </c>
       <c r="J48" s="3">
+        <v>2045700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2215600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2346300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2381500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2426700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2345700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1970700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1738900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1696400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1643700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1702100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1638100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1641500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1747800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1733700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>555300</v>
+        <v>536600</v>
       </c>
       <c r="E49" s="3">
-        <v>548700</v>
+        <v>528300</v>
       </c>
       <c r="F49" s="3">
-        <v>533500</v>
+        <v>522100</v>
       </c>
       <c r="G49" s="3">
-        <v>542200</v>
+        <v>507500</v>
       </c>
       <c r="H49" s="3">
-        <v>521500</v>
+        <v>528300</v>
       </c>
       <c r="I49" s="3">
-        <v>546500</v>
+        <v>496100</v>
       </c>
       <c r="J49" s="3">
+        <v>520000</v>
+      </c>
+      <c r="K49" s="3">
         <v>571600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>605200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>612900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>628100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>630900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>625600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>582000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>537200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>529200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>504000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>528500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>541900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>561000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>619800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>629200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>591600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>189800</v>
+        <v>145300</v>
       </c>
       <c r="E52" s="3">
-        <v>180000</v>
+        <v>180600</v>
       </c>
       <c r="F52" s="3">
-        <v>194200</v>
+        <v>171300</v>
       </c>
       <c r="G52" s="3">
-        <v>208400</v>
+        <v>184700</v>
       </c>
       <c r="H52" s="3">
-        <v>230200</v>
+        <v>180600</v>
       </c>
       <c r="I52" s="3">
-        <v>246500</v>
+        <v>219000</v>
       </c>
       <c r="J52" s="3">
+        <v>234600</v>
+      </c>
+      <c r="K52" s="3">
         <v>252000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>236000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>224100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>234600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>198400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>183000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>192800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>176100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>174600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>173500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>184000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>228900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>239000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>271200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>295800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5044400</v>
+        <v>5369100</v>
       </c>
       <c r="E54" s="3">
-        <v>5095600</v>
+        <v>4799200</v>
       </c>
       <c r="F54" s="3">
-        <v>4860000</v>
+        <v>4848000</v>
       </c>
       <c r="G54" s="3">
-        <v>4700700</v>
+        <v>4623800</v>
       </c>
       <c r="H54" s="3">
-        <v>4504400</v>
+        <v>4799200</v>
       </c>
       <c r="I54" s="3">
-        <v>4685500</v>
+        <v>4285500</v>
       </c>
       <c r="J54" s="3">
+        <v>4457800</v>
+      </c>
+      <c r="K54" s="3">
         <v>4742200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5001900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4884400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5066600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5268700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5205900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4614500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4354000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4306400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4120800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4163700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4131200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4223200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4533300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4445200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1502200</v>
+        <v>1788300</v>
       </c>
       <c r="E57" s="3">
-        <v>1453100</v>
+        <v>1429200</v>
       </c>
       <c r="F57" s="3">
-        <v>1369100</v>
+        <v>1382500</v>
       </c>
       <c r="G57" s="3">
-        <v>1229500</v>
+        <v>1302600</v>
       </c>
       <c r="H57" s="3">
-        <v>987300</v>
+        <v>1429200</v>
       </c>
       <c r="I57" s="3">
-        <v>1101800</v>
+        <v>939300</v>
       </c>
       <c r="J57" s="3">
+        <v>1048300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1094200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1316500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1166200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1295800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1372000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1379200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1145000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1115400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1203400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1104600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1043500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1058000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1109600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1136200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>984800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>281500</v>
+        <v>263600</v>
       </c>
       <c r="E58" s="3">
-        <v>285800</v>
+        <v>267800</v>
       </c>
       <c r="F58" s="3">
-        <v>285800</v>
+        <v>271900</v>
       </c>
       <c r="G58" s="3">
-        <v>89500</v>
+        <v>271900</v>
       </c>
       <c r="H58" s="3">
-        <v>100400</v>
+        <v>267800</v>
       </c>
       <c r="I58" s="3">
-        <v>92700</v>
+        <v>95500</v>
       </c>
       <c r="J58" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K58" s="3">
         <v>111300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>221300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>234600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>195000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>198400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>252400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>67400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>47600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>142700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>121900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>118900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>113300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>135800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>133800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>125600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86200</v>
+        <v>91300</v>
       </c>
       <c r="E59" s="3">
-        <v>78500</v>
+        <v>82000</v>
       </c>
       <c r="F59" s="3">
-        <v>75300</v>
+        <v>74700</v>
       </c>
       <c r="G59" s="3">
-        <v>94900</v>
+        <v>71600</v>
       </c>
       <c r="H59" s="3">
-        <v>97100</v>
+        <v>82000</v>
       </c>
       <c r="I59" s="3">
-        <v>98200</v>
+        <v>92400</v>
       </c>
       <c r="J59" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K59" s="3">
         <v>102500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>144500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>84100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>117900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>91900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>96900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>134900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>85600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>104300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>83000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>86400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>85300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>99800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>104500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>24</v>
+      <c r="D60" s="3">
+        <v>2143300</v>
       </c>
       <c r="E60" s="3">
-        <v>1817500</v>
+        <v>1779000</v>
       </c>
       <c r="F60" s="3">
-        <v>1730200</v>
+        <v>1729100</v>
       </c>
       <c r="G60" s="3">
-        <v>1413800</v>
+        <v>1646100</v>
       </c>
       <c r="H60" s="3">
-        <v>1184700</v>
+        <v>1779000</v>
       </c>
       <c r="I60" s="3">
-        <v>1292700</v>
+        <v>1127200</v>
       </c>
       <c r="J60" s="3">
+        <v>1229900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1308000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1682400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1484900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1608700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1662300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1728500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1347300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1263800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1431800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1330800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1245400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1257800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1330700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1369800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1214900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2041100</v>
+        <v>1955400</v>
       </c>
       <c r="E61" s="3">
-        <v>2203600</v>
+        <v>1941900</v>
       </c>
       <c r="F61" s="3">
-        <v>2176400</v>
+        <v>2096600</v>
       </c>
       <c r="G61" s="3">
-        <v>2446900</v>
+        <v>2070600</v>
       </c>
       <c r="H61" s="3">
-        <v>2508000</v>
+        <v>1941900</v>
       </c>
       <c r="I61" s="3">
-        <v>2586500</v>
+        <v>2386100</v>
       </c>
       <c r="J61" s="3">
+        <v>2460900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2655300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2487400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2521600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2571800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2714600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2643600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2477000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2281700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2255300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2176200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2267500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2419000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2474000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2722100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2771400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>816000</v>
+        <v>702700</v>
       </c>
       <c r="E62" s="3">
-        <v>797500</v>
+        <v>776300</v>
       </c>
       <c r="F62" s="3">
-        <v>796400</v>
+        <v>758700</v>
       </c>
       <c r="G62" s="3">
-        <v>833500</v>
+        <v>757700</v>
       </c>
       <c r="H62" s="3">
-        <v>921800</v>
+        <v>776300</v>
       </c>
       <c r="I62" s="3">
-        <v>980700</v>
+        <v>877000</v>
       </c>
       <c r="J62" s="3">
+        <v>933100</v>
+      </c>
+      <c r="K62" s="3">
         <v>968700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>971000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>977100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1060000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1030200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>964100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>925000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>854000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>917900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>962900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1008700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1000800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>998600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1083400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1128000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4745500</v>
+        <v>4821000</v>
       </c>
       <c r="E66" s="3">
-        <v>4838200</v>
+        <v>4514900</v>
       </c>
       <c r="F66" s="3">
-        <v>4720400</v>
+        <v>4603100</v>
       </c>
       <c r="G66" s="3">
-        <v>4710500</v>
+        <v>4491000</v>
       </c>
       <c r="H66" s="3">
-        <v>4629800</v>
+        <v>4514900</v>
       </c>
       <c r="I66" s="3">
-        <v>4874200</v>
+        <v>4404800</v>
       </c>
       <c r="J66" s="3">
+        <v>4637300</v>
+      </c>
+      <c r="K66" s="3">
         <v>4945100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5153200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4996500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5253300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5419400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5347000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4758800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4409400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4613800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4478700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4530600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4685400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4812200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5185900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5124900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-162500</v>
+        <v>109000</v>
       </c>
       <c r="E72" s="3">
-        <v>-204000</v>
+        <v>-154600</v>
       </c>
       <c r="F72" s="3">
-        <v>-321800</v>
+        <v>-194100</v>
       </c>
       <c r="G72" s="3">
-        <v>-471300</v>
+        <v>-306200</v>
       </c>
       <c r="H72" s="3">
-        <v>-586900</v>
+        <v>-154600</v>
       </c>
       <c r="I72" s="3">
-        <v>-650200</v>
+        <v>-558400</v>
       </c>
       <c r="J72" s="3">
+        <v>-618600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-664400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-628900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-605900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-680600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-668800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-647100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-644700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-523900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-771900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-822400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-841500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-738300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-773100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-845100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-872100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>298900</v>
+        <v>548000</v>
       </c>
       <c r="E76" s="3">
-        <v>257500</v>
+        <v>284400</v>
       </c>
       <c r="F76" s="3">
-        <v>139600</v>
+        <v>244900</v>
       </c>
       <c r="G76" s="3">
-        <v>-9800</v>
+        <v>132900</v>
       </c>
       <c r="H76" s="3">
-        <v>-125500</v>
+        <v>284400</v>
       </c>
       <c r="I76" s="3">
-        <v>-188700</v>
+        <v>-119400</v>
       </c>
       <c r="J76" s="3">
+        <v>-179600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-202900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-151300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-112100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-186800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-150700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-141200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-144300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-55400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-307400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-357900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-366900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-554300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-589000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-652600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-679600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>24</v>
+      <c r="D81" s="3">
+        <v>183700</v>
       </c>
       <c r="E81" s="3">
-        <v>105800</v>
+        <v>7300</v>
       </c>
       <c r="F81" s="3">
-        <v>116700</v>
+        <v>100700</v>
       </c>
       <c r="G81" s="3">
-        <v>50200</v>
+        <v>111100</v>
       </c>
       <c r="H81" s="3">
-        <v>26200</v>
+        <v>47700</v>
       </c>
       <c r="I81" s="3">
-        <v>20700</v>
+        <v>24900</v>
       </c>
       <c r="J81" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-36000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-35000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>19600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>27500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>240300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-26400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-89800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>15300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-23500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>78500</v>
+        <v>68500</v>
       </c>
       <c r="E83" s="3">
-        <v>73100</v>
+        <v>74700</v>
       </c>
       <c r="F83" s="3">
-        <v>70900</v>
+        <v>69500</v>
       </c>
       <c r="G83" s="3">
-        <v>68700</v>
+        <v>67500</v>
       </c>
       <c r="H83" s="3">
-        <v>53500</v>
+        <v>65400</v>
       </c>
       <c r="I83" s="3">
-        <v>79600</v>
+        <v>50900</v>
       </c>
       <c r="J83" s="3">
+        <v>75800</v>
+      </c>
+      <c r="K83" s="3">
         <v>77500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>74500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>85200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>77000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>73500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>68200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>67400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>55400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>50500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>48300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>51600</v>
-      </c>
-      <c r="U83" s="3">
-        <v>46000</v>
       </c>
       <c r="V83" s="3">
         <v>46000</v>
       </c>
       <c r="W83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="X83" s="3">
         <v>50500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>54000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>128700</v>
+        <v>60200</v>
       </c>
       <c r="E89" s="3">
-        <v>99300</v>
+        <v>122500</v>
       </c>
       <c r="F89" s="3">
-        <v>79600</v>
+        <v>94400</v>
       </c>
       <c r="G89" s="3">
-        <v>81800</v>
+        <v>75800</v>
       </c>
       <c r="H89" s="3">
-        <v>77500</v>
+        <v>77800</v>
       </c>
       <c r="I89" s="3">
-        <v>121100</v>
+        <v>73700</v>
       </c>
       <c r="J89" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K89" s="3">
         <v>8700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>162600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>124900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>93400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>156800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>157900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>50900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-26400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>85300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>50500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>42300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-119700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-113500</v>
+        <v>-34300</v>
       </c>
       <c r="E91" s="3">
-        <v>-58900</v>
+        <v>-107900</v>
       </c>
       <c r="F91" s="3">
-        <v>-45800</v>
+        <v>-56000</v>
       </c>
       <c r="G91" s="3">
-        <v>-34900</v>
+        <v>-43600</v>
       </c>
       <c r="H91" s="3">
-        <v>-52400</v>
+        <v>-33200</v>
       </c>
       <c r="I91" s="3">
-        <v>-39300</v>
+        <v>-49800</v>
       </c>
       <c r="J91" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-44700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-64400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-106200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-58400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-87000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-70600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-138400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-69800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-54900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-51600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-113300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-61700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-67300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-70400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-146700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-112400</v>
+        <v>-33200</v>
       </c>
       <c r="E94" s="3">
-        <v>-55600</v>
+        <v>-106900</v>
       </c>
       <c r="F94" s="3">
-        <v>-41500</v>
+        <v>-52900</v>
       </c>
       <c r="G94" s="3">
-        <v>-31600</v>
+        <v>-39400</v>
       </c>
       <c r="H94" s="3">
-        <v>-46900</v>
+        <v>-30100</v>
       </c>
       <c r="I94" s="3">
-        <v>-39300</v>
+        <v>-44600</v>
       </c>
       <c r="J94" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-43600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-64400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-102700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-90600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-169900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-145500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>150600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-65900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-48300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-130200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-46000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-74100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-81000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-154900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,123 +6778,129 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-211600</v>
+        <v>-14500</v>
       </c>
       <c r="E100" s="3">
-        <v>-9800</v>
+        <v>-201400</v>
       </c>
       <c r="F100" s="3">
-        <v>-94900</v>
+        <v>-9300</v>
       </c>
       <c r="G100" s="3">
-        <v>-158200</v>
+        <v>-90300</v>
       </c>
       <c r="H100" s="3">
-        <v>-22900</v>
+        <v>-150500</v>
       </c>
       <c r="I100" s="3">
-        <v>-19600</v>
+        <v>-21800</v>
       </c>
       <c r="J100" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="K100" s="3">
         <v>153800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>16300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-109700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-75900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>78900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-76400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>11000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>93100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-44600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="G101" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="I101" s="3">
-        <v>-3300</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>2400</v>
       </c>
       <c r="P101" s="3">
         <v>2400</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -6660,92 +6909,98 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="U101" s="3">
         <v>-1100</v>
       </c>
       <c r="V101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W101" s="3">
         <v>-4500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X101" s="3">
-        <v>1200</v>
       </c>
       <c r="Y101" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-199600</v>
+        <v>13500</v>
       </c>
       <c r="E102" s="3">
-        <v>36000</v>
+        <v>-182700</v>
       </c>
       <c r="F102" s="3">
-        <v>-56700</v>
+        <v>34300</v>
       </c>
       <c r="G102" s="3">
-        <v>-105800</v>
+        <v>-54000</v>
       </c>
       <c r="H102" s="3">
-        <v>7600</v>
+        <v>-100700</v>
       </c>
       <c r="I102" s="3">
-        <v>58900</v>
+        <v>7300</v>
       </c>
       <c r="J102" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K102" s="3">
         <v>117800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>97100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>37400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-71200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>69400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-136000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>125200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-49400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-63700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-34800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-25800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-44600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-318100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2054000</v>
+        <v>2269100</v>
       </c>
       <c r="E8" s="3">
-        <v>1770700</v>
+        <v>1973900</v>
       </c>
       <c r="F8" s="3">
-        <v>1647100</v>
+        <v>1701600</v>
       </c>
       <c r="G8" s="3">
-        <v>1575500</v>
+        <v>1582900</v>
       </c>
       <c r="H8" s="3">
-        <v>1391800</v>
+        <v>1514100</v>
       </c>
       <c r="I8" s="3">
-        <v>1290100</v>
+        <v>1337500</v>
       </c>
       <c r="J8" s="3">
+        <v>1239800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1216400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1124700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1622500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1601700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1705600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1884000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1837400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1653700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1581700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1618500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1521800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1400200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1435000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1550600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1558800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1362800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1828800</v>
+        <v>2054600</v>
       </c>
       <c r="E9" s="3">
-        <v>1609800</v>
+        <v>1757400</v>
       </c>
       <c r="F9" s="3">
-        <v>1472800</v>
+        <v>1547000</v>
       </c>
       <c r="G9" s="3">
-        <v>1369000</v>
+        <v>1415300</v>
       </c>
       <c r="H9" s="3">
-        <v>1244400</v>
+        <v>1315600</v>
       </c>
       <c r="I9" s="3">
-        <v>1136500</v>
+        <v>1195900</v>
       </c>
       <c r="J9" s="3">
+        <v>1092200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1091900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1049500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1449800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1448800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1536300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1661100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1665100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1510600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1452100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1427400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1371400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1276800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1279100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1382300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1394500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1219600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>225200</v>
+        <v>214400</v>
       </c>
       <c r="E10" s="3">
-        <v>160900</v>
+        <v>216400</v>
       </c>
       <c r="F10" s="3">
-        <v>174400</v>
+        <v>154600</v>
       </c>
       <c r="G10" s="3">
-        <v>206500</v>
+        <v>167600</v>
       </c>
       <c r="H10" s="3">
-        <v>147400</v>
+        <v>198500</v>
       </c>
       <c r="I10" s="3">
-        <v>153600</v>
+        <v>141600</v>
       </c>
       <c r="J10" s="3">
+        <v>147600</v>
+      </c>
+      <c r="K10" s="3">
         <v>124500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>172800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>152900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>169300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>222900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>172300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>143100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>129600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>191100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>150400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>123400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>156000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>168300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>164300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>143200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>164300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11400</v>
+        <v>10000</v>
       </c>
       <c r="E12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="3">
         <v>9300</v>
       </c>
-      <c r="F12" s="3">
-        <v>10400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>11400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>9300</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>14000</v>
       </c>
       <c r="N12" s="3">
         <v>14000</v>
       </c>
       <c r="O12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P12" s="3">
         <v>14700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>12900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>11700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1177,8 +1197,8 @@
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
+      <c r="F14" s="3">
+        <v>3000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1186,62 +1206,65 @@
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1200</v>
       </c>
       <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>1100</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>2300</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1796600</v>
+        <v>2273100</v>
       </c>
       <c r="E17" s="3">
-        <v>1718800</v>
+        <v>1726500</v>
       </c>
       <c r="F17" s="3">
-        <v>1488300</v>
+        <v>1651700</v>
       </c>
       <c r="G17" s="3">
-        <v>1402200</v>
+        <v>1430300</v>
       </c>
       <c r="H17" s="3">
-        <v>1273500</v>
+        <v>1347500</v>
       </c>
       <c r="I17" s="3">
-        <v>1232000</v>
+        <v>1223800</v>
       </c>
       <c r="J17" s="3">
+        <v>1183900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1150000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1125800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1615700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1537500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1646000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1799500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1741700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1654900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1285900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1476800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1498800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1323900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1345300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1468700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1441400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1328800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>257400</v>
+        <v>-4000</v>
       </c>
       <c r="E18" s="3">
-        <v>51900</v>
+        <v>247400</v>
       </c>
       <c r="F18" s="3">
-        <v>158800</v>
+        <v>49900</v>
       </c>
       <c r="G18" s="3">
-        <v>173300</v>
+        <v>152600</v>
       </c>
       <c r="H18" s="3">
-        <v>118300</v>
+        <v>166600</v>
       </c>
       <c r="I18" s="3">
-        <v>58100</v>
+        <v>113700</v>
       </c>
       <c r="J18" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K18" s="3">
         <v>66400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>59500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>84500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>95700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>295700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>141600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>23100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>76300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>89800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>81900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>117400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>34000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,179 +1548,186 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-31100</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-42600</v>
+        <v>-29900</v>
       </c>
       <c r="F20" s="3">
-        <v>-35300</v>
+        <v>-40900</v>
       </c>
       <c r="G20" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-38400</v>
       </c>
-      <c r="H20" s="3">
-        <v>-57100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-36300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-38400</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-45800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-50800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-50200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-53700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-52700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-49000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-65100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-54300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-53800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-45000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-139100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-47100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-51600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-70400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-50500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>294800</v>
+        <v>64800</v>
       </c>
       <c r="E21" s="3">
-        <v>84100</v>
+        <v>283300</v>
       </c>
       <c r="F21" s="3">
-        <v>193000</v>
+        <v>80800</v>
       </c>
       <c r="G21" s="3">
-        <v>202400</v>
+        <v>185500</v>
       </c>
       <c r="H21" s="3">
-        <v>126600</v>
+        <v>194500</v>
       </c>
       <c r="I21" s="3">
-        <v>72700</v>
+        <v>121700</v>
       </c>
       <c r="J21" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K21" s="3">
         <v>103800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>30500</v>
       </c>
       <c r="L21" s="3">
         <v>30500</v>
       </c>
       <c r="M21" s="3">
+        <v>30500</v>
+      </c>
+      <c r="N21" s="3">
         <v>99200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>82900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>105300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>114800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>296800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>138300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>26400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>88600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>76300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>97400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>37600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>30900</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>226300</v>
+        <v>-35900</v>
       </c>
       <c r="E23" s="3">
-        <v>9300</v>
+        <v>217400</v>
       </c>
       <c r="F23" s="3">
-        <v>123500</v>
+        <v>9000</v>
       </c>
       <c r="G23" s="3">
-        <v>134900</v>
+        <v>118700</v>
       </c>
       <c r="H23" s="3">
-        <v>61200</v>
+        <v>129700</v>
       </c>
       <c r="I23" s="3">
-        <v>21800</v>
+        <v>58800</v>
       </c>
       <c r="J23" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K23" s="3">
         <v>28000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-46900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-44000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>31800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>46700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-66200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>241500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>87800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-22000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-62800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>42600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>30300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>47000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-16400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>40500</v>
+        <v>-4000</v>
       </c>
       <c r="E24" s="3">
-        <v>2100</v>
+        <v>38900</v>
       </c>
       <c r="F24" s="3">
-        <v>20800</v>
+        <v>2000</v>
       </c>
       <c r="G24" s="3">
-        <v>22800</v>
+        <v>19900</v>
       </c>
       <c r="H24" s="3">
-        <v>11400</v>
+        <v>21900</v>
       </c>
       <c r="I24" s="3">
-        <v>-5200</v>
+        <v>11000</v>
       </c>
       <c r="J24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-12000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>44900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>31700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>185800</v>
+        <v>-31900</v>
       </c>
       <c r="E26" s="3">
-        <v>7300</v>
+        <v>178500</v>
       </c>
       <c r="F26" s="3">
-        <v>102800</v>
+        <v>7000</v>
       </c>
       <c r="G26" s="3">
-        <v>112100</v>
+        <v>98700</v>
       </c>
       <c r="H26" s="3">
-        <v>49800</v>
+        <v>107700</v>
       </c>
       <c r="I26" s="3">
-        <v>27000</v>
+        <v>47900</v>
       </c>
       <c r="J26" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K26" s="3">
         <v>20800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-35000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-68600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>240300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-26400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-107700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>15300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-23500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>183700</v>
+        <v>-33900</v>
       </c>
       <c r="E27" s="3">
-        <v>7300</v>
+        <v>176500</v>
       </c>
       <c r="F27" s="3">
-        <v>100700</v>
+        <v>7000</v>
       </c>
       <c r="G27" s="3">
-        <v>111100</v>
+        <v>96700</v>
       </c>
       <c r="H27" s="3">
-        <v>47700</v>
+        <v>106700</v>
       </c>
       <c r="I27" s="3">
-        <v>24900</v>
+        <v>45900</v>
       </c>
       <c r="J27" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K27" s="3">
         <v>19700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-36000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-35000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>19600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-71000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>240300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-26400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-107700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>23600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>15300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-23500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2219,8 +2280,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2237,11 +2298,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>18000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31100</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>42600</v>
+        <v>29900</v>
       </c>
       <c r="F32" s="3">
-        <v>35300</v>
+        <v>40900</v>
       </c>
       <c r="G32" s="3">
+        <v>33900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>36900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>54900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K32" s="3">
         <v>38400</v>
       </c>
-      <c r="H32" s="3">
-        <v>57100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>36300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>38400</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>45800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>50800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>50200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>53700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>52700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>49000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>65100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>54300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>53800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>45000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>139100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>47100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>51600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>70400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>50500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>183700</v>
+        <v>-33900</v>
       </c>
       <c r="E33" s="3">
-        <v>7300</v>
+        <v>176500</v>
       </c>
       <c r="F33" s="3">
-        <v>100700</v>
+        <v>7000</v>
       </c>
       <c r="G33" s="3">
-        <v>111100</v>
+        <v>96700</v>
       </c>
       <c r="H33" s="3">
-        <v>47700</v>
+        <v>106700</v>
       </c>
       <c r="I33" s="3">
-        <v>24900</v>
+        <v>45900</v>
       </c>
       <c r="J33" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K33" s="3">
         <v>19700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-36000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-35000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>19600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-71000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>240300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-26400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-89800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>16800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>15300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-23500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>183700</v>
+        <v>-33900</v>
       </c>
       <c r="E35" s="3">
-        <v>7300</v>
+        <v>176500</v>
       </c>
       <c r="F35" s="3">
-        <v>100700</v>
+        <v>7000</v>
       </c>
       <c r="G35" s="3">
-        <v>111100</v>
+        <v>96700</v>
       </c>
       <c r="H35" s="3">
-        <v>47700</v>
+        <v>106700</v>
       </c>
       <c r="I35" s="3">
-        <v>24900</v>
+        <v>45900</v>
       </c>
       <c r="J35" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K35" s="3">
         <v>19700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-36000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-35000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>19600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-71000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>240300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-26400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-89800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>16800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>15300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-23500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>166100</v>
+        <v>155600</v>
       </c>
       <c r="E41" s="3">
-        <v>152600</v>
+        <v>159600</v>
       </c>
       <c r="F41" s="3">
-        <v>335200</v>
+        <v>146600</v>
       </c>
       <c r="G41" s="3">
-        <v>301000</v>
+        <v>322200</v>
       </c>
       <c r="H41" s="3">
-        <v>152600</v>
+        <v>289200</v>
       </c>
       <c r="I41" s="3">
-        <v>455600</v>
+        <v>341100</v>
       </c>
       <c r="J41" s="3">
+        <v>437900</v>
+      </c>
+      <c r="K41" s="3">
         <v>448400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>412400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>304900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>214800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>177400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>260900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>265600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>194000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>309000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>182300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>231700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>301800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>336600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>320900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>362700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>407300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2950,230 +3040,239 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>35900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>35500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>26600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>38400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>41700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>77400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>50500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>125700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>151400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>137300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>962100</v>
+        <v>1004400</v>
       </c>
       <c r="E43" s="3">
-        <v>708900</v>
+        <v>924600</v>
       </c>
       <c r="F43" s="3">
-        <v>715100</v>
+        <v>681200</v>
       </c>
       <c r="G43" s="3">
+        <v>687200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>667300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>531600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>404900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>484700</v>
+      </c>
+      <c r="L43" s="3">
+        <v>492000</v>
+      </c>
+      <c r="M43" s="3">
+        <v>615400</v>
+      </c>
+      <c r="N43" s="3">
+        <v>553400</v>
+      </c>
+      <c r="O43" s="3">
+        <v>729600</v>
+      </c>
+      <c r="P43" s="3">
+        <v>771700</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>815800</v>
+      </c>
+      <c r="R43" s="3">
         <v>694400</v>
       </c>
-      <c r="H43" s="3">
-        <v>708900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>421400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>484700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>492000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>615400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>553400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>729600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>771700</v>
-      </c>
-      <c r="P43" s="3">
-        <v>815800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>694400</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>659000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>720300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>633500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>470100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>488100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>583400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>550500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>416700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1368000</v>
+        <v>1356500</v>
       </c>
       <c r="E44" s="3">
-        <v>1089800</v>
+        <v>1314600</v>
       </c>
       <c r="F44" s="3">
-        <v>970400</v>
+        <v>1047300</v>
       </c>
       <c r="G44" s="3">
-        <v>832400</v>
+        <v>932600</v>
       </c>
       <c r="H44" s="3">
-        <v>1089800</v>
+        <v>799900</v>
       </c>
       <c r="I44" s="3">
-        <v>604100</v>
+        <v>701200</v>
       </c>
       <c r="J44" s="3">
+        <v>580500</v>
+      </c>
+      <c r="K44" s="3">
         <v>630000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>692700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>783600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>782200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>809000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>873400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>846900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>780700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>772000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>818000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>732400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>721400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>686700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>681000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>721900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>693700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>114200</v>
+        <v>65800</v>
       </c>
       <c r="E45" s="3">
-        <v>60200</v>
+        <v>109700</v>
       </c>
       <c r="F45" s="3">
-        <v>91300</v>
+        <v>57800</v>
       </c>
       <c r="G45" s="3">
-        <v>65400</v>
+        <v>87800</v>
       </c>
       <c r="H45" s="3">
-        <v>60200</v>
+        <v>62800</v>
       </c>
       <c r="I45" s="3">
-        <v>40500</v>
+        <v>59800</v>
       </c>
       <c r="J45" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K45" s="3">
         <v>23900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23300</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -3204,304 +3303,319 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2610300</v>
+        <v>2582300</v>
       </c>
       <c r="E46" s="3">
-        <v>2011500</v>
+        <v>2508500</v>
       </c>
       <c r="F46" s="3">
-        <v>2112100</v>
+        <v>1933000</v>
       </c>
       <c r="G46" s="3">
-        <v>1893100</v>
+        <v>2029700</v>
       </c>
       <c r="H46" s="3">
-        <v>2011500</v>
+        <v>1819300</v>
       </c>
       <c r="I46" s="3">
-        <v>1521600</v>
+        <v>1633700</v>
       </c>
       <c r="J46" s="3">
+        <v>1462200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1586900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1621100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1744500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1576000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1760500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1929400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1964200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1704600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1766600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1759000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1639300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1570800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1561800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1711000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1786500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1655100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>60200</v>
+        <v>59800</v>
       </c>
       <c r="E47" s="3">
-        <v>57100</v>
+        <v>57800</v>
       </c>
       <c r="F47" s="3">
-        <v>73700</v>
+        <v>54900</v>
       </c>
       <c r="G47" s="3">
-        <v>71600</v>
+        <v>70800</v>
       </c>
       <c r="H47" s="3">
-        <v>57100</v>
+        <v>68800</v>
       </c>
       <c r="I47" s="3">
+        <v>65800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K47" s="3">
         <v>70600</v>
       </c>
-      <c r="J47" s="3">
-        <v>70600</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>81800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>70000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>71200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>61900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>83300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>87300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>164400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>135100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>147100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>160300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>178400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>160400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>70700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>108000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>131500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2016600</v>
+        <v>1988800</v>
       </c>
       <c r="E48" s="3">
-        <v>2021800</v>
+        <v>1937900</v>
       </c>
       <c r="F48" s="3">
-        <v>1968900</v>
+        <v>1942900</v>
       </c>
       <c r="G48" s="3">
-        <v>1966800</v>
+        <v>1892100</v>
       </c>
       <c r="H48" s="3">
-        <v>2021800</v>
+        <v>1890100</v>
       </c>
       <c r="I48" s="3">
-        <v>1978200</v>
+        <v>1912000</v>
       </c>
       <c r="J48" s="3">
+        <v>1901000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2045700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2215600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2346300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2381500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2426700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2345700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1970700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1738900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1696400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1643700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1702100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1638100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1641500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1747800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1733700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>536600</v>
+        <v>546600</v>
       </c>
       <c r="E49" s="3">
-        <v>528300</v>
+        <v>515700</v>
       </c>
       <c r="F49" s="3">
-        <v>522100</v>
+        <v>507700</v>
       </c>
       <c r="G49" s="3">
-        <v>507500</v>
+        <v>501700</v>
       </c>
       <c r="H49" s="3">
-        <v>528300</v>
+        <v>487700</v>
       </c>
       <c r="I49" s="3">
-        <v>496100</v>
+        <v>495700</v>
       </c>
       <c r="J49" s="3">
+        <v>476800</v>
+      </c>
+      <c r="K49" s="3">
         <v>520000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>571600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>605200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>612900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>628100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>630900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>625600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>582000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>537200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>529200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>504000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>528500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>541900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>561000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>619800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>629200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>591600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>145300</v>
+        <v>137600</v>
       </c>
       <c r="E52" s="3">
-        <v>180600</v>
+        <v>139600</v>
       </c>
       <c r="F52" s="3">
-        <v>171300</v>
+        <v>173500</v>
       </c>
       <c r="G52" s="3">
-        <v>184700</v>
+        <v>164600</v>
       </c>
       <c r="H52" s="3">
-        <v>180600</v>
+        <v>177500</v>
       </c>
       <c r="I52" s="3">
-        <v>219000</v>
+        <v>190500</v>
       </c>
       <c r="J52" s="3">
+        <v>210500</v>
+      </c>
+      <c r="K52" s="3">
         <v>234600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>252000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>236000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>224100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>234600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>198400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>183000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>192800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>176100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>174600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>173500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>184000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>228900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>239000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>271200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>295800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5369100</v>
+        <v>5315100</v>
       </c>
       <c r="E54" s="3">
-        <v>4799200</v>
+        <v>5159600</v>
       </c>
       <c r="F54" s="3">
-        <v>4848000</v>
+        <v>4612000</v>
       </c>
       <c r="G54" s="3">
-        <v>4623800</v>
+        <v>4658900</v>
       </c>
       <c r="H54" s="3">
-        <v>4799200</v>
+        <v>4443400</v>
       </c>
       <c r="I54" s="3">
-        <v>4285500</v>
+        <v>4297800</v>
       </c>
       <c r="J54" s="3">
+        <v>4118300</v>
+      </c>
+      <c r="K54" s="3">
         <v>4457800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4742200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5001900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4884400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5066600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5268700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5205900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4614500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4354000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4306400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4120800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4163700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4131200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4223200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4533300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4445200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1788300</v>
+        <v>1434300</v>
       </c>
       <c r="E57" s="3">
-        <v>1429200</v>
+        <v>1718500</v>
       </c>
       <c r="F57" s="3">
-        <v>1382500</v>
+        <v>1373400</v>
       </c>
       <c r="G57" s="3">
-        <v>1302600</v>
+        <v>1328500</v>
       </c>
       <c r="H57" s="3">
-        <v>1429200</v>
+        <v>1251700</v>
       </c>
       <c r="I57" s="3">
-        <v>939300</v>
+        <v>1124100</v>
       </c>
       <c r="J57" s="3">
+        <v>902600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1048300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1094200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1316500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1166200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1295800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1372000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1379200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1145000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1115400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1203400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1104600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1043500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1058000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1109600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1136200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>984800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>263600</v>
+        <v>208500</v>
       </c>
       <c r="E58" s="3">
-        <v>267800</v>
+        <v>253300</v>
       </c>
       <c r="F58" s="3">
-        <v>271900</v>
+        <v>257300</v>
       </c>
       <c r="G58" s="3">
-        <v>271900</v>
+        <v>261300</v>
       </c>
       <c r="H58" s="3">
-        <v>267800</v>
+        <v>261300</v>
       </c>
       <c r="I58" s="3">
-        <v>95500</v>
+        <v>81800</v>
       </c>
       <c r="J58" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K58" s="3">
         <v>88200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>111300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>221300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>234600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>195000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>198400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>252400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>67400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>47600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>142700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>121900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>118900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>113300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>135800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>133800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>125600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>91300</v>
+        <v>491700</v>
       </c>
       <c r="E59" s="3">
-        <v>82000</v>
+        <v>87800</v>
       </c>
       <c r="F59" s="3">
-        <v>74700</v>
+        <v>78800</v>
       </c>
       <c r="G59" s="3">
-        <v>71600</v>
+        <v>71800</v>
       </c>
       <c r="H59" s="3">
-        <v>82000</v>
+        <v>68800</v>
       </c>
       <c r="I59" s="3">
-        <v>92400</v>
+        <v>86800</v>
       </c>
       <c r="J59" s="3">
+        <v>88800</v>
+      </c>
+      <c r="K59" s="3">
         <v>93400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>102500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>144500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>84100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>117900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>91900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>96900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>134900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>85600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>104300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>83000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>86400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>85300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>99800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>104500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2143300</v>
+        <v>2134400</v>
       </c>
       <c r="E60" s="3">
-        <v>1779000</v>
+        <v>2059600</v>
       </c>
       <c r="F60" s="3">
-        <v>1729100</v>
+        <v>1709500</v>
       </c>
       <c r="G60" s="3">
-        <v>1646100</v>
+        <v>1661700</v>
       </c>
       <c r="H60" s="3">
-        <v>1779000</v>
+        <v>1581900</v>
       </c>
       <c r="I60" s="3">
-        <v>1127200</v>
+        <v>1292600</v>
       </c>
       <c r="J60" s="3">
+        <v>1083200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1229900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1308000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1682400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1484900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1608700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1662300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1728500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1347300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1263800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1431800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1330800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1245400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1257800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1330700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1369800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1214900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1955400</v>
+        <v>1943900</v>
       </c>
       <c r="E61" s="3">
-        <v>1941900</v>
+        <v>1879100</v>
       </c>
       <c r="F61" s="3">
-        <v>2096600</v>
+        <v>1866100</v>
       </c>
       <c r="G61" s="3">
-        <v>2070600</v>
+        <v>2014700</v>
       </c>
       <c r="H61" s="3">
-        <v>1941900</v>
+        <v>1989800</v>
       </c>
       <c r="I61" s="3">
-        <v>2386100</v>
+        <v>2237200</v>
       </c>
       <c r="J61" s="3">
+        <v>2293000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2460900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2655300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2487400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2521600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2571800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2714600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2643600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2477000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2281700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2255300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2176200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2267500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2419000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2474000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2722100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2771400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>702700</v>
+        <v>635300</v>
       </c>
       <c r="E62" s="3">
-        <v>776300</v>
+        <v>675200</v>
       </c>
       <c r="F62" s="3">
-        <v>758700</v>
+        <v>746100</v>
       </c>
       <c r="G62" s="3">
-        <v>757700</v>
+        <v>729100</v>
       </c>
       <c r="H62" s="3">
-        <v>776300</v>
+        <v>728100</v>
       </c>
       <c r="I62" s="3">
-        <v>877000</v>
+        <v>762000</v>
       </c>
       <c r="J62" s="3">
+        <v>842800</v>
+      </c>
+      <c r="K62" s="3">
         <v>933100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>968700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>971000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>977100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1060000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1030200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>964100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>925000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>854000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>917900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>962900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1008700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1000800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>998600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1083400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1128000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4821000</v>
+        <v>4734700</v>
       </c>
       <c r="E66" s="3">
-        <v>4514900</v>
+        <v>4632900</v>
       </c>
       <c r="F66" s="3">
-        <v>4603100</v>
+        <v>4338700</v>
       </c>
       <c r="G66" s="3">
-        <v>4491000</v>
+        <v>4423500</v>
       </c>
       <c r="H66" s="3">
-        <v>4514900</v>
+        <v>4315700</v>
       </c>
       <c r="I66" s="3">
-        <v>4404800</v>
+        <v>4306800</v>
       </c>
       <c r="J66" s="3">
+        <v>4233000</v>
+      </c>
+      <c r="K66" s="3">
         <v>4637300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4945100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5153200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4996500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5253300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5419400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5347000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4758800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4409400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4613800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4478700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4530600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4685400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4812200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5185900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5124900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>109000</v>
+        <v>158600</v>
       </c>
       <c r="E72" s="3">
-        <v>-154600</v>
+        <v>104700</v>
       </c>
       <c r="F72" s="3">
-        <v>-194100</v>
+        <v>-148600</v>
       </c>
       <c r="G72" s="3">
-        <v>-306200</v>
+        <v>-186500</v>
       </c>
       <c r="H72" s="3">
-        <v>-154600</v>
+        <v>-294200</v>
       </c>
       <c r="I72" s="3">
-        <v>-558400</v>
+        <v>-430900</v>
       </c>
       <c r="J72" s="3">
+        <v>-536600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-618600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-664400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-628900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-605900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-680600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-668800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-647100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-644700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-523900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-771900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-822400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-841500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-738300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-773100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-845100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-872100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>548000</v>
+        <v>580500</v>
       </c>
       <c r="E76" s="3">
-        <v>284400</v>
+        <v>526600</v>
       </c>
       <c r="F76" s="3">
-        <v>244900</v>
+        <v>273300</v>
       </c>
       <c r="G76" s="3">
-        <v>132900</v>
+        <v>235400</v>
       </c>
       <c r="H76" s="3">
-        <v>284400</v>
+        <v>127700</v>
       </c>
       <c r="I76" s="3">
-        <v>-119400</v>
+        <v>-9000</v>
       </c>
       <c r="J76" s="3">
+        <v>-114700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-179600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-202900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-151300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-112100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-186800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-150700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-141200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-144300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-55400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-307400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-357900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-366900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-554300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-589000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-652600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-679600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>183700</v>
+        <v>-33900</v>
       </c>
       <c r="E81" s="3">
-        <v>7300</v>
+        <v>176500</v>
       </c>
       <c r="F81" s="3">
-        <v>100700</v>
+        <v>7000</v>
       </c>
       <c r="G81" s="3">
-        <v>111100</v>
+        <v>96700</v>
       </c>
       <c r="H81" s="3">
-        <v>47700</v>
+        <v>106700</v>
       </c>
       <c r="I81" s="3">
-        <v>24900</v>
+        <v>45900</v>
       </c>
       <c r="J81" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K81" s="3">
         <v>19700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-36000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-35000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>19600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-71000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>240300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-26400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-89800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>16800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>15300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-23500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>68500</v>
+        <v>69800</v>
       </c>
       <c r="E83" s="3">
-        <v>74700</v>
+        <v>65800</v>
       </c>
       <c r="F83" s="3">
-        <v>69500</v>
+        <v>71800</v>
       </c>
       <c r="G83" s="3">
-        <v>67500</v>
+        <v>66800</v>
       </c>
       <c r="H83" s="3">
-        <v>65400</v>
+        <v>64800</v>
       </c>
       <c r="I83" s="3">
-        <v>50900</v>
+        <v>62800</v>
       </c>
       <c r="J83" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K83" s="3">
         <v>75800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>77500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>74500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>85200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>77000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>73500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>68200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>67400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>55400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>50500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>48300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>51600</v>
-      </c>
-      <c r="V83" s="3">
-        <v>46000</v>
       </c>
       <c r="W83" s="3">
         <v>46000</v>
       </c>
       <c r="X83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>50500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>54000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>60200</v>
+        <v>110700</v>
       </c>
       <c r="E89" s="3">
-        <v>122500</v>
+        <v>57800</v>
       </c>
       <c r="F89" s="3">
-        <v>94400</v>
+        <v>117700</v>
       </c>
       <c r="G89" s="3">
-        <v>75800</v>
+        <v>90800</v>
       </c>
       <c r="H89" s="3">
-        <v>77800</v>
+        <v>72800</v>
       </c>
       <c r="I89" s="3">
-        <v>73700</v>
+        <v>74800</v>
       </c>
       <c r="J89" s="3">
+        <v>70800</v>
+      </c>
+      <c r="K89" s="3">
         <v>115200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>162600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>124900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>93400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>156800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>157900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-26400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>85300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>50500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>42300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-119700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34300</v>
+        <v>-50900</v>
       </c>
       <c r="E91" s="3">
-        <v>-107900</v>
+        <v>-32900</v>
       </c>
       <c r="F91" s="3">
-        <v>-56000</v>
+        <v>-103700</v>
       </c>
       <c r="G91" s="3">
-        <v>-43600</v>
+        <v>-53900</v>
       </c>
       <c r="H91" s="3">
-        <v>-33200</v>
+        <v>-41900</v>
       </c>
       <c r="I91" s="3">
-        <v>-49800</v>
+        <v>-31900</v>
       </c>
       <c r="J91" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-37400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-64400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-106200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-58400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-87000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-70600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-138400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-69800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-54900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-51600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-113300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-61700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-67300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-70400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-146700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33200</v>
+        <v>-50900</v>
       </c>
       <c r="E94" s="3">
-        <v>-106900</v>
+        <v>-31900</v>
       </c>
       <c r="F94" s="3">
-        <v>-52900</v>
+        <v>-102700</v>
       </c>
       <c r="G94" s="3">
-        <v>-39400</v>
+        <v>-50900</v>
       </c>
       <c r="H94" s="3">
-        <v>-30100</v>
+        <v>-37900</v>
       </c>
       <c r="I94" s="3">
-        <v>-44600</v>
+        <v>-28900</v>
       </c>
       <c r="J94" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-37400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-102700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-57200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-90600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-169900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-145500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>150600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-65900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-130200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-46000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-74100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-81000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-154900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14500</v>
+        <v>-64800</v>
       </c>
       <c r="E100" s="3">
-        <v>-201400</v>
+        <v>-14000</v>
       </c>
       <c r="F100" s="3">
-        <v>-9300</v>
+        <v>-193500</v>
       </c>
       <c r="G100" s="3">
-        <v>-90300</v>
+        <v>-9000</v>
       </c>
       <c r="H100" s="3">
-        <v>-150500</v>
+        <v>-86800</v>
       </c>
       <c r="I100" s="3">
-        <v>-21800</v>
+        <v>-144600</v>
       </c>
       <c r="J100" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-18700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>153800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-109700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-75900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>78900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-23700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-76400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>11000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>93100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-44600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6864,46 +7113,46 @@
         <v>1000</v>
       </c>
       <c r="E101" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>2400</v>
       </c>
       <c r="Q101" s="3">
         <v>2400</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -6912,95 +7161,101 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="V101" s="3">
         <v>-1100</v>
       </c>
       <c r="W101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X101" s="3">
         <v>-4500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>1200</v>
       </c>
       <c r="Z101" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13500</v>
+        <v>-4000</v>
       </c>
       <c r="E102" s="3">
-        <v>-182700</v>
+        <v>13000</v>
       </c>
       <c r="F102" s="3">
-        <v>34300</v>
+        <v>-175500</v>
       </c>
       <c r="G102" s="3">
-        <v>-54000</v>
+        <v>32900</v>
       </c>
       <c r="H102" s="3">
-        <v>-100700</v>
+        <v>-51900</v>
       </c>
       <c r="I102" s="3">
-        <v>7300</v>
+        <v>-96700</v>
       </c>
       <c r="J102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K102" s="3">
         <v>56000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>117800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>97100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>37400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-71200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>69400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-136000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>125200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-49400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-63700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-34800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>15700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-25800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-44600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-318100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2269100</v>
+        <v>2322300</v>
       </c>
       <c r="E8" s="3">
-        <v>1973900</v>
+        <v>2020200</v>
       </c>
       <c r="F8" s="3">
-        <v>1701600</v>
+        <v>1741500</v>
       </c>
       <c r="G8" s="3">
-        <v>1582900</v>
+        <v>1620000</v>
       </c>
       <c r="H8" s="3">
-        <v>1514100</v>
+        <v>1549600</v>
       </c>
       <c r="I8" s="3">
-        <v>1337500</v>
+        <v>1368900</v>
       </c>
       <c r="J8" s="3">
-        <v>1239800</v>
+        <v>1268900</v>
       </c>
       <c r="K8" s="3">
         <v>1216400</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2054600</v>
+        <v>2102800</v>
       </c>
       <c r="E9" s="3">
-        <v>1757400</v>
+        <v>1798600</v>
       </c>
       <c r="F9" s="3">
-        <v>1547000</v>
+        <v>1583300</v>
       </c>
       <c r="G9" s="3">
-        <v>1415300</v>
+        <v>1448500</v>
       </c>
       <c r="H9" s="3">
-        <v>1315600</v>
+        <v>1346400</v>
       </c>
       <c r="I9" s="3">
-        <v>1195900</v>
+        <v>1223900</v>
       </c>
       <c r="J9" s="3">
-        <v>1092200</v>
+        <v>1117800</v>
       </c>
       <c r="K9" s="3">
         <v>1091900</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>214400</v>
+        <v>219500</v>
       </c>
       <c r="E10" s="3">
-        <v>216400</v>
+        <v>221500</v>
       </c>
       <c r="F10" s="3">
-        <v>154600</v>
+        <v>158200</v>
       </c>
       <c r="G10" s="3">
-        <v>167600</v>
+        <v>171500</v>
       </c>
       <c r="H10" s="3">
-        <v>198500</v>
+        <v>203100</v>
       </c>
       <c r="I10" s="3">
-        <v>141600</v>
+        <v>145000</v>
       </c>
       <c r="J10" s="3">
-        <v>147600</v>
+        <v>151100</v>
       </c>
       <c r="K10" s="3">
         <v>124500</v>
@@ -1038,25 +1038,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="E12" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="F12" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="G12" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="H12" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="I12" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="J12" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="K12" s="3">
         <v>9300</v>
@@ -1198,7 +1198,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1372,25 +1372,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2273100</v>
+        <v>2326400</v>
       </c>
       <c r="E17" s="3">
-        <v>1726500</v>
+        <v>1767000</v>
       </c>
       <c r="F17" s="3">
-        <v>1651700</v>
+        <v>1690400</v>
       </c>
       <c r="G17" s="3">
-        <v>1430300</v>
+        <v>1463800</v>
       </c>
       <c r="H17" s="3">
-        <v>1347500</v>
+        <v>1379100</v>
       </c>
       <c r="I17" s="3">
-        <v>1223800</v>
+        <v>1252500</v>
       </c>
       <c r="J17" s="3">
-        <v>1183900</v>
+        <v>1211700</v>
       </c>
       <c r="K17" s="3">
         <v>1150000</v>
@@ -1449,25 +1449,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="E18" s="3">
-        <v>247400</v>
+        <v>253200</v>
       </c>
       <c r="F18" s="3">
-        <v>49900</v>
+        <v>51000</v>
       </c>
       <c r="G18" s="3">
-        <v>152600</v>
+        <v>156200</v>
       </c>
       <c r="H18" s="3">
-        <v>166600</v>
+        <v>170500</v>
       </c>
       <c r="I18" s="3">
-        <v>113700</v>
+        <v>116400</v>
       </c>
       <c r="J18" s="3">
-        <v>55900</v>
+        <v>57200</v>
       </c>
       <c r="K18" s="3">
         <v>66400</v>
@@ -1558,22 +1558,22 @@
         <v>-1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-29900</v>
+        <v>-30600</v>
       </c>
       <c r="F20" s="3">
-        <v>-40900</v>
+        <v>-41900</v>
       </c>
       <c r="G20" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="H20" s="3">
-        <v>-36900</v>
+        <v>-37800</v>
       </c>
       <c r="I20" s="3">
-        <v>-54900</v>
+        <v>-56100</v>
       </c>
       <c r="J20" s="3">
-        <v>-34900</v>
+        <v>-35700</v>
       </c>
       <c r="K20" s="3">
         <v>-38400</v>
@@ -1632,25 +1632,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="E21" s="3">
-        <v>283300</v>
+        <v>289900</v>
       </c>
       <c r="F21" s="3">
-        <v>80800</v>
+        <v>82700</v>
       </c>
       <c r="G21" s="3">
-        <v>185500</v>
+        <v>189900</v>
       </c>
       <c r="H21" s="3">
-        <v>194500</v>
+        <v>199100</v>
       </c>
       <c r="I21" s="3">
-        <v>121700</v>
+        <v>124500</v>
       </c>
       <c r="J21" s="3">
-        <v>69800</v>
+        <v>71500</v>
       </c>
       <c r="K21" s="3">
         <v>103800</v>
@@ -1709,7 +1709,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>30900</v>
+        <v>31600</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>24</v>
@@ -1786,25 +1786,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-35900</v>
+        <v>-36700</v>
       </c>
       <c r="E23" s="3">
-        <v>217400</v>
+        <v>222500</v>
       </c>
       <c r="F23" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="G23" s="3">
-        <v>118700</v>
+        <v>121500</v>
       </c>
       <c r="H23" s="3">
-        <v>129700</v>
+        <v>132700</v>
       </c>
       <c r="I23" s="3">
-        <v>58800</v>
+        <v>60200</v>
       </c>
       <c r="J23" s="3">
-        <v>20900</v>
+        <v>21400</v>
       </c>
       <c r="K23" s="3">
         <v>28000</v>
@@ -1863,25 +1863,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="E24" s="3">
-        <v>38900</v>
+        <v>39800</v>
       </c>
       <c r="F24" s="3">
         <v>2000</v>
       </c>
       <c r="G24" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="H24" s="3">
-        <v>21900</v>
+        <v>22500</v>
       </c>
       <c r="I24" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="J24" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="K24" s="3">
         <v>7300</v>
@@ -2017,25 +2017,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-31900</v>
+        <v>-32700</v>
       </c>
       <c r="E26" s="3">
-        <v>178500</v>
+        <v>182700</v>
       </c>
       <c r="F26" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G26" s="3">
-        <v>98700</v>
+        <v>101100</v>
       </c>
       <c r="H26" s="3">
-        <v>107700</v>
+        <v>110200</v>
       </c>
       <c r="I26" s="3">
-        <v>47900</v>
+        <v>49000</v>
       </c>
       <c r="J26" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="K26" s="3">
         <v>20800</v>
@@ -2094,25 +2094,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="E27" s="3">
-        <v>176500</v>
+        <v>180700</v>
       </c>
       <c r="F27" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G27" s="3">
-        <v>96700</v>
+        <v>99000</v>
       </c>
       <c r="H27" s="3">
-        <v>106700</v>
+        <v>109200</v>
       </c>
       <c r="I27" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="J27" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="K27" s="3">
         <v>19700</v>
@@ -2482,22 +2482,22 @@
         <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="F32" s="3">
-        <v>40900</v>
+        <v>41900</v>
       </c>
       <c r="G32" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="H32" s="3">
-        <v>36900</v>
+        <v>37800</v>
       </c>
       <c r="I32" s="3">
-        <v>54900</v>
+        <v>56100</v>
       </c>
       <c r="J32" s="3">
-        <v>34900</v>
+        <v>35700</v>
       </c>
       <c r="K32" s="3">
         <v>38400</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="E33" s="3">
-        <v>176500</v>
+        <v>180700</v>
       </c>
       <c r="F33" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G33" s="3">
-        <v>96700</v>
+        <v>99000</v>
       </c>
       <c r="H33" s="3">
-        <v>106700</v>
+        <v>109200</v>
       </c>
       <c r="I33" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="J33" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="K33" s="3">
         <v>19700</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="E35" s="3">
-        <v>176500</v>
+        <v>180700</v>
       </c>
       <c r="F35" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G35" s="3">
-        <v>96700</v>
+        <v>99000</v>
       </c>
       <c r="H35" s="3">
-        <v>106700</v>
+        <v>109200</v>
       </c>
       <c r="I35" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="J35" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="K35" s="3">
         <v>19700</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>155600</v>
+        <v>159200</v>
       </c>
       <c r="E41" s="3">
-        <v>159600</v>
+        <v>163300</v>
       </c>
       <c r="F41" s="3">
-        <v>146600</v>
+        <v>150100</v>
       </c>
       <c r="G41" s="3">
-        <v>322200</v>
+        <v>329700</v>
       </c>
       <c r="H41" s="3">
-        <v>289200</v>
+        <v>296000</v>
       </c>
       <c r="I41" s="3">
-        <v>341100</v>
+        <v>349100</v>
       </c>
       <c r="J41" s="3">
-        <v>437900</v>
+        <v>448100</v>
       </c>
       <c r="K41" s="3">
         <v>448400</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1004400</v>
+        <v>1027900</v>
       </c>
       <c r="E43" s="3">
-        <v>924600</v>
+        <v>946300</v>
       </c>
       <c r="F43" s="3">
-        <v>681200</v>
+        <v>697200</v>
       </c>
       <c r="G43" s="3">
-        <v>687200</v>
+        <v>703300</v>
       </c>
       <c r="H43" s="3">
-        <v>667300</v>
+        <v>682900</v>
       </c>
       <c r="I43" s="3">
-        <v>531600</v>
+        <v>544100</v>
       </c>
       <c r="J43" s="3">
-        <v>404900</v>
+        <v>414400</v>
       </c>
       <c r="K43" s="3">
         <v>484700</v>
@@ -3158,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1356500</v>
+        <v>1388300</v>
       </c>
       <c r="E44" s="3">
-        <v>1314600</v>
+        <v>1345400</v>
       </c>
       <c r="F44" s="3">
-        <v>1047300</v>
+        <v>1071800</v>
       </c>
       <c r="G44" s="3">
-        <v>932600</v>
+        <v>954400</v>
       </c>
       <c r="H44" s="3">
-        <v>799900</v>
+        <v>818700</v>
       </c>
       <c r="I44" s="3">
-        <v>701200</v>
+        <v>717600</v>
       </c>
       <c r="J44" s="3">
-        <v>580500</v>
+        <v>594100</v>
       </c>
       <c r="K44" s="3">
         <v>630000</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>65800</v>
+        <v>67400</v>
       </c>
       <c r="E45" s="3">
-        <v>109700</v>
+        <v>112300</v>
       </c>
       <c r="F45" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="G45" s="3">
-        <v>87800</v>
+        <v>89800</v>
       </c>
       <c r="H45" s="3">
-        <v>62800</v>
+        <v>64300</v>
       </c>
       <c r="I45" s="3">
-        <v>59800</v>
+        <v>61200</v>
       </c>
       <c r="J45" s="3">
-        <v>38900</v>
+        <v>39800</v>
       </c>
       <c r="K45" s="3">
         <v>23900</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2582300</v>
+        <v>2642900</v>
       </c>
       <c r="E46" s="3">
-        <v>2508500</v>
+        <v>2567300</v>
       </c>
       <c r="F46" s="3">
-        <v>1933000</v>
+        <v>1978300</v>
       </c>
       <c r="G46" s="3">
-        <v>2029700</v>
+        <v>2077300</v>
       </c>
       <c r="H46" s="3">
-        <v>1819300</v>
+        <v>1861900</v>
       </c>
       <c r="I46" s="3">
-        <v>1633700</v>
+        <v>1672100</v>
       </c>
       <c r="J46" s="3">
-        <v>1462200</v>
+        <v>1496500</v>
       </c>
       <c r="K46" s="3">
         <v>1586900</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>59800</v>
+        <v>61200</v>
       </c>
       <c r="E47" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="F47" s="3">
-        <v>54900</v>
+        <v>56100</v>
       </c>
       <c r="G47" s="3">
-        <v>70800</v>
+        <v>72500</v>
       </c>
       <c r="H47" s="3">
-        <v>68800</v>
+        <v>70400</v>
       </c>
       <c r="I47" s="3">
-        <v>65800</v>
+        <v>67400</v>
       </c>
       <c r="J47" s="3">
-        <v>67800</v>
+        <v>69400</v>
       </c>
       <c r="K47" s="3">
         <v>70600</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1988800</v>
+        <v>2035500</v>
       </c>
       <c r="E48" s="3">
-        <v>1937900</v>
+        <v>1983400</v>
       </c>
       <c r="F48" s="3">
-        <v>1942900</v>
+        <v>1988500</v>
       </c>
       <c r="G48" s="3">
-        <v>1892100</v>
+        <v>1936500</v>
       </c>
       <c r="H48" s="3">
-        <v>1890100</v>
+        <v>1934400</v>
       </c>
       <c r="I48" s="3">
-        <v>1912000</v>
+        <v>1956900</v>
       </c>
       <c r="J48" s="3">
-        <v>1901000</v>
+        <v>1945600</v>
       </c>
       <c r="K48" s="3">
         <v>2045700</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>546600</v>
+        <v>559400</v>
       </c>
       <c r="E49" s="3">
-        <v>515700</v>
+        <v>527800</v>
       </c>
       <c r="F49" s="3">
-        <v>507700</v>
+        <v>519600</v>
       </c>
       <c r="G49" s="3">
-        <v>501700</v>
+        <v>513500</v>
       </c>
       <c r="H49" s="3">
-        <v>487700</v>
+        <v>499200</v>
       </c>
       <c r="I49" s="3">
-        <v>495700</v>
+        <v>507300</v>
       </c>
       <c r="J49" s="3">
-        <v>476800</v>
+        <v>487900</v>
       </c>
       <c r="K49" s="3">
         <v>520000</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>137600</v>
+        <v>140900</v>
       </c>
       <c r="E52" s="3">
-        <v>139600</v>
+        <v>142900</v>
       </c>
       <c r="F52" s="3">
-        <v>173500</v>
+        <v>177600</v>
       </c>
       <c r="G52" s="3">
-        <v>164600</v>
+        <v>168400</v>
       </c>
       <c r="H52" s="3">
-        <v>177500</v>
+        <v>181700</v>
       </c>
       <c r="I52" s="3">
-        <v>190500</v>
+        <v>195000</v>
       </c>
       <c r="J52" s="3">
-        <v>210500</v>
+        <v>215400</v>
       </c>
       <c r="K52" s="3">
         <v>234600</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5315100</v>
+        <v>5439800</v>
       </c>
       <c r="E54" s="3">
-        <v>5159600</v>
+        <v>5280600</v>
       </c>
       <c r="F54" s="3">
-        <v>4612000</v>
+        <v>4720200</v>
       </c>
       <c r="G54" s="3">
-        <v>4658900</v>
+        <v>4768200</v>
       </c>
       <c r="H54" s="3">
-        <v>4443400</v>
+        <v>4547700</v>
       </c>
       <c r="I54" s="3">
-        <v>4297800</v>
+        <v>4398600</v>
       </c>
       <c r="J54" s="3">
-        <v>4118300</v>
+        <v>4214900</v>
       </c>
       <c r="K54" s="3">
         <v>4457800</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1434300</v>
+        <v>1467900</v>
       </c>
       <c r="E57" s="3">
-        <v>1718500</v>
+        <v>1758800</v>
       </c>
       <c r="F57" s="3">
-        <v>1373400</v>
+        <v>1405600</v>
       </c>
       <c r="G57" s="3">
-        <v>1328500</v>
+        <v>1359700</v>
       </c>
       <c r="H57" s="3">
-        <v>1251700</v>
+        <v>1281100</v>
       </c>
       <c r="I57" s="3">
-        <v>1124100</v>
+        <v>1150400</v>
       </c>
       <c r="J57" s="3">
-        <v>902600</v>
+        <v>923800</v>
       </c>
       <c r="K57" s="3">
         <v>1048300</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>208500</v>
+        <v>213300</v>
       </c>
       <c r="E58" s="3">
-        <v>253300</v>
+        <v>259300</v>
       </c>
       <c r="F58" s="3">
-        <v>257300</v>
+        <v>263400</v>
       </c>
       <c r="G58" s="3">
-        <v>261300</v>
+        <v>267400</v>
       </c>
       <c r="H58" s="3">
-        <v>261300</v>
+        <v>267400</v>
       </c>
       <c r="I58" s="3">
-        <v>81800</v>
+        <v>83700</v>
       </c>
       <c r="J58" s="3">
-        <v>91800</v>
+        <v>93900</v>
       </c>
       <c r="K58" s="3">
         <v>88200</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>491700</v>
+        <v>503300</v>
       </c>
       <c r="E59" s="3">
-        <v>87800</v>
+        <v>89800</v>
       </c>
       <c r="F59" s="3">
-        <v>78800</v>
+        <v>80600</v>
       </c>
       <c r="G59" s="3">
-        <v>71800</v>
+        <v>73500</v>
       </c>
       <c r="H59" s="3">
-        <v>68800</v>
+        <v>70400</v>
       </c>
       <c r="I59" s="3">
-        <v>86800</v>
+        <v>88800</v>
       </c>
       <c r="J59" s="3">
-        <v>88800</v>
+        <v>90900</v>
       </c>
       <c r="K59" s="3">
         <v>93400</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2134400</v>
+        <v>2184500</v>
       </c>
       <c r="E60" s="3">
-        <v>2059600</v>
+        <v>2108000</v>
       </c>
       <c r="F60" s="3">
-        <v>1709500</v>
+        <v>1749700</v>
       </c>
       <c r="G60" s="3">
-        <v>1661700</v>
+        <v>1700700</v>
       </c>
       <c r="H60" s="3">
-        <v>1581900</v>
+        <v>1619000</v>
       </c>
       <c r="I60" s="3">
-        <v>1292600</v>
+        <v>1323000</v>
       </c>
       <c r="J60" s="3">
-        <v>1083200</v>
+        <v>1108600</v>
       </c>
       <c r="K60" s="3">
         <v>1229900</v>
@@ -4371,25 +4371,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1943900</v>
+        <v>1989500</v>
       </c>
       <c r="E61" s="3">
-        <v>1879100</v>
+        <v>1923200</v>
       </c>
       <c r="F61" s="3">
-        <v>1866100</v>
+        <v>1909900</v>
       </c>
       <c r="G61" s="3">
-        <v>2014700</v>
+        <v>2062000</v>
       </c>
       <c r="H61" s="3">
-        <v>1989800</v>
+        <v>2036500</v>
       </c>
       <c r="I61" s="3">
-        <v>2237200</v>
+        <v>2289700</v>
       </c>
       <c r="J61" s="3">
-        <v>2293000</v>
+        <v>2346800</v>
       </c>
       <c r="K61" s="3">
         <v>2460900</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>635300</v>
+        <v>650200</v>
       </c>
       <c r="E62" s="3">
-        <v>675200</v>
+        <v>691100</v>
       </c>
       <c r="F62" s="3">
-        <v>746100</v>
+        <v>763600</v>
       </c>
       <c r="G62" s="3">
-        <v>729100</v>
+        <v>746200</v>
       </c>
       <c r="H62" s="3">
-        <v>728100</v>
+        <v>745200</v>
       </c>
       <c r="I62" s="3">
-        <v>762000</v>
+        <v>779900</v>
       </c>
       <c r="J62" s="3">
-        <v>842800</v>
+        <v>862600</v>
       </c>
       <c r="K62" s="3">
         <v>933100</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4734700</v>
+        <v>4845700</v>
       </c>
       <c r="E66" s="3">
-        <v>4632900</v>
+        <v>4741600</v>
       </c>
       <c r="F66" s="3">
-        <v>4338700</v>
+        <v>4440500</v>
       </c>
       <c r="G66" s="3">
-        <v>4423500</v>
+        <v>4527200</v>
       </c>
       <c r="H66" s="3">
-        <v>4315700</v>
+        <v>4417000</v>
       </c>
       <c r="I66" s="3">
-        <v>4306800</v>
+        <v>4407800</v>
       </c>
       <c r="J66" s="3">
-        <v>4233000</v>
+        <v>4332300</v>
       </c>
       <c r="K66" s="3">
         <v>4637300</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>158600</v>
+        <v>162300</v>
       </c>
       <c r="E72" s="3">
-        <v>104700</v>
+        <v>107200</v>
       </c>
       <c r="F72" s="3">
-        <v>-148600</v>
+        <v>-152100</v>
       </c>
       <c r="G72" s="3">
-        <v>-186500</v>
+        <v>-190900</v>
       </c>
       <c r="H72" s="3">
-        <v>-294200</v>
+        <v>-301100</v>
       </c>
       <c r="I72" s="3">
-        <v>-430900</v>
+        <v>-441000</v>
       </c>
       <c r="J72" s="3">
-        <v>-536600</v>
+        <v>-549200</v>
       </c>
       <c r="K72" s="3">
         <v>-618600</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>580500</v>
+        <v>594100</v>
       </c>
       <c r="E76" s="3">
-        <v>526600</v>
+        <v>539000</v>
       </c>
       <c r="F76" s="3">
-        <v>273300</v>
+        <v>279700</v>
       </c>
       <c r="G76" s="3">
-        <v>235400</v>
+        <v>240900</v>
       </c>
       <c r="H76" s="3">
-        <v>127700</v>
+        <v>130700</v>
       </c>
       <c r="I76" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="J76" s="3">
-        <v>-114700</v>
+        <v>-117400</v>
       </c>
       <c r="K76" s="3">
         <v>-179600</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="E81" s="3">
-        <v>176500</v>
+        <v>180700</v>
       </c>
       <c r="F81" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G81" s="3">
-        <v>96700</v>
+        <v>99000</v>
       </c>
       <c r="H81" s="3">
-        <v>106700</v>
+        <v>109200</v>
       </c>
       <c r="I81" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="J81" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="K81" s="3">
         <v>19700</v>
@@ -5820,25 +5820,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>69800</v>
+        <v>71500</v>
       </c>
       <c r="E83" s="3">
-        <v>65800</v>
+        <v>67400</v>
       </c>
       <c r="F83" s="3">
-        <v>71800</v>
+        <v>73500</v>
       </c>
       <c r="G83" s="3">
-        <v>66800</v>
+        <v>68400</v>
       </c>
       <c r="H83" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="I83" s="3">
-        <v>62800</v>
+        <v>64300</v>
       </c>
       <c r="J83" s="3">
-        <v>48900</v>
+        <v>50000</v>
       </c>
       <c r="K83" s="3">
         <v>75800</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>110700</v>
+        <v>113300</v>
       </c>
       <c r="E89" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="F89" s="3">
-        <v>117700</v>
+        <v>120500</v>
       </c>
       <c r="G89" s="3">
-        <v>90800</v>
+        <v>92900</v>
       </c>
       <c r="H89" s="3">
-        <v>72800</v>
+        <v>74500</v>
       </c>
       <c r="I89" s="3">
-        <v>74800</v>
+        <v>76600</v>
       </c>
       <c r="J89" s="3">
-        <v>70800</v>
+        <v>72500</v>
       </c>
       <c r="K89" s="3">
         <v>115200</v>
@@ -6388,25 +6388,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50900</v>
+        <v>-52100</v>
       </c>
       <c r="E91" s="3">
-        <v>-32900</v>
+        <v>-33700</v>
       </c>
       <c r="F91" s="3">
-        <v>-103700</v>
+        <v>-106200</v>
       </c>
       <c r="G91" s="3">
-        <v>-53900</v>
+        <v>-55100</v>
       </c>
       <c r="H91" s="3">
-        <v>-41900</v>
+        <v>-42900</v>
       </c>
       <c r="I91" s="3">
-        <v>-31900</v>
+        <v>-32700</v>
       </c>
       <c r="J91" s="3">
-        <v>-47900</v>
+        <v>-49000</v>
       </c>
       <c r="K91" s="3">
         <v>-37400</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-50900</v>
+        <v>-52100</v>
       </c>
       <c r="E94" s="3">
-        <v>-31900</v>
+        <v>-32700</v>
       </c>
       <c r="F94" s="3">
-        <v>-102700</v>
+        <v>-105100</v>
       </c>
       <c r="G94" s="3">
-        <v>-50900</v>
+        <v>-52100</v>
       </c>
       <c r="H94" s="3">
-        <v>-37900</v>
+        <v>-38800</v>
       </c>
       <c r="I94" s="3">
-        <v>-28900</v>
+        <v>-29600</v>
       </c>
       <c r="J94" s="3">
-        <v>-42900</v>
+        <v>-43900</v>
       </c>
       <c r="K94" s="3">
         <v>-37400</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-64800</v>
+        <v>-66400</v>
       </c>
       <c r="E100" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="F100" s="3">
-        <v>-193500</v>
+        <v>-198000</v>
       </c>
       <c r="G100" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="H100" s="3">
-        <v>-86800</v>
+        <v>-88800</v>
       </c>
       <c r="I100" s="3">
-        <v>-144600</v>
+        <v>-148000</v>
       </c>
       <c r="J100" s="3">
-        <v>-20900</v>
+        <v>-21400</v>
       </c>
       <c r="K100" s="3">
         <v>-18700</v>
@@ -7116,7 +7116,7 @@
         <v>1000</v>
       </c>
       <c r="F101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G101" s="3">
         <v>2000</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="E102" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="F102" s="3">
-        <v>-175500</v>
+        <v>-179700</v>
       </c>
       <c r="G102" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="H102" s="3">
-        <v>-51900</v>
+        <v>-53100</v>
       </c>
       <c r="I102" s="3">
-        <v>-96700</v>
+        <v>-99000</v>
       </c>
       <c r="J102" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="K102" s="3">
         <v>56000</v>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2322300</v>
+        <v>1951000</v>
       </c>
       <c r="E8" s="3">
-        <v>2020200</v>
+        <v>2139300</v>
       </c>
       <c r="F8" s="3">
-        <v>1741500</v>
+        <v>2407000</v>
       </c>
       <c r="G8" s="3">
-        <v>1620000</v>
+        <v>2093800</v>
       </c>
       <c r="H8" s="3">
-        <v>1549600</v>
+        <v>1804900</v>
       </c>
       <c r="I8" s="3">
+        <v>1679000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1368900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1268900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1216400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1124700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1622500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1601700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1705600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1884000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1837400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1653700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1581700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1618500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1521800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1400200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1435000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1550600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1558800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1362800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2102800</v>
+        <v>1837700</v>
       </c>
       <c r="E9" s="3">
-        <v>1798600</v>
+        <v>1998600</v>
       </c>
       <c r="F9" s="3">
-        <v>1583300</v>
+        <v>2179500</v>
       </c>
       <c r="G9" s="3">
-        <v>1448500</v>
+        <v>1864200</v>
       </c>
       <c r="H9" s="3">
-        <v>1346400</v>
+        <v>1641000</v>
       </c>
       <c r="I9" s="3">
+        <v>1501300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1395500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1223900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1117800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1091900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1049500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1449800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1448800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1536300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1661100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1665100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1510600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1452100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1427400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1371400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1276800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1279100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1382300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1394500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1219600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>219500</v>
+        <v>113200</v>
       </c>
       <c r="E10" s="3">
-        <v>221500</v>
+        <v>140700</v>
       </c>
       <c r="F10" s="3">
-        <v>158200</v>
+        <v>227500</v>
       </c>
       <c r="G10" s="3">
-        <v>171500</v>
+        <v>229600</v>
       </c>
       <c r="H10" s="3">
-        <v>203100</v>
+        <v>164000</v>
       </c>
       <c r="I10" s="3">
+        <v>177700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>210500</v>
+      </c>
+      <c r="K10" s="3">
         <v>145000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>151100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>124500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>75300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>172800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>152900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>169300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>222900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>172300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>143100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>129600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>191100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>150400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>123400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>156000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>168300</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>164300</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>143200</v>
       </c>
       <c r="AA10" s="3">
         <v>164300</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>143200</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>164300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1057,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="L12" s="3">
         <v>10200</v>
       </c>
-      <c r="E12" s="3">
-        <v>11200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>9200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>11200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>10200</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>9300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>14700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>14000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>14000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>14700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>14400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>10600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>11100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>11000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>12100</v>
-      </c>
-      <c r="V12" s="3">
-        <v>9000</v>
-      </c>
-      <c r="W12" s="3">
-        <v>10100</v>
       </c>
       <c r="X12" s="3">
         <v>9000</v>
       </c>
       <c r="Y12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="AA12" s="3">
         <v>12900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>11700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1197,74 +1236,80 @@
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
-        <v>3100</v>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
+      <c r="H14" s="3">
+        <v>3200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>1100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>1100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>2300</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2326400</v>
+        <v>1887500</v>
       </c>
       <c r="E17" s="3">
-        <v>1767000</v>
+        <v>2107500</v>
       </c>
       <c r="F17" s="3">
-        <v>1690400</v>
+        <v>2411200</v>
       </c>
       <c r="G17" s="3">
-        <v>1463800</v>
+        <v>1831400</v>
       </c>
       <c r="H17" s="3">
-        <v>1379100</v>
+        <v>1752000</v>
       </c>
       <c r="I17" s="3">
+        <v>1517200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1429400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1252500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1211700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1150000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1125800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1615700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1537500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1646000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1799500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1741700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1654900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1285900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1476800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1498800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1323900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1345300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1468700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1441400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1328800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-4100</v>
+        <v>63500</v>
       </c>
       <c r="E18" s="3">
-        <v>253200</v>
+        <v>31700</v>
       </c>
       <c r="F18" s="3">
-        <v>51000</v>
+        <v>-4200</v>
       </c>
       <c r="G18" s="3">
-        <v>156200</v>
+        <v>262400</v>
       </c>
       <c r="H18" s="3">
-        <v>170500</v>
+        <v>52900</v>
       </c>
       <c r="I18" s="3">
+        <v>161900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>176700</v>
+      </c>
+      <c r="K18" s="3">
         <v>116400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>57200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>66400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>64200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>59500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>84500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>95700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>295700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>141600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>23100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>76300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>89800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>81900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>117400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>34000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,173 +1614,187 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-1000</v>
+        <v>-34900</v>
       </c>
       <c r="E20" s="3">
-        <v>-30600</v>
+        <v>-38100</v>
       </c>
       <c r="F20" s="3">
-        <v>-41900</v>
+        <v>-1100</v>
       </c>
       <c r="G20" s="3">
-        <v>-34700</v>
+        <v>-31700</v>
       </c>
       <c r="H20" s="3">
-        <v>-37800</v>
+        <v>-43400</v>
       </c>
       <c r="I20" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-56100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-35700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-38400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-45800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-50800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-50200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-53700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-52700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-49000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-65100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-54300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-53800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-45000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-139100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-47100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-51600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-70400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-50500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>66400</v>
+        <v>111100</v>
       </c>
       <c r="E21" s="3">
-        <v>289900</v>
+        <v>70900</v>
       </c>
       <c r="F21" s="3">
-        <v>82700</v>
+        <v>68800</v>
       </c>
       <c r="G21" s="3">
-        <v>189900</v>
+        <v>300500</v>
       </c>
       <c r="H21" s="3">
-        <v>199100</v>
+        <v>85700</v>
       </c>
       <c r="I21" s="3">
+        <v>196800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>206300</v>
+      </c>
+      <c r="K21" s="3">
         <v>124500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>71500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>103800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>30500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>30500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>99200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>82900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>105300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>114800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>296800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>138300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>26400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-11200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>88600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>76300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>97400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>37600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>31600</v>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>24</v>
+      <c r="F22" s="3">
+        <v>32800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>24</v>
@@ -1729,11 +1808,11 @@
       <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1780,162 +1859,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-36700</v>
+        <v>28600</v>
       </c>
       <c r="E23" s="3">
-        <v>222500</v>
+        <v>-6300</v>
       </c>
       <c r="F23" s="3">
-        <v>9200</v>
+        <v>-38100</v>
       </c>
       <c r="G23" s="3">
-        <v>121500</v>
+        <v>230600</v>
       </c>
       <c r="H23" s="3">
-        <v>132700</v>
+        <v>9500</v>
       </c>
       <c r="I23" s="3">
+        <v>125900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>137500</v>
+      </c>
+      <c r="K23" s="3">
         <v>60200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>21400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>28000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-46900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-44000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>14000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>31800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>46700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-66200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>241500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>87800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-22000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-62800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>42600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>30300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>47000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-16400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-4100</v>
+        <v>-3200</v>
       </c>
       <c r="E24" s="3">
-        <v>39800</v>
+        <v>-144900</v>
       </c>
       <c r="F24" s="3">
-        <v>2000</v>
+        <v>-4200</v>
       </c>
       <c r="G24" s="3">
-        <v>20400</v>
+        <v>41300</v>
       </c>
       <c r="H24" s="3">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="I24" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K24" s="3">
         <v>11200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-12000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-9000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-11700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>17900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>27500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>4400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>44900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>19100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>13500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>31700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>7000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-32700</v>
+        <v>31700</v>
       </c>
       <c r="E26" s="3">
-        <v>182700</v>
+        <v>138600</v>
       </c>
       <c r="F26" s="3">
-        <v>7100</v>
+        <v>-33900</v>
       </c>
       <c r="G26" s="3">
-        <v>101100</v>
+        <v>189400</v>
       </c>
       <c r="H26" s="3">
-        <v>110200</v>
+        <v>7400</v>
       </c>
       <c r="I26" s="3">
+        <v>104700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>114300</v>
+      </c>
+      <c r="K26" s="3">
         <v>49000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>26500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>20800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-34900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-35000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>25700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>20800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>28700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-68600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>240300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>60400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-26400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-107700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>23600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>16800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>15300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-23500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-34700</v>
+        <v>29600</v>
       </c>
       <c r="E27" s="3">
-        <v>180700</v>
+        <v>137500</v>
       </c>
       <c r="F27" s="3">
-        <v>7100</v>
+        <v>-36000</v>
       </c>
       <c r="G27" s="3">
-        <v>99000</v>
+        <v>187300</v>
       </c>
       <c r="H27" s="3">
-        <v>109200</v>
+        <v>7400</v>
       </c>
       <c r="I27" s="3">
+        <v>102600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>113200</v>
+      </c>
+      <c r="K27" s="3">
         <v>47000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>24500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>19700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-36000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-35000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>23300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>19600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>27500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-71000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>240300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>60400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-26400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-107700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>23600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>16800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>15300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-23500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2283,11 +2404,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2301,14 +2422,14 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
-        <v>18000</v>
+      <c r="V29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
+      <c r="X29" s="3">
+        <v>18000</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1000</v>
+        <v>34900</v>
       </c>
       <c r="E32" s="3">
-        <v>30600</v>
+        <v>38100</v>
       </c>
       <c r="F32" s="3">
-        <v>41900</v>
+        <v>1100</v>
       </c>
       <c r="G32" s="3">
-        <v>34700</v>
+        <v>31700</v>
       </c>
       <c r="H32" s="3">
-        <v>37800</v>
+        <v>43400</v>
       </c>
       <c r="I32" s="3">
+        <v>36000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K32" s="3">
         <v>56100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>35700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>38400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>45800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>50800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>50200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>53700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>52700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>49000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>65100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>54300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>53800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>45000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>139100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>47100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>51600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>70400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>50500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34700</v>
+        <v>29600</v>
       </c>
       <c r="E33" s="3">
-        <v>180700</v>
+        <v>137500</v>
       </c>
       <c r="F33" s="3">
-        <v>7100</v>
+        <v>-36000</v>
       </c>
       <c r="G33" s="3">
-        <v>99000</v>
+        <v>187300</v>
       </c>
       <c r="H33" s="3">
-        <v>109200</v>
+        <v>7400</v>
       </c>
       <c r="I33" s="3">
+        <v>102600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>113200</v>
+      </c>
+      <c r="K33" s="3">
         <v>47000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>24500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>19700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-36000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-35000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>23300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>19600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>27500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-71000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>240300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>60400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-26400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-89800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>23600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>16800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>15300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-23500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34700</v>
+        <v>29600</v>
       </c>
       <c r="E35" s="3">
-        <v>180700</v>
+        <v>137500</v>
       </c>
       <c r="F35" s="3">
-        <v>7100</v>
+        <v>-36000</v>
       </c>
       <c r="G35" s="3">
-        <v>99000</v>
+        <v>187300</v>
       </c>
       <c r="H35" s="3">
-        <v>109200</v>
+        <v>7400</v>
       </c>
       <c r="I35" s="3">
+        <v>102600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>113200</v>
+      </c>
+      <c r="K35" s="3">
         <v>47000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>24500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>19700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-36000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-35000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>23300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>19600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>27500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-71000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>240300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>60400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-26400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-89800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>23600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>16800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>15300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-23500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>159200</v>
+        <v>175600</v>
       </c>
       <c r="E41" s="3">
-        <v>163300</v>
+        <v>180900</v>
       </c>
       <c r="F41" s="3">
-        <v>150100</v>
+        <v>165000</v>
       </c>
       <c r="G41" s="3">
-        <v>329700</v>
+        <v>169300</v>
       </c>
       <c r="H41" s="3">
-        <v>296000</v>
+        <v>155500</v>
       </c>
       <c r="I41" s="3">
+        <v>341700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>306800</v>
+      </c>
+      <c r="K41" s="3">
         <v>349100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>448100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>448400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>412400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>304900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>214800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>177400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>260900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>265600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>194000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>309000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>182300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>231700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>301800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>336600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>320900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>362700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>407300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3043,242 +3222,260 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>35900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>35500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>26600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>38400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>41700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>77400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>50500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>125700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>151400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>137300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1027900</v>
+        <v>570300</v>
       </c>
       <c r="E43" s="3">
-        <v>946300</v>
+        <v>869700</v>
       </c>
       <c r="F43" s="3">
-        <v>697200</v>
+        <v>1065400</v>
       </c>
       <c r="G43" s="3">
-        <v>703300</v>
+        <v>980800</v>
       </c>
       <c r="H43" s="3">
-        <v>682900</v>
+        <v>722600</v>
       </c>
       <c r="I43" s="3">
+        <v>729000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>707800</v>
+      </c>
+      <c r="K43" s="3">
         <v>544100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>414400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>484700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>492000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>615400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>553400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>729600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>771700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>815800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>694400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>659000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>720300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>633500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>470100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>488100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>583400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>550500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>416700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1388300</v>
+        <v>1396600</v>
       </c>
       <c r="E44" s="3">
-        <v>1345400</v>
+        <v>1463200</v>
       </c>
       <c r="F44" s="3">
-        <v>1071800</v>
+        <v>1438900</v>
       </c>
       <c r="G44" s="3">
-        <v>954400</v>
+        <v>1394400</v>
       </c>
       <c r="H44" s="3">
-        <v>818700</v>
+        <v>1110900</v>
       </c>
       <c r="I44" s="3">
+        <v>989200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>848500</v>
+      </c>
+      <c r="K44" s="3">
         <v>717600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>594100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>630000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>692700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>783600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>782200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>809000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>873400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>846900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>780700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>772000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>818000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>732400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>721400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>686700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>681000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>721900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>693700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67400</v>
+        <v>32800</v>
       </c>
       <c r="E45" s="3">
-        <v>112300</v>
+        <v>49700</v>
       </c>
       <c r="F45" s="3">
-        <v>59200</v>
+        <v>69800</v>
       </c>
       <c r="G45" s="3">
-        <v>89800</v>
+        <v>116400</v>
       </c>
       <c r="H45" s="3">
-        <v>64300</v>
+        <v>61400</v>
       </c>
       <c r="I45" s="3">
+        <v>93100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K45" s="3">
         <v>61200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>39800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>23900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>24000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>40600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>25700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>44400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>23300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
@@ -3306,316 +3503,346 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2642900</v>
+        <v>2175200</v>
       </c>
       <c r="E46" s="3">
-        <v>2567300</v>
+        <v>2563500</v>
       </c>
       <c r="F46" s="3">
-        <v>1978300</v>
+        <v>2739200</v>
       </c>
       <c r="G46" s="3">
-        <v>2077300</v>
+        <v>2660900</v>
       </c>
       <c r="H46" s="3">
-        <v>1861900</v>
+        <v>2050400</v>
       </c>
       <c r="I46" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1929800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1672100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1496500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1586900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1621100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1744500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1576000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1760500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1929400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1964200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1704600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1766600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1759000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1639300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1570800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1561800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1711000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1786500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1655100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61200</v>
+        <v>45500</v>
       </c>
       <c r="E47" s="3">
-        <v>59200</v>
+        <v>56100</v>
       </c>
       <c r="F47" s="3">
-        <v>56100</v>
+        <v>63500</v>
       </c>
       <c r="G47" s="3">
-        <v>72500</v>
+        <v>61400</v>
       </c>
       <c r="H47" s="3">
-        <v>70400</v>
+        <v>58200</v>
       </c>
       <c r="I47" s="3">
+        <v>75100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K47" s="3">
         <v>67400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>69400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>70600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>81800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>70000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>71200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>61900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>83300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>87300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>164400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>135100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>147100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>160300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>178400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>160400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>70700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>108000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>131500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2035500</v>
+        <v>2134000</v>
       </c>
       <c r="E48" s="3">
-        <v>1983400</v>
+        <v>2176300</v>
       </c>
       <c r="F48" s="3">
-        <v>1988500</v>
+        <v>2109700</v>
       </c>
       <c r="G48" s="3">
-        <v>1936500</v>
+        <v>2055700</v>
       </c>
       <c r="H48" s="3">
-        <v>1934400</v>
+        <v>2061000</v>
       </c>
       <c r="I48" s="3">
+        <v>2007000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2004900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1956900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1945600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2045700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2215600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2346300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2400200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2381500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2426700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2345700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1970700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1738900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1696400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1643700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1702100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1638100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1641500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1747800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1733700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>559400</v>
+        <v>562900</v>
       </c>
       <c r="E49" s="3">
-        <v>527800</v>
+        <v>612600</v>
       </c>
       <c r="F49" s="3">
-        <v>519600</v>
+        <v>579800</v>
       </c>
       <c r="G49" s="3">
-        <v>513500</v>
+        <v>547000</v>
       </c>
       <c r="H49" s="3">
-        <v>499200</v>
+        <v>538500</v>
       </c>
       <c r="I49" s="3">
+        <v>532200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>517400</v>
+      </c>
+      <c r="K49" s="3">
         <v>507300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>487900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>520000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>571600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>605200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>612900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>628100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>630900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>625600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>582000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>537200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>529200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>504000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>528500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>541900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>561000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>619800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>629200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>591600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>140900</v>
+        <v>310000</v>
       </c>
       <c r="E52" s="3">
-        <v>142900</v>
+        <v>310000</v>
       </c>
       <c r="F52" s="3">
-        <v>177600</v>
+        <v>146000</v>
       </c>
       <c r="G52" s="3">
-        <v>168400</v>
+        <v>148100</v>
       </c>
       <c r="H52" s="3">
-        <v>181700</v>
+        <v>184100</v>
       </c>
       <c r="I52" s="3">
+        <v>174600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>188300</v>
+      </c>
+      <c r="K52" s="3">
         <v>195000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>215400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>234600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>252000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>236000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>224100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>234600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>198400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>183000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>192800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>176100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>174600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>173500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>184000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>228900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>239000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>271200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>295800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5439800</v>
+        <v>5227600</v>
       </c>
       <c r="E54" s="3">
-        <v>5280600</v>
+        <v>5718500</v>
       </c>
       <c r="F54" s="3">
-        <v>4720200</v>
+        <v>5638100</v>
       </c>
       <c r="G54" s="3">
-        <v>4768200</v>
+        <v>5473000</v>
       </c>
       <c r="H54" s="3">
-        <v>4547700</v>
+        <v>4892200</v>
       </c>
       <c r="I54" s="3">
+        <v>4941900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4713400</v>
+      </c>
+      <c r="K54" s="3">
         <v>4398600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4214900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4457800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4742200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5001900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4884400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5066600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5268700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5205900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4614500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4354000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4306400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4120800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4163700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4131200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4223200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4533300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4445200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4316,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1467900</v>
+        <v>1552100</v>
       </c>
       <c r="E57" s="3">
-        <v>1758800</v>
+        <v>1788000</v>
       </c>
       <c r="F57" s="3">
-        <v>1405600</v>
+        <v>1521400</v>
       </c>
       <c r="G57" s="3">
-        <v>1359700</v>
+        <v>1822900</v>
       </c>
       <c r="H57" s="3">
-        <v>1281100</v>
+        <v>1456900</v>
       </c>
       <c r="I57" s="3">
+        <v>1409300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1327800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1150400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>923800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1048300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1094200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1316500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1166200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1295800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1372000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1379200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1145000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1115400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1203400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1104600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1043500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1058000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1109600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1136200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>984800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>213300</v>
+        <v>156600</v>
       </c>
       <c r="E58" s="3">
-        <v>259300</v>
+        <v>162900</v>
       </c>
       <c r="F58" s="3">
-        <v>263400</v>
+        <v>221100</v>
       </c>
       <c r="G58" s="3">
-        <v>267400</v>
+        <v>268700</v>
       </c>
       <c r="H58" s="3">
-        <v>267400</v>
+        <v>273000</v>
       </c>
       <c r="I58" s="3">
+        <v>277200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>277200</v>
+      </c>
+      <c r="K58" s="3">
         <v>83700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>93900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>88200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>111300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>221300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>234600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>195000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>198400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>252400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>67400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>47600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>142700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>121900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>118900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>113300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>135800</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>133800</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>125600</v>
       </c>
       <c r="AA58" s="3">
         <v>133800</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>125600</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>133800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>503300</v>
+        <v>82500</v>
       </c>
       <c r="E59" s="3">
-        <v>89800</v>
+        <v>140700</v>
       </c>
       <c r="F59" s="3">
-        <v>80600</v>
+        <v>521600</v>
       </c>
       <c r="G59" s="3">
-        <v>73500</v>
+        <v>93100</v>
       </c>
       <c r="H59" s="3">
-        <v>70400</v>
+        <v>83600</v>
       </c>
       <c r="I59" s="3">
+        <v>76200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K59" s="3">
         <v>88800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>90900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>93400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>102500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>144500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>84100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>117900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>91900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>96900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>134900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>100800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>85600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>104300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>83000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>86400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>85300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>99800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>104500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2184500</v>
+        <v>1791200</v>
       </c>
       <c r="E60" s="3">
-        <v>2108000</v>
+        <v>2091700</v>
       </c>
       <c r="F60" s="3">
-        <v>1749700</v>
+        <v>2264100</v>
       </c>
       <c r="G60" s="3">
-        <v>1700700</v>
+        <v>2184800</v>
       </c>
       <c r="H60" s="3">
-        <v>1619000</v>
+        <v>1813400</v>
       </c>
       <c r="I60" s="3">
+        <v>1762600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1678000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1323000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1108600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1229900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1308000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1682400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1484900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1608700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1662300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1728500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1347300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1263800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1431800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1330800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1245400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1257800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1330700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1369800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1214900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1989500</v>
+        <v>2018700</v>
       </c>
       <c r="E61" s="3">
-        <v>1923200</v>
+        <v>2131900</v>
       </c>
       <c r="F61" s="3">
-        <v>1909900</v>
+        <v>2062000</v>
       </c>
       <c r="G61" s="3">
-        <v>2062000</v>
+        <v>1993300</v>
       </c>
       <c r="H61" s="3">
-        <v>2036500</v>
+        <v>1979500</v>
       </c>
       <c r="I61" s="3">
+        <v>2137200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2110700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2289700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2346800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2460900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2655300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2487400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2521600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2571800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2714600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2643600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2477000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2281700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2255300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2176200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2267500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2419000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2474000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2722100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>2771400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>650200</v>
+        <v>622100</v>
       </c>
       <c r="E62" s="3">
-        <v>691100</v>
+        <v>656000</v>
       </c>
       <c r="F62" s="3">
-        <v>763600</v>
+        <v>673900</v>
       </c>
       <c r="G62" s="3">
-        <v>746200</v>
+        <v>716300</v>
       </c>
       <c r="H62" s="3">
-        <v>745200</v>
+        <v>791400</v>
       </c>
       <c r="I62" s="3">
+        <v>773400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>772300</v>
+      </c>
+      <c r="K62" s="3">
         <v>779900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>862600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>933100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>968700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>971000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>977100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1060000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1030200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>964100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>925000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>854000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>917900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>962900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1008700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1000800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>998600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1083400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1128000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4845700</v>
+        <v>4454200</v>
       </c>
       <c r="E66" s="3">
-        <v>4741600</v>
+        <v>4903800</v>
       </c>
       <c r="F66" s="3">
-        <v>4440500</v>
+        <v>5022300</v>
       </c>
       <c r="G66" s="3">
-        <v>4527200</v>
+        <v>4914400</v>
       </c>
       <c r="H66" s="3">
-        <v>4417000</v>
+        <v>4602300</v>
       </c>
       <c r="I66" s="3">
+        <v>4692200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4578000</v>
+      </c>
+      <c r="K66" s="3">
         <v>4407800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4332300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4637300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4945100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5153200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4996500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5253300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5419400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5347000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4758800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4409400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4613800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4478700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4530600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4685400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4812200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>5185900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>5124900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>162300</v>
+        <v>325900</v>
       </c>
       <c r="E72" s="3">
-        <v>107200</v>
+        <v>367100</v>
       </c>
       <c r="F72" s="3">
-        <v>-152100</v>
+        <v>168200</v>
       </c>
       <c r="G72" s="3">
-        <v>-190900</v>
+        <v>111100</v>
       </c>
       <c r="H72" s="3">
-        <v>-301100</v>
+        <v>-157600</v>
       </c>
       <c r="I72" s="3">
+        <v>-197800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-312100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-441000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-549200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-618600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-664400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-628900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-605900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-680600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-668800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-647100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-644700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-523900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-771900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-822400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-841500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-738300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-773100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-845100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-872100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>594100</v>
+        <v>773400</v>
       </c>
       <c r="E76" s="3">
-        <v>539000</v>
+        <v>814700</v>
       </c>
       <c r="F76" s="3">
-        <v>279700</v>
+        <v>615800</v>
       </c>
       <c r="G76" s="3">
-        <v>240900</v>
+        <v>558600</v>
       </c>
       <c r="H76" s="3">
-        <v>130700</v>
+        <v>289900</v>
       </c>
       <c r="I76" s="3">
+        <v>249700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>135400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-9200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-117400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-179600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-202900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-151300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-112100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-186800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-150700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-141200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-144300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-55400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-307400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-357900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-366900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-554300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-589000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-652600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-679600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34700</v>
+        <v>29600</v>
       </c>
       <c r="E81" s="3">
-        <v>180700</v>
+        <v>137500</v>
       </c>
       <c r="F81" s="3">
-        <v>7100</v>
+        <v>-36000</v>
       </c>
       <c r="G81" s="3">
-        <v>99000</v>
+        <v>187300</v>
       </c>
       <c r="H81" s="3">
-        <v>109200</v>
+        <v>7400</v>
       </c>
       <c r="I81" s="3">
+        <v>102600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>113200</v>
+      </c>
+      <c r="K81" s="3">
         <v>47000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>24500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>19700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-36000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-35000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>23300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>19600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>27500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-71000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>240300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>60400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-26400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-89800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>23600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>16800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>15300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-23500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>71500</v>
+        <v>82500</v>
       </c>
       <c r="E83" s="3">
+        <v>77200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>74100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>69800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>76200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>70900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>68800</v>
+      </c>
+      <c r="K83" s="3">
+        <v>64300</v>
+      </c>
+      <c r="L83" s="3">
+        <v>50000</v>
+      </c>
+      <c r="M83" s="3">
+        <v>75800</v>
+      </c>
+      <c r="N83" s="3">
+        <v>77500</v>
+      </c>
+      <c r="O83" s="3">
+        <v>74500</v>
+      </c>
+      <c r="P83" s="3">
+        <v>85200</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>77000</v>
+      </c>
+      <c r="R83" s="3">
+        <v>73500</v>
+      </c>
+      <c r="S83" s="3">
+        <v>68200</v>
+      </c>
+      <c r="T83" s="3">
         <v>67400</v>
       </c>
-      <c r="F83" s="3">
-        <v>73500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>68400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>66400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>64300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>75800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>77500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>74500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>85200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>77000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>73500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>68200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>67400</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>55400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>50500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>48300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>51600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>46000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>46000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>50500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>54000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>113300</v>
+        <v>135400</v>
       </c>
       <c r="E89" s="3">
-        <v>59200</v>
+        <v>162900</v>
       </c>
       <c r="F89" s="3">
-        <v>120500</v>
+        <v>117400</v>
       </c>
       <c r="G89" s="3">
-        <v>92900</v>
+        <v>61400</v>
       </c>
       <c r="H89" s="3">
-        <v>74500</v>
+        <v>124800</v>
       </c>
       <c r="I89" s="3">
+        <v>96300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K89" s="3">
         <v>76600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>72500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>115200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>8700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>162600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>124900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>93400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>156800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>157900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>30800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>50900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>19800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-26400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>85300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>50500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>42300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-119700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-52100</v>
+        <v>-115300</v>
       </c>
       <c r="E91" s="3">
-        <v>-33700</v>
+        <v>-84600</v>
       </c>
       <c r="F91" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="P91" s="3">
         <v>-106200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-55100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-42900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-32700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-49000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-37400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-44700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-64400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-106200</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-58400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-70600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-138400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-69800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-54900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-51600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-113300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-61700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-67300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-70400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-146700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-52100</v>
+        <v>-113200</v>
       </c>
       <c r="E94" s="3">
-        <v>-32700</v>
+        <v>-84600</v>
       </c>
       <c r="F94" s="3">
-        <v>-105100</v>
+        <v>-54000</v>
       </c>
       <c r="G94" s="3">
-        <v>-52100</v>
+        <v>-33900</v>
       </c>
       <c r="H94" s="3">
-        <v>-38800</v>
+        <v>-109000</v>
       </c>
       <c r="I94" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-29600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-43900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-37400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-43600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-64400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-102700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-57200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-90600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-169900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-145500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>150600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-65900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-48300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-130200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-46000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-74100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-81000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-154900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-66400</v>
+        <v>-23300</v>
       </c>
       <c r="E100" s="3">
-        <v>-14300</v>
+        <v>-65600</v>
       </c>
       <c r="F100" s="3">
-        <v>-198000</v>
+        <v>-68800</v>
       </c>
       <c r="G100" s="3">
-        <v>-9200</v>
+        <v>-14800</v>
       </c>
       <c r="H100" s="3">
-        <v>-88800</v>
+        <v>-205300</v>
       </c>
       <c r="I100" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-148000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-21400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-18700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>153800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>16300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-109700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>78900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-23700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-76400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-3300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>11000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>93100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-22400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>2200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-44600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1000</v>
+        <v>-4200</v>
       </c>
       <c r="E101" s="3">
-        <v>1000</v>
+        <v>3200</v>
       </c>
       <c r="F101" s="3">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="G101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-1200</v>
-      </c>
       <c r="O101" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>-1200</v>
       </c>
       <c r="Q101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S101" s="3">
         <v>2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>2400</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>1200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4100</v>
+        <v>-5300</v>
       </c>
       <c r="E102" s="3">
-        <v>13300</v>
+        <v>15900</v>
       </c>
       <c r="F102" s="3">
-        <v>-179700</v>
+        <v>-4200</v>
       </c>
       <c r="G102" s="3">
-        <v>33700</v>
+        <v>13800</v>
       </c>
       <c r="H102" s="3">
-        <v>-53100</v>
+        <v>-186200</v>
       </c>
       <c r="I102" s="3">
+        <v>34900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-99000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>56000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>117800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>97100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>37400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-71200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>69400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-136000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>125200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-49400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-63700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-34800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>15700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-25800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-44600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-318100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1951000</v>
+        <v>2106400</v>
       </c>
       <c r="E8" s="3">
-        <v>2139300</v>
+        <v>1985800</v>
       </c>
       <c r="F8" s="3">
-        <v>2407000</v>
+        <v>2177500</v>
       </c>
       <c r="G8" s="3">
-        <v>2093800</v>
+        <v>2449900</v>
       </c>
       <c r="H8" s="3">
-        <v>1804900</v>
+        <v>2131200</v>
       </c>
       <c r="I8" s="3">
-        <v>1679000</v>
+        <v>1837200</v>
       </c>
       <c r="J8" s="3">
+        <v>1709000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1606000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1368900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1268900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1216400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1124700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1622500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1601700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1705600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1884000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1837400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1653700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1581700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1618500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1521800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1435000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1550600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1558800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1362800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1837700</v>
+        <v>1933000</v>
       </c>
       <c r="E9" s="3">
-        <v>1998600</v>
+        <v>1870600</v>
       </c>
       <c r="F9" s="3">
-        <v>2179500</v>
+        <v>2034300</v>
       </c>
       <c r="G9" s="3">
-        <v>1864200</v>
+        <v>2218400</v>
       </c>
       <c r="H9" s="3">
-        <v>1641000</v>
+        <v>1897500</v>
       </c>
       <c r="I9" s="3">
-        <v>1501300</v>
+        <v>1670300</v>
       </c>
       <c r="J9" s="3">
+        <v>1528100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1395500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1223900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1117800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1091900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1049500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1449800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1448800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1536300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1661100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1665100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1510600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1452100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1427400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1371400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1276800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1279100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1382300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1394500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1219600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>113200</v>
+        <v>173400</v>
       </c>
       <c r="E10" s="3">
-        <v>140700</v>
+        <v>115200</v>
       </c>
       <c r="F10" s="3">
-        <v>227500</v>
+        <v>143200</v>
       </c>
       <c r="G10" s="3">
-        <v>229600</v>
+        <v>231500</v>
       </c>
       <c r="H10" s="3">
-        <v>164000</v>
+        <v>233700</v>
       </c>
       <c r="I10" s="3">
-        <v>177700</v>
+        <v>166900</v>
       </c>
       <c r="J10" s="3">
+        <v>180900</v>
+      </c>
+      <c r="K10" s="3">
         <v>210500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>145000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>151100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>124500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>75300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>172800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>152900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>169300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>222900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>172300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>143100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>129600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>191100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>150400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>123400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>156000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>168300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>164300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>143200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>164300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16900</v>
+        <v>14000</v>
       </c>
       <c r="E12" s="3">
-        <v>11600</v>
+        <v>17200</v>
       </c>
       <c r="F12" s="3">
-        <v>10600</v>
+        <v>11800</v>
       </c>
       <c r="G12" s="3">
-        <v>11600</v>
+        <v>10800</v>
       </c>
       <c r="H12" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K12" s="3">
         <v>9500</v>
       </c>
-      <c r="I12" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>9500</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14700</v>
-      </c>
-      <c r="P12" s="3">
-        <v>14000</v>
       </c>
       <c r="Q12" s="3">
         <v>14000</v>
       </c>
       <c r="R12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="S12" s="3">
         <v>14700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>10100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>12900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>11700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1242,11 +1262,11 @@
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3">
         <v>3200</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
@@ -1254,62 +1274,65 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1200</v>
       </c>
       <c r="R14" s="3">
         <v>1200</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>1100</v>
       </c>
       <c r="Z14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>2300</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1887500</v>
+        <v>2039600</v>
       </c>
       <c r="E17" s="3">
-        <v>2107500</v>
+        <v>1921200</v>
       </c>
       <c r="F17" s="3">
-        <v>2411200</v>
+        <v>2145200</v>
       </c>
       <c r="G17" s="3">
-        <v>1831400</v>
+        <v>2454300</v>
       </c>
       <c r="H17" s="3">
-        <v>1752000</v>
+        <v>1864100</v>
       </c>
       <c r="I17" s="3">
-        <v>1517200</v>
+        <v>1783300</v>
       </c>
       <c r="J17" s="3">
+        <v>1544300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1429400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1252500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1211700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1150000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1125800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1615700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1537500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1646000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1799500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1741700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1654900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1285900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1476800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1498800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1323900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1345300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1468700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1441400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1328800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>63500</v>
+        <v>66800</v>
       </c>
       <c r="E18" s="3">
-        <v>31700</v>
+        <v>64600</v>
       </c>
       <c r="F18" s="3">
-        <v>-4200</v>
+        <v>32300</v>
       </c>
       <c r="G18" s="3">
-        <v>262400</v>
+        <v>-4300</v>
       </c>
       <c r="H18" s="3">
-        <v>52900</v>
+        <v>267100</v>
       </c>
       <c r="I18" s="3">
-        <v>161900</v>
+        <v>53800</v>
       </c>
       <c r="J18" s="3">
+        <v>164800</v>
+      </c>
+      <c r="K18" s="3">
         <v>176700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>116400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>57200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>66400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>64200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>59500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>84500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>95700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>295700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>141600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>23100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>76300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>89800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>81900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>117400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>34000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-34900</v>
+        <v>-37700</v>
       </c>
       <c r="E20" s="3">
-        <v>-38100</v>
+        <v>-35500</v>
       </c>
       <c r="F20" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-31700</v>
-      </c>
       <c r="H20" s="3">
-        <v>-43400</v>
+        <v>-32300</v>
       </c>
       <c r="I20" s="3">
-        <v>-36000</v>
+        <v>-44200</v>
       </c>
       <c r="J20" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-39100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-56100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-35700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-38400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-45800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-50800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-53700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-52700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-49000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-65100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-54300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-53800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-45000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-139100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-47100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-51600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-70400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-50500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>111100</v>
+        <v>106600</v>
       </c>
       <c r="E21" s="3">
-        <v>70900</v>
+        <v>113100</v>
       </c>
       <c r="F21" s="3">
-        <v>68800</v>
+        <v>72200</v>
       </c>
       <c r="G21" s="3">
-        <v>300500</v>
+        <v>70000</v>
       </c>
       <c r="H21" s="3">
-        <v>85700</v>
+        <v>305800</v>
       </c>
       <c r="I21" s="3">
-        <v>196800</v>
+        <v>87200</v>
       </c>
       <c r="J21" s="3">
+        <v>200300</v>
+      </c>
+      <c r="K21" s="3">
         <v>206300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>124500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>71500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>103800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>30500</v>
       </c>
       <c r="O21" s="3">
         <v>30500</v>
       </c>
       <c r="P21" s="3">
+        <v>30500</v>
+      </c>
+      <c r="Q21" s="3">
         <v>99200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>82900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>105300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>114800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>296800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>138300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>26400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>88600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>76300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>97400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>37600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1793,11 +1833,11 @@
       <c r="E22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="3">
-        <v>32800</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="G22" s="3">
+        <v>33400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>24</v>
@@ -1814,8 +1854,8 @@
       <c r="L22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="E23" s="3">
-        <v>-6300</v>
+        <v>29100</v>
       </c>
       <c r="F23" s="3">
-        <v>-38100</v>
+        <v>-6500</v>
       </c>
       <c r="G23" s="3">
-        <v>230600</v>
+        <v>-38800</v>
       </c>
       <c r="H23" s="3">
-        <v>9500</v>
+        <v>234800</v>
       </c>
       <c r="I23" s="3">
-        <v>125900</v>
+        <v>9700</v>
       </c>
       <c r="J23" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K23" s="3">
         <v>137500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>60200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-46900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-44000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>31800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>46700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-66200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>241500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>87800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-22000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-62800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>42600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>30300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>47000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-16400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3200</v>
       </c>
-      <c r="E24" s="3">
-        <v>-144900</v>
-      </c>
       <c r="F24" s="3">
-        <v>-4200</v>
+        <v>-147500</v>
       </c>
       <c r="G24" s="3">
-        <v>41300</v>
+        <v>-4300</v>
       </c>
       <c r="H24" s="3">
-        <v>2100</v>
+        <v>42000</v>
       </c>
       <c r="I24" s="3">
-        <v>21200</v>
+        <v>2200</v>
       </c>
       <c r="J24" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K24" s="3">
         <v>23300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-12000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-9000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>17900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>44900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>19100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>31700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>7000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>31700</v>
+        <v>23700</v>
       </c>
       <c r="E26" s="3">
-        <v>138600</v>
+        <v>32300</v>
       </c>
       <c r="F26" s="3">
-        <v>-33900</v>
+        <v>141100</v>
       </c>
       <c r="G26" s="3">
-        <v>189400</v>
+        <v>-34500</v>
       </c>
       <c r="H26" s="3">
-        <v>7400</v>
+        <v>192800</v>
       </c>
       <c r="I26" s="3">
-        <v>104700</v>
+        <v>7500</v>
       </c>
       <c r="J26" s="3">
+        <v>106600</v>
+      </c>
+      <c r="K26" s="3">
         <v>114300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>49000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-34900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-35000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>28700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-68600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>240300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>60400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-26400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-107700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>23600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>16800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>15300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-23500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>29600</v>
+        <v>21500</v>
       </c>
       <c r="E27" s="3">
-        <v>137500</v>
+        <v>30200</v>
       </c>
       <c r="F27" s="3">
+        <v>140000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>190600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>104500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>113200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>47000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>24500</v>
+      </c>
+      <c r="N27" s="3">
+        <v>19700</v>
+      </c>
+      <c r="O27" s="3">
         <v>-36000</v>
       </c>
-      <c r="G27" s="3">
-        <v>187300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>7400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>102600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>113200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>47000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>24500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>19700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-36000</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-35000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>19600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>27500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-71000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>240300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>60400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-26400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-107700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>23600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>16800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>15300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-23500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2410,8 +2471,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2428,11 +2489,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3">
         <v>18000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>34900</v>
+        <v>37700</v>
       </c>
       <c r="E32" s="3">
-        <v>38100</v>
+        <v>35500</v>
       </c>
       <c r="F32" s="3">
+        <v>38800</v>
+      </c>
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
-        <v>31700</v>
-      </c>
       <c r="H32" s="3">
-        <v>43400</v>
+        <v>32300</v>
       </c>
       <c r="I32" s="3">
-        <v>36000</v>
+        <v>44200</v>
       </c>
       <c r="J32" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K32" s="3">
         <v>39100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>56100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>35700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>38400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>45800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>50800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>50200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>53700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>52700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>49000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>65100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>54300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>53800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>45000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>139100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>47100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>51600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>70400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>50500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>29600</v>
+        <v>21500</v>
       </c>
       <c r="E33" s="3">
-        <v>137500</v>
+        <v>30200</v>
       </c>
       <c r="F33" s="3">
+        <v>140000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>190600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>104500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>113200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>47000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>24500</v>
+      </c>
+      <c r="N33" s="3">
+        <v>19700</v>
+      </c>
+      <c r="O33" s="3">
         <v>-36000</v>
       </c>
-      <c r="G33" s="3">
-        <v>187300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>7400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>102600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>113200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>47000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>24500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>19700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-36000</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-35000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>19600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>27500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-71000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>240300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>60400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-26400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-89800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>23600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>16800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>15300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-23500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>29600</v>
+        <v>21500</v>
       </c>
       <c r="E35" s="3">
-        <v>137500</v>
+        <v>30200</v>
       </c>
       <c r="F35" s="3">
+        <v>140000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>190600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>104500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>113200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>47000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>24500</v>
+      </c>
+      <c r="N35" s="3">
+        <v>19700</v>
+      </c>
+      <c r="O35" s="3">
         <v>-36000</v>
       </c>
-      <c r="G35" s="3">
-        <v>187300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>7400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>102600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>113200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>47000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>24500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>19700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-36000</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-35000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>19600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>27500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-71000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>240300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>60400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-26400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-89800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>23600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>16800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>15300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-23500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>175600</v>
+        <v>207800</v>
       </c>
       <c r="E41" s="3">
-        <v>180900</v>
+        <v>178800</v>
       </c>
       <c r="F41" s="3">
-        <v>165000</v>
+        <v>184100</v>
       </c>
       <c r="G41" s="3">
-        <v>169300</v>
+        <v>168000</v>
       </c>
       <c r="H41" s="3">
-        <v>155500</v>
+        <v>172300</v>
       </c>
       <c r="I41" s="3">
-        <v>341700</v>
+        <v>158300</v>
       </c>
       <c r="J41" s="3">
+        <v>347800</v>
+      </c>
+      <c r="K41" s="3">
         <v>306800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>349100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>448100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>448400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>412400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>304900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>214800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>177400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>260900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>265600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>194000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>309000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>182300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>231700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>301800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>336600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>320900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>362700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>407300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3228,257 +3318,266 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>35900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>35500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>26600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>38400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>41700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>77400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>50500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>125700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>151400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>137300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>570300</v>
+        <v>829200</v>
       </c>
       <c r="E43" s="3">
-        <v>869700</v>
+        <v>571800</v>
       </c>
       <c r="F43" s="3">
-        <v>1065400</v>
+        <v>885200</v>
       </c>
       <c r="G43" s="3">
-        <v>980800</v>
+        <v>1084400</v>
       </c>
       <c r="H43" s="3">
-        <v>722600</v>
+        <v>998300</v>
       </c>
       <c r="I43" s="3">
-        <v>729000</v>
+        <v>735500</v>
       </c>
       <c r="J43" s="3">
+        <v>742000</v>
+      </c>
+      <c r="K43" s="3">
         <v>707800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>544100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>414400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>484700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>492000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>615400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>553400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>729600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>771700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>815800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>694400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>659000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>720300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>633500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>470100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>488100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>583400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>550500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>416700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1396600</v>
+        <v>1323500</v>
       </c>
       <c r="E44" s="3">
-        <v>1463200</v>
+        <v>1421500</v>
       </c>
       <c r="F44" s="3">
-        <v>1438900</v>
+        <v>1489400</v>
       </c>
       <c r="G44" s="3">
-        <v>1394400</v>
+        <v>1464600</v>
       </c>
       <c r="H44" s="3">
-        <v>1110900</v>
+        <v>1419400</v>
       </c>
       <c r="I44" s="3">
-        <v>989200</v>
+        <v>1130700</v>
       </c>
       <c r="J44" s="3">
+        <v>1006900</v>
+      </c>
+      <c r="K44" s="3">
         <v>848500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>717600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>594100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>630000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>692700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>783600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>782200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>809000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>873400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>846900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>780700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>772000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>818000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>732400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>721400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>686700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>681000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>721900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>693700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32800</v>
+        <v>31200</v>
       </c>
       <c r="E45" s="3">
-        <v>49700</v>
+        <v>42000</v>
       </c>
       <c r="F45" s="3">
-        <v>69800</v>
+        <v>50600</v>
       </c>
       <c r="G45" s="3">
-        <v>116400</v>
+        <v>71100</v>
       </c>
       <c r="H45" s="3">
-        <v>61400</v>
+        <v>118500</v>
       </c>
       <c r="I45" s="3">
-        <v>93100</v>
+        <v>62500</v>
       </c>
       <c r="J45" s="3">
+        <v>94800</v>
+      </c>
+      <c r="K45" s="3">
         <v>66700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>44400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23300</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
@@ -3509,340 +3608,355 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2175200</v>
+        <v>2391800</v>
       </c>
       <c r="E46" s="3">
-        <v>2563500</v>
+        <v>2214100</v>
       </c>
       <c r="F46" s="3">
-        <v>2739200</v>
+        <v>2609300</v>
       </c>
       <c r="G46" s="3">
-        <v>2660900</v>
+        <v>2788100</v>
       </c>
       <c r="H46" s="3">
-        <v>2050400</v>
+        <v>2708400</v>
       </c>
       <c r="I46" s="3">
-        <v>2153000</v>
+        <v>2087000</v>
       </c>
       <c r="J46" s="3">
+        <v>2191500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1929800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1672100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1496500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1586900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1621100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1744500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1576000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1760500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1929400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1964200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1704600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1766600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1759000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1639300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1570800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1561800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1711000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1786500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1655100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>45500</v>
+        <v>49500</v>
       </c>
       <c r="E47" s="3">
-        <v>56100</v>
+        <v>46300</v>
       </c>
       <c r="F47" s="3">
-        <v>63500</v>
+        <v>57100</v>
       </c>
       <c r="G47" s="3">
-        <v>61400</v>
+        <v>64600</v>
       </c>
       <c r="H47" s="3">
-        <v>58200</v>
+        <v>62500</v>
       </c>
       <c r="I47" s="3">
-        <v>75100</v>
+        <v>59200</v>
       </c>
       <c r="J47" s="3">
+        <v>76500</v>
+      </c>
+      <c r="K47" s="3">
         <v>73000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>67400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>69400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>70600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>81800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>70000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>71200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>61900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>83300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>87300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>164400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>135100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>147100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>160300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>178400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>160400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>70700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>108000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>131500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2134000</v>
+        <v>2154900</v>
       </c>
       <c r="E48" s="3">
-        <v>2176300</v>
+        <v>2172100</v>
       </c>
       <c r="F48" s="3">
-        <v>2109700</v>
+        <v>2215200</v>
       </c>
       <c r="G48" s="3">
-        <v>2055700</v>
+        <v>2147300</v>
       </c>
       <c r="H48" s="3">
-        <v>2061000</v>
+        <v>2092400</v>
       </c>
       <c r="I48" s="3">
-        <v>2007000</v>
+        <v>2097800</v>
       </c>
       <c r="J48" s="3">
+        <v>2042900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2004900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1956900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1945600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2045700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2215600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2346300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2400200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2381500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2426700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2345700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1970700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1738900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1696400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1643700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1702100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1638100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1641500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1747800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1733700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>562900</v>
+        <v>560000</v>
       </c>
       <c r="E49" s="3">
-        <v>612600</v>
+        <v>572900</v>
       </c>
       <c r="F49" s="3">
-        <v>579800</v>
+        <v>623500</v>
       </c>
       <c r="G49" s="3">
-        <v>547000</v>
+        <v>590100</v>
       </c>
       <c r="H49" s="3">
-        <v>538500</v>
+        <v>556800</v>
       </c>
       <c r="I49" s="3">
-        <v>532200</v>
+        <v>548100</v>
       </c>
       <c r="J49" s="3">
+        <v>541700</v>
+      </c>
+      <c r="K49" s="3">
         <v>517400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>507300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>487900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>520000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>571600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>605200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>612900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>628100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>630900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>625600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>582000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>537200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>529200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>504000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>528500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>541900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>561000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>619800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>629200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>591600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>310000</v>
+        <v>267100</v>
       </c>
       <c r="E52" s="3">
-        <v>310000</v>
+        <v>315500</v>
       </c>
       <c r="F52" s="3">
-        <v>146000</v>
+        <v>315500</v>
       </c>
       <c r="G52" s="3">
-        <v>148100</v>
+        <v>148600</v>
       </c>
       <c r="H52" s="3">
-        <v>184100</v>
+        <v>150800</v>
       </c>
       <c r="I52" s="3">
+        <v>187400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>177700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>188300</v>
+      </c>
+      <c r="L52" s="3">
+        <v>195000</v>
+      </c>
+      <c r="M52" s="3">
+        <v>215400</v>
+      </c>
+      <c r="N52" s="3">
+        <v>234600</v>
+      </c>
+      <c r="O52" s="3">
+        <v>252000</v>
+      </c>
+      <c r="P52" s="3">
+        <v>236000</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>224100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>234600</v>
+      </c>
+      <c r="S52" s="3">
+        <v>198400</v>
+      </c>
+      <c r="T52" s="3">
+        <v>183000</v>
+      </c>
+      <c r="U52" s="3">
+        <v>192800</v>
+      </c>
+      <c r="V52" s="3">
+        <v>176100</v>
+      </c>
+      <c r="W52" s="3">
         <v>174600</v>
       </c>
-      <c r="J52" s="3">
-        <v>188300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>195000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>215400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>234600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>252000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>236000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>224100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>234600</v>
-      </c>
-      <c r="R52" s="3">
-        <v>198400</v>
-      </c>
-      <c r="S52" s="3">
-        <v>183000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>192800</v>
-      </c>
-      <c r="U52" s="3">
-        <v>176100</v>
-      </c>
-      <c r="V52" s="3">
-        <v>174600</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>173500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>184000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>228900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>239000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>271200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>295800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5227600</v>
+        <v>5423300</v>
       </c>
       <c r="E54" s="3">
-        <v>5718500</v>
+        <v>5321000</v>
       </c>
       <c r="F54" s="3">
-        <v>5638100</v>
+        <v>5820600</v>
       </c>
       <c r="G54" s="3">
-        <v>5473000</v>
+        <v>5738800</v>
       </c>
       <c r="H54" s="3">
-        <v>4892200</v>
+        <v>5570800</v>
       </c>
       <c r="I54" s="3">
-        <v>4941900</v>
+        <v>4979600</v>
       </c>
       <c r="J54" s="3">
+        <v>5030200</v>
+      </c>
+      <c r="K54" s="3">
         <v>4713400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4398600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4214900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4457800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4742200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5001900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4884400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5066600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5268700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5205900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4614500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4354000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4306400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4120800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4163700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4131200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4223200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4533300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4445200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1552100</v>
+        <v>1662700</v>
       </c>
       <c r="E57" s="3">
-        <v>1788000</v>
+        <v>1243800</v>
       </c>
       <c r="F57" s="3">
-        <v>1521400</v>
+        <v>1820000</v>
       </c>
       <c r="G57" s="3">
-        <v>1822900</v>
+        <v>1548600</v>
       </c>
       <c r="H57" s="3">
-        <v>1456900</v>
+        <v>1855500</v>
       </c>
       <c r="I57" s="3">
-        <v>1409300</v>
+        <v>1482900</v>
       </c>
       <c r="J57" s="3">
+        <v>1434400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1327800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1150400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>923800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1048300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1094200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1316500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1166200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1295800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1372000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1379200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1145000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1115400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1203400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1104600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1043500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1058000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1109600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1136200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>984800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>156600</v>
+        <v>235800</v>
       </c>
       <c r="E58" s="3">
-        <v>162900</v>
+        <v>159400</v>
       </c>
       <c r="F58" s="3">
-        <v>221100</v>
+        <v>165800</v>
       </c>
       <c r="G58" s="3">
-        <v>268700</v>
+        <v>225100</v>
       </c>
       <c r="H58" s="3">
-        <v>273000</v>
+        <v>273500</v>
       </c>
       <c r="I58" s="3">
+        <v>277800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>282100</v>
+      </c>
+      <c r="K58" s="3">
         <v>277200</v>
       </c>
-      <c r="J58" s="3">
-        <v>277200</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>83700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>93900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>88200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>111300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>221300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>234600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>195000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>198400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>252400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>67400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>47600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>142700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>121900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>118900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>113300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>135800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>133800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>125600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>82500</v>
+        <v>86200</v>
       </c>
       <c r="E59" s="3">
-        <v>140700</v>
+        <v>420000</v>
       </c>
       <c r="F59" s="3">
-        <v>521600</v>
+        <v>143200</v>
       </c>
       <c r="G59" s="3">
-        <v>93100</v>
+        <v>530900</v>
       </c>
       <c r="H59" s="3">
-        <v>83600</v>
+        <v>94800</v>
       </c>
       <c r="I59" s="3">
-        <v>76200</v>
+        <v>85100</v>
       </c>
       <c r="J59" s="3">
+        <v>77500</v>
+      </c>
+      <c r="K59" s="3">
         <v>73000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>88800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>90900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>93400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>102500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>144500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>84100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>117900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>91900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>96900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>134900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>85600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>104300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>83000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>86400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>85300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>99800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>104500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1791200</v>
+        <v>1984700</v>
       </c>
       <c r="E60" s="3">
-        <v>2091700</v>
+        <v>1823200</v>
       </c>
       <c r="F60" s="3">
-        <v>2264100</v>
+        <v>2129000</v>
       </c>
       <c r="G60" s="3">
-        <v>2184800</v>
+        <v>2304600</v>
       </c>
       <c r="H60" s="3">
-        <v>1813400</v>
+        <v>2223800</v>
       </c>
       <c r="I60" s="3">
-        <v>1762600</v>
+        <v>1845800</v>
       </c>
       <c r="J60" s="3">
+        <v>1794100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1678000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1323000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1108600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1229900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1308000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1682400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1484900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1608700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1662300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1728500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1347300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1263800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1431800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1330800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1245400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1257800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1330700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1369800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1214900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2018700</v>
+        <v>2024600</v>
       </c>
       <c r="E61" s="3">
-        <v>2131900</v>
+        <v>2054700</v>
       </c>
       <c r="F61" s="3">
-        <v>2062000</v>
+        <v>2170000</v>
       </c>
       <c r="G61" s="3">
-        <v>1993300</v>
+        <v>2098900</v>
       </c>
       <c r="H61" s="3">
-        <v>1979500</v>
+        <v>2028900</v>
       </c>
       <c r="I61" s="3">
-        <v>2137200</v>
+        <v>2014900</v>
       </c>
       <c r="J61" s="3">
+        <v>2175300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2110700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2289700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2346800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2460900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2655300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2487400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2521600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2571800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2714600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2643600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2477000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2281700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2255300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2176200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2267500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2419000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2474000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2722100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2771400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>622100</v>
+        <v>590100</v>
       </c>
       <c r="E62" s="3">
-        <v>656000</v>
+        <v>633200</v>
       </c>
       <c r="F62" s="3">
-        <v>673900</v>
+        <v>667700</v>
       </c>
       <c r="G62" s="3">
-        <v>716300</v>
+        <v>686000</v>
       </c>
       <c r="H62" s="3">
-        <v>791400</v>
+        <v>729100</v>
       </c>
       <c r="I62" s="3">
-        <v>773400</v>
+        <v>805500</v>
       </c>
       <c r="J62" s="3">
+        <v>787200</v>
+      </c>
+      <c r="K62" s="3">
         <v>772300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>779900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>862600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>933100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>968700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>971000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>977100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1060000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1030200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>964100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>925000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>854000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>917900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>962900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1008700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1000800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>998600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1083400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1128000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4454200</v>
+        <v>4622100</v>
       </c>
       <c r="E66" s="3">
-        <v>4903800</v>
+        <v>4533700</v>
       </c>
       <c r="F66" s="3">
-        <v>5022300</v>
+        <v>4991400</v>
       </c>
       <c r="G66" s="3">
-        <v>4914400</v>
+        <v>5112000</v>
       </c>
       <c r="H66" s="3">
-        <v>4602300</v>
+        <v>5002200</v>
       </c>
       <c r="I66" s="3">
-        <v>4692200</v>
+        <v>4684500</v>
       </c>
       <c r="J66" s="3">
+        <v>4776100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4578000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4407800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4332300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4637300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4945100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5153200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4996500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5253300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5419400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5347000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4758800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4409400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4613800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4478700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4530600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4685400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4812200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5185900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5124900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>325900</v>
+        <v>345700</v>
       </c>
       <c r="E72" s="3">
-        <v>367100</v>
+        <v>331700</v>
       </c>
       <c r="F72" s="3">
-        <v>168200</v>
+        <v>373700</v>
       </c>
       <c r="G72" s="3">
-        <v>111100</v>
+        <v>171200</v>
       </c>
       <c r="H72" s="3">
-        <v>-157600</v>
+        <v>113100</v>
       </c>
       <c r="I72" s="3">
-        <v>-197800</v>
+        <v>-160500</v>
       </c>
       <c r="J72" s="3">
+        <v>-201400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-312100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-441000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-549200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-618600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-664400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-628900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-605900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-680600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-668800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-647100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-644700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-523900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-771900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-822400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-841500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-738300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-773100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-845100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-872100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>773400</v>
+        <v>801200</v>
       </c>
       <c r="E76" s="3">
-        <v>814700</v>
+        <v>787200</v>
       </c>
       <c r="F76" s="3">
-        <v>615800</v>
+        <v>829200</v>
       </c>
       <c r="G76" s="3">
-        <v>558600</v>
+        <v>626800</v>
       </c>
       <c r="H76" s="3">
-        <v>289900</v>
+        <v>568600</v>
       </c>
       <c r="I76" s="3">
-        <v>249700</v>
+        <v>295100</v>
       </c>
       <c r="J76" s="3">
+        <v>254100</v>
+      </c>
+      <c r="K76" s="3">
         <v>135400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-117400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-179600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-202900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-151300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-112100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-186800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-150700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-141200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-144300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-55400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-307400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-357900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-366900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-554300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-589000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-652600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-679600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>29600</v>
+        <v>21500</v>
       </c>
       <c r="E81" s="3">
-        <v>137500</v>
+        <v>30200</v>
       </c>
       <c r="F81" s="3">
+        <v>140000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>190600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>104500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>113200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>47000</v>
+      </c>
+      <c r="M81" s="3">
+        <v>24500</v>
+      </c>
+      <c r="N81" s="3">
+        <v>19700</v>
+      </c>
+      <c r="O81" s="3">
         <v>-36000</v>
       </c>
-      <c r="G81" s="3">
-        <v>187300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>7400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>102600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>113200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>47000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>24500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>19700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-36000</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-35000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>19600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>27500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-71000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>240300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>60400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-26400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-89800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>23600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>16800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>15300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-23500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>82500</v>
+        <v>77500</v>
       </c>
       <c r="E83" s="3">
-        <v>77200</v>
+        <v>84000</v>
       </c>
       <c r="F83" s="3">
-        <v>74100</v>
+        <v>78600</v>
       </c>
       <c r="G83" s="3">
-        <v>69800</v>
+        <v>75400</v>
       </c>
       <c r="H83" s="3">
-        <v>76200</v>
+        <v>71100</v>
       </c>
       <c r="I83" s="3">
-        <v>70900</v>
+        <v>77500</v>
       </c>
       <c r="J83" s="3">
+        <v>72200</v>
+      </c>
+      <c r="K83" s="3">
         <v>68800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>64300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>75800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>77500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>74500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>85200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>77000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>73500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>68200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>67400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>55400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>50500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>48300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>51600</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>46000</v>
       </c>
       <c r="Z83" s="3">
         <v>46000</v>
       </c>
       <c r="AA83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="AB83" s="3">
         <v>50500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>54000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>135400</v>
+        <v>36600</v>
       </c>
       <c r="E89" s="3">
-        <v>162900</v>
+        <v>136800</v>
       </c>
       <c r="F89" s="3">
-        <v>117400</v>
+        <v>165800</v>
       </c>
       <c r="G89" s="3">
-        <v>61400</v>
+        <v>119500</v>
       </c>
       <c r="H89" s="3">
-        <v>124800</v>
+        <v>62500</v>
       </c>
       <c r="I89" s="3">
-        <v>96300</v>
+        <v>127100</v>
       </c>
       <c r="J89" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K89" s="3">
         <v>77200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>76600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>72500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>115200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>162600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>124900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>93400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>156800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>157900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>30800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>50900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>19800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-26400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>85300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>50500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>42300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-119700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-115300</v>
+        <v>-69000</v>
       </c>
       <c r="E91" s="3">
-        <v>-84600</v>
+        <v>-109000</v>
       </c>
       <c r="F91" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-54000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-34900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-110000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-57100</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-49000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-44700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-64400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-106200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-58400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-87000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-70600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-138400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-69800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-54900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-51600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-113300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-61700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-67300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-70400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-146700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-113200</v>
+        <v>-73200</v>
       </c>
       <c r="E94" s="3">
-        <v>-84600</v>
+        <v>-115200</v>
       </c>
       <c r="F94" s="3">
-        <v>-54000</v>
+        <v>-86200</v>
       </c>
       <c r="G94" s="3">
-        <v>-33900</v>
+        <v>-54900</v>
       </c>
       <c r="H94" s="3">
-        <v>-109000</v>
+        <v>-34500</v>
       </c>
       <c r="I94" s="3">
-        <v>-54000</v>
+        <v>-110900</v>
       </c>
       <c r="J94" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-40200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-37400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-102700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-57200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-90600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-169900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-145500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>150600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-65900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-48300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-130200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-46000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-74100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-81000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-154900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,147 +7761,153 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-23300</v>
+        <v>65700</v>
       </c>
       <c r="E100" s="3">
-        <v>-65600</v>
+        <v>-23700</v>
       </c>
       <c r="F100" s="3">
-        <v>-68800</v>
+        <v>-66800</v>
       </c>
       <c r="G100" s="3">
-        <v>-14800</v>
+        <v>-70000</v>
       </c>
       <c r="H100" s="3">
-        <v>-205300</v>
+        <v>-15100</v>
       </c>
       <c r="I100" s="3">
-        <v>-9500</v>
+        <v>-208900</v>
       </c>
       <c r="J100" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-92000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-148000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-21400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>153800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-109700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-75900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>78900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-23700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-76400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>11000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>93100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-44600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4200</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F101" s="3">
         <v>3200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1100</v>
       </c>
       <c r="G101" s="3">
         <v>1100</v>
       </c>
       <c r="H101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I101" s="3">
         <v>3200</v>
       </c>
-      <c r="I101" s="3">
-        <v>2100</v>
-      </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-3100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S101" s="3">
-        <v>2400</v>
       </c>
       <c r="T101" s="3">
         <v>2400</v>
       </c>
       <c r="U101" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -7667,104 +7916,110 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="3">
         <v>-1100</v>
       </c>
       <c r="Z101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>1200</v>
       </c>
       <c r="AC101" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5300</v>
+        <v>28000</v>
       </c>
       <c r="E102" s="3">
-        <v>15900</v>
+        <v>-5400</v>
       </c>
       <c r="F102" s="3">
-        <v>-4200</v>
+        <v>16200</v>
       </c>
       <c r="G102" s="3">
-        <v>13800</v>
+        <v>-4300</v>
       </c>
       <c r="H102" s="3">
-        <v>-186200</v>
+        <v>14000</v>
       </c>
       <c r="I102" s="3">
-        <v>34900</v>
+        <v>-189500</v>
       </c>
       <c r="J102" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-55000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-99000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>56000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>117800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>97100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>37400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-71200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>69400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-136000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>125200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-49400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-63700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-34800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>15700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-25800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-44600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-318100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2106400</v>
+        <v>2114000</v>
       </c>
       <c r="E8" s="3">
-        <v>1985800</v>
+        <v>2120500</v>
       </c>
       <c r="F8" s="3">
-        <v>2177500</v>
+        <v>1999100</v>
       </c>
       <c r="G8" s="3">
-        <v>2449900</v>
+        <v>2192100</v>
       </c>
       <c r="H8" s="3">
-        <v>2131200</v>
+        <v>2466300</v>
       </c>
       <c r="I8" s="3">
-        <v>1837200</v>
+        <v>2145400</v>
       </c>
       <c r="J8" s="3">
+        <v>1849500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1709000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1606000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1368900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1268900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1216400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1124700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1622500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1601700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1705600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1884000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1837400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1653700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1581700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1618500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1521800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1400200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1435000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1550600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1558800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1362800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1933000</v>
+        <v>1883100</v>
       </c>
       <c r="E9" s="3">
-        <v>1870600</v>
+        <v>1946000</v>
       </c>
       <c r="F9" s="3">
-        <v>2034300</v>
+        <v>1883100</v>
       </c>
       <c r="G9" s="3">
-        <v>2218400</v>
+        <v>2047900</v>
       </c>
       <c r="H9" s="3">
-        <v>1897500</v>
+        <v>2233200</v>
       </c>
       <c r="I9" s="3">
-        <v>1670300</v>
+        <v>1910200</v>
       </c>
       <c r="J9" s="3">
+        <v>1681400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1528100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1395500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1223900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1117800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1091900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1049500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1449800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1448800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1536300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1661100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1665100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1510600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1452100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1427400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1371400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1276800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1279100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1382300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1394500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1219600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>173400</v>
+        <v>230900</v>
       </c>
       <c r="E10" s="3">
-        <v>115200</v>
+        <v>174500</v>
       </c>
       <c r="F10" s="3">
+        <v>116000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>144200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>233100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>235200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>168000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>180900</v>
+      </c>
+      <c r="L10" s="3">
+        <v>210500</v>
+      </c>
+      <c r="M10" s="3">
+        <v>145000</v>
+      </c>
+      <c r="N10" s="3">
+        <v>151100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>124500</v>
+      </c>
+      <c r="P10" s="3">
+        <v>75300</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>172800</v>
+      </c>
+      <c r="R10" s="3">
+        <v>152900</v>
+      </c>
+      <c r="S10" s="3">
+        <v>169300</v>
+      </c>
+      <c r="T10" s="3">
+        <v>222900</v>
+      </c>
+      <c r="U10" s="3">
+        <v>172300</v>
+      </c>
+      <c r="V10" s="3">
+        <v>143100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>129600</v>
+      </c>
+      <c r="X10" s="3">
+        <v>191100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>150400</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>123400</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>156000</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>168300</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>164300</v>
+      </c>
+      <c r="AD10" s="3">
         <v>143200</v>
       </c>
-      <c r="G10" s="3">
-        <v>231500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>233700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>166900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>180900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>210500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>145000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>151100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>124500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>75300</v>
-      </c>
-      <c r="P10" s="3">
-        <v>172800</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>152900</v>
-      </c>
-      <c r="R10" s="3">
-        <v>169300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>222900</v>
-      </c>
-      <c r="T10" s="3">
-        <v>172300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>143100</v>
-      </c>
-      <c r="V10" s="3">
-        <v>129600</v>
-      </c>
-      <c r="W10" s="3">
-        <v>191100</v>
-      </c>
-      <c r="X10" s="3">
-        <v>150400</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>123400</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>156000</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>168300</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AE10" s="3">
         <v>164300</v>
       </c>
-      <c r="AC10" s="3">
-        <v>143200</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>164300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="E12" s="3">
-        <v>17200</v>
+        <v>14100</v>
       </c>
       <c r="F12" s="3">
-        <v>11800</v>
+        <v>17300</v>
       </c>
       <c r="G12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H12" s="3">
         <v>10800</v>
       </c>
-      <c r="H12" s="3">
-        <v>11800</v>
-      </c>
       <c r="I12" s="3">
-        <v>9700</v>
+        <v>11900</v>
       </c>
       <c r="J12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K12" s="3">
         <v>10800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14700</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>14000</v>
       </c>
       <c r="R12" s="3">
         <v>14000</v>
       </c>
       <c r="S12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="T12" s="3">
         <v>14700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>14400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>12100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>10100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>9000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>12900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>11700</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,11 +1285,11 @@
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>24</v>
@@ -1277,62 +1297,65 @@
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12000</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2300</v>
-      </c>
-      <c r="R14" s="3">
-        <v>1200</v>
       </c>
       <c r="S14" s="3">
         <v>1200</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>1100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
         <v>1100</v>
       </c>
       <c r="AA14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>2300</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2039600</v>
+        <v>2028400</v>
       </c>
       <c r="E17" s="3">
-        <v>1921200</v>
+        <v>2053300</v>
       </c>
       <c r="F17" s="3">
-        <v>2145200</v>
+        <v>1934000</v>
       </c>
       <c r="G17" s="3">
-        <v>2454300</v>
+        <v>2159500</v>
       </c>
       <c r="H17" s="3">
-        <v>1864100</v>
+        <v>2470700</v>
       </c>
       <c r="I17" s="3">
-        <v>1783300</v>
+        <v>1876600</v>
       </c>
       <c r="J17" s="3">
+        <v>1795300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1544300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1429400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1252500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1211700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1150000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1125800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1615700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1537500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1646000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1799500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1741700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1654900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1285900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1476800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1498800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1323900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1345300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1468700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1441400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1328800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>66800</v>
+        <v>85600</v>
       </c>
       <c r="E18" s="3">
-        <v>64600</v>
+        <v>67200</v>
       </c>
       <c r="F18" s="3">
-        <v>32300</v>
+        <v>65000</v>
       </c>
       <c r="G18" s="3">
+        <v>32500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
-        <v>267100</v>
-      </c>
       <c r="I18" s="3">
-        <v>53800</v>
+        <v>268900</v>
       </c>
       <c r="J18" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K18" s="3">
         <v>164800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>176700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>116400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>57200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>66400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>64200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>59500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>84500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>95700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>295700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>141600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>23100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>76300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>89800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>81900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>117400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>34000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,185 +1683,192 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-37700</v>
+        <v>-3300</v>
       </c>
       <c r="E20" s="3">
-        <v>-35500</v>
+        <v>-37900</v>
       </c>
       <c r="F20" s="3">
-        <v>-38800</v>
+        <v>-35800</v>
       </c>
       <c r="G20" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-32300</v>
-      </c>
       <c r="I20" s="3">
-        <v>-44200</v>
+        <v>-32500</v>
       </c>
       <c r="J20" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-36600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-39100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-56100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-35700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-38400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-45800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-50800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-50200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-53700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-52700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-49000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-65100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-54300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-53800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-45000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-139100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-47100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-51600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-70400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-50500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>106600</v>
+        <v>160400</v>
       </c>
       <c r="E21" s="3">
-        <v>113100</v>
+        <v>107300</v>
       </c>
       <c r="F21" s="3">
-        <v>72200</v>
+        <v>113800</v>
       </c>
       <c r="G21" s="3">
-        <v>70000</v>
+        <v>72600</v>
       </c>
       <c r="H21" s="3">
-        <v>305800</v>
+        <v>70500</v>
       </c>
       <c r="I21" s="3">
-        <v>87200</v>
+        <v>307900</v>
       </c>
       <c r="J21" s="3">
+        <v>87800</v>
+      </c>
+      <c r="K21" s="3">
         <v>200300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>206300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>124500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>71500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>103800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>30500</v>
       </c>
       <c r="P21" s="3">
         <v>30500</v>
       </c>
       <c r="Q21" s="3">
+        <v>30500</v>
+      </c>
+      <c r="R21" s="3">
         <v>99200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>82900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>105300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>114800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>296800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>138300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>26400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>88600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>76300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>97400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>37600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
+      <c r="D22" s="3">
+        <v>34700</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>24</v>
@@ -1836,11 +1876,11 @@
       <c r="F22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="3">
-        <v>33400</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="H22" s="3">
+        <v>33600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>24</v>
@@ -1857,8 +1897,8 @@
       <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>29100</v>
+        <v>47700</v>
       </c>
       <c r="E23" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="F23" s="3">
+        <v>29300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-38800</v>
-      </c>
       <c r="H23" s="3">
-        <v>234800</v>
+        <v>-39000</v>
       </c>
       <c r="I23" s="3">
-        <v>9700</v>
+        <v>236300</v>
       </c>
       <c r="J23" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K23" s="3">
         <v>128200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>137500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>60200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-46900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>31800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>46700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-66200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>241500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>87800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-62800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>42600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>30300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>47000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-16400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5400</v>
       </c>
-      <c r="E24" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F24" s="3">
-        <v>-147500</v>
+        <v>-3300</v>
       </c>
       <c r="G24" s="3">
+        <v>-148500</v>
+      </c>
+      <c r="H24" s="3">
         <v>-4300</v>
       </c>
-      <c r="H24" s="3">
-        <v>42000</v>
-      </c>
       <c r="I24" s="3">
+        <v>42300</v>
+      </c>
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-11700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>17900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>44900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>19100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>31700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>7000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>23700</v>
+        <v>34700</v>
       </c>
       <c r="E26" s="3">
-        <v>32300</v>
+        <v>23900</v>
       </c>
       <c r="F26" s="3">
-        <v>141100</v>
+        <v>32500</v>
       </c>
       <c r="G26" s="3">
-        <v>-34500</v>
+        <v>142000</v>
       </c>
       <c r="H26" s="3">
-        <v>192800</v>
+        <v>-34700</v>
       </c>
       <c r="I26" s="3">
-        <v>7500</v>
+        <v>194100</v>
       </c>
       <c r="J26" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K26" s="3">
         <v>106600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>114300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>49000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-34900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>28700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-68600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>240300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>60400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-107700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>23600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>16800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>15300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-23500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>21500</v>
+        <v>33600</v>
       </c>
       <c r="E27" s="3">
-        <v>30200</v>
+        <v>21700</v>
       </c>
       <c r="F27" s="3">
-        <v>140000</v>
+        <v>30400</v>
       </c>
       <c r="G27" s="3">
-        <v>-36600</v>
+        <v>140900</v>
       </c>
       <c r="H27" s="3">
-        <v>190600</v>
+        <v>-36900</v>
       </c>
       <c r="I27" s="3">
-        <v>7500</v>
+        <v>191900</v>
       </c>
       <c r="J27" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K27" s="3">
         <v>104500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>113200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>47000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-36000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>19600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>27500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-71000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>240300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>60400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-107700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>23600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>16800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>15300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-23500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2474,8 +2535,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2492,11 +2553,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="3">
         <v>18000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>37700</v>
+        <v>3300</v>
       </c>
       <c r="E32" s="3">
-        <v>35500</v>
+        <v>37900</v>
       </c>
       <c r="F32" s="3">
-        <v>38800</v>
+        <v>35800</v>
       </c>
       <c r="G32" s="3">
+        <v>39000</v>
+      </c>
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
-        <v>32300</v>
-      </c>
       <c r="I32" s="3">
-        <v>44200</v>
+        <v>32500</v>
       </c>
       <c r="J32" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K32" s="3">
         <v>36600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>39100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>56100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>35700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>38400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>45800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>50800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>50200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>53700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>52700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>49000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>65100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>54300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>53800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>45000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>139100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>47100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>51600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>70400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>50500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>21500</v>
+        <v>33600</v>
       </c>
       <c r="E33" s="3">
-        <v>30200</v>
+        <v>21700</v>
       </c>
       <c r="F33" s="3">
-        <v>140000</v>
+        <v>30400</v>
       </c>
       <c r="G33" s="3">
-        <v>-36600</v>
+        <v>140900</v>
       </c>
       <c r="H33" s="3">
-        <v>190600</v>
+        <v>-36900</v>
       </c>
       <c r="I33" s="3">
-        <v>7500</v>
+        <v>191900</v>
       </c>
       <c r="J33" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K33" s="3">
         <v>104500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>113200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>47000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-36000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>19600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>27500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-71000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>240300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>60400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-89800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>23600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>16800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>15300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-23500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>21500</v>
+        <v>33600</v>
       </c>
       <c r="E35" s="3">
-        <v>30200</v>
+        <v>21700</v>
       </c>
       <c r="F35" s="3">
-        <v>140000</v>
+        <v>30400</v>
       </c>
       <c r="G35" s="3">
-        <v>-36600</v>
+        <v>140900</v>
       </c>
       <c r="H35" s="3">
-        <v>190600</v>
+        <v>-36900</v>
       </c>
       <c r="I35" s="3">
-        <v>7500</v>
+        <v>191900</v>
       </c>
       <c r="J35" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K35" s="3">
         <v>104500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>113200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>47000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-36000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>19600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>27500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-71000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>240300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>60400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-89800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>23600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>16800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>15300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-23500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>207800</v>
+        <v>193000</v>
       </c>
       <c r="E41" s="3">
-        <v>178800</v>
+        <v>209200</v>
       </c>
       <c r="F41" s="3">
-        <v>184100</v>
+        <v>180000</v>
       </c>
       <c r="G41" s="3">
-        <v>168000</v>
+        <v>185400</v>
       </c>
       <c r="H41" s="3">
-        <v>172300</v>
+        <v>169100</v>
       </c>
       <c r="I41" s="3">
-        <v>158300</v>
+        <v>173500</v>
       </c>
       <c r="J41" s="3">
+        <v>159400</v>
+      </c>
+      <c r="K41" s="3">
         <v>347800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>306800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>349100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>448100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>448400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>412400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>304900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>214800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>177400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>260900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>265600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>194000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>309000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>182300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>231700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>301800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>336600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>320900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>362700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>407300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3321,266 +3411,275 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>35900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>35500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>26600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>38400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>41700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>77400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>50500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>125700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>151400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>137300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>829200</v>
+        <v>809800</v>
       </c>
       <c r="E43" s="3">
-        <v>571800</v>
+        <v>834800</v>
       </c>
       <c r="F43" s="3">
-        <v>885200</v>
+        <v>575700</v>
       </c>
       <c r="G43" s="3">
-        <v>1084400</v>
+        <v>891100</v>
       </c>
       <c r="H43" s="3">
-        <v>998300</v>
+        <v>1091700</v>
       </c>
       <c r="I43" s="3">
-        <v>735500</v>
+        <v>1005000</v>
       </c>
       <c r="J43" s="3">
+        <v>740400</v>
+      </c>
+      <c r="K43" s="3">
         <v>742000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>707800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>544100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>414400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>484700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>492000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>615400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>553400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>729600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>771700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>815800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>694400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>659000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>720300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>633500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>470100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>488100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>583400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>550500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>416700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1323500</v>
+        <v>1245600</v>
       </c>
       <c r="E44" s="3">
-        <v>1421500</v>
+        <v>1332400</v>
       </c>
       <c r="F44" s="3">
-        <v>1489400</v>
+        <v>1431000</v>
       </c>
       <c r="G44" s="3">
-        <v>1464600</v>
+        <v>1499300</v>
       </c>
       <c r="H44" s="3">
-        <v>1419400</v>
+        <v>1474400</v>
       </c>
       <c r="I44" s="3">
-        <v>1130700</v>
+        <v>1428800</v>
       </c>
       <c r="J44" s="3">
+        <v>1138300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1006900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>848500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>717600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>594100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>630000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>692700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>783600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>782200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>809000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>873400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>846900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>780700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>772000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>818000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>732400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>721400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>686700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>681000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>721900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>693700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31200</v>
+        <v>43400</v>
       </c>
       <c r="E45" s="3">
-        <v>42000</v>
+        <v>31400</v>
       </c>
       <c r="F45" s="3">
-        <v>50600</v>
+        <v>42300</v>
       </c>
       <c r="G45" s="3">
-        <v>71100</v>
+        <v>51000</v>
       </c>
       <c r="H45" s="3">
-        <v>118500</v>
+        <v>71600</v>
       </c>
       <c r="I45" s="3">
-        <v>62500</v>
+        <v>119300</v>
       </c>
       <c r="J45" s="3">
+        <v>62900</v>
+      </c>
+      <c r="K45" s="3">
         <v>94800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>66700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>44400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>23300</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
@@ -3611,352 +3710,367 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2391800</v>
+        <v>2291800</v>
       </c>
       <c r="E46" s="3">
-        <v>2214100</v>
+        <v>2407800</v>
       </c>
       <c r="F46" s="3">
-        <v>2609300</v>
+        <v>2228900</v>
       </c>
       <c r="G46" s="3">
-        <v>2788100</v>
+        <v>2626800</v>
       </c>
       <c r="H46" s="3">
-        <v>2708400</v>
+        <v>2806700</v>
       </c>
       <c r="I46" s="3">
-        <v>2087000</v>
+        <v>2726500</v>
       </c>
       <c r="J46" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2191500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1929800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1672100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1496500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1586900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1621100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1744500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1576000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1760500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1929400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1964200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1704600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1766600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1759000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1639300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1570800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1561800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1711000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1786500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1655100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>49500</v>
+        <v>37900</v>
       </c>
       <c r="E47" s="3">
-        <v>46300</v>
+        <v>49900</v>
       </c>
       <c r="F47" s="3">
-        <v>57100</v>
+        <v>46600</v>
       </c>
       <c r="G47" s="3">
-        <v>64600</v>
+        <v>57500</v>
       </c>
       <c r="H47" s="3">
-        <v>62500</v>
+        <v>65000</v>
       </c>
       <c r="I47" s="3">
-        <v>59200</v>
+        <v>62900</v>
       </c>
       <c r="J47" s="3">
+        <v>59600</v>
+      </c>
+      <c r="K47" s="3">
         <v>76500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>73000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>67400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>69400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>70600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>81800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>70000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>71200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>61900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>83300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>87300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>164400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>135100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>147100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>160300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>178400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>160400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>70700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>108000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>131500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2154900</v>
+        <v>2160600</v>
       </c>
       <c r="E48" s="3">
-        <v>2172100</v>
+        <v>2169300</v>
       </c>
       <c r="F48" s="3">
-        <v>2215200</v>
+        <v>2186600</v>
       </c>
       <c r="G48" s="3">
-        <v>2147300</v>
+        <v>2230000</v>
       </c>
       <c r="H48" s="3">
-        <v>2092400</v>
+        <v>2161700</v>
       </c>
       <c r="I48" s="3">
-        <v>2097800</v>
+        <v>2106400</v>
       </c>
       <c r="J48" s="3">
+        <v>2111800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2042900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2004900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1956900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1945600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2045700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2215600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2346300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2400200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2381500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2426700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2345700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1970700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1738900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1696400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1643700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1702100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1638100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1641500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1747800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1733700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>560000</v>
+        <v>563700</v>
       </c>
       <c r="E49" s="3">
-        <v>572900</v>
+        <v>563700</v>
       </c>
       <c r="F49" s="3">
-        <v>623500</v>
+        <v>576700</v>
       </c>
       <c r="G49" s="3">
-        <v>590100</v>
+        <v>627700</v>
       </c>
       <c r="H49" s="3">
-        <v>556800</v>
+        <v>594100</v>
       </c>
       <c r="I49" s="3">
-        <v>548100</v>
+        <v>560500</v>
       </c>
       <c r="J49" s="3">
+        <v>551800</v>
+      </c>
+      <c r="K49" s="3">
         <v>541700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>517400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>507300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>487900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>520000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>571600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>605200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>612900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>628100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>630900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>625600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>582000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>537200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>529200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>504000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>528500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>541900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>561000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>619800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>629200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>591600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>267100</v>
+        <v>311100</v>
       </c>
       <c r="E52" s="3">
-        <v>315500</v>
+        <v>268900</v>
       </c>
       <c r="F52" s="3">
-        <v>315500</v>
+        <v>317600</v>
       </c>
       <c r="G52" s="3">
-        <v>148600</v>
+        <v>317600</v>
       </c>
       <c r="H52" s="3">
-        <v>150800</v>
+        <v>149600</v>
       </c>
       <c r="I52" s="3">
-        <v>187400</v>
+        <v>151800</v>
       </c>
       <c r="J52" s="3">
+        <v>188600</v>
+      </c>
+      <c r="K52" s="3">
         <v>177700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>188300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>195000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>215400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>234600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>252000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>236000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>224100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>234600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>198400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>183000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>192800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>176100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>174600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>173500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>184000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>228900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>239000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>271200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>295800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5423300</v>
+        <v>5365200</v>
       </c>
       <c r="E54" s="3">
-        <v>5321000</v>
+        <v>5459500</v>
       </c>
       <c r="F54" s="3">
-        <v>5820600</v>
+        <v>5356500</v>
       </c>
       <c r="G54" s="3">
-        <v>5738800</v>
+        <v>5859600</v>
       </c>
       <c r="H54" s="3">
-        <v>5570800</v>
+        <v>5777200</v>
       </c>
       <c r="I54" s="3">
-        <v>4979600</v>
+        <v>5608000</v>
       </c>
       <c r="J54" s="3">
+        <v>5012900</v>
+      </c>
+      <c r="K54" s="3">
         <v>5030200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4713400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4398600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4214900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4457800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4742200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5001900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4884400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5066600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5268700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5205900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4614500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4354000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4306400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4120800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4163700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4131200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4223200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4533300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4445200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1662700</v>
+        <v>1228300</v>
       </c>
       <c r="E57" s="3">
-        <v>1243800</v>
+        <v>1673900</v>
       </c>
       <c r="F57" s="3">
-        <v>1820000</v>
+        <v>1252100</v>
       </c>
       <c r="G57" s="3">
-        <v>1548600</v>
+        <v>1832100</v>
       </c>
       <c r="H57" s="3">
-        <v>1855500</v>
+        <v>1558900</v>
       </c>
       <c r="I57" s="3">
-        <v>1482900</v>
+        <v>1867900</v>
       </c>
       <c r="J57" s="3">
+        <v>1492800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1434400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1327800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1150400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>923800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1048300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1094200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1316500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1166200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1295800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1372000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1379200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1145000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1115400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1203400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1104600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1043500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1058000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1109600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1136200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>984800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>235800</v>
+        <v>213600</v>
       </c>
       <c r="E58" s="3">
-        <v>159400</v>
+        <v>237400</v>
       </c>
       <c r="F58" s="3">
-        <v>165800</v>
+        <v>160400</v>
       </c>
       <c r="G58" s="3">
-        <v>225100</v>
+        <v>167000</v>
       </c>
       <c r="H58" s="3">
-        <v>273500</v>
+        <v>226600</v>
       </c>
       <c r="I58" s="3">
-        <v>277800</v>
+        <v>275400</v>
       </c>
       <c r="J58" s="3">
+        <v>279700</v>
+      </c>
+      <c r="K58" s="3">
         <v>282100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>277200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>83700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>93900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>88200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>111300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>221300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>234600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>195000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>198400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>252400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>67400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>47600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>142700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>121900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>118900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>113300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>135800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>133800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>125600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86200</v>
+        <v>455300</v>
       </c>
       <c r="E59" s="3">
-        <v>420000</v>
+        <v>86700</v>
       </c>
       <c r="F59" s="3">
-        <v>143200</v>
+        <v>422800</v>
       </c>
       <c r="G59" s="3">
-        <v>530900</v>
+        <v>144200</v>
       </c>
       <c r="H59" s="3">
-        <v>94800</v>
+        <v>534500</v>
       </c>
       <c r="I59" s="3">
-        <v>85100</v>
+        <v>95400</v>
       </c>
       <c r="J59" s="3">
+        <v>85600</v>
+      </c>
+      <c r="K59" s="3">
         <v>77500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>73000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>88800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>90900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>93400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>102500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>144500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>84100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>117900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>91900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>96900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>134900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>85600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>104300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>83000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>86400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>85300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>99800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>104500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1984700</v>
+        <v>1897200</v>
       </c>
       <c r="E60" s="3">
-        <v>1823200</v>
+        <v>1998000</v>
       </c>
       <c r="F60" s="3">
-        <v>2129000</v>
+        <v>1835400</v>
       </c>
       <c r="G60" s="3">
-        <v>2304600</v>
+        <v>2143300</v>
       </c>
       <c r="H60" s="3">
-        <v>2223800</v>
+        <v>2320000</v>
       </c>
       <c r="I60" s="3">
-        <v>1845800</v>
+        <v>2238700</v>
       </c>
       <c r="J60" s="3">
+        <v>1858100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1794100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1678000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1323000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1108600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1229900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1308000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1682400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1484900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1608700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1662300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1728500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1347300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1263800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1431800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1330800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1245400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1257800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1330700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1369800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1214900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2024600</v>
+        <v>1985000</v>
       </c>
       <c r="E61" s="3">
-        <v>2054700</v>
+        <v>2038100</v>
       </c>
       <c r="F61" s="3">
-        <v>2170000</v>
+        <v>2068500</v>
       </c>
       <c r="G61" s="3">
-        <v>2098900</v>
+        <v>2184500</v>
       </c>
       <c r="H61" s="3">
-        <v>2028900</v>
+        <v>2112900</v>
       </c>
       <c r="I61" s="3">
-        <v>2014900</v>
+        <v>2042400</v>
       </c>
       <c r="J61" s="3">
+        <v>2028400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2175300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2110700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2289700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2346800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2460900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2655300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2487400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2521600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2571800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2714600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2643600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2477000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2281700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2255300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2176200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2267500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2419000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2474000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2722100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2771400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>590100</v>
+        <v>609300</v>
       </c>
       <c r="E62" s="3">
-        <v>633200</v>
+        <v>594100</v>
       </c>
       <c r="F62" s="3">
-        <v>667700</v>
+        <v>637500</v>
       </c>
       <c r="G62" s="3">
-        <v>686000</v>
+        <v>672100</v>
       </c>
       <c r="H62" s="3">
-        <v>729100</v>
+        <v>690600</v>
       </c>
       <c r="I62" s="3">
-        <v>805500</v>
+        <v>733900</v>
       </c>
       <c r="J62" s="3">
+        <v>810900</v>
+      </c>
+      <c r="K62" s="3">
         <v>787200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>772300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>779900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>862600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>933100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>968700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>971000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>977100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1060000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1030200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>964100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>925000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>854000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>917900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>962900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1008700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1000800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>998600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1083400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1128000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4622100</v>
+        <v>4514200</v>
       </c>
       <c r="E66" s="3">
-        <v>4533700</v>
+        <v>4653000</v>
       </c>
       <c r="F66" s="3">
-        <v>4991400</v>
+        <v>4564100</v>
       </c>
       <c r="G66" s="3">
-        <v>5112000</v>
+        <v>5024800</v>
       </c>
       <c r="H66" s="3">
-        <v>5002200</v>
+        <v>5146200</v>
       </c>
       <c r="I66" s="3">
-        <v>4684500</v>
+        <v>5035600</v>
       </c>
       <c r="J66" s="3">
+        <v>4715800</v>
+      </c>
+      <c r="K66" s="3">
         <v>4776100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4578000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4407800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4332300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4637300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4945100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5153200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4996500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5253300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5419400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5347000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4758800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4409400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4613800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4478700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4530600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4685400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4812200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5185900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5124900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>345700</v>
+        <v>392400</v>
       </c>
       <c r="E72" s="3">
-        <v>331700</v>
+        <v>348000</v>
       </c>
       <c r="F72" s="3">
-        <v>373700</v>
+        <v>333900</v>
       </c>
       <c r="G72" s="3">
-        <v>171200</v>
+        <v>376200</v>
       </c>
       <c r="H72" s="3">
-        <v>113100</v>
+        <v>172400</v>
       </c>
       <c r="I72" s="3">
-        <v>-160500</v>
+        <v>113800</v>
       </c>
       <c r="J72" s="3">
+        <v>-161500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-201400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-312100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-441000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-549200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-618600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-664400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-628900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-605900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-680600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-668800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-647100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-644700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-523900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-771900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-822400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-841500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-738300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-773100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-845100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-872100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>801200</v>
+        <v>851000</v>
       </c>
       <c r="E76" s="3">
-        <v>787200</v>
+        <v>806600</v>
       </c>
       <c r="F76" s="3">
-        <v>829200</v>
+        <v>792500</v>
       </c>
       <c r="G76" s="3">
-        <v>626800</v>
+        <v>834800</v>
       </c>
       <c r="H76" s="3">
-        <v>568600</v>
+        <v>630900</v>
       </c>
       <c r="I76" s="3">
-        <v>295100</v>
+        <v>572400</v>
       </c>
       <c r="J76" s="3">
+        <v>297000</v>
+      </c>
+      <c r="K76" s="3">
         <v>254100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>135400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-117400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-179600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-202900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-151300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-112100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-186800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-150700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-141200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-144300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-55400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-307400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-357900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-366900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-554300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-589000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-652600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-679600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>21500</v>
+        <v>33600</v>
       </c>
       <c r="E81" s="3">
-        <v>30200</v>
+        <v>21700</v>
       </c>
       <c r="F81" s="3">
-        <v>140000</v>
+        <v>30400</v>
       </c>
       <c r="G81" s="3">
-        <v>-36600</v>
+        <v>140900</v>
       </c>
       <c r="H81" s="3">
-        <v>190600</v>
+        <v>-36900</v>
       </c>
       <c r="I81" s="3">
-        <v>7500</v>
+        <v>191900</v>
       </c>
       <c r="J81" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K81" s="3">
         <v>104500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>113200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>47000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-36000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>19600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>27500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-71000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>240300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>60400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-89800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>23600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>16800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>15300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-23500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>78100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>84600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>79100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>75900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>71600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>72200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>68800</v>
+      </c>
+      <c r="M83" s="3">
+        <v>64300</v>
+      </c>
+      <c r="N83" s="3">
+        <v>50000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>75800</v>
+      </c>
+      <c r="P83" s="3">
         <v>77500</v>
       </c>
-      <c r="E83" s="3">
-        <v>84000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>78600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>75400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>71100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>77500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>72200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>68800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>64300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>50000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>75800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>77500</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>74500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>85200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>77000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>73500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>68200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>67400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>55400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>50500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>48300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>51600</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>46000</v>
       </c>
       <c r="AA83" s="3">
         <v>46000</v>
       </c>
       <c r="AB83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="AC83" s="3">
         <v>50500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>54000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36600</v>
+        <v>143100</v>
       </c>
       <c r="E89" s="3">
-        <v>136800</v>
+        <v>36900</v>
       </c>
       <c r="F89" s="3">
-        <v>165800</v>
+        <v>137700</v>
       </c>
       <c r="G89" s="3">
-        <v>119500</v>
+        <v>167000</v>
       </c>
       <c r="H89" s="3">
-        <v>62500</v>
+        <v>120300</v>
       </c>
       <c r="I89" s="3">
-        <v>127100</v>
+        <v>62900</v>
       </c>
       <c r="J89" s="3">
+        <v>127900</v>
+      </c>
+      <c r="K89" s="3">
         <v>98000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>77200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>76600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>72500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>115200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>162600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>124900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>93400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>156800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>157900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>30800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>50900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>19800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>85300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>50500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>42300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-119700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-109000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-80000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-51000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-104000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-54000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-49000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-44700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-64400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-106200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-58400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-87000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-70600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-138400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-69800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-54900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-51600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-113300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-61700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-67300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-70400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-146700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-73200</v>
+        <v>-70500</v>
       </c>
       <c r="E94" s="3">
-        <v>-115200</v>
+        <v>-73700</v>
       </c>
       <c r="F94" s="3">
-        <v>-86200</v>
+        <v>-116000</v>
       </c>
       <c r="G94" s="3">
+        <v>-86700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-111700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-54900</v>
       </c>
-      <c r="H94" s="3">
-        <v>-34500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-110900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-54900</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-37400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-64400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-102700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-57200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-90600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-169900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-145500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>150600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-65900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-48300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-130200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-46000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-74100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-81000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-154900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>65700</v>
+        <v>-86700</v>
       </c>
       <c r="E100" s="3">
+        <v>66100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-210300</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-148000</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="P100" s="3">
+        <v>153800</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>16300</v>
+      </c>
+      <c r="S100" s="3">
+        <v>-109700</v>
+      </c>
+      <c r="T100" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="U100" s="3">
+        <v>78900</v>
+      </c>
+      <c r="V100" s="3">
         <v>-23700</v>
       </c>
-      <c r="F100" s="3">
-        <v>-66800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-70000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-208900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-92000</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-148000</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="O100" s="3">
-        <v>153800</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>16300</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-109700</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-75900</v>
-      </c>
-      <c r="T100" s="3">
-        <v>78900</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-23700</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-76400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>11000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>93100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-22400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-4700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-44600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7859,58 +8108,58 @@
         <v>-1100</v>
       </c>
       <c r="E101" s="3">
-        <v>-3200</v>
+        <v>-1100</v>
       </c>
       <c r="F101" s="3">
-        <v>3200</v>
+        <v>-3300</v>
       </c>
       <c r="G101" s="3">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="H101" s="3">
         <v>1100</v>
       </c>
       <c r="I101" s="3">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="J101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-3100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T101" s="3">
-        <v>2400</v>
       </c>
       <c r="U101" s="3">
         <v>2400</v>
       </c>
       <c r="V101" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -7919,107 +8168,113 @@
         <v>0</v>
       </c>
       <c r="Y101" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="Z101" s="3">
         <v>-1100</v>
       </c>
       <c r="AA101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-4500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="AC101" s="3">
-        <v>1200</v>
       </c>
       <c r="AD101" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>28000</v>
+        <v>-15200</v>
       </c>
       <c r="E102" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5400</v>
       </c>
-      <c r="F102" s="3">
-        <v>16200</v>
-      </c>
       <c r="G102" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-4300</v>
       </c>
-      <c r="H102" s="3">
-        <v>14000</v>
-      </c>
       <c r="I102" s="3">
-        <v>-189500</v>
+        <v>14100</v>
       </c>
       <c r="J102" s="3">
+        <v>-190800</v>
+      </c>
+      <c r="K102" s="3">
         <v>35500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-55000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-99000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>56000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>117800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>97100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>37400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-71200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>69400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-136000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>125200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-49400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-63700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-34800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>15700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-25800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-44600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-318100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2114000</v>
+        <v>1866200</v>
       </c>
       <c r="E8" s="3">
-        <v>2120500</v>
+        <v>2115800</v>
       </c>
       <c r="F8" s="3">
-        <v>1999100</v>
+        <v>2122300</v>
       </c>
       <c r="G8" s="3">
-        <v>2192100</v>
+        <v>2000700</v>
       </c>
       <c r="H8" s="3">
-        <v>2466300</v>
+        <v>2193900</v>
       </c>
       <c r="I8" s="3">
-        <v>2145400</v>
+        <v>2468400</v>
       </c>
       <c r="J8" s="3">
+        <v>2147200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1849500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1709000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1606000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1368900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1268900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1216400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1124700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1622500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1601700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1705600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1884000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1837400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1653700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1581700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1618500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1521800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1400200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1435000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1550600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1558800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1362800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1407400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1883100</v>
+        <v>1694800</v>
       </c>
       <c r="E9" s="3">
-        <v>1946000</v>
+        <v>1884600</v>
       </c>
       <c r="F9" s="3">
-        <v>1883100</v>
+        <v>1947600</v>
       </c>
       <c r="G9" s="3">
-        <v>2047900</v>
+        <v>1884600</v>
       </c>
       <c r="H9" s="3">
-        <v>2233200</v>
+        <v>2049600</v>
       </c>
       <c r="I9" s="3">
-        <v>1910200</v>
+        <v>2235100</v>
       </c>
       <c r="J9" s="3">
+        <v>1911800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1681400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1528100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1395500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1223900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1117800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1091900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1049500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1449800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1448800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1536300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1661100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1665100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1510600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1452100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1427400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1371400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1276800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1279100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1382300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1394500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1219600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1243100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>230900</v>
+        <v>171400</v>
       </c>
       <c r="E10" s="3">
-        <v>174500</v>
+        <v>231100</v>
       </c>
       <c r="F10" s="3">
-        <v>116000</v>
+        <v>174700</v>
       </c>
       <c r="G10" s="3">
-        <v>144200</v>
+        <v>116100</v>
       </c>
       <c r="H10" s="3">
-        <v>233100</v>
+        <v>144300</v>
       </c>
       <c r="I10" s="3">
-        <v>235200</v>
+        <v>233300</v>
       </c>
       <c r="J10" s="3">
+        <v>235400</v>
+      </c>
+      <c r="K10" s="3">
         <v>168000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>180900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>210500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>145000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>151100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>124500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>172800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>152900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>169300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>222900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>172300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>143100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>129600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>191100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>150400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>123400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>156000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>168300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>164300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>143200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>164300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14100</v>
+        <v>11900</v>
       </c>
       <c r="E12" s="3">
         <v>14100</v>
       </c>
       <c r="F12" s="3">
-        <v>17300</v>
+        <v>14100</v>
       </c>
       <c r="G12" s="3">
+        <v>17400</v>
+      </c>
+      <c r="H12" s="3">
         <v>11900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L12" s="3">
         <v>10800</v>
       </c>
-      <c r="I12" s="3">
-        <v>11900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>9800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>10800</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14700</v>
-      </c>
-      <c r="R12" s="3">
-        <v>14000</v>
       </c>
       <c r="S12" s="3">
         <v>14000</v>
       </c>
       <c r="T12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="U12" s="3">
         <v>14700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>14400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>12100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>10100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>9000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>12900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>11700</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1288,11 +1308,11 @@
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3">
         <v>3300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>24</v>
@@ -1300,62 +1320,65 @@
       <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2300</v>
-      </c>
-      <c r="S14" s="3">
-        <v>1200</v>
       </c>
       <c r="T14" s="3">
         <v>1200</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>1100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="3">
         <v>1100</v>
       </c>
       <c r="AB14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>2300</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
       <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2028400</v>
+        <v>1738200</v>
       </c>
       <c r="E17" s="3">
-        <v>2053300</v>
+        <v>2030000</v>
       </c>
       <c r="F17" s="3">
-        <v>1934000</v>
+        <v>2055000</v>
       </c>
       <c r="G17" s="3">
-        <v>2159500</v>
+        <v>1935600</v>
       </c>
       <c r="H17" s="3">
-        <v>2470700</v>
+        <v>2161300</v>
       </c>
       <c r="I17" s="3">
-        <v>1876600</v>
+        <v>2472700</v>
       </c>
       <c r="J17" s="3">
+        <v>1878100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1795300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1544300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1429400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1252500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1211700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1150000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1125800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1615700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1537500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1646000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1799500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1741700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1654900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1285900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1476800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1498800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1323900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1345300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1468700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1441400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1328800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>85600</v>
+        <v>128000</v>
       </c>
       <c r="E18" s="3">
-        <v>67200</v>
+        <v>85700</v>
       </c>
       <c r="F18" s="3">
-        <v>65000</v>
+        <v>67300</v>
       </c>
       <c r="G18" s="3">
-        <v>32500</v>
+        <v>65100</v>
       </c>
       <c r="H18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
-        <v>268900</v>
-      </c>
       <c r="J18" s="3">
+        <v>269100</v>
+      </c>
+      <c r="K18" s="3">
         <v>54200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>164800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>176700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>116400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>57200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>66400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>64200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>59500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>84500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>95700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>295700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>141600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>23100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>76300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>89800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>81900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>117400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>34000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,194 +1717,201 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-37900</v>
-      </c>
       <c r="F20" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-35800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-39000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
-        <v>-32500</v>
-      </c>
       <c r="J20" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-44400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-36600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-39100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-56100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-35700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-38400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-50800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-50200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-53700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-52700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-49000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-65100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-54300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-53800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-45000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-139100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-47100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-51600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-70400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-50500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>160400</v>
+        <v>172500</v>
       </c>
       <c r="E21" s="3">
-        <v>107300</v>
+        <v>160600</v>
       </c>
       <c r="F21" s="3">
-        <v>113800</v>
+        <v>107400</v>
       </c>
       <c r="G21" s="3">
-        <v>72600</v>
+        <v>113900</v>
       </c>
       <c r="H21" s="3">
+        <v>72700</v>
+      </c>
+      <c r="I21" s="3">
         <v>70500</v>
       </c>
-      <c r="I21" s="3">
-        <v>307900</v>
-      </c>
       <c r="J21" s="3">
+        <v>308100</v>
+      </c>
+      <c r="K21" s="3">
         <v>87800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>206300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>124500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>71500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>103800</v>
-      </c>
-      <c r="P21" s="3">
-        <v>30500</v>
       </c>
       <c r="Q21" s="3">
         <v>30500</v>
       </c>
       <c r="R21" s="3">
+        <v>30500</v>
+      </c>
+      <c r="S21" s="3">
         <v>99200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>82900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>105300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>114800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>296800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>138300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>26400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>88600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>76300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>97400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>37600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>82200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3">
         <v>34700</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>24</v>
@@ -1879,11 +1919,11 @@
       <c r="G22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="3">
         <v>33600</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>24</v>
@@ -1900,8 +1940,8 @@
       <c r="N22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1951,186 +1991,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E23" s="3">
         <v>47700</v>
-      </c>
-      <c r="E23" s="3">
-        <v>29300</v>
       </c>
       <c r="F23" s="3">
         <v>29300</v>
       </c>
       <c r="G23" s="3">
+        <v>29300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-6500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-39000</v>
-      </c>
       <c r="I23" s="3">
-        <v>236300</v>
+        <v>-39100</v>
       </c>
       <c r="J23" s="3">
+        <v>236500</v>
+      </c>
+      <c r="K23" s="3">
         <v>9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>128200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>137500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>60200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-46900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-44000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>31800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>46700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-66200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>241500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>87800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-22000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-62800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>42600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>30300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>47000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-16400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E24" s="3">
         <v>13000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3300</v>
       </c>
-      <c r="G24" s="3">
-        <v>-148500</v>
-      </c>
       <c r="H24" s="3">
+        <v>-148600</v>
+      </c>
+      <c r="I24" s="3">
         <v>-4300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>42300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-11700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>17900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>27500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>44900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>19100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>13500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>31700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>7000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E26" s="3">
         <v>34700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23900</v>
       </c>
-      <c r="F26" s="3">
-        <v>32500</v>
-      </c>
       <c r="G26" s="3">
-        <v>142000</v>
+        <v>32600</v>
       </c>
       <c r="H26" s="3">
+        <v>142100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-34700</v>
       </c>
-      <c r="I26" s="3">
-        <v>194100</v>
-      </c>
       <c r="J26" s="3">
+        <v>194200</v>
+      </c>
+      <c r="K26" s="3">
         <v>7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>106600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>114300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>49000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-35000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>28700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-68600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>240300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>60400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-26400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-107700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>23600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>16800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>15300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-23500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E27" s="3">
         <v>33600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30400</v>
       </c>
-      <c r="G27" s="3">
-        <v>140900</v>
-      </c>
       <c r="H27" s="3">
+        <v>141100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-36900</v>
       </c>
-      <c r="I27" s="3">
-        <v>191900</v>
-      </c>
       <c r="J27" s="3">
+        <v>192000</v>
+      </c>
+      <c r="K27" s="3">
         <v>7600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>104500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>113200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>47000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-35000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>19600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>27500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-71000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>240300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>60400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-26400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-107700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>23600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>16800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>15300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-23500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2538,8 +2599,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2556,11 +2617,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3">
         <v>18000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
-        <v>37900</v>
-      </c>
       <c r="F32" s="3">
+        <v>38000</v>
+      </c>
+      <c r="G32" s="3">
         <v>35800</v>
       </c>
-      <c r="G32" s="3">
-        <v>39000</v>
-      </c>
       <c r="H32" s="3">
+        <v>39100</v>
+      </c>
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
-        <v>32500</v>
-      </c>
       <c r="J32" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K32" s="3">
         <v>44400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>36600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>39100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>56100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>35700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>38400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>45800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>50800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>50200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>53700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>52700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>49000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>65100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>54300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>53800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>45000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>139100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>47100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>51600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>70400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>50500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E33" s="3">
         <v>33600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30400</v>
       </c>
-      <c r="G33" s="3">
-        <v>140900</v>
-      </c>
       <c r="H33" s="3">
+        <v>141100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-36900</v>
       </c>
-      <c r="I33" s="3">
-        <v>191900</v>
-      </c>
       <c r="J33" s="3">
+        <v>192000</v>
+      </c>
+      <c r="K33" s="3">
         <v>7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>104500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>113200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-35000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>19600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>27500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-71000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>240300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>60400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-26400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-89800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>23600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>16800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>15300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-23500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E35" s="3">
         <v>33600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30400</v>
       </c>
-      <c r="G35" s="3">
-        <v>140900</v>
-      </c>
       <c r="H35" s="3">
+        <v>141100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-36900</v>
       </c>
-      <c r="I35" s="3">
-        <v>191900</v>
-      </c>
       <c r="J35" s="3">
+        <v>192000</v>
+      </c>
+      <c r="K35" s="3">
         <v>7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>104500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>113200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-35000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>19600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>27500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-71000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>240300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>60400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-26400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-89800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>23600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>16800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>15300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-23500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>193000</v>
+        <v>172500</v>
       </c>
       <c r="E41" s="3">
-        <v>209200</v>
+        <v>193100</v>
       </c>
       <c r="F41" s="3">
-        <v>180000</v>
+        <v>209400</v>
       </c>
       <c r="G41" s="3">
-        <v>185400</v>
+        <v>180100</v>
       </c>
       <c r="H41" s="3">
-        <v>169100</v>
+        <v>185500</v>
       </c>
       <c r="I41" s="3">
-        <v>173500</v>
+        <v>169300</v>
       </c>
       <c r="J41" s="3">
+        <v>173600</v>
+      </c>
+      <c r="K41" s="3">
         <v>159400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>347800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>306800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>349100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>448100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>448400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>412400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>304900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>214800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>177400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>260900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>265600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>194000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>309000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>182300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>231700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>301800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>336600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>320900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>362700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>407300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>725400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3414,275 +3504,284 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>35900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>35500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>26600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>38400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>41700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>77400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>50500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>125700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>151400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>137300</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>809800</v>
+        <v>696600</v>
       </c>
       <c r="E43" s="3">
-        <v>834800</v>
+        <v>810500</v>
       </c>
       <c r="F43" s="3">
-        <v>575700</v>
+        <v>835500</v>
       </c>
       <c r="G43" s="3">
-        <v>891100</v>
+        <v>576100</v>
       </c>
       <c r="H43" s="3">
-        <v>1091700</v>
+        <v>891900</v>
       </c>
       <c r="I43" s="3">
-        <v>1005000</v>
+        <v>1092600</v>
       </c>
       <c r="J43" s="3">
+        <v>1005800</v>
+      </c>
+      <c r="K43" s="3">
         <v>740400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>742000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>707800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>544100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>414400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>484700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>492000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>615400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>553400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>729600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>771700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>815800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>694400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>659000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>720300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>633500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>470100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>488100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>583400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>550500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>416700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>501200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1245600</v>
+        <v>1233600</v>
       </c>
       <c r="E44" s="3">
-        <v>1332400</v>
+        <v>1246700</v>
       </c>
       <c r="F44" s="3">
-        <v>1431000</v>
+        <v>1333500</v>
       </c>
       <c r="G44" s="3">
-        <v>1499300</v>
+        <v>1432200</v>
       </c>
       <c r="H44" s="3">
-        <v>1474400</v>
+        <v>1500600</v>
       </c>
       <c r="I44" s="3">
-        <v>1428800</v>
+        <v>1475600</v>
       </c>
       <c r="J44" s="3">
+        <v>1430000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1138300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1006900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>848500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>717600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>594100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>630000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>692700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>783600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>782200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>809000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>873400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>846900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>780700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>772000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>818000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>732400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>721400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>686700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>681000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>721900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>693700</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E45" s="3">
         <v>43400</v>
       </c>
-      <c r="E45" s="3">
-        <v>31400</v>
-      </c>
       <c r="F45" s="3">
+        <v>31500</v>
+      </c>
+      <c r="G45" s="3">
         <v>42300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>51000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>71600</v>
       </c>
-      <c r="I45" s="3">
-        <v>119300</v>
-      </c>
       <c r="J45" s="3">
+        <v>119400</v>
+      </c>
+      <c r="K45" s="3">
         <v>62900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>94800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>66700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>61200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>40600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>44400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>23300</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
@@ -3713,364 +3812,379 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2291800</v>
+        <v>2139600</v>
       </c>
       <c r="E46" s="3">
-        <v>2407800</v>
+        <v>2293700</v>
       </c>
       <c r="F46" s="3">
-        <v>2228900</v>
+        <v>2409800</v>
       </c>
       <c r="G46" s="3">
-        <v>2626800</v>
+        <v>2230800</v>
       </c>
       <c r="H46" s="3">
-        <v>2806700</v>
+        <v>2629000</v>
       </c>
       <c r="I46" s="3">
-        <v>2726500</v>
+        <v>2809100</v>
       </c>
       <c r="J46" s="3">
+        <v>2728800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2101000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2191500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1929800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1672100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1496500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1586900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1621100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1744500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1576000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1760500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1929400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1964200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1704600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1766600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1759000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1639300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1570800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1561800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1711000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1786500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1655100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1993100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37900</v>
+        <v>43400</v>
       </c>
       <c r="E47" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F47" s="3">
         <v>49900</v>
       </c>
-      <c r="F47" s="3">
-        <v>46600</v>
-      </c>
       <c r="G47" s="3">
+        <v>46700</v>
+      </c>
+      <c r="H47" s="3">
         <v>57500</v>
       </c>
-      <c r="H47" s="3">
-        <v>65000</v>
-      </c>
       <c r="I47" s="3">
+        <v>65100</v>
+      </c>
+      <c r="J47" s="3">
         <v>62900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>59600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>76500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>73000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>67400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>69400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>70600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>81800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>70000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>71200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>61900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>83300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>87300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>164400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>135100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>147100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>160300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>178400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>160400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>70700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>108000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>131500</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2160600</v>
+        <v>2191700</v>
       </c>
       <c r="E48" s="3">
-        <v>2169300</v>
+        <v>2162400</v>
       </c>
       <c r="F48" s="3">
-        <v>2186600</v>
+        <v>2171100</v>
       </c>
       <c r="G48" s="3">
-        <v>2230000</v>
+        <v>2188400</v>
       </c>
       <c r="H48" s="3">
-        <v>2161700</v>
+        <v>2231800</v>
       </c>
       <c r="I48" s="3">
-        <v>2106400</v>
+        <v>2163500</v>
       </c>
       <c r="J48" s="3">
+        <v>2108200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2111800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2042900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2004900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1956900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1945600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2045700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2215600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2346300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2400200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2381500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2426700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2345700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1970700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1738900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1696400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1643700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1702100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1638100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1641500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1747800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1733700</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1599900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>563700</v>
+        <v>577200</v>
       </c>
       <c r="E49" s="3">
-        <v>563700</v>
+        <v>564200</v>
       </c>
       <c r="F49" s="3">
-        <v>576700</v>
+        <v>564200</v>
       </c>
       <c r="G49" s="3">
-        <v>627700</v>
+        <v>577200</v>
       </c>
       <c r="H49" s="3">
-        <v>594100</v>
+        <v>628200</v>
       </c>
       <c r="I49" s="3">
-        <v>560500</v>
+        <v>594600</v>
       </c>
       <c r="J49" s="3">
+        <v>560900</v>
+      </c>
+      <c r="K49" s="3">
         <v>551800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>541700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>517400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>507300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>487900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>520000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>571600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>605200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>612900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>628100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>630900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>625600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>582000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>537200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>529200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>504000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>528500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>541900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>561000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>619800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>629200</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>591600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>311100</v>
+        <v>250600</v>
       </c>
       <c r="E52" s="3">
-        <v>268900</v>
+        <v>311400</v>
       </c>
       <c r="F52" s="3">
-        <v>317600</v>
+        <v>269100</v>
       </c>
       <c r="G52" s="3">
-        <v>317600</v>
+        <v>317900</v>
       </c>
       <c r="H52" s="3">
-        <v>149600</v>
+        <v>317900</v>
       </c>
       <c r="I52" s="3">
-        <v>151800</v>
+        <v>149700</v>
       </c>
       <c r="J52" s="3">
+        <v>151900</v>
+      </c>
+      <c r="K52" s="3">
         <v>188600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>177700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>188300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>195000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>215400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>234600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>252000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>236000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>224100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>234600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>198400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>183000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>192800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>176100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>174600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>173500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>184000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>228900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>239000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>271200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>295800</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>316900</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5365200</v>
+        <v>5202600</v>
       </c>
       <c r="E54" s="3">
-        <v>5459500</v>
+        <v>5369700</v>
       </c>
       <c r="F54" s="3">
-        <v>5356500</v>
+        <v>5464100</v>
       </c>
       <c r="G54" s="3">
-        <v>5859600</v>
+        <v>5361000</v>
       </c>
       <c r="H54" s="3">
-        <v>5777200</v>
+        <v>5864400</v>
       </c>
       <c r="I54" s="3">
-        <v>5608000</v>
+        <v>5782000</v>
       </c>
       <c r="J54" s="3">
+        <v>5612700</v>
+      </c>
+      <c r="K54" s="3">
         <v>5012900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5030200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4713400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4398600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4214900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4457800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4742200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5001900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4884400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5066600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5268700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5205900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4614500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4354000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4306400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4120800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4163700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4131200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4223200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4533300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4445200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>4596600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1228300</v>
+        <v>1469100</v>
       </c>
       <c r="E57" s="3">
-        <v>1673900</v>
+        <v>1229300</v>
       </c>
       <c r="F57" s="3">
-        <v>1252100</v>
+        <v>1675200</v>
       </c>
       <c r="G57" s="3">
-        <v>1832100</v>
+        <v>1253200</v>
       </c>
       <c r="H57" s="3">
-        <v>1558900</v>
+        <v>1833700</v>
       </c>
       <c r="I57" s="3">
-        <v>1867900</v>
+        <v>1560200</v>
       </c>
       <c r="J57" s="3">
+        <v>1869500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1492800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1434400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1327800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1150400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>923800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1048300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1094200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1316500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1166200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1295800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1372000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1379200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1145000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1115400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1203400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1104600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1043500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1058000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1109600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1136200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>984800</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1048200</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>213600</v>
+        <v>58600</v>
       </c>
       <c r="E58" s="3">
-        <v>237400</v>
+        <v>213700</v>
       </c>
       <c r="F58" s="3">
-        <v>160400</v>
+        <v>237600</v>
       </c>
       <c r="G58" s="3">
-        <v>167000</v>
+        <v>160600</v>
       </c>
       <c r="H58" s="3">
-        <v>226600</v>
+        <v>167100</v>
       </c>
       <c r="I58" s="3">
-        <v>275400</v>
+        <v>226800</v>
       </c>
       <c r="J58" s="3">
+        <v>275600</v>
+      </c>
+      <c r="K58" s="3">
         <v>279700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>282100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>277200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>83700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>93900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>88200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>111300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>221300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>234600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>195000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>198400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>252400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>67400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>47600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>142700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>121900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>118900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>113300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>135800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>133800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>125600</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>455300</v>
+        <v>89000</v>
       </c>
       <c r="E59" s="3">
-        <v>86700</v>
+        <v>455700</v>
       </c>
       <c r="F59" s="3">
-        <v>422800</v>
+        <v>86800</v>
       </c>
       <c r="G59" s="3">
-        <v>144200</v>
+        <v>423200</v>
       </c>
       <c r="H59" s="3">
-        <v>534500</v>
+        <v>144300</v>
       </c>
       <c r="I59" s="3">
-        <v>95400</v>
+        <v>534900</v>
       </c>
       <c r="J59" s="3">
+        <v>95500</v>
+      </c>
+      <c r="K59" s="3">
         <v>85600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>73000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>88800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>90900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>93400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>102500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>144500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>84100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>117900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>91900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>96900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>134900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>100800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>85600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>104300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>83000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>86400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>85300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>99800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>104500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1897200</v>
+        <v>1616700</v>
       </c>
       <c r="E60" s="3">
-        <v>1998000</v>
+        <v>1898800</v>
       </c>
       <c r="F60" s="3">
-        <v>1835400</v>
+        <v>1999700</v>
       </c>
       <c r="G60" s="3">
-        <v>2143300</v>
+        <v>1836900</v>
       </c>
       <c r="H60" s="3">
-        <v>2320000</v>
+        <v>2145000</v>
       </c>
       <c r="I60" s="3">
-        <v>2238700</v>
+        <v>2321900</v>
       </c>
       <c r="J60" s="3">
+        <v>2240500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1858100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1794100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1678000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1323000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1108600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1229900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1308000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1682400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1484900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1608700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1662300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1728500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1347300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1263800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1431800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1330800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1245400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1257800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1330700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1369800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1214900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1985000</v>
+        <v>2012700</v>
       </c>
       <c r="E61" s="3">
-        <v>2038100</v>
+        <v>1986600</v>
       </c>
       <c r="F61" s="3">
-        <v>2068500</v>
+        <v>2039800</v>
       </c>
       <c r="G61" s="3">
-        <v>2184500</v>
+        <v>2070200</v>
       </c>
       <c r="H61" s="3">
-        <v>2112900</v>
+        <v>2186300</v>
       </c>
       <c r="I61" s="3">
-        <v>2042400</v>
+        <v>2114700</v>
       </c>
       <c r="J61" s="3">
+        <v>2044100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2028400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2175300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2110700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2289700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2346800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2460900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2655300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2487400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2521600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2571800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2714600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2643600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2477000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2281700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2255300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2176200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2267500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2419000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2474000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2722100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2771400</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>2826500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>609300</v>
+        <v>584800</v>
       </c>
       <c r="E62" s="3">
-        <v>594100</v>
+        <v>609800</v>
       </c>
       <c r="F62" s="3">
-        <v>637500</v>
+        <v>594600</v>
       </c>
       <c r="G62" s="3">
-        <v>672100</v>
+        <v>638000</v>
       </c>
       <c r="H62" s="3">
-        <v>690600</v>
+        <v>672700</v>
       </c>
       <c r="I62" s="3">
-        <v>733900</v>
+        <v>691100</v>
       </c>
       <c r="J62" s="3">
+        <v>734500</v>
+      </c>
+      <c r="K62" s="3">
         <v>810900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>787200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>772300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>779900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>862600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>933100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>968700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>971000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>977100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1060000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1030200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>964100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>925000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>854000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>917900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>962900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1008700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1000800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>998600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1083400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1128000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1176200</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4514200</v>
+        <v>4238000</v>
       </c>
       <c r="E66" s="3">
-        <v>4653000</v>
+        <v>4517900</v>
       </c>
       <c r="F66" s="3">
-        <v>4564100</v>
+        <v>4656800</v>
       </c>
       <c r="G66" s="3">
-        <v>5024800</v>
+        <v>4567900</v>
       </c>
       <c r="H66" s="3">
-        <v>5146200</v>
+        <v>5029000</v>
       </c>
       <c r="I66" s="3">
-        <v>5035600</v>
+        <v>5150500</v>
       </c>
       <c r="J66" s="3">
+        <v>5039800</v>
+      </c>
+      <c r="K66" s="3">
         <v>4715800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4776100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4578000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4407800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4332300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4637300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4945100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5153200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4996500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5253300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5419400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5347000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4758800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4409400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4613800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4478700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4530600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4685400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4812200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5185900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5124900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>5306800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>392400</v>
+        <v>505600</v>
       </c>
       <c r="E72" s="3">
-        <v>348000</v>
+        <v>392800</v>
       </c>
       <c r="F72" s="3">
-        <v>333900</v>
+        <v>348300</v>
       </c>
       <c r="G72" s="3">
-        <v>376200</v>
+        <v>334200</v>
       </c>
       <c r="H72" s="3">
-        <v>172400</v>
+        <v>376500</v>
       </c>
       <c r="I72" s="3">
-        <v>113800</v>
+        <v>172500</v>
       </c>
       <c r="J72" s="3">
+        <v>113900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-161500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-201400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-312100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-441000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-549200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-618600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-664400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-628900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-605900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-680600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-668800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-647100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-644700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-523900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-771900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-822400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-841500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-738300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-773100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-845100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-872100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-902700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>851000</v>
+        <v>964600</v>
       </c>
       <c r="E76" s="3">
-        <v>806600</v>
+        <v>851700</v>
       </c>
       <c r="F76" s="3">
-        <v>792500</v>
+        <v>807200</v>
       </c>
       <c r="G76" s="3">
-        <v>834800</v>
+        <v>793100</v>
       </c>
       <c r="H76" s="3">
-        <v>630900</v>
+        <v>835500</v>
       </c>
       <c r="I76" s="3">
-        <v>572400</v>
+        <v>631500</v>
       </c>
       <c r="J76" s="3">
+        <v>572900</v>
+      </c>
+      <c r="K76" s="3">
         <v>297000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>254100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>135400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-117400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-179600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-202900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-151300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-112100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-186800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-150700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-141200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-144300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-55400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-307400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-357900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-366900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-554300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-589000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-652600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-679600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-710200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E81" s="3">
         <v>33600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30400</v>
       </c>
-      <c r="G81" s="3">
-        <v>140900</v>
-      </c>
       <c r="H81" s="3">
+        <v>141100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-36900</v>
       </c>
-      <c r="I81" s="3">
-        <v>191900</v>
-      </c>
       <c r="J81" s="3">
+        <v>192000</v>
+      </c>
+      <c r="K81" s="3">
         <v>7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>104500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>113200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-35000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>19600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>27500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-71000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>240300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>60400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-26400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-89800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>23600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>16800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>15300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-23500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>78100</v>
+        <v>83500</v>
       </c>
       <c r="E83" s="3">
         <v>78100</v>
       </c>
       <c r="F83" s="3">
+        <v>78100</v>
+      </c>
+      <c r="G83" s="3">
         <v>84600</v>
       </c>
-      <c r="G83" s="3">
-        <v>79100</v>
-      </c>
       <c r="H83" s="3">
-        <v>75900</v>
+        <v>79200</v>
       </c>
       <c r="I83" s="3">
+        <v>76000</v>
+      </c>
+      <c r="J83" s="3">
         <v>71600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>78100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>72200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>68800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>64300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>50000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>75800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>77500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>74500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>85200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>77000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>73500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>68200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>67400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>55400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>50500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>48300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>51600</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>46000</v>
       </c>
       <c r="AB83" s="3">
         <v>46000</v>
       </c>
       <c r="AC83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="AD83" s="3">
         <v>50500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>54000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>143100</v>
+        <v>169300</v>
       </c>
       <c r="E89" s="3">
+        <v>143200</v>
+      </c>
+      <c r="F89" s="3">
         <v>36900</v>
       </c>
-      <c r="F89" s="3">
-        <v>137700</v>
-      </c>
       <c r="G89" s="3">
-        <v>167000</v>
+        <v>137800</v>
       </c>
       <c r="H89" s="3">
-        <v>120300</v>
+        <v>167100</v>
       </c>
       <c r="I89" s="3">
+        <v>120400</v>
+      </c>
+      <c r="J89" s="3">
         <v>62900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>127900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>98000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>77200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>76600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>72500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>115200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>162600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>124900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>93400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>156800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>157900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>30800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>50900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>19800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-26400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>85300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>50500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>42300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-119700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-65000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-69000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-109000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-80000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-51000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-33000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-104000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-44400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-49000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-64400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-106200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-58400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-87000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-70600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-138400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-69800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-54900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-51600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-113300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-61700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-67300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-70400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-146700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-70500</v>
       </c>
-      <c r="E94" s="3">
-        <v>-73700</v>
-      </c>
       <c r="F94" s="3">
-        <v>-116000</v>
+        <v>-73800</v>
       </c>
       <c r="G94" s="3">
-        <v>-86700</v>
+        <v>-116100</v>
       </c>
       <c r="H94" s="3">
+        <v>-86800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-55300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-111700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-40200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-37400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-64400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-102700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-57200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-90600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-169900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-145500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>150600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-65900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-48300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-130200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-46000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-74100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-81000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-154900</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,159 +8253,165 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-86700</v>
+        <v>-160600</v>
       </c>
       <c r="E100" s="3">
-        <v>66100</v>
+        <v>-86800</v>
       </c>
       <c r="F100" s="3">
+        <v>66200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-23900</v>
       </c>
-      <c r="G100" s="3">
-        <v>-67200</v>
-      </c>
       <c r="H100" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-70500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-210300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-92000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-148000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-21400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>153800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>16300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-109700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-75900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>78900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-23700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-76400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>11000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>93100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-22400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-44600</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-106800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1100</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
         <v>-1100</v>
       </c>
       <c r="F101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>1100</v>
       </c>
       <c r="I101" s="3">
         <v>1100</v>
       </c>
       <c r="J101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-3100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U101" s="3">
-        <v>2400</v>
       </c>
       <c r="V101" s="3">
         <v>2400</v>
       </c>
       <c r="W101" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -8171,110 +8420,116 @@
         <v>0</v>
       </c>
       <c r="Z101" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="3">
         <v>-1100</v>
       </c>
       <c r="AB101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-4500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1200</v>
-      </c>
-      <c r="AD101" s="3">
-        <v>1200</v>
       </c>
       <c r="AE101" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-190800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-55000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-99000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>56000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>117800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>97100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>37400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-71200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>69400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-136000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>125200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-49400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-63700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-34800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>15700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-25800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-44600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-318100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-4700</v>
       </c>
     </row>
